--- a/schedule/semester/schedule.xlsx
+++ b/schedule/semester/schedule.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\moberme\Documents\cslaee.com\schedule\semester\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\moberme\Desktop\web\schedule\semester\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -81,7 +81,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8313" uniqueCount="1491">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8255" uniqueCount="1489">
   <si>
     <t>ELECTRICAL AND COMPUTER ENGINEERING</t>
   </si>
@@ -4493,15 +4493,6 @@
     <t>Digital Control System</t>
   </si>
   <si>
-    <t>EE5320</t>
-  </si>
-  <si>
-    <t>Vehicle Electrification</t>
-  </si>
-  <si>
-    <t>Posted 10/15/2018</t>
-  </si>
-  <si>
     <t>EE2040-01</t>
   </si>
   <si>
@@ -4554,13 +4545,16 @@
   </si>
   <si>
     <t>KHLHI</t>
+  </si>
+  <si>
+    <t>Posted 10/29/2018</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="122" x14ac:knownFonts="1">
+  <fonts count="123" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -5370,6 +5364,13 @@
       <u/>
       <sz val="7"/>
       <color theme="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="12"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -6354,7 +6355,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="465">
+  <cellXfs count="470">
     <xf numFmtId="0" fontId="46" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="46" fillId="0" borderId="0" xfId="42" applyFill="1"/>
     <xf numFmtId="0" fontId="47" fillId="0" borderId="0" xfId="42" applyFont="1" applyFill="1"/>
@@ -7309,20 +7310,35 @@
     <xf numFmtId="16" fontId="113" fillId="58" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="49" fillId="58" borderId="0" xfId="98" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="121" fillId="58" borderId="0" xfId="111" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="118" fillId="58" borderId="0" xfId="98" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="116" fillId="58" borderId="0" xfId="98" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="121" fillId="58" borderId="0" xfId="111" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="113" fillId="58" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="49" fillId="58" borderId="0" xfId="98" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="64" fillId="58" borderId="0" xfId="98" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="113" fillId="58" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="122" fillId="58" borderId="0" xfId="98" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="113" fillId="58" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="96" fillId="58" borderId="0" xfId="98" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="68" fillId="58" borderId="0" xfId="98" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="126">
@@ -8069,7 +8085,7 @@
         <v>1168</v>
       </c>
       <c r="E1" s="422"/>
-      <c r="F1" s="462" t="s">
+      <c r="F1" s="461" t="s">
         <v>1375</v>
       </c>
     </row>
@@ -8082,7 +8098,7 @@
       <c r="E2" s="453" t="s">
         <v>1250</v>
       </c>
-      <c r="F2" s="462"/>
+      <c r="F2" s="461"/>
     </row>
     <row r="3" spans="1:6" s="414" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B3" s="413"/>
@@ -8096,11 +8112,11 @@
       <c r="F3" s="455"/>
     </row>
     <row r="4" spans="1:6" s="414" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="460" t="s">
+      <c r="A4" s="462" t="s">
         <v>1093</v>
       </c>
-      <c r="B4" s="460"/>
-      <c r="C4" s="460"/>
+      <c r="B4" s="462"/>
+      <c r="C4" s="462"/>
       <c r="D4" s="409" t="s">
         <v>1259</v>
       </c>
@@ -8110,9 +8126,9 @@
       <c r="F4" s="455"/>
     </row>
     <row r="5" spans="1:6" s="414" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="460"/>
-      <c r="B5" s="460"/>
-      <c r="C5" s="460"/>
+      <c r="A5" s="462"/>
+      <c r="B5" s="462"/>
+      <c r="C5" s="462"/>
       <c r="D5" s="408" t="s">
         <v>1260</v>
       </c>
@@ -8122,9 +8138,9 @@
       <c r="F5" s="455"/>
     </row>
     <row r="6" spans="1:6" s="414" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="460"/>
-      <c r="B6" s="460"/>
-      <c r="C6" s="460"/>
+      <c r="A6" s="462"/>
+      <c r="B6" s="462"/>
+      <c r="C6" s="462"/>
       <c r="D6" s="410" t="s">
         <v>1261</v>
       </c>
@@ -8134,11 +8150,11 @@
       <c r="F6" s="455"/>
     </row>
     <row r="7" spans="1:6" s="414" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="461" t="s">
+      <c r="A7" s="463" t="s">
         <v>1269</v>
       </c>
-      <c r="B7" s="461"/>
-      <c r="C7" s="461"/>
+      <c r="B7" s="463"/>
+      <c r="C7" s="463"/>
       <c r="D7" s="408" t="s">
         <v>1262</v>
       </c>
@@ -8148,9 +8164,9 @@
       <c r="F7" s="455"/>
     </row>
     <row r="8" spans="1:6" s="414" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="461"/>
-      <c r="B8" s="461"/>
-      <c r="C8" s="461"/>
+      <c r="A8" s="463"/>
+      <c r="B8" s="463"/>
+      <c r="C8" s="463"/>
       <c r="D8" s="408" t="s">
         <v>1263</v>
       </c>
@@ -8160,9 +8176,9 @@
       <c r="F8" s="455"/>
     </row>
     <row r="9" spans="1:6" s="414" customFormat="1" ht="9" x14ac:dyDescent="0.15">
-      <c r="A9" s="461"/>
-      <c r="B9" s="461"/>
-      <c r="C9" s="461"/>
+      <c r="A9" s="463"/>
+      <c r="B9" s="463"/>
+      <c r="C9" s="463"/>
       <c r="D9" s="421" t="s">
         <v>1264</v>
       </c>
@@ -9573,7 +9589,7 @@
         <v>1168</v>
       </c>
       <c r="E1" s="422"/>
-      <c r="F1" s="462" t="s">
+      <c r="F1" s="461" t="s">
         <v>1375</v>
       </c>
     </row>
@@ -9586,7 +9602,7 @@
       <c r="E2" s="456" t="s">
         <v>1122</v>
       </c>
-      <c r="F2" s="462"/>
+      <c r="F2" s="461"/>
     </row>
     <row r="3" spans="1:6" s="414" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B3" s="413"/>
@@ -9600,11 +9616,11 @@
       <c r="F3" s="456"/>
     </row>
     <row r="4" spans="1:6" s="414" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="460" t="s">
+      <c r="A4" s="462" t="s">
         <v>1093</v>
       </c>
-      <c r="B4" s="460"/>
-      <c r="C4" s="460"/>
+      <c r="B4" s="462"/>
+      <c r="C4" s="462"/>
       <c r="D4" s="409" t="s">
         <v>1166</v>
       </c>
@@ -9614,39 +9630,39 @@
       <c r="F4" s="456"/>
     </row>
     <row r="5" spans="1:6" s="414" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="460"/>
-      <c r="B5" s="460"/>
-      <c r="C5" s="460"/>
+      <c r="A5" s="462"/>
+      <c r="B5" s="462"/>
+      <c r="C5" s="462"/>
       <c r="D5" s="408"/>
     </row>
     <row r="6" spans="1:6" s="414" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="460"/>
-      <c r="B6" s="460"/>
-      <c r="C6" s="460"/>
+      <c r="A6" s="462"/>
+      <c r="B6" s="462"/>
+      <c r="C6" s="462"/>
       <c r="D6" s="410"/>
       <c r="E6" s="456"/>
       <c r="F6" s="456"/>
     </row>
     <row r="7" spans="1:6" s="414" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="461" t="s">
+      <c r="A7" s="463" t="s">
         <v>1167</v>
       </c>
-      <c r="B7" s="461"/>
-      <c r="C7" s="461"/>
+      <c r="B7" s="463"/>
+      <c r="C7" s="463"/>
       <c r="D7" s="408"/>
       <c r="E7" s="456"/>
       <c r="F7" s="456"/>
     </row>
     <row r="8" spans="1:6" s="414" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="461"/>
-      <c r="B8" s="461"/>
-      <c r="C8" s="461"/>
+      <c r="A8" s="463"/>
+      <c r="B8" s="463"/>
+      <c r="C8" s="463"/>
       <c r="D8" s="408"/>
     </row>
     <row r="9" spans="1:6" s="414" customFormat="1" ht="9" x14ac:dyDescent="0.15">
-      <c r="A9" s="461"/>
-      <c r="B9" s="461"/>
-      <c r="C9" s="461"/>
+      <c r="A9" s="463"/>
+      <c r="B9" s="463"/>
+      <c r="C9" s="463"/>
     </row>
     <row r="10" spans="1:6" s="414" customFormat="1" ht="9" x14ac:dyDescent="0.15">
       <c r="A10" s="413"/>
@@ -9788,7 +9804,7 @@
         <v>1168</v>
       </c>
       <c r="E1" s="422"/>
-      <c r="F1" s="462" t="s">
+      <c r="F1" s="461" t="s">
         <v>1375</v>
       </c>
     </row>
@@ -9801,7 +9817,7 @@
       <c r="E2" s="457" t="s">
         <v>1122</v>
       </c>
-      <c r="F2" s="462"/>
+      <c r="F2" s="461"/>
     </row>
     <row r="3" spans="1:6" s="414" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B3" s="413"/>
@@ -9815,11 +9831,11 @@
       <c r="F3" s="457"/>
     </row>
     <row r="4" spans="1:6" s="414" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="460" t="s">
+      <c r="A4" s="462" t="s">
         <v>1093</v>
       </c>
-      <c r="B4" s="460"/>
-      <c r="C4" s="460"/>
+      <c r="B4" s="462"/>
+      <c r="C4" s="462"/>
       <c r="D4" s="409" t="s">
         <v>1131</v>
       </c>
@@ -9829,9 +9845,9 @@
       <c r="F4" s="457"/>
     </row>
     <row r="5" spans="1:6" s="414" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="460"/>
-      <c r="B5" s="460"/>
-      <c r="C5" s="460"/>
+      <c r="A5" s="462"/>
+      <c r="B5" s="462"/>
+      <c r="C5" s="462"/>
       <c r="D5" s="408" t="s">
         <v>1154</v>
       </c>
@@ -9840,9 +9856,9 @@
       </c>
     </row>
     <row r="6" spans="1:6" s="414" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="460"/>
-      <c r="B6" s="460"/>
-      <c r="C6" s="460"/>
+      <c r="A6" s="462"/>
+      <c r="B6" s="462"/>
+      <c r="C6" s="462"/>
       <c r="D6" s="410" t="s">
         <v>1155</v>
       </c>
@@ -9852,11 +9868,11 @@
       <c r="F6" s="457"/>
     </row>
     <row r="7" spans="1:6" s="414" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="461" t="s">
+      <c r="A7" s="463" t="s">
         <v>1164</v>
       </c>
-      <c r="B7" s="461"/>
-      <c r="C7" s="461"/>
+      <c r="B7" s="463"/>
+      <c r="C7" s="463"/>
       <c r="D7" s="408" t="s">
         <v>1156</v>
       </c>
@@ -9866,9 +9882,9 @@
       <c r="F7" s="457"/>
     </row>
     <row r="8" spans="1:6" s="414" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="461"/>
-      <c r="B8" s="461"/>
-      <c r="C8" s="461"/>
+      <c r="A8" s="463"/>
+      <c r="B8" s="463"/>
+      <c r="C8" s="463"/>
       <c r="D8" s="408" t="s">
         <v>1157</v>
       </c>
@@ -9877,9 +9893,9 @@
       </c>
     </row>
     <row r="9" spans="1:6" s="414" customFormat="1" ht="9" x14ac:dyDescent="0.15">
-      <c r="A9" s="461"/>
-      <c r="B9" s="461"/>
-      <c r="C9" s="461"/>
+      <c r="A9" s="463"/>
+      <c r="B9" s="463"/>
+      <c r="C9" s="463"/>
       <c r="D9" s="421" t="s">
         <v>1158</v>
       </c>
@@ -11293,7 +11309,7 @@
         <v>1168</v>
       </c>
       <c r="E1" s="422"/>
-      <c r="F1" s="462" t="s">
+      <c r="F1" s="461" t="s">
         <v>1375</v>
       </c>
     </row>
@@ -11306,7 +11322,7 @@
       <c r="E2" s="456" t="s">
         <v>1122</v>
       </c>
-      <c r="F2" s="462"/>
+      <c r="F2" s="461"/>
     </row>
     <row r="3" spans="1:7" s="414" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B3" s="413"/>
@@ -11320,11 +11336,11 @@
       <c r="F3" s="456"/>
     </row>
     <row r="4" spans="1:7" s="414" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="460" t="s">
+      <c r="A4" s="462" t="s">
         <v>1093</v>
       </c>
-      <c r="B4" s="460"/>
-      <c r="C4" s="460"/>
+      <c r="B4" s="462"/>
+      <c r="C4" s="462"/>
       <c r="D4" s="409" t="s">
         <v>1140</v>
       </c>
@@ -11334,9 +11350,9 @@
       <c r="F4" s="456"/>
     </row>
     <row r="5" spans="1:7" s="414" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="460"/>
-      <c r="B5" s="460"/>
-      <c r="C5" s="460"/>
+      <c r="A5" s="462"/>
+      <c r="B5" s="462"/>
+      <c r="C5" s="462"/>
       <c r="D5" s="408" t="s">
         <v>1141</v>
       </c>
@@ -11345,9 +11361,9 @@
       </c>
     </row>
     <row r="6" spans="1:7" s="414" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="460"/>
-      <c r="B6" s="460"/>
-      <c r="C6" s="460"/>
+      <c r="A6" s="462"/>
+      <c r="B6" s="462"/>
+      <c r="C6" s="462"/>
       <c r="D6" s="410" t="s">
         <v>1142</v>
       </c>
@@ -11357,11 +11373,11 @@
       <c r="F6" s="456"/>
     </row>
     <row r="7" spans="1:7" s="414" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="461" t="s">
+      <c r="A7" s="463" t="s">
         <v>1150</v>
       </c>
-      <c r="B7" s="461"/>
-      <c r="C7" s="461"/>
+      <c r="B7" s="463"/>
+      <c r="C7" s="463"/>
       <c r="D7" s="408" t="s">
         <v>1143</v>
       </c>
@@ -11371,9 +11387,9 @@
       <c r="F7" s="456"/>
     </row>
     <row r="8" spans="1:7" s="414" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="461"/>
-      <c r="B8" s="461"/>
-      <c r="C8" s="461"/>
+      <c r="A8" s="463"/>
+      <c r="B8" s="463"/>
+      <c r="C8" s="463"/>
       <c r="D8" s="408" t="s">
         <v>1144</v>
       </c>
@@ -11382,9 +11398,9 @@
       </c>
     </row>
     <row r="9" spans="1:7" s="414" customFormat="1" ht="9" x14ac:dyDescent="0.15">
-      <c r="A9" s="461"/>
-      <c r="B9" s="461"/>
-      <c r="C9" s="461"/>
+      <c r="A9" s="463"/>
+      <c r="B9" s="463"/>
+      <c r="C9" s="463"/>
     </row>
     <row r="10" spans="1:7" s="414" customFormat="1" ht="9" x14ac:dyDescent="0.15">
       <c r="A10" s="413"/>
@@ -12825,7 +12841,7 @@
         <v>1168</v>
       </c>
       <c r="E1" s="422"/>
-      <c r="F1" s="462" t="s">
+      <c r="F1" s="461" t="s">
         <v>1375</v>
       </c>
     </row>
@@ -12838,7 +12854,7 @@
       <c r="E2" s="456" t="s">
         <v>1122</v>
       </c>
-      <c r="F2" s="462"/>
+      <c r="F2" s="461"/>
     </row>
     <row r="3" spans="1:7" s="414" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B3" s="413"/>
@@ -12852,11 +12868,11 @@
       <c r="F3" s="456"/>
     </row>
     <row r="4" spans="1:7" s="414" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="460" t="s">
+      <c r="A4" s="462" t="s">
         <v>1093</v>
       </c>
-      <c r="B4" s="460"/>
-      <c r="C4" s="460"/>
+      <c r="B4" s="462"/>
+      <c r="C4" s="462"/>
       <c r="D4" s="409" t="s">
         <v>1136</v>
       </c>
@@ -12866,39 +12882,39 @@
       <c r="F4" s="456"/>
     </row>
     <row r="5" spans="1:7" s="414" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="460"/>
-      <c r="B5" s="460"/>
-      <c r="C5" s="460"/>
+      <c r="A5" s="462"/>
+      <c r="B5" s="462"/>
+      <c r="C5" s="462"/>
       <c r="D5" s="408"/>
     </row>
     <row r="6" spans="1:7" s="414" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="460"/>
-      <c r="B6" s="460"/>
-      <c r="C6" s="460"/>
+      <c r="A6" s="462"/>
+      <c r="B6" s="462"/>
+      <c r="C6" s="462"/>
       <c r="D6" s="410"/>
       <c r="E6" s="456"/>
       <c r="F6" s="456"/>
     </row>
     <row r="7" spans="1:7" s="414" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="461" t="s">
+      <c r="A7" s="463" t="s">
         <v>1265</v>
       </c>
-      <c r="B7" s="461"/>
-      <c r="C7" s="461"/>
+      <c r="B7" s="463"/>
+      <c r="C7" s="463"/>
       <c r="D7" s="408"/>
       <c r="E7" s="456"/>
       <c r="F7" s="456"/>
     </row>
     <row r="8" spans="1:7" s="414" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="461"/>
-      <c r="B8" s="461"/>
-      <c r="C8" s="461"/>
+      <c r="A8" s="463"/>
+      <c r="B8" s="463"/>
+      <c r="C8" s="463"/>
       <c r="D8" s="408"/>
     </row>
     <row r="9" spans="1:7" s="414" customFormat="1" ht="9" x14ac:dyDescent="0.15">
-      <c r="A9" s="461"/>
-      <c r="B9" s="461"/>
-      <c r="C9" s="461"/>
+      <c r="A9" s="463"/>
+      <c r="B9" s="463"/>
+      <c r="C9" s="463"/>
     </row>
     <row r="10" spans="1:7" s="414" customFormat="1" ht="9" x14ac:dyDescent="0.15">
       <c r="A10" s="413"/>
@@ -13214,7 +13230,7 @@
         <v>1168</v>
       </c>
       <c r="E1" s="422"/>
-      <c r="F1" s="462" t="s">
+      <c r="F1" s="461" t="s">
         <v>1375</v>
       </c>
     </row>
@@ -13227,7 +13243,7 @@
       <c r="E2" s="456" t="s">
         <v>1122</v>
       </c>
-      <c r="F2" s="462"/>
+      <c r="F2" s="461"/>
     </row>
     <row r="3" spans="1:6" s="414" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B3" s="413"/>
@@ -13241,11 +13257,11 @@
       <c r="F3" s="456"/>
     </row>
     <row r="4" spans="1:6" s="414" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="460" t="s">
+      <c r="A4" s="462" t="s">
         <v>1093</v>
       </c>
-      <c r="B4" s="460"/>
-      <c r="C4" s="460"/>
+      <c r="B4" s="462"/>
+      <c r="C4" s="462"/>
       <c r="D4" s="409" t="s">
         <v>1130</v>
       </c>
@@ -13255,9 +13271,9 @@
       <c r="F4" s="456"/>
     </row>
     <row r="5" spans="1:6" s="414" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="460"/>
-      <c r="B5" s="460"/>
-      <c r="C5" s="460"/>
+      <c r="A5" s="462"/>
+      <c r="B5" s="462"/>
+      <c r="C5" s="462"/>
       <c r="D5" s="408" t="s">
         <v>910</v>
       </c>
@@ -13266,9 +13282,9 @@
       </c>
     </row>
     <row r="6" spans="1:6" s="414" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="460"/>
-      <c r="B6" s="460"/>
-      <c r="C6" s="460"/>
+      <c r="A6" s="462"/>
+      <c r="B6" s="462"/>
+      <c r="C6" s="462"/>
       <c r="D6" s="410" t="s">
         <v>1129</v>
       </c>
@@ -13278,11 +13294,11 @@
       <c r="F6" s="456"/>
     </row>
     <row r="7" spans="1:6" s="414" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="461" t="s">
+      <c r="A7" s="463" t="s">
         <v>1266</v>
       </c>
-      <c r="B7" s="461"/>
-      <c r="C7" s="461"/>
+      <c r="B7" s="463"/>
+      <c r="C7" s="463"/>
       <c r="D7" s="408" t="s">
         <v>1128</v>
       </c>
@@ -13292,15 +13308,15 @@
       <c r="F7" s="456"/>
     </row>
     <row r="8" spans="1:6" s="414" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="461"/>
-      <c r="B8" s="461"/>
-      <c r="C8" s="461"/>
+      <c r="A8" s="463"/>
+      <c r="B8" s="463"/>
+      <c r="C8" s="463"/>
       <c r="D8" s="408"/>
     </row>
     <row r="9" spans="1:6" s="414" customFormat="1" ht="9" x14ac:dyDescent="0.15">
-      <c r="A9" s="461"/>
-      <c r="B9" s="461"/>
-      <c r="C9" s="461"/>
+      <c r="A9" s="463"/>
+      <c r="B9" s="463"/>
+      <c r="C9" s="463"/>
     </row>
     <row r="10" spans="1:6" s="414" customFormat="1" ht="9" x14ac:dyDescent="0.15">
       <c r="A10" s="413"/>
@@ -19534,7 +19550,7 @@
         <v>1168</v>
       </c>
       <c r="E1" s="422"/>
-      <c r="F1" s="462" t="s">
+      <c r="F1" s="461" t="s">
         <v>1375</v>
       </c>
     </row>
@@ -19547,7 +19563,7 @@
       <c r="E2" s="453" t="s">
         <v>1320</v>
       </c>
-      <c r="F2" s="462"/>
+      <c r="F2" s="461"/>
     </row>
     <row r="3" spans="1:6" s="414" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B3" s="413"/>
@@ -19561,11 +19577,11 @@
       <c r="F3" s="453"/>
     </row>
     <row r="4" spans="1:6" s="414" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="463" t="s">
+      <c r="A4" s="460" t="s">
         <v>1093</v>
       </c>
-      <c r="B4" s="463"/>
-      <c r="C4" s="463"/>
+      <c r="B4" s="460"/>
+      <c r="C4" s="460"/>
       <c r="D4" s="453" t="s">
         <v>1357</v>
       </c>
@@ -19575,39 +19591,39 @@
       <c r="F4" s="453"/>
     </row>
     <row r="5" spans="1:6" s="414" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="463"/>
-      <c r="B5" s="463"/>
-      <c r="C5" s="463"/>
+      <c r="A5" s="460"/>
+      <c r="B5" s="460"/>
+      <c r="C5" s="460"/>
       <c r="D5" s="408"/>
     </row>
     <row r="6" spans="1:6" s="414" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="463"/>
-      <c r="B6" s="463"/>
-      <c r="C6" s="463"/>
+      <c r="A6" s="460"/>
+      <c r="B6" s="460"/>
+      <c r="C6" s="460"/>
       <c r="D6" s="410"/>
       <c r="E6" s="453"/>
       <c r="F6" s="453"/>
     </row>
     <row r="7" spans="1:6" s="414" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="463" t="s">
+      <c r="A7" s="460" t="s">
         <v>1298</v>
       </c>
-      <c r="B7" s="463"/>
-      <c r="C7" s="463"/>
+      <c r="B7" s="460"/>
+      <c r="C7" s="460"/>
       <c r="D7" s="408"/>
       <c r="E7" s="453"/>
       <c r="F7" s="453"/>
     </row>
     <row r="8" spans="1:6" s="414" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="463"/>
-      <c r="B8" s="463"/>
-      <c r="C8" s="463"/>
+      <c r="A8" s="460"/>
+      <c r="B8" s="460"/>
+      <c r="C8" s="460"/>
       <c r="D8" s="408"/>
     </row>
     <row r="9" spans="1:6" s="414" customFormat="1" ht="9" x14ac:dyDescent="0.15">
-      <c r="A9" s="463"/>
-      <c r="B9" s="463"/>
-      <c r="C9" s="463"/>
+      <c r="A9" s="460"/>
+      <c r="B9" s="460"/>
+      <c r="C9" s="460"/>
     </row>
     <row r="10" spans="1:6" s="414" customFormat="1" ht="9" x14ac:dyDescent="0.15">
       <c r="A10" s="413"/>
@@ -29267,7 +29283,7 @@
         <v>1168</v>
       </c>
       <c r="E1" s="422"/>
-      <c r="F1" s="462" t="s">
+      <c r="F1" s="461" t="s">
         <v>1375</v>
       </c>
     </row>
@@ -29280,7 +29296,7 @@
       <c r="E2" s="453" t="s">
         <v>1305</v>
       </c>
-      <c r="F2" s="462"/>
+      <c r="F2" s="461"/>
     </row>
     <row r="3" spans="1:6" s="414" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B3" s="413"/>
@@ -29294,11 +29310,11 @@
       <c r="F3" s="453"/>
     </row>
     <row r="4" spans="1:6" s="414" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="460" t="s">
+      <c r="A4" s="462" t="s">
         <v>1093</v>
       </c>
-      <c r="B4" s="460"/>
-      <c r="C4" s="460"/>
+      <c r="B4" s="462"/>
+      <c r="C4" s="462"/>
       <c r="D4" s="453" t="s">
         <v>1352</v>
       </c>
@@ -29308,9 +29324,9 @@
       <c r="F4" s="453"/>
     </row>
     <row r="5" spans="1:6" s="414" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="460"/>
-      <c r="B5" s="460"/>
-      <c r="C5" s="460"/>
+      <c r="A5" s="462"/>
+      <c r="B5" s="462"/>
+      <c r="C5" s="462"/>
       <c r="D5" s="453" t="s">
         <v>1353</v>
       </c>
@@ -29319,9 +29335,9 @@
       </c>
     </row>
     <row r="6" spans="1:6" s="414" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="460"/>
-      <c r="B6" s="460"/>
-      <c r="C6" s="460"/>
+      <c r="A6" s="462"/>
+      <c r="B6" s="462"/>
+      <c r="C6" s="462"/>
       <c r="D6" s="453" t="s">
         <v>1336</v>
       </c>
@@ -29331,11 +29347,11 @@
       <c r="F6" s="453"/>
     </row>
     <row r="7" spans="1:6" s="414" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="461" t="s">
+      <c r="A7" s="463" t="s">
         <v>1299</v>
       </c>
-      <c r="B7" s="461"/>
-      <c r="C7" s="461"/>
+      <c r="B7" s="463"/>
+      <c r="C7" s="463"/>
       <c r="D7" s="453" t="s">
         <v>1354</v>
       </c>
@@ -29345,9 +29361,9 @@
       <c r="F7" s="453"/>
     </row>
     <row r="8" spans="1:6" s="414" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="461"/>
-      <c r="B8" s="461"/>
-      <c r="C8" s="461"/>
+      <c r="A8" s="463"/>
+      <c r="B8" s="463"/>
+      <c r="C8" s="463"/>
       <c r="D8" s="453" t="s">
         <v>1355</v>
       </c>
@@ -29356,9 +29372,9 @@
       </c>
     </row>
     <row r="9" spans="1:6" s="414" customFormat="1" ht="9" x14ac:dyDescent="0.15">
-      <c r="A9" s="461"/>
-      <c r="B9" s="461"/>
-      <c r="C9" s="461"/>
+      <c r="A9" s="463"/>
+      <c r="B9" s="463"/>
+      <c r="C9" s="463"/>
       <c r="D9" s="453" t="s">
         <v>1165</v>
       </c>
@@ -37110,7 +37126,7 @@
         <v>1168</v>
       </c>
       <c r="E1" s="422"/>
-      <c r="F1" s="462" t="s">
+      <c r="F1" s="461" t="s">
         <v>1375</v>
       </c>
     </row>
@@ -37123,7 +37139,7 @@
       <c r="E2" s="453" t="s">
         <v>1325</v>
       </c>
-      <c r="F2" s="462"/>
+      <c r="F2" s="461"/>
     </row>
     <row r="3" spans="1:6" s="414" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B3" s="413"/>
@@ -37137,11 +37153,11 @@
       <c r="F3" s="455"/>
     </row>
     <row r="4" spans="1:6" s="414" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="463" t="s">
+      <c r="A4" s="460" t="s">
         <v>1093</v>
       </c>
-      <c r="B4" s="463"/>
-      <c r="C4" s="463"/>
+      <c r="B4" s="460"/>
+      <c r="C4" s="460"/>
       <c r="D4" s="453" t="s">
         <v>1345</v>
       </c>
@@ -37151,9 +37167,9 @@
       <c r="F4" s="455"/>
     </row>
     <row r="5" spans="1:6" s="414" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="463"/>
-      <c r="B5" s="463"/>
-      <c r="C5" s="463"/>
+      <c r="A5" s="460"/>
+      <c r="B5" s="460"/>
+      <c r="C5" s="460"/>
       <c r="D5" s="453" t="s">
         <v>1140</v>
       </c>
@@ -37163,9 +37179,9 @@
       <c r="F5" s="455"/>
     </row>
     <row r="6" spans="1:6" s="414" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="463"/>
-      <c r="B6" s="463"/>
-      <c r="C6" s="463"/>
+      <c r="A6" s="460"/>
+      <c r="B6" s="460"/>
+      <c r="C6" s="460"/>
       <c r="D6" s="453" t="s">
         <v>1346</v>
       </c>
@@ -37175,11 +37191,11 @@
       <c r="F6" s="455"/>
     </row>
     <row r="7" spans="1:6" s="414" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="463" t="s">
+      <c r="A7" s="460" t="s">
         <v>1300</v>
       </c>
-      <c r="B7" s="463"/>
-      <c r="C7" s="463"/>
+      <c r="B7" s="460"/>
+      <c r="C7" s="460"/>
       <c r="D7" s="453" t="s">
         <v>1347</v>
       </c>
@@ -37189,9 +37205,9 @@
       <c r="F7" s="455"/>
     </row>
     <row r="8" spans="1:6" s="414" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="463"/>
-      <c r="B8" s="463"/>
-      <c r="C8" s="463"/>
+      <c r="A8" s="460"/>
+      <c r="B8" s="460"/>
+      <c r="C8" s="460"/>
       <c r="D8" s="453" t="s">
         <v>1348</v>
       </c>
@@ -37201,9 +37217,9 @@
       <c r="F8" s="455"/>
     </row>
     <row r="9" spans="1:6" s="414" customFormat="1" ht="9" x14ac:dyDescent="0.15">
-      <c r="A9" s="463"/>
-      <c r="B9" s="463"/>
-      <c r="C9" s="463"/>
+      <c r="A9" s="460"/>
+      <c r="B9" s="460"/>
+      <c r="C9" s="460"/>
       <c r="D9" s="453" t="s">
         <v>1349</v>
       </c>
@@ -41839,7 +41855,7 @@
         <v>1168</v>
       </c>
       <c r="E1" s="422"/>
-      <c r="F1" s="462" t="s">
+      <c r="F1" s="461" t="s">
         <v>1375</v>
       </c>
     </row>
@@ -41852,7 +41868,7 @@
       <c r="E2" s="453" t="s">
         <v>1320</v>
       </c>
-      <c r="F2" s="462"/>
+      <c r="F2" s="461"/>
     </row>
     <row r="3" spans="1:6" s="414" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B3" s="413"/>
@@ -41866,11 +41882,11 @@
       <c r="F3" s="453"/>
     </row>
     <row r="4" spans="1:6" s="414" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="463" t="s">
+      <c r="A4" s="460" t="s">
         <v>1093</v>
       </c>
-      <c r="B4" s="463"/>
-      <c r="C4" s="463"/>
+      <c r="B4" s="460"/>
+      <c r="C4" s="460"/>
       <c r="D4" s="453" t="s">
         <v>1342</v>
       </c>
@@ -41880,39 +41896,39 @@
       <c r="F4" s="453"/>
     </row>
     <row r="5" spans="1:6" s="414" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="463"/>
-      <c r="B5" s="463"/>
-      <c r="C5" s="463"/>
+      <c r="A5" s="460"/>
+      <c r="B5" s="460"/>
+      <c r="C5" s="460"/>
       <c r="D5" s="408"/>
     </row>
     <row r="6" spans="1:6" s="414" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="463"/>
-      <c r="B6" s="463"/>
-      <c r="C6" s="463"/>
+      <c r="A6" s="460"/>
+      <c r="B6" s="460"/>
+      <c r="C6" s="460"/>
       <c r="D6" s="410"/>
       <c r="E6" s="453"/>
       <c r="F6" s="453"/>
     </row>
     <row r="7" spans="1:6" s="414" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="463" t="s">
+      <c r="A7" s="460" t="s">
         <v>1301</v>
       </c>
-      <c r="B7" s="463"/>
-      <c r="C7" s="463"/>
+      <c r="B7" s="460"/>
+      <c r="C7" s="460"/>
       <c r="D7" s="408"/>
       <c r="E7" s="453"/>
       <c r="F7" s="453"/>
     </row>
     <row r="8" spans="1:6" s="414" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="463"/>
-      <c r="B8" s="463"/>
-      <c r="C8" s="463"/>
+      <c r="A8" s="460"/>
+      <c r="B8" s="460"/>
+      <c r="C8" s="460"/>
       <c r="D8" s="408"/>
     </row>
     <row r="9" spans="1:6" s="414" customFormat="1" ht="9" x14ac:dyDescent="0.15">
-      <c r="A9" s="463"/>
-      <c r="B9" s="463"/>
-      <c r="C9" s="463"/>
+      <c r="A9" s="460"/>
+      <c r="B9" s="460"/>
+      <c r="C9" s="460"/>
     </row>
     <row r="10" spans="1:6" s="414" customFormat="1" ht="9" x14ac:dyDescent="0.15">
       <c r="A10" s="413"/>
@@ -42325,13 +42341,13 @@
   <sheetPr codeName="Sheet46">
     <tabColor rgb="FF92D050"/>
   </sheetPr>
-  <dimension ref="A1:F85"/>
+  <dimension ref="A1:F73"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <pane xSplit="1" ySplit="12" topLeftCell="B13" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A13" sqref="A13"/>
-      <selection pane="bottomRight" activeCell="I31" sqref="I31"/>
+      <selection pane="bottomRight" activeCell="B33" sqref="B33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
@@ -42346,16 +42362,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" s="414" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="411" t="s">
-        <v>1472</v>
-      </c>
-      <c r="B1" s="412"/>
+      <c r="A1" s="411"/>
+      <c r="B1" s="467" t="s">
+        <v>1488</v>
+      </c>
       <c r="C1" s="413"/>
       <c r="D1" s="422" t="s">
         <v>1168</v>
       </c>
       <c r="E1" s="422"/>
-      <c r="F1" s="462" t="s">
+      <c r="F1" s="461" t="s">
         <v>1375</v>
       </c>
     </row>
@@ -42368,7 +42384,7 @@
       <c r="E2" s="453" t="s">
         <v>1305</v>
       </c>
-      <c r="F2" s="462"/>
+      <c r="F2" s="461"/>
     </row>
     <row r="3" spans="1:6" s="414" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B3" s="413"/>
@@ -42382,11 +42398,11 @@
       <c r="F3" s="453"/>
     </row>
     <row r="4" spans="1:6" s="414" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="463" t="s">
+      <c r="A4" s="466" t="s">
         <v>1093</v>
       </c>
-      <c r="B4" s="463"/>
-      <c r="C4" s="463"/>
+      <c r="B4" s="466"/>
+      <c r="C4" s="466"/>
       <c r="D4" s="453" t="s">
         <v>1335</v>
       </c>
@@ -42396,9 +42412,9 @@
       <c r="F4" s="453"/>
     </row>
     <row r="5" spans="1:6" s="414" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="463"/>
-      <c r="B5" s="463"/>
-      <c r="C5" s="463"/>
+      <c r="A5" s="466"/>
+      <c r="B5" s="466"/>
+      <c r="C5" s="466"/>
       <c r="D5" s="453" t="s">
         <v>1336</v>
       </c>
@@ -42407,9 +42423,9 @@
       </c>
     </row>
     <row r="6" spans="1:6" s="414" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="463"/>
-      <c r="B6" s="463"/>
-      <c r="C6" s="463"/>
+      <c r="A6" s="466"/>
+      <c r="B6" s="466"/>
+      <c r="C6" s="466"/>
       <c r="D6" s="453" t="s">
         <v>1337</v>
       </c>
@@ -42419,11 +42435,11 @@
       <c r="F6" s="453"/>
     </row>
     <row r="7" spans="1:6" s="414" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="463" t="s">
+      <c r="A7" s="466" t="s">
         <v>1302</v>
       </c>
-      <c r="B7" s="463"/>
-      <c r="C7" s="463"/>
+      <c r="B7" s="466"/>
+      <c r="C7" s="466"/>
       <c r="D7" s="453" t="s">
         <v>1338</v>
       </c>
@@ -42433,9 +42449,9 @@
       <c r="F7" s="453"/>
     </row>
     <row r="8" spans="1:6" s="414" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="463"/>
-      <c r="B8" s="463"/>
-      <c r="C8" s="463"/>
+      <c r="A8" s="466"/>
+      <c r="B8" s="466"/>
+      <c r="C8" s="466"/>
       <c r="D8" s="453" t="s">
         <v>1339</v>
       </c>
@@ -42444,9 +42460,9 @@
       </c>
     </row>
     <row r="9" spans="1:6" s="414" customFormat="1" ht="9" x14ac:dyDescent="0.15">
-      <c r="A9" s="463"/>
-      <c r="B9" s="463"/>
-      <c r="C9" s="463"/>
+      <c r="A9" s="466"/>
+      <c r="B9" s="466"/>
+      <c r="C9" s="466"/>
       <c r="D9" s="453" t="s">
         <v>1340</v>
       </c>
@@ -43692,240 +43708,6 @@
       </c>
       <c r="F73" s="416" t="s">
         <v>223</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A74" s="417" t="s">
-        <v>1232</v>
-      </c>
-      <c r="B74" s="416" t="s">
-        <v>989</v>
-      </c>
-      <c r="C74" s="418">
-        <v>3</v>
-      </c>
-      <c r="D74" s="416" t="s">
-        <v>628</v>
-      </c>
-      <c r="E74" s="416" t="s">
-        <v>1407</v>
-      </c>
-      <c r="F74" s="416" t="s">
-        <v>1249</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A75" s="417" t="s">
-        <v>1108</v>
-      </c>
-      <c r="B75" s="416" t="s">
-        <v>992</v>
-      </c>
-      <c r="C75" s="418">
-        <v>3</v>
-      </c>
-      <c r="E75" s="416" t="s">
-        <v>993</v>
-      </c>
-      <c r="F75" s="416" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A76" s="417" t="s">
-        <v>1109</v>
-      </c>
-      <c r="B76" s="416" t="s">
-        <v>994</v>
-      </c>
-      <c r="C76" s="418">
-        <v>3</v>
-      </c>
-      <c r="D76" s="416" t="s">
-        <v>166</v>
-      </c>
-      <c r="E76" s="416" t="s">
-        <v>977</v>
-      </c>
-      <c r="F76" s="416" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A77" s="417" t="s">
-        <v>1110</v>
-      </c>
-      <c r="B77" s="416" t="s">
-        <v>995</v>
-      </c>
-      <c r="C77" s="418">
-        <v>3</v>
-      </c>
-      <c r="D77" s="416" t="s">
-        <v>414</v>
-      </c>
-      <c r="E77" s="416" t="s">
-        <v>996</v>
-      </c>
-      <c r="F77" s="416" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A78" s="417" t="s">
-        <v>1398</v>
-      </c>
-      <c r="B78" s="416" t="s">
-        <v>1399</v>
-      </c>
-      <c r="C78" s="418">
-        <v>3</v>
-      </c>
-      <c r="E78" s="416" t="s">
-        <v>971</v>
-      </c>
-      <c r="F78" s="416" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A79" s="417" t="s">
-        <v>1470</v>
-      </c>
-      <c r="B79" s="416" t="s">
-        <v>1471</v>
-      </c>
-      <c r="C79" s="418">
-        <v>3</v>
-      </c>
-      <c r="D79" s="416" t="s">
-        <v>896</v>
-      </c>
-      <c r="E79" s="416" t="s">
-        <v>948</v>
-      </c>
-      <c r="F79" s="416" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A80" s="417" t="s">
-        <v>1111</v>
-      </c>
-      <c r="B80" s="416" t="s">
-        <v>1112</v>
-      </c>
-      <c r="C80" s="418">
-        <v>3</v>
-      </c>
-      <c r="D80" s="416" t="s">
-        <v>682</v>
-      </c>
-      <c r="E80" s="416" t="s">
-        <v>970</v>
-      </c>
-      <c r="F80" s="416" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A81" s="417" t="s">
-        <v>1113</v>
-      </c>
-      <c r="B81" s="416" t="s">
-        <v>997</v>
-      </c>
-      <c r="C81" s="418">
-        <v>3</v>
-      </c>
-      <c r="D81" s="416" t="s">
-        <v>476</v>
-      </c>
-      <c r="E81" s="416" t="s">
-        <v>952</v>
-      </c>
-      <c r="F81" s="416" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A82" s="417" t="s">
-        <v>1114</v>
-      </c>
-      <c r="B82" s="416" t="s">
-        <v>1212</v>
-      </c>
-      <c r="C82" s="418">
-        <v>3</v>
-      </c>
-      <c r="D82" s="416" t="s">
-        <v>59</v>
-      </c>
-      <c r="E82" s="416" t="s">
-        <v>982</v>
-      </c>
-      <c r="F82" s="416" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A83" s="417" t="s">
-        <v>1116</v>
-      </c>
-      <c r="B83" s="416" t="s">
-        <v>998</v>
-      </c>
-      <c r="C83" s="418">
-        <v>3</v>
-      </c>
-      <c r="D83" s="416" t="s">
-        <v>1448</v>
-      </c>
-      <c r="E83" s="416" t="s">
-        <v>996</v>
-      </c>
-      <c r="F83" s="416" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A84" s="417" t="s">
-        <v>1118</v>
-      </c>
-      <c r="B84" s="416" t="s">
-        <v>1000</v>
-      </c>
-      <c r="C84" s="418">
-        <v>3</v>
-      </c>
-      <c r="D84" s="416" t="s">
-        <v>166</v>
-      </c>
-      <c r="E84" s="416" t="s">
-        <v>982</v>
-      </c>
-      <c r="F84" s="416" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A85" s="417" t="s">
-        <v>1119</v>
-      </c>
-      <c r="B85" s="416" t="s">
-        <v>1001</v>
-      </c>
-      <c r="C85" s="418">
-        <v>3</v>
-      </c>
-      <c r="D85" s="416" t="s">
-        <v>184</v>
-      </c>
-      <c r="E85" s="416" t="s">
-        <v>938</v>
-      </c>
-      <c r="F85" s="416" t="s">
-        <v>119</v>
       </c>
     </row>
   </sheetData>
@@ -43954,7 +43736,7 @@
       <pane xSplit="1" ySplit="12" topLeftCell="B13" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A13" sqref="A13"/>
-      <selection pane="bottomRight" activeCell="B20" sqref="B20"/>
+      <selection pane="bottomRight" activeCell="A7" sqref="A7:C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
@@ -43978,7 +43760,7 @@
         <v>1168</v>
       </c>
       <c r="E1" s="422"/>
-      <c r="F1" s="462" t="s">
+      <c r="F1" s="461" t="s">
         <v>1375</v>
       </c>
     </row>
@@ -43991,7 +43773,7 @@
       <c r="E2" s="453" t="s">
         <v>1325</v>
       </c>
-      <c r="F2" s="462"/>
+      <c r="F2" s="461"/>
     </row>
     <row r="3" spans="1:6" s="414" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B3" s="413"/>
@@ -44005,11 +43787,11 @@
       <c r="F3" s="455"/>
     </row>
     <row r="4" spans="1:6" s="414" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="463" t="s">
+      <c r="A4" s="465" t="s">
         <v>1093</v>
       </c>
-      <c r="B4" s="463"/>
-      <c r="C4" s="463"/>
+      <c r="B4" s="465"/>
+      <c r="C4" s="465"/>
       <c r="D4" s="453" t="s">
         <v>1327</v>
       </c>
@@ -44019,9 +43801,9 @@
       <c r="F4" s="455"/>
     </row>
     <row r="5" spans="1:6" s="414" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="463"/>
-      <c r="B5" s="463"/>
-      <c r="C5" s="463"/>
+      <c r="A5" s="465"/>
+      <c r="B5" s="465"/>
+      <c r="C5" s="465"/>
       <c r="D5" s="453" t="s">
         <v>1328</v>
       </c>
@@ -44031,9 +43813,9 @@
       <c r="F5" s="455"/>
     </row>
     <row r="6" spans="1:6" s="414" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="463"/>
-      <c r="B6" s="463"/>
-      <c r="C6" s="463"/>
+      <c r="A6" s="465"/>
+      <c r="B6" s="465"/>
+      <c r="C6" s="465"/>
       <c r="D6" s="453" t="s">
         <v>1329</v>
       </c>
@@ -44043,11 +43825,11 @@
       <c r="F6" s="455"/>
     </row>
     <row r="7" spans="1:6" s="414" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="463" t="s">
+      <c r="A7" s="465" t="s">
         <v>1415</v>
       </c>
-      <c r="B7" s="463"/>
-      <c r="C7" s="463"/>
+      <c r="B7" s="465"/>
+      <c r="C7" s="465"/>
       <c r="D7" s="453" t="s">
         <v>1330</v>
       </c>
@@ -44057,9 +43839,9 @@
       <c r="F7" s="455"/>
     </row>
     <row r="8" spans="1:6" s="414" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="463"/>
-      <c r="B8" s="463"/>
-      <c r="C8" s="463"/>
+      <c r="A8" s="465"/>
+      <c r="B8" s="465"/>
+      <c r="C8" s="465"/>
       <c r="D8" s="453" t="s">
         <v>1331</v>
       </c>
@@ -44069,9 +43851,9 @@
       <c r="F8" s="455"/>
     </row>
     <row r="9" spans="1:6" s="414" customFormat="1" ht="9" x14ac:dyDescent="0.15">
-      <c r="A9" s="463"/>
-      <c r="B9" s="463"/>
-      <c r="C9" s="463"/>
+      <c r="A9" s="465"/>
+      <c r="B9" s="465"/>
+      <c r="C9" s="465"/>
       <c r="D9" s="453" t="s">
         <v>1332</v>
       </c>
@@ -45457,7 +45239,7 @@
   <dimension ref="A1:F24"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
@@ -45483,7 +45265,7 @@
         <v>1168</v>
       </c>
       <c r="E1" s="422"/>
-      <c r="F1" s="462" t="s">
+      <c r="F1" s="461" t="s">
         <v>1375</v>
       </c>
     </row>
@@ -45496,7 +45278,7 @@
       <c r="E2" s="458" t="s">
         <v>1320</v>
       </c>
-      <c r="F2" s="462"/>
+      <c r="F2" s="461"/>
     </row>
     <row r="3" spans="1:6" s="414" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B3" s="413"/>
@@ -45510,11 +45292,11 @@
       <c r="F3" s="458"/>
     </row>
     <row r="4" spans="1:6" s="414" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="460" t="s">
+      <c r="A4" s="469" t="s">
         <v>1093</v>
       </c>
-      <c r="B4" s="460"/>
-      <c r="C4" s="460"/>
+      <c r="B4" s="469"/>
+      <c r="C4" s="469"/>
       <c r="D4" s="459" t="s">
         <v>1134</v>
       </c>
@@ -45524,9 +45306,9 @@
       <c r="F4" s="458"/>
     </row>
     <row r="5" spans="1:6" s="414" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="460"/>
-      <c r="B5" s="460"/>
-      <c r="C5" s="460"/>
+      <c r="A5" s="469"/>
+      <c r="B5" s="469"/>
+      <c r="C5" s="469"/>
       <c r="D5" s="408" t="s">
         <v>1322</v>
       </c>
@@ -45535,33 +45317,33 @@
       </c>
     </row>
     <row r="6" spans="1:6" s="414" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="460"/>
-      <c r="B6" s="460"/>
-      <c r="C6" s="460"/>
+      <c r="A6" s="469"/>
+      <c r="B6" s="469"/>
+      <c r="C6" s="469"/>
       <c r="D6" s="410"/>
       <c r="E6" s="458"/>
       <c r="F6" s="458"/>
     </row>
     <row r="7" spans="1:6" s="414" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="463" t="s">
+      <c r="A7" s="469" t="s">
         <v>1427</v>
       </c>
-      <c r="B7" s="463"/>
-      <c r="C7" s="463"/>
+      <c r="B7" s="469"/>
+      <c r="C7" s="469"/>
       <c r="D7" s="408"/>
       <c r="E7" s="458"/>
       <c r="F7" s="458"/>
     </row>
     <row r="8" spans="1:6" s="414" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="463"/>
-      <c r="B8" s="463"/>
-      <c r="C8" s="463"/>
+      <c r="A8" s="469"/>
+      <c r="B8" s="469"/>
+      <c r="C8" s="469"/>
       <c r="D8" s="408"/>
     </row>
     <row r="9" spans="1:6" s="414" customFormat="1" ht="9" x14ac:dyDescent="0.15">
-      <c r="A9" s="463"/>
-      <c r="B9" s="463"/>
-      <c r="C9" s="463"/>
+      <c r="A9" s="469"/>
+      <c r="B9" s="469"/>
+      <c r="C9" s="469"/>
     </row>
     <row r="10" spans="1:6" s="414" customFormat="1" ht="9" x14ac:dyDescent="0.15">
       <c r="A10" s="413"/>
@@ -45775,7 +45557,7 @@
       <pane xSplit="1" ySplit="12" topLeftCell="B13" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A13" sqref="A13"/>
-      <selection pane="bottomRight" activeCell="A13" sqref="A13:F84"/>
+      <selection pane="bottomRight" activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
@@ -45801,7 +45583,7 @@
         <v>1168</v>
       </c>
       <c r="E1" s="422"/>
-      <c r="F1" s="462" t="s">
+      <c r="F1" s="461" t="s">
         <v>1375</v>
       </c>
     </row>
@@ -45814,7 +45596,7 @@
       <c r="E2" s="453" t="s">
         <v>1305</v>
       </c>
-      <c r="F2" s="462"/>
+      <c r="F2" s="461"/>
     </row>
     <row r="3" spans="1:6" s="414" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B3" s="413"/>
@@ -45828,11 +45610,11 @@
       <c r="F3" s="453"/>
     </row>
     <row r="4" spans="1:6" s="414" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="463" t="s">
+      <c r="A4" s="468" t="s">
         <v>1093</v>
       </c>
-      <c r="B4" s="463"/>
-      <c r="C4" s="463"/>
+      <c r="B4" s="468"/>
+      <c r="C4" s="468"/>
       <c r="D4" s="453" t="s">
         <v>1307</v>
       </c>
@@ -45842,9 +45624,9 @@
       <c r="F4" s="453"/>
     </row>
     <row r="5" spans="1:6" s="414" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="463"/>
-      <c r="B5" s="463"/>
-      <c r="C5" s="463"/>
+      <c r="A5" s="468"/>
+      <c r="B5" s="468"/>
+      <c r="C5" s="468"/>
       <c r="D5" s="453" t="s">
         <v>1309</v>
       </c>
@@ -45853,9 +45635,9 @@
       </c>
     </row>
     <row r="6" spans="1:6" s="414" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="463"/>
-      <c r="B6" s="463"/>
-      <c r="C6" s="463"/>
+      <c r="A6" s="468"/>
+      <c r="B6" s="468"/>
+      <c r="C6" s="468"/>
       <c r="D6" s="453" t="s">
         <v>1311</v>
       </c>
@@ -45865,11 +45647,11 @@
       <c r="F6" s="453"/>
     </row>
     <row r="7" spans="1:6" s="414" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="463" t="s">
+      <c r="A7" s="468" t="s">
         <v>1303</v>
       </c>
-      <c r="B7" s="463"/>
-      <c r="C7" s="463"/>
+      <c r="B7" s="468"/>
+      <c r="C7" s="468"/>
       <c r="D7" s="453" t="s">
         <v>1312</v>
       </c>
@@ -45879,9 +45661,9 @@
       <c r="F7" s="453"/>
     </row>
     <row r="8" spans="1:6" s="414" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="463"/>
-      <c r="B8" s="463"/>
-      <c r="C8" s="463"/>
+      <c r="A8" s="468"/>
+      <c r="B8" s="468"/>
+      <c r="C8" s="468"/>
       <c r="D8" s="453" t="s">
         <v>1314</v>
       </c>
@@ -45890,9 +45672,9 @@
       </c>
     </row>
     <row r="9" spans="1:6" s="414" customFormat="1" ht="9" x14ac:dyDescent="0.15">
-      <c r="A9" s="463"/>
-      <c r="B9" s="463"/>
-      <c r="C9" s="463"/>
+      <c r="A9" s="468"/>
+      <c r="B9" s="468"/>
+      <c r="C9" s="468"/>
       <c r="D9" s="453" t="s">
         <v>1315</v>
       </c>
@@ -45939,7 +45721,7 @@
     </row>
     <row r="13" spans="1:6" ht="12" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A13" s="417" t="s">
-        <v>1473</v>
+        <v>1470</v>
       </c>
       <c r="B13" s="416" t="s">
         <v>1395</v>
@@ -45954,12 +45736,12 @@
         <v>938</v>
       </c>
       <c r="F13" s="416" t="s">
-        <v>1474</v>
+        <v>1471</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" s="417" t="s">
-        <v>1475</v>
+        <v>1472</v>
       </c>
       <c r="B14" s="416" t="s">
         <v>1395</v>
@@ -45974,7 +45756,7 @@
         <v>938</v>
       </c>
       <c r="F14" s="416" t="s">
-        <v>1476</v>
+        <v>1473</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
@@ -46008,7 +45790,7 @@
         <v>1</v>
       </c>
       <c r="D16" s="416" t="s">
-        <v>1477</v>
+        <v>1474</v>
       </c>
       <c r="E16" s="416" t="s">
         <v>957</v>
@@ -46028,7 +45810,7 @@
         <v>1</v>
       </c>
       <c r="D17" s="416" t="s">
-        <v>1477</v>
+        <v>1474</v>
       </c>
       <c r="E17" s="416" t="s">
         <v>1234</v>
@@ -46091,7 +45873,7 @@
         <v>59</v>
       </c>
       <c r="E20" s="416" t="s">
-        <v>1478</v>
+        <v>1475</v>
       </c>
       <c r="F20" s="416" t="s">
         <v>119</v>
@@ -46131,7 +45913,7 @@
         <v>765</v>
       </c>
       <c r="E22" s="416" t="s">
-        <v>1479</v>
+        <v>1476</v>
       </c>
       <c r="F22" s="416" t="s">
         <v>189</v>
@@ -46271,7 +46053,7 @@
         <v>765</v>
       </c>
       <c r="E29" s="416" t="s">
-        <v>1480</v>
+        <v>1477</v>
       </c>
       <c r="F29" s="416" t="s">
         <v>100</v>
@@ -46311,7 +46093,7 @@
         <v>767</v>
       </c>
       <c r="E31" s="416" t="s">
-        <v>1480</v>
+        <v>1477</v>
       </c>
       <c r="F31" s="416" t="s">
         <v>66</v>
@@ -46351,7 +46133,7 @@
         <v>835</v>
       </c>
       <c r="E33" s="416" t="s">
-        <v>1481</v>
+        <v>1478</v>
       </c>
       <c r="F33" s="416" t="s">
         <v>100</v>
@@ -46454,7 +46236,7 @@
         <v>953</v>
       </c>
       <c r="F38" s="416" t="s">
-        <v>1482</v>
+        <v>1479</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.2">
@@ -46631,7 +46413,7 @@
         <v>481</v>
       </c>
       <c r="E47" s="416" t="s">
-        <v>1483</v>
+        <v>1480</v>
       </c>
       <c r="F47" s="416" t="s">
         <v>77</v>
@@ -46651,7 +46433,7 @@
         <v>765</v>
       </c>
       <c r="E48" s="416" t="s">
-        <v>1484</v>
+        <v>1481</v>
       </c>
       <c r="F48" s="416" t="s">
         <v>100</v>
@@ -46731,7 +46513,7 @@
         <v>765</v>
       </c>
       <c r="E52" s="416" t="s">
-        <v>1485</v>
+        <v>1482</v>
       </c>
       <c r="F52" s="416" t="s">
         <v>100</v>
@@ -46828,7 +46610,7 @@
         <v>2</v>
       </c>
       <c r="D57" s="416" t="s">
-        <v>1486</v>
+        <v>1483</v>
       </c>
       <c r="E57" s="416" t="s">
         <v>968</v>
@@ -46888,7 +46670,7 @@
         <v>1</v>
       </c>
       <c r="D60" s="416" t="s">
-        <v>1477</v>
+        <v>1474</v>
       </c>
       <c r="E60" s="416" t="s">
         <v>947</v>
@@ -47051,7 +46833,7 @@
         <v>481</v>
       </c>
       <c r="E68" s="416" t="s">
-        <v>1487</v>
+        <v>1484</v>
       </c>
       <c r="F68" s="416" t="s">
         <v>417</v>
@@ -47102,13 +46884,13 @@
         <v>1408</v>
       </c>
       <c r="B71" s="416" t="s">
-        <v>1488</v>
+        <v>1485</v>
       </c>
       <c r="C71" s="418">
         <v>3</v>
       </c>
       <c r="D71" s="416" t="s">
-        <v>1489</v>
+        <v>1486</v>
       </c>
       <c r="E71" s="416" t="s">
         <v>988</v>
@@ -47194,7 +46976,7 @@
         <v>1407</v>
       </c>
       <c r="F75" s="416" t="s">
-        <v>1490</v>
+        <v>1487</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.2">

--- a/schedule/semester/schedule.xlsx
+++ b/schedule/semester/schedule.xlsx
@@ -5368,9 +5368,7 @@
       <family val="2"/>
     </font>
     <font>
-      <b/>
-      <i/>
-      <sz val="12"/>
+      <sz val="11"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -7310,6 +7308,9 @@
     <xf numFmtId="16" fontId="113" fillId="58" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="113" fillId="58" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="49" fillId="58" borderId="0" xfId="98" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -7322,22 +7323,19 @@
     <xf numFmtId="0" fontId="116" fillId="58" borderId="0" xfId="98" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="113" fillId="58" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="64" fillId="58" borderId="0" xfId="98" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="68" fillId="58" borderId="0" xfId="98" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="122" fillId="58" borderId="0" xfId="98" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="113" fillId="58" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="96" fillId="58" borderId="0" xfId="98" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="68" fillId="58" borderId="0" xfId="98" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="113" fillId="58" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="57" fillId="58" borderId="0" xfId="98" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="122" fillId="58" borderId="0" xfId="98" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -8085,7 +8083,7 @@
         <v>1168</v>
       </c>
       <c r="E1" s="422"/>
-      <c r="F1" s="461" t="s">
+      <c r="F1" s="462" t="s">
         <v>1375</v>
       </c>
     </row>
@@ -8098,7 +8096,7 @@
       <c r="E2" s="453" t="s">
         <v>1250</v>
       </c>
-      <c r="F2" s="461"/>
+      <c r="F2" s="462"/>
     </row>
     <row r="3" spans="1:6" s="414" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B3" s="413"/>
@@ -8112,11 +8110,11 @@
       <c r="F3" s="455"/>
     </row>
     <row r="4" spans="1:6" s="414" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="462" t="s">
+      <c r="A4" s="463" t="s">
         <v>1093</v>
       </c>
-      <c r="B4" s="462"/>
-      <c r="C4" s="462"/>
+      <c r="B4" s="463"/>
+      <c r="C4" s="463"/>
       <c r="D4" s="409" t="s">
         <v>1259</v>
       </c>
@@ -8126,9 +8124,9 @@
       <c r="F4" s="455"/>
     </row>
     <row r="5" spans="1:6" s="414" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="462"/>
-      <c r="B5" s="462"/>
-      <c r="C5" s="462"/>
+      <c r="A5" s="463"/>
+      <c r="B5" s="463"/>
+      <c r="C5" s="463"/>
       <c r="D5" s="408" t="s">
         <v>1260</v>
       </c>
@@ -8138,9 +8136,9 @@
       <c r="F5" s="455"/>
     </row>
     <row r="6" spans="1:6" s="414" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="462"/>
-      <c r="B6" s="462"/>
-      <c r="C6" s="462"/>
+      <c r="A6" s="463"/>
+      <c r="B6" s="463"/>
+      <c r="C6" s="463"/>
       <c r="D6" s="410" t="s">
         <v>1261</v>
       </c>
@@ -8150,11 +8148,11 @@
       <c r="F6" s="455"/>
     </row>
     <row r="7" spans="1:6" s="414" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="463" t="s">
+      <c r="A7" s="464" t="s">
         <v>1269</v>
       </c>
-      <c r="B7" s="463"/>
-      <c r="C7" s="463"/>
+      <c r="B7" s="464"/>
+      <c r="C7" s="464"/>
       <c r="D7" s="408" t="s">
         <v>1262</v>
       </c>
@@ -8164,9 +8162,9 @@
       <c r="F7" s="455"/>
     </row>
     <row r="8" spans="1:6" s="414" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="463"/>
-      <c r="B8" s="463"/>
-      <c r="C8" s="463"/>
+      <c r="A8" s="464"/>
+      <c r="B8" s="464"/>
+      <c r="C8" s="464"/>
       <c r="D8" s="408" t="s">
         <v>1263</v>
       </c>
@@ -8176,9 +8174,9 @@
       <c r="F8" s="455"/>
     </row>
     <row r="9" spans="1:6" s="414" customFormat="1" ht="9" x14ac:dyDescent="0.15">
-      <c r="A9" s="463"/>
-      <c r="B9" s="463"/>
-      <c r="C9" s="463"/>
+      <c r="A9" s="464"/>
+      <c r="B9" s="464"/>
+      <c r="C9" s="464"/>
       <c r="D9" s="421" t="s">
         <v>1264</v>
       </c>
@@ -8198,8 +8196,8 @@
     <row r="11" spans="1:6" s="414" customFormat="1" ht="9" x14ac:dyDescent="0.15">
       <c r="C11" s="415"/>
       <c r="D11" s="407"/>
-      <c r="E11" s="464"/>
-      <c r="F11" s="464"/>
+      <c r="E11" s="467"/>
+      <c r="F11" s="467"/>
     </row>
     <row r="12" spans="1:6" s="414" customFormat="1" ht="9.75" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A12" s="419" t="s">
@@ -9589,7 +9587,7 @@
         <v>1168</v>
       </c>
       <c r="E1" s="422"/>
-      <c r="F1" s="461" t="s">
+      <c r="F1" s="462" t="s">
         <v>1375</v>
       </c>
     </row>
@@ -9602,7 +9600,7 @@
       <c r="E2" s="456" t="s">
         <v>1122</v>
       </c>
-      <c r="F2" s="461"/>
+      <c r="F2" s="462"/>
     </row>
     <row r="3" spans="1:6" s="414" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B3" s="413"/>
@@ -9616,11 +9614,11 @@
       <c r="F3" s="456"/>
     </row>
     <row r="4" spans="1:6" s="414" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="462" t="s">
+      <c r="A4" s="463" t="s">
         <v>1093</v>
       </c>
-      <c r="B4" s="462"/>
-      <c r="C4" s="462"/>
+      <c r="B4" s="463"/>
+      <c r="C4" s="463"/>
       <c r="D4" s="409" t="s">
         <v>1166</v>
       </c>
@@ -9630,39 +9628,39 @@
       <c r="F4" s="456"/>
     </row>
     <row r="5" spans="1:6" s="414" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="462"/>
-      <c r="B5" s="462"/>
-      <c r="C5" s="462"/>
+      <c r="A5" s="463"/>
+      <c r="B5" s="463"/>
+      <c r="C5" s="463"/>
       <c r="D5" s="408"/>
     </row>
     <row r="6" spans="1:6" s="414" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="462"/>
-      <c r="B6" s="462"/>
-      <c r="C6" s="462"/>
+      <c r="A6" s="463"/>
+      <c r="B6" s="463"/>
+      <c r="C6" s="463"/>
       <c r="D6" s="410"/>
       <c r="E6" s="456"/>
       <c r="F6" s="456"/>
     </row>
     <row r="7" spans="1:6" s="414" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="463" t="s">
+      <c r="A7" s="464" t="s">
         <v>1167</v>
       </c>
-      <c r="B7" s="463"/>
-      <c r="C7" s="463"/>
+      <c r="B7" s="464"/>
+      <c r="C7" s="464"/>
       <c r="D7" s="408"/>
       <c r="E7" s="456"/>
       <c r="F7" s="456"/>
     </row>
     <row r="8" spans="1:6" s="414" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="463"/>
-      <c r="B8" s="463"/>
-      <c r="C8" s="463"/>
+      <c r="A8" s="464"/>
+      <c r="B8" s="464"/>
+      <c r="C8" s="464"/>
       <c r="D8" s="408"/>
     </row>
     <row r="9" spans="1:6" s="414" customFormat="1" ht="9" x14ac:dyDescent="0.15">
-      <c r="A9" s="463"/>
-      <c r="B9" s="463"/>
-      <c r="C9" s="463"/>
+      <c r="A9" s="464"/>
+      <c r="B9" s="464"/>
+      <c r="C9" s="464"/>
     </row>
     <row r="10" spans="1:6" s="414" customFormat="1" ht="9" x14ac:dyDescent="0.15">
       <c r="A10" s="413"/>
@@ -9804,7 +9802,7 @@
         <v>1168</v>
       </c>
       <c r="E1" s="422"/>
-      <c r="F1" s="461" t="s">
+      <c r="F1" s="462" t="s">
         <v>1375</v>
       </c>
     </row>
@@ -9817,7 +9815,7 @@
       <c r="E2" s="457" t="s">
         <v>1122</v>
       </c>
-      <c r="F2" s="461"/>
+      <c r="F2" s="462"/>
     </row>
     <row r="3" spans="1:6" s="414" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B3" s="413"/>
@@ -9831,11 +9829,11 @@
       <c r="F3" s="457"/>
     </row>
     <row r="4" spans="1:6" s="414" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="462" t="s">
+      <c r="A4" s="463" t="s">
         <v>1093</v>
       </c>
-      <c r="B4" s="462"/>
-      <c r="C4" s="462"/>
+      <c r="B4" s="463"/>
+      <c r="C4" s="463"/>
       <c r="D4" s="409" t="s">
         <v>1131</v>
       </c>
@@ -9845,9 +9843,9 @@
       <c r="F4" s="457"/>
     </row>
     <row r="5" spans="1:6" s="414" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="462"/>
-      <c r="B5" s="462"/>
-      <c r="C5" s="462"/>
+      <c r="A5" s="463"/>
+      <c r="B5" s="463"/>
+      <c r="C5" s="463"/>
       <c r="D5" s="408" t="s">
         <v>1154</v>
       </c>
@@ -9856,9 +9854,9 @@
       </c>
     </row>
     <row r="6" spans="1:6" s="414" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="462"/>
-      <c r="B6" s="462"/>
-      <c r="C6" s="462"/>
+      <c r="A6" s="463"/>
+      <c r="B6" s="463"/>
+      <c r="C6" s="463"/>
       <c r="D6" s="410" t="s">
         <v>1155</v>
       </c>
@@ -9868,11 +9866,11 @@
       <c r="F6" s="457"/>
     </row>
     <row r="7" spans="1:6" s="414" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="463" t="s">
+      <c r="A7" s="464" t="s">
         <v>1164</v>
       </c>
-      <c r="B7" s="463"/>
-      <c r="C7" s="463"/>
+      <c r="B7" s="464"/>
+      <c r="C7" s="464"/>
       <c r="D7" s="408" t="s">
         <v>1156</v>
       </c>
@@ -9882,9 +9880,9 @@
       <c r="F7" s="457"/>
     </row>
     <row r="8" spans="1:6" s="414" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="463"/>
-      <c r="B8" s="463"/>
-      <c r="C8" s="463"/>
+      <c r="A8" s="464"/>
+      <c r="B8" s="464"/>
+      <c r="C8" s="464"/>
       <c r="D8" s="408" t="s">
         <v>1157</v>
       </c>
@@ -9893,9 +9891,9 @@
       </c>
     </row>
     <row r="9" spans="1:6" s="414" customFormat="1" ht="9" x14ac:dyDescent="0.15">
-      <c r="A9" s="463"/>
-      <c r="B9" s="463"/>
-      <c r="C9" s="463"/>
+      <c r="A9" s="464"/>
+      <c r="B9" s="464"/>
+      <c r="C9" s="464"/>
       <c r="D9" s="421" t="s">
         <v>1158</v>
       </c>
@@ -11309,7 +11307,7 @@
         <v>1168</v>
       </c>
       <c r="E1" s="422"/>
-      <c r="F1" s="461" t="s">
+      <c r="F1" s="462" t="s">
         <v>1375</v>
       </c>
     </row>
@@ -11322,7 +11320,7 @@
       <c r="E2" s="456" t="s">
         <v>1122</v>
       </c>
-      <c r="F2" s="461"/>
+      <c r="F2" s="462"/>
     </row>
     <row r="3" spans="1:7" s="414" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B3" s="413"/>
@@ -11336,11 +11334,11 @@
       <c r="F3" s="456"/>
     </row>
     <row r="4" spans="1:7" s="414" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="462" t="s">
+      <c r="A4" s="463" t="s">
         <v>1093</v>
       </c>
-      <c r="B4" s="462"/>
-      <c r="C4" s="462"/>
+      <c r="B4" s="463"/>
+      <c r="C4" s="463"/>
       <c r="D4" s="409" t="s">
         <v>1140</v>
       </c>
@@ -11350,9 +11348,9 @@
       <c r="F4" s="456"/>
     </row>
     <row r="5" spans="1:7" s="414" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="462"/>
-      <c r="B5" s="462"/>
-      <c r="C5" s="462"/>
+      <c r="A5" s="463"/>
+      <c r="B5" s="463"/>
+      <c r="C5" s="463"/>
       <c r="D5" s="408" t="s">
         <v>1141</v>
       </c>
@@ -11361,9 +11359,9 @@
       </c>
     </row>
     <row r="6" spans="1:7" s="414" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="462"/>
-      <c r="B6" s="462"/>
-      <c r="C6" s="462"/>
+      <c r="A6" s="463"/>
+      <c r="B6" s="463"/>
+      <c r="C6" s="463"/>
       <c r="D6" s="410" t="s">
         <v>1142</v>
       </c>
@@ -11373,11 +11371,11 @@
       <c r="F6" s="456"/>
     </row>
     <row r="7" spans="1:7" s="414" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="463" t="s">
+      <c r="A7" s="464" t="s">
         <v>1150</v>
       </c>
-      <c r="B7" s="463"/>
-      <c r="C7" s="463"/>
+      <c r="B7" s="464"/>
+      <c r="C7" s="464"/>
       <c r="D7" s="408" t="s">
         <v>1143</v>
       </c>
@@ -11387,9 +11385,9 @@
       <c r="F7" s="456"/>
     </row>
     <row r="8" spans="1:7" s="414" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="463"/>
-      <c r="B8" s="463"/>
-      <c r="C8" s="463"/>
+      <c r="A8" s="464"/>
+      <c r="B8" s="464"/>
+      <c r="C8" s="464"/>
       <c r="D8" s="408" t="s">
         <v>1144</v>
       </c>
@@ -11398,9 +11396,9 @@
       </c>
     </row>
     <row r="9" spans="1:7" s="414" customFormat="1" ht="9" x14ac:dyDescent="0.15">
-      <c r="A9" s="463"/>
-      <c r="B9" s="463"/>
-      <c r="C9" s="463"/>
+      <c r="A9" s="464"/>
+      <c r="B9" s="464"/>
+      <c r="C9" s="464"/>
     </row>
     <row r="10" spans="1:7" s="414" customFormat="1" ht="9" x14ac:dyDescent="0.15">
       <c r="A10" s="413"/>
@@ -12841,7 +12839,7 @@
         <v>1168</v>
       </c>
       <c r="E1" s="422"/>
-      <c r="F1" s="461" t="s">
+      <c r="F1" s="462" t="s">
         <v>1375</v>
       </c>
     </row>
@@ -12854,7 +12852,7 @@
       <c r="E2" s="456" t="s">
         <v>1122</v>
       </c>
-      <c r="F2" s="461"/>
+      <c r="F2" s="462"/>
     </row>
     <row r="3" spans="1:7" s="414" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B3" s="413"/>
@@ -12868,11 +12866,11 @@
       <c r="F3" s="456"/>
     </row>
     <row r="4" spans="1:7" s="414" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="462" t="s">
+      <c r="A4" s="463" t="s">
         <v>1093</v>
       </c>
-      <c r="B4" s="462"/>
-      <c r="C4" s="462"/>
+      <c r="B4" s="463"/>
+      <c r="C4" s="463"/>
       <c r="D4" s="409" t="s">
         <v>1136</v>
       </c>
@@ -12882,39 +12880,39 @@
       <c r="F4" s="456"/>
     </row>
     <row r="5" spans="1:7" s="414" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="462"/>
-      <c r="B5" s="462"/>
-      <c r="C5" s="462"/>
+      <c r="A5" s="463"/>
+      <c r="B5" s="463"/>
+      <c r="C5" s="463"/>
       <c r="D5" s="408"/>
     </row>
     <row r="6" spans="1:7" s="414" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="462"/>
-      <c r="B6" s="462"/>
-      <c r="C6" s="462"/>
+      <c r="A6" s="463"/>
+      <c r="B6" s="463"/>
+      <c r="C6" s="463"/>
       <c r="D6" s="410"/>
       <c r="E6" s="456"/>
       <c r="F6" s="456"/>
     </row>
     <row r="7" spans="1:7" s="414" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="463" t="s">
+      <c r="A7" s="464" t="s">
         <v>1265</v>
       </c>
-      <c r="B7" s="463"/>
-      <c r="C7" s="463"/>
+      <c r="B7" s="464"/>
+      <c r="C7" s="464"/>
       <c r="D7" s="408"/>
       <c r="E7" s="456"/>
       <c r="F7" s="456"/>
     </row>
     <row r="8" spans="1:7" s="414" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="463"/>
-      <c r="B8" s="463"/>
-      <c r="C8" s="463"/>
+      <c r="A8" s="464"/>
+      <c r="B8" s="464"/>
+      <c r="C8" s="464"/>
       <c r="D8" s="408"/>
     </row>
     <row r="9" spans="1:7" s="414" customFormat="1" ht="9" x14ac:dyDescent="0.15">
-      <c r="A9" s="463"/>
-      <c r="B9" s="463"/>
-      <c r="C9" s="463"/>
+      <c r="A9" s="464"/>
+      <c r="B9" s="464"/>
+      <c r="C9" s="464"/>
     </row>
     <row r="10" spans="1:7" s="414" customFormat="1" ht="9" x14ac:dyDescent="0.15">
       <c r="A10" s="413"/>
@@ -13230,7 +13228,7 @@
         <v>1168</v>
       </c>
       <c r="E1" s="422"/>
-      <c r="F1" s="461" t="s">
+      <c r="F1" s="462" t="s">
         <v>1375</v>
       </c>
     </row>
@@ -13243,7 +13241,7 @@
       <c r="E2" s="456" t="s">
         <v>1122</v>
       </c>
-      <c r="F2" s="461"/>
+      <c r="F2" s="462"/>
     </row>
     <row r="3" spans="1:6" s="414" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B3" s="413"/>
@@ -13257,11 +13255,11 @@
       <c r="F3" s="456"/>
     </row>
     <row r="4" spans="1:6" s="414" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="462" t="s">
+      <c r="A4" s="463" t="s">
         <v>1093</v>
       </c>
-      <c r="B4" s="462"/>
-      <c r="C4" s="462"/>
+      <c r="B4" s="463"/>
+      <c r="C4" s="463"/>
       <c r="D4" s="409" t="s">
         <v>1130</v>
       </c>
@@ -13271,9 +13269,9 @@
       <c r="F4" s="456"/>
     </row>
     <row r="5" spans="1:6" s="414" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="462"/>
-      <c r="B5" s="462"/>
-      <c r="C5" s="462"/>
+      <c r="A5" s="463"/>
+      <c r="B5" s="463"/>
+      <c r="C5" s="463"/>
       <c r="D5" s="408" t="s">
         <v>910</v>
       </c>
@@ -13282,9 +13280,9 @@
       </c>
     </row>
     <row r="6" spans="1:6" s="414" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="462"/>
-      <c r="B6" s="462"/>
-      <c r="C6" s="462"/>
+      <c r="A6" s="463"/>
+      <c r="B6" s="463"/>
+      <c r="C6" s="463"/>
       <c r="D6" s="410" t="s">
         <v>1129</v>
       </c>
@@ -13294,11 +13292,11 @@
       <c r="F6" s="456"/>
     </row>
     <row r="7" spans="1:6" s="414" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="463" t="s">
+      <c r="A7" s="464" t="s">
         <v>1266</v>
       </c>
-      <c r="B7" s="463"/>
-      <c r="C7" s="463"/>
+      <c r="B7" s="464"/>
+      <c r="C7" s="464"/>
       <c r="D7" s="408" t="s">
         <v>1128</v>
       </c>
@@ -13308,15 +13306,15 @@
       <c r="F7" s="456"/>
     </row>
     <row r="8" spans="1:6" s="414" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="463"/>
-      <c r="B8" s="463"/>
-      <c r="C8" s="463"/>
+      <c r="A8" s="464"/>
+      <c r="B8" s="464"/>
+      <c r="C8" s="464"/>
       <c r="D8" s="408"/>
     </row>
     <row r="9" spans="1:6" s="414" customFormat="1" ht="9" x14ac:dyDescent="0.15">
-      <c r="A9" s="463"/>
-      <c r="B9" s="463"/>
-      <c r="C9" s="463"/>
+      <c r="A9" s="464"/>
+      <c r="B9" s="464"/>
+      <c r="C9" s="464"/>
     </row>
     <row r="10" spans="1:6" s="414" customFormat="1" ht="9" x14ac:dyDescent="0.15">
       <c r="A10" s="413"/>
@@ -19550,7 +19548,7 @@
         <v>1168</v>
       </c>
       <c r="E1" s="422"/>
-      <c r="F1" s="461" t="s">
+      <c r="F1" s="462" t="s">
         <v>1375</v>
       </c>
     </row>
@@ -19563,7 +19561,7 @@
       <c r="E2" s="453" t="s">
         <v>1320</v>
       </c>
-      <c r="F2" s="461"/>
+      <c r="F2" s="462"/>
     </row>
     <row r="3" spans="1:6" s="414" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B3" s="413"/>
@@ -19577,11 +19575,11 @@
       <c r="F3" s="453"/>
     </row>
     <row r="4" spans="1:6" s="414" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="460" t="s">
+      <c r="A4" s="461" t="s">
         <v>1093</v>
       </c>
-      <c r="B4" s="460"/>
-      <c r="C4" s="460"/>
+      <c r="B4" s="461"/>
+      <c r="C4" s="461"/>
       <c r="D4" s="453" t="s">
         <v>1357</v>
       </c>
@@ -19591,39 +19589,39 @@
       <c r="F4" s="453"/>
     </row>
     <row r="5" spans="1:6" s="414" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="460"/>
-      <c r="B5" s="460"/>
-      <c r="C5" s="460"/>
+      <c r="A5" s="461"/>
+      <c r="B5" s="461"/>
+      <c r="C5" s="461"/>
       <c r="D5" s="408"/>
     </row>
     <row r="6" spans="1:6" s="414" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="460"/>
-      <c r="B6" s="460"/>
-      <c r="C6" s="460"/>
+      <c r="A6" s="461"/>
+      <c r="B6" s="461"/>
+      <c r="C6" s="461"/>
       <c r="D6" s="410"/>
       <c r="E6" s="453"/>
       <c r="F6" s="453"/>
     </row>
     <row r="7" spans="1:6" s="414" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="460" t="s">
+      <c r="A7" s="461" t="s">
         <v>1298</v>
       </c>
-      <c r="B7" s="460"/>
-      <c r="C7" s="460"/>
+      <c r="B7" s="461"/>
+      <c r="C7" s="461"/>
       <c r="D7" s="408"/>
       <c r="E7" s="453"/>
       <c r="F7" s="453"/>
     </row>
     <row r="8" spans="1:6" s="414" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="460"/>
-      <c r="B8" s="460"/>
-      <c r="C8" s="460"/>
+      <c r="A8" s="461"/>
+      <c r="B8" s="461"/>
+      <c r="C8" s="461"/>
       <c r="D8" s="408"/>
     </row>
     <row r="9" spans="1:6" s="414" customFormat="1" ht="9" x14ac:dyDescent="0.15">
-      <c r="A9" s="460"/>
-      <c r="B9" s="460"/>
-      <c r="C9" s="460"/>
+      <c r="A9" s="461"/>
+      <c r="B9" s="461"/>
+      <c r="C9" s="461"/>
     </row>
     <row r="10" spans="1:6" s="414" customFormat="1" ht="9" x14ac:dyDescent="0.15">
       <c r="A10" s="413"/>
@@ -29283,7 +29281,7 @@
         <v>1168</v>
       </c>
       <c r="E1" s="422"/>
-      <c r="F1" s="461" t="s">
+      <c r="F1" s="462" t="s">
         <v>1375</v>
       </c>
     </row>
@@ -29296,7 +29294,7 @@
       <c r="E2" s="453" t="s">
         <v>1305</v>
       </c>
-      <c r="F2" s="461"/>
+      <c r="F2" s="462"/>
     </row>
     <row r="3" spans="1:6" s="414" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B3" s="413"/>
@@ -29310,11 +29308,11 @@
       <c r="F3" s="453"/>
     </row>
     <row r="4" spans="1:6" s="414" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="462" t="s">
+      <c r="A4" s="463" t="s">
         <v>1093</v>
       </c>
-      <c r="B4" s="462"/>
-      <c r="C4" s="462"/>
+      <c r="B4" s="463"/>
+      <c r="C4" s="463"/>
       <c r="D4" s="453" t="s">
         <v>1352</v>
       </c>
@@ -29324,9 +29322,9 @@
       <c r="F4" s="453"/>
     </row>
     <row r="5" spans="1:6" s="414" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="462"/>
-      <c r="B5" s="462"/>
-      <c r="C5" s="462"/>
+      <c r="A5" s="463"/>
+      <c r="B5" s="463"/>
+      <c r="C5" s="463"/>
       <c r="D5" s="453" t="s">
         <v>1353</v>
       </c>
@@ -29335,9 +29333,9 @@
       </c>
     </row>
     <row r="6" spans="1:6" s="414" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="462"/>
-      <c r="B6" s="462"/>
-      <c r="C6" s="462"/>
+      <c r="A6" s="463"/>
+      <c r="B6" s="463"/>
+      <c r="C6" s="463"/>
       <c r="D6" s="453" t="s">
         <v>1336</v>
       </c>
@@ -29347,11 +29345,11 @@
       <c r="F6" s="453"/>
     </row>
     <row r="7" spans="1:6" s="414" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="463" t="s">
+      <c r="A7" s="464" t="s">
         <v>1299</v>
       </c>
-      <c r="B7" s="463"/>
-      <c r="C7" s="463"/>
+      <c r="B7" s="464"/>
+      <c r="C7" s="464"/>
       <c r="D7" s="453" t="s">
         <v>1354</v>
       </c>
@@ -29361,9 +29359,9 @@
       <c r="F7" s="453"/>
     </row>
     <row r="8" spans="1:6" s="414" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="463"/>
-      <c r="B8" s="463"/>
-      <c r="C8" s="463"/>
+      <c r="A8" s="464"/>
+      <c r="B8" s="464"/>
+      <c r="C8" s="464"/>
       <c r="D8" s="453" t="s">
         <v>1355</v>
       </c>
@@ -29372,9 +29370,9 @@
       </c>
     </row>
     <row r="9" spans="1:6" s="414" customFormat="1" ht="9" x14ac:dyDescent="0.15">
-      <c r="A9" s="463"/>
-      <c r="B9" s="463"/>
-      <c r="C9" s="463"/>
+      <c r="A9" s="464"/>
+      <c r="B9" s="464"/>
+      <c r="C9" s="464"/>
       <c r="D9" s="453" t="s">
         <v>1165</v>
       </c>
@@ -37126,7 +37124,7 @@
         <v>1168</v>
       </c>
       <c r="E1" s="422"/>
-      <c r="F1" s="461" t="s">
+      <c r="F1" s="462" t="s">
         <v>1375</v>
       </c>
     </row>
@@ -37139,7 +37137,7 @@
       <c r="E2" s="453" t="s">
         <v>1325</v>
       </c>
-      <c r="F2" s="461"/>
+      <c r="F2" s="462"/>
     </row>
     <row r="3" spans="1:6" s="414" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B3" s="413"/>
@@ -37153,11 +37151,11 @@
       <c r="F3" s="455"/>
     </row>
     <row r="4" spans="1:6" s="414" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="460" t="s">
+      <c r="A4" s="461" t="s">
         <v>1093</v>
       </c>
-      <c r="B4" s="460"/>
-      <c r="C4" s="460"/>
+      <c r="B4" s="461"/>
+      <c r="C4" s="461"/>
       <c r="D4" s="453" t="s">
         <v>1345</v>
       </c>
@@ -37167,9 +37165,9 @@
       <c r="F4" s="455"/>
     </row>
     <row r="5" spans="1:6" s="414" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="460"/>
-      <c r="B5" s="460"/>
-      <c r="C5" s="460"/>
+      <c r="A5" s="461"/>
+      <c r="B5" s="461"/>
+      <c r="C5" s="461"/>
       <c r="D5" s="453" t="s">
         <v>1140</v>
       </c>
@@ -37179,9 +37177,9 @@
       <c r="F5" s="455"/>
     </row>
     <row r="6" spans="1:6" s="414" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="460"/>
-      <c r="B6" s="460"/>
-      <c r="C6" s="460"/>
+      <c r="A6" s="461"/>
+      <c r="B6" s="461"/>
+      <c r="C6" s="461"/>
       <c r="D6" s="453" t="s">
         <v>1346</v>
       </c>
@@ -37191,11 +37189,11 @@
       <c r="F6" s="455"/>
     </row>
     <row r="7" spans="1:6" s="414" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="460" t="s">
+      <c r="A7" s="461" t="s">
         <v>1300</v>
       </c>
-      <c r="B7" s="460"/>
-      <c r="C7" s="460"/>
+      <c r="B7" s="461"/>
+      <c r="C7" s="461"/>
       <c r="D7" s="453" t="s">
         <v>1347</v>
       </c>
@@ -37205,9 +37203,9 @@
       <c r="F7" s="455"/>
     </row>
     <row r="8" spans="1:6" s="414" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="460"/>
-      <c r="B8" s="460"/>
-      <c r="C8" s="460"/>
+      <c r="A8" s="461"/>
+      <c r="B8" s="461"/>
+      <c r="C8" s="461"/>
       <c r="D8" s="453" t="s">
         <v>1348</v>
       </c>
@@ -37217,9 +37215,9 @@
       <c r="F8" s="455"/>
     </row>
     <row r="9" spans="1:6" s="414" customFormat="1" ht="9" x14ac:dyDescent="0.15">
-      <c r="A9" s="460"/>
-      <c r="B9" s="460"/>
-      <c r="C9" s="460"/>
+      <c r="A9" s="461"/>
+      <c r="B9" s="461"/>
+      <c r="C9" s="461"/>
       <c r="D9" s="453" t="s">
         <v>1349</v>
       </c>
@@ -41855,7 +41853,7 @@
         <v>1168</v>
       </c>
       <c r="E1" s="422"/>
-      <c r="F1" s="461" t="s">
+      <c r="F1" s="462" t="s">
         <v>1375</v>
       </c>
     </row>
@@ -41868,7 +41866,7 @@
       <c r="E2" s="453" t="s">
         <v>1320</v>
       </c>
-      <c r="F2" s="461"/>
+      <c r="F2" s="462"/>
     </row>
     <row r="3" spans="1:6" s="414" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B3" s="413"/>
@@ -41882,11 +41880,11 @@
       <c r="F3" s="453"/>
     </row>
     <row r="4" spans="1:6" s="414" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="460" t="s">
+      <c r="A4" s="461" t="s">
         <v>1093</v>
       </c>
-      <c r="B4" s="460"/>
-      <c r="C4" s="460"/>
+      <c r="B4" s="461"/>
+      <c r="C4" s="461"/>
       <c r="D4" s="453" t="s">
         <v>1342</v>
       </c>
@@ -41896,39 +41894,39 @@
       <c r="F4" s="453"/>
     </row>
     <row r="5" spans="1:6" s="414" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="460"/>
-      <c r="B5" s="460"/>
-      <c r="C5" s="460"/>
+      <c r="A5" s="461"/>
+      <c r="B5" s="461"/>
+      <c r="C5" s="461"/>
       <c r="D5" s="408"/>
     </row>
     <row r="6" spans="1:6" s="414" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="460"/>
-      <c r="B6" s="460"/>
-      <c r="C6" s="460"/>
+      <c r="A6" s="461"/>
+      <c r="B6" s="461"/>
+      <c r="C6" s="461"/>
       <c r="D6" s="410"/>
       <c r="E6" s="453"/>
       <c r="F6" s="453"/>
     </row>
     <row r="7" spans="1:6" s="414" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="460" t="s">
+      <c r="A7" s="461" t="s">
         <v>1301</v>
       </c>
-      <c r="B7" s="460"/>
-      <c r="C7" s="460"/>
+      <c r="B7" s="461"/>
+      <c r="C7" s="461"/>
       <c r="D7" s="408"/>
       <c r="E7" s="453"/>
       <c r="F7" s="453"/>
     </row>
     <row r="8" spans="1:6" s="414" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="460"/>
-      <c r="B8" s="460"/>
-      <c r="C8" s="460"/>
+      <c r="A8" s="461"/>
+      <c r="B8" s="461"/>
+      <c r="C8" s="461"/>
       <c r="D8" s="408"/>
     </row>
     <row r="9" spans="1:6" s="414" customFormat="1" ht="9" x14ac:dyDescent="0.15">
-      <c r="A9" s="460"/>
-      <c r="B9" s="460"/>
-      <c r="C9" s="460"/>
+      <c r="A9" s="461"/>
+      <c r="B9" s="461"/>
+      <c r="C9" s="461"/>
     </row>
     <row r="10" spans="1:6" s="414" customFormat="1" ht="9" x14ac:dyDescent="0.15">
       <c r="A10" s="413"/>
@@ -42347,7 +42345,7 @@
       <pane xSplit="1" ySplit="12" topLeftCell="B13" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A13" sqref="A13"/>
-      <selection pane="bottomRight" activeCell="B33" sqref="B33"/>
+      <selection pane="bottomRight" activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
@@ -42363,7 +42361,7 @@
   <sheetData>
     <row r="1" spans="1:6" s="414" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="411"/>
-      <c r="B1" s="467" t="s">
+      <c r="B1" s="460" t="s">
         <v>1488</v>
       </c>
       <c r="C1" s="413"/>
@@ -42371,7 +42369,7 @@
         <v>1168</v>
       </c>
       <c r="E1" s="422"/>
-      <c r="F1" s="461" t="s">
+      <c r="F1" s="462" t="s">
         <v>1375</v>
       </c>
     </row>
@@ -42384,7 +42382,7 @@
       <c r="E2" s="453" t="s">
         <v>1305</v>
       </c>
-      <c r="F2" s="461"/>
+      <c r="F2" s="462"/>
     </row>
     <row r="3" spans="1:6" s="414" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B3" s="413"/>
@@ -42398,11 +42396,11 @@
       <c r="F3" s="453"/>
     </row>
     <row r="4" spans="1:6" s="414" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="466" t="s">
+      <c r="A4" s="468" t="s">
         <v>1093</v>
       </c>
-      <c r="B4" s="466"/>
-      <c r="C4" s="466"/>
+      <c r="B4" s="468"/>
+      <c r="C4" s="468"/>
       <c r="D4" s="453" t="s">
         <v>1335</v>
       </c>
@@ -42412,9 +42410,9 @@
       <c r="F4" s="453"/>
     </row>
     <row r="5" spans="1:6" s="414" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="466"/>
-      <c r="B5" s="466"/>
-      <c r="C5" s="466"/>
+      <c r="A5" s="468"/>
+      <c r="B5" s="468"/>
+      <c r="C5" s="468"/>
       <c r="D5" s="453" t="s">
         <v>1336</v>
       </c>
@@ -42423,9 +42421,9 @@
       </c>
     </row>
     <row r="6" spans="1:6" s="414" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="466"/>
-      <c r="B6" s="466"/>
-      <c r="C6" s="466"/>
+      <c r="A6" s="468"/>
+      <c r="B6" s="468"/>
+      <c r="C6" s="468"/>
       <c r="D6" s="453" t="s">
         <v>1337</v>
       </c>
@@ -42435,11 +42433,11 @@
       <c r="F6" s="453"/>
     </row>
     <row r="7" spans="1:6" s="414" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="466" t="s">
+      <c r="A7" s="468" t="s">
         <v>1302</v>
       </c>
-      <c r="B7" s="466"/>
-      <c r="C7" s="466"/>
+      <c r="B7" s="468"/>
+      <c r="C7" s="468"/>
       <c r="D7" s="453" t="s">
         <v>1338</v>
       </c>
@@ -42449,9 +42447,9 @@
       <c r="F7" s="453"/>
     </row>
     <row r="8" spans="1:6" s="414" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="466"/>
-      <c r="B8" s="466"/>
-      <c r="C8" s="466"/>
+      <c r="A8" s="468"/>
+      <c r="B8" s="468"/>
+      <c r="C8" s="468"/>
       <c r="D8" s="453" t="s">
         <v>1339</v>
       </c>
@@ -42460,9 +42458,9 @@
       </c>
     </row>
     <row r="9" spans="1:6" s="414" customFormat="1" ht="9" x14ac:dyDescent="0.15">
-      <c r="A9" s="466"/>
-      <c r="B9" s="466"/>
-      <c r="C9" s="466"/>
+      <c r="A9" s="468"/>
+      <c r="B9" s="468"/>
+      <c r="C9" s="468"/>
       <c r="D9" s="453" t="s">
         <v>1340</v>
       </c>
@@ -43736,7 +43734,7 @@
       <pane xSplit="1" ySplit="12" topLeftCell="B13" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A13" sqref="A13"/>
-      <selection pane="bottomRight" activeCell="A7" sqref="A7:C9"/>
+      <selection pane="bottomRight" activeCell="A4" sqref="A4:C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
@@ -43760,7 +43758,7 @@
         <v>1168</v>
       </c>
       <c r="E1" s="422"/>
-      <c r="F1" s="461" t="s">
+      <c r="F1" s="462" t="s">
         <v>1375</v>
       </c>
     </row>
@@ -43773,7 +43771,7 @@
       <c r="E2" s="453" t="s">
         <v>1325</v>
       </c>
-      <c r="F2" s="461"/>
+      <c r="F2" s="462"/>
     </row>
     <row r="3" spans="1:6" s="414" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B3" s="413"/>
@@ -43787,11 +43785,11 @@
       <c r="F3" s="455"/>
     </row>
     <row r="4" spans="1:6" s="414" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="465" t="s">
+      <c r="A4" s="469" t="s">
         <v>1093</v>
       </c>
-      <c r="B4" s="465"/>
-      <c r="C4" s="465"/>
+      <c r="B4" s="469"/>
+      <c r="C4" s="469"/>
       <c r="D4" s="453" t="s">
         <v>1327</v>
       </c>
@@ -43801,9 +43799,9 @@
       <c r="F4" s="455"/>
     </row>
     <row r="5" spans="1:6" s="414" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="465"/>
-      <c r="B5" s="465"/>
-      <c r="C5" s="465"/>
+      <c r="A5" s="469"/>
+      <c r="B5" s="469"/>
+      <c r="C5" s="469"/>
       <c r="D5" s="453" t="s">
         <v>1328</v>
       </c>
@@ -43813,9 +43811,9 @@
       <c r="F5" s="455"/>
     </row>
     <row r="6" spans="1:6" s="414" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="465"/>
-      <c r="B6" s="465"/>
-      <c r="C6" s="465"/>
+      <c r="A6" s="469"/>
+      <c r="B6" s="469"/>
+      <c r="C6" s="469"/>
       <c r="D6" s="453" t="s">
         <v>1329</v>
       </c>
@@ -43825,11 +43823,11 @@
       <c r="F6" s="455"/>
     </row>
     <row r="7" spans="1:6" s="414" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="465" t="s">
+      <c r="A7" s="469" t="s">
         <v>1415</v>
       </c>
-      <c r="B7" s="465"/>
-      <c r="C7" s="465"/>
+      <c r="B7" s="469"/>
+      <c r="C7" s="469"/>
       <c r="D7" s="453" t="s">
         <v>1330</v>
       </c>
@@ -43839,9 +43837,9 @@
       <c r="F7" s="455"/>
     </row>
     <row r="8" spans="1:6" s="414" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="465"/>
-      <c r="B8" s="465"/>
-      <c r="C8" s="465"/>
+      <c r="A8" s="469"/>
+      <c r="B8" s="469"/>
+      <c r="C8" s="469"/>
       <c r="D8" s="453" t="s">
         <v>1331</v>
       </c>
@@ -43851,9 +43849,9 @@
       <c r="F8" s="455"/>
     </row>
     <row r="9" spans="1:6" s="414" customFormat="1" ht="9" x14ac:dyDescent="0.15">
-      <c r="A9" s="465"/>
-      <c r="B9" s="465"/>
-      <c r="C9" s="465"/>
+      <c r="A9" s="469"/>
+      <c r="B9" s="469"/>
+      <c r="C9" s="469"/>
       <c r="D9" s="453" t="s">
         <v>1332</v>
       </c>
@@ -45265,7 +45263,7 @@
         <v>1168</v>
       </c>
       <c r="E1" s="422"/>
-      <c r="F1" s="461" t="s">
+      <c r="F1" s="462" t="s">
         <v>1375</v>
       </c>
     </row>
@@ -45278,7 +45276,7 @@
       <c r="E2" s="458" t="s">
         <v>1320</v>
       </c>
-      <c r="F2" s="461"/>
+      <c r="F2" s="462"/>
     </row>
     <row r="3" spans="1:6" s="414" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B3" s="413"/>
@@ -45292,11 +45290,11 @@
       <c r="F3" s="458"/>
     </row>
     <row r="4" spans="1:6" s="414" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="469" t="s">
+      <c r="A4" s="465" t="s">
         <v>1093</v>
       </c>
-      <c r="B4" s="469"/>
-      <c r="C4" s="469"/>
+      <c r="B4" s="465"/>
+      <c r="C4" s="465"/>
       <c r="D4" s="459" t="s">
         <v>1134</v>
       </c>
@@ -45306,9 +45304,9 @@
       <c r="F4" s="458"/>
     </row>
     <row r="5" spans="1:6" s="414" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="469"/>
-      <c r="B5" s="469"/>
-      <c r="C5" s="469"/>
+      <c r="A5" s="465"/>
+      <c r="B5" s="465"/>
+      <c r="C5" s="465"/>
       <c r="D5" s="408" t="s">
         <v>1322</v>
       </c>
@@ -45317,33 +45315,33 @@
       </c>
     </row>
     <row r="6" spans="1:6" s="414" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="469"/>
-      <c r="B6" s="469"/>
-      <c r="C6" s="469"/>
+      <c r="A6" s="465"/>
+      <c r="B6" s="465"/>
+      <c r="C6" s="465"/>
       <c r="D6" s="410"/>
       <c r="E6" s="458"/>
       <c r="F6" s="458"/>
     </row>
     <row r="7" spans="1:6" s="414" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="469" t="s">
+      <c r="A7" s="465" t="s">
         <v>1427</v>
       </c>
-      <c r="B7" s="469"/>
-      <c r="C7" s="469"/>
+      <c r="B7" s="465"/>
+      <c r="C7" s="465"/>
       <c r="D7" s="408"/>
       <c r="E7" s="458"/>
       <c r="F7" s="458"/>
     </row>
     <row r="8" spans="1:6" s="414" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="469"/>
-      <c r="B8" s="469"/>
-      <c r="C8" s="469"/>
+      <c r="A8" s="465"/>
+      <c r="B8" s="465"/>
+      <c r="C8" s="465"/>
       <c r="D8" s="408"/>
     </row>
     <row r="9" spans="1:6" s="414" customFormat="1" ht="9" x14ac:dyDescent="0.15">
-      <c r="A9" s="469"/>
-      <c r="B9" s="469"/>
-      <c r="C9" s="469"/>
+      <c r="A9" s="465"/>
+      <c r="B9" s="465"/>
+      <c r="C9" s="465"/>
     </row>
     <row r="10" spans="1:6" s="414" customFormat="1" ht="9" x14ac:dyDescent="0.15">
       <c r="A10" s="413"/>
@@ -45583,7 +45581,7 @@
         <v>1168</v>
       </c>
       <c r="E1" s="422"/>
-      <c r="F1" s="461" t="s">
+      <c r="F1" s="462" t="s">
         <v>1375</v>
       </c>
     </row>
@@ -45596,7 +45594,7 @@
       <c r="E2" s="453" t="s">
         <v>1305</v>
       </c>
-      <c r="F2" s="461"/>
+      <c r="F2" s="462"/>
     </row>
     <row r="3" spans="1:6" s="414" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B3" s="413"/>
@@ -45610,11 +45608,11 @@
       <c r="F3" s="453"/>
     </row>
     <row r="4" spans="1:6" s="414" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="468" t="s">
+      <c r="A4" s="466" t="s">
         <v>1093</v>
       </c>
-      <c r="B4" s="468"/>
-      <c r="C4" s="468"/>
+      <c r="B4" s="466"/>
+      <c r="C4" s="466"/>
       <c r="D4" s="453" t="s">
         <v>1307</v>
       </c>
@@ -45624,9 +45622,9 @@
       <c r="F4" s="453"/>
     </row>
     <row r="5" spans="1:6" s="414" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="468"/>
-      <c r="B5" s="468"/>
-      <c r="C5" s="468"/>
+      <c r="A5" s="466"/>
+      <c r="B5" s="466"/>
+      <c r="C5" s="466"/>
       <c r="D5" s="453" t="s">
         <v>1309</v>
       </c>
@@ -45635,9 +45633,9 @@
       </c>
     </row>
     <row r="6" spans="1:6" s="414" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="468"/>
-      <c r="B6" s="468"/>
-      <c r="C6" s="468"/>
+      <c r="A6" s="466"/>
+      <c r="B6" s="466"/>
+      <c r="C6" s="466"/>
       <c r="D6" s="453" t="s">
         <v>1311</v>
       </c>
@@ -45647,11 +45645,11 @@
       <c r="F6" s="453"/>
     </row>
     <row r="7" spans="1:6" s="414" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="468" t="s">
+      <c r="A7" s="466" t="s">
         <v>1303</v>
       </c>
-      <c r="B7" s="468"/>
-      <c r="C7" s="468"/>
+      <c r="B7" s="466"/>
+      <c r="C7" s="466"/>
       <c r="D7" s="453" t="s">
         <v>1312</v>
       </c>
@@ -45661,9 +45659,9 @@
       <c r="F7" s="453"/>
     </row>
     <row r="8" spans="1:6" s="414" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="468"/>
-      <c r="B8" s="468"/>
-      <c r="C8" s="468"/>
+      <c r="A8" s="466"/>
+      <c r="B8" s="466"/>
+      <c r="C8" s="466"/>
       <c r="D8" s="453" t="s">
         <v>1314</v>
       </c>
@@ -45672,9 +45670,9 @@
       </c>
     </row>
     <row r="9" spans="1:6" s="414" customFormat="1" ht="9" x14ac:dyDescent="0.15">
-      <c r="A9" s="468"/>
-      <c r="B9" s="468"/>
-      <c r="C9" s="468"/>
+      <c r="A9" s="466"/>
+      <c r="B9" s="466"/>
+      <c r="C9" s="466"/>
       <c r="D9" s="453" t="s">
         <v>1315</v>
       </c>

--- a/schedule/semester/schedule.xlsx
+++ b/schedule/semester/schedule.xlsx
@@ -81,7 +81,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8255" uniqueCount="1489">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8319" uniqueCount="1493">
   <si>
     <t>ELECTRICAL AND COMPUTER ENGINEERING</t>
   </si>
@@ -4547,7 +4547,19 @@
     <t>KHLHI</t>
   </si>
   <si>
-    <t>Posted 10/29/2018</t>
+    <t>Posted 11/13/2018</t>
+  </si>
+  <si>
+    <t>MW 305-420PM</t>
+  </si>
+  <si>
+    <t>SH160</t>
+  </si>
+  <si>
+    <t>EE5320</t>
+  </si>
+  <si>
+    <t>Vehicle Electrification</t>
   </si>
 </sst>
 </file>
@@ -7323,6 +7335,12 @@
     <xf numFmtId="0" fontId="116" fillId="58" borderId="0" xfId="98" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="57" fillId="58" borderId="0" xfId="98" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="122" fillId="58" borderId="0" xfId="98" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="68" fillId="58" borderId="0" xfId="98" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -7331,12 +7349,6 @@
     </xf>
     <xf numFmtId="0" fontId="113" fillId="58" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="57" fillId="58" borderId="0" xfId="98" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="122" fillId="58" borderId="0" xfId="98" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="126">
@@ -8196,8 +8208,8 @@
     <row r="11" spans="1:6" s="414" customFormat="1" ht="9" x14ac:dyDescent="0.15">
       <c r="C11" s="415"/>
       <c r="D11" s="407"/>
-      <c r="E11" s="467"/>
-      <c r="F11" s="467"/>
+      <c r="E11" s="469"/>
+      <c r="F11" s="469"/>
     </row>
     <row r="12" spans="1:6" s="414" customFormat="1" ht="9.75" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A12" s="419" t="s">
@@ -42339,13 +42351,13 @@
   <sheetPr codeName="Sheet46">
     <tabColor rgb="FF92D050"/>
   </sheetPr>
-  <dimension ref="A1:F73"/>
+  <dimension ref="A1:F86"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <pane xSplit="1" ySplit="12" topLeftCell="B13" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A13" sqref="A13"/>
-      <selection pane="bottomRight" activeCell="B23" sqref="B23"/>
+      <selection pane="bottomRight" activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
@@ -42396,11 +42408,11 @@
       <c r="F3" s="453"/>
     </row>
     <row r="4" spans="1:6" s="414" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="468" t="s">
+      <c r="A4" s="465" t="s">
         <v>1093</v>
       </c>
-      <c r="B4" s="468"/>
-      <c r="C4" s="468"/>
+      <c r="B4" s="465"/>
+      <c r="C4" s="465"/>
       <c r="D4" s="453" t="s">
         <v>1335</v>
       </c>
@@ -42410,9 +42422,9 @@
       <c r="F4" s="453"/>
     </row>
     <row r="5" spans="1:6" s="414" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="468"/>
-      <c r="B5" s="468"/>
-      <c r="C5" s="468"/>
+      <c r="A5" s="465"/>
+      <c r="B5" s="465"/>
+      <c r="C5" s="465"/>
       <c r="D5" s="453" t="s">
         <v>1336</v>
       </c>
@@ -42421,9 +42433,9 @@
       </c>
     </row>
     <row r="6" spans="1:6" s="414" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="468"/>
-      <c r="B6" s="468"/>
-      <c r="C6" s="468"/>
+      <c r="A6" s="465"/>
+      <c r="B6" s="465"/>
+      <c r="C6" s="465"/>
       <c r="D6" s="453" t="s">
         <v>1337</v>
       </c>
@@ -42433,11 +42445,11 @@
       <c r="F6" s="453"/>
     </row>
     <row r="7" spans="1:6" s="414" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="468" t="s">
+      <c r="A7" s="465" t="s">
         <v>1302</v>
       </c>
-      <c r="B7" s="468"/>
-      <c r="C7" s="468"/>
+      <c r="B7" s="465"/>
+      <c r="C7" s="465"/>
       <c r="D7" s="453" t="s">
         <v>1338</v>
       </c>
@@ -42447,9 +42459,9 @@
       <c r="F7" s="453"/>
     </row>
     <row r="8" spans="1:6" s="414" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="468"/>
-      <c r="B8" s="468"/>
-      <c r="C8" s="468"/>
+      <c r="A8" s="465"/>
+      <c r="B8" s="465"/>
+      <c r="C8" s="465"/>
       <c r="D8" s="453" t="s">
         <v>1339</v>
       </c>
@@ -42458,9 +42470,9 @@
       </c>
     </row>
     <row r="9" spans="1:6" s="414" customFormat="1" ht="9" x14ac:dyDescent="0.15">
-      <c r="A9" s="468"/>
-      <c r="B9" s="468"/>
-      <c r="C9" s="468"/>
+      <c r="A9" s="465"/>
+      <c r="B9" s="465"/>
+      <c r="C9" s="465"/>
       <c r="D9" s="453" t="s">
         <v>1340</v>
       </c>
@@ -43162,39 +43174,39 @@
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A46" s="417" t="s">
-        <v>1039</v>
+        <v>1196</v>
       </c>
       <c r="B46" s="416" t="s">
-        <v>1239</v>
+        <v>1216</v>
       </c>
       <c r="C46" s="418">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D46" s="416" t="s">
-        <v>765</v>
+        <v>1452</v>
       </c>
       <c r="E46" s="416" t="s">
-        <v>1463</v>
+        <v>1489</v>
       </c>
       <c r="F46" s="416" t="s">
-        <v>100</v>
+        <v>1490</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A47" s="417" t="s">
-        <v>1040</v>
+        <v>1039</v>
       </c>
       <c r="B47" s="416" t="s">
         <v>1239</v>
       </c>
       <c r="C47" s="418">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D47" s="416" t="s">
         <v>765</v>
       </c>
       <c r="E47" s="416" t="s">
-        <v>1464</v>
+        <v>1463</v>
       </c>
       <c r="F47" s="416" t="s">
         <v>100</v>
@@ -43202,19 +43214,19 @@
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A48" s="417" t="s">
-        <v>1220</v>
+        <v>1040</v>
       </c>
       <c r="B48" s="416" t="s">
         <v>1239</v>
       </c>
       <c r="C48" s="418">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D48" s="416" t="s">
         <v>765</v>
       </c>
       <c r="E48" s="416" t="s">
-        <v>1360</v>
+        <v>1464</v>
       </c>
       <c r="F48" s="416" t="s">
         <v>100</v>
@@ -43222,19 +43234,19 @@
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A49" s="417" t="s">
-        <v>1222</v>
+        <v>1220</v>
       </c>
       <c r="B49" s="416" t="s">
         <v>1239</v>
       </c>
       <c r="C49" s="418">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D49" s="416" t="s">
         <v>765</v>
       </c>
       <c r="E49" s="416" t="s">
-        <v>1231</v>
+        <v>1360</v>
       </c>
       <c r="F49" s="416" t="s">
         <v>100</v>
@@ -43242,19 +43254,19 @@
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A50" s="417" t="s">
-        <v>1223</v>
+        <v>1222</v>
       </c>
       <c r="B50" s="416" t="s">
         <v>1239</v>
       </c>
       <c r="C50" s="418">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D50" s="416" t="s">
         <v>765</v>
       </c>
       <c r="E50" s="416" t="s">
-        <v>1465</v>
+        <v>1231</v>
       </c>
       <c r="F50" s="416" t="s">
         <v>100</v>
@@ -43262,19 +43274,19 @@
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A51" s="417" t="s">
-        <v>1225</v>
+        <v>1223</v>
       </c>
       <c r="B51" s="416" t="s">
         <v>1239</v>
       </c>
       <c r="C51" s="418">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D51" s="416" t="s">
         <v>765</v>
       </c>
       <c r="E51" s="416" t="s">
-        <v>1234</v>
+        <v>1465</v>
       </c>
       <c r="F51" s="416" t="s">
         <v>100</v>
@@ -43282,30 +43294,30 @@
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A52" s="417" t="s">
-        <v>1095</v>
+        <v>1225</v>
       </c>
       <c r="B52" s="416" t="s">
-        <v>1226</v>
+        <v>1239</v>
       </c>
       <c r="C52" s="418">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D52" s="416" t="s">
-        <v>34</v>
+        <v>765</v>
       </c>
       <c r="E52" s="416" t="s">
-        <v>953</v>
+        <v>1234</v>
       </c>
       <c r="F52" s="416" t="s">
-        <v>1417</v>
+        <v>100</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A53" s="417" t="s">
-        <v>1096</v>
+        <v>1095</v>
       </c>
       <c r="B53" s="416" t="s">
-        <v>961</v>
+        <v>1226</v>
       </c>
       <c r="C53" s="418">
         <v>3</v>
@@ -43314,7 +43326,7 @@
         <v>34</v>
       </c>
       <c r="E53" s="416" t="s">
-        <v>962</v>
+        <v>953</v>
       </c>
       <c r="F53" s="416" t="s">
         <v>1417</v>
@@ -43322,64 +43334,67 @@
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A54" s="417" t="s">
-        <v>1097</v>
+        <v>1096</v>
       </c>
       <c r="B54" s="416" t="s">
-        <v>965</v>
+        <v>961</v>
       </c>
       <c r="C54" s="418">
         <v>3</v>
       </c>
       <c r="D54" s="416" t="s">
-        <v>64</v>
+        <v>34</v>
       </c>
       <c r="E54" s="416" t="s">
-        <v>966</v>
+        <v>962</v>
       </c>
       <c r="F54" s="416" t="s">
-        <v>178</v>
+        <v>1417</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A55" s="417" t="s">
-        <v>1043</v>
+        <v>1097</v>
       </c>
       <c r="B55" s="416" t="s">
-        <v>967</v>
+        <v>965</v>
       </c>
       <c r="C55" s="418">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D55" s="416" t="s">
-        <v>184</v>
+        <v>64</v>
       </c>
       <c r="E55" s="416" t="s">
-        <v>968</v>
+        <v>966</v>
       </c>
       <c r="F55" s="416" t="s">
-        <v>929</v>
+        <v>178</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A56" s="417" t="s">
-        <v>1044</v>
+        <v>1043</v>
       </c>
       <c r="B56" s="416" t="s">
         <v>967</v>
       </c>
       <c r="C56" s="418">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="D56" s="416" t="s">
+        <v>184</v>
       </c>
       <c r="E56" s="416" t="s">
-        <v>947</v>
+        <v>968</v>
       </c>
       <c r="F56" s="416" t="s">
-        <v>24</v>
+        <v>929</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A57" s="417" t="s">
-        <v>1185</v>
+        <v>1044</v>
       </c>
       <c r="B57" s="416" t="s">
         <v>967</v>
@@ -43387,8 +43402,11 @@
       <c r="C57" s="418">
         <v>1</v>
       </c>
+      <c r="D57" s="416" t="s">
+        <v>1474</v>
+      </c>
       <c r="E57" s="416" t="s">
-        <v>940</v>
+        <v>947</v>
       </c>
       <c r="F57" s="416" t="s">
         <v>24</v>
@@ -43396,133 +43414,130 @@
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A58" s="417" t="s">
-        <v>1187</v>
+        <v>1185</v>
       </c>
       <c r="B58" s="416" t="s">
         <v>967</v>
       </c>
       <c r="C58" s="418">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D58" s="416" t="s">
-        <v>184</v>
+        <v>1474</v>
       </c>
       <c r="E58" s="416" t="s">
-        <v>968</v>
+        <v>940</v>
       </c>
       <c r="F58" s="416" t="s">
-        <v>1466</v>
+        <v>24</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A59" s="417" t="s">
-        <v>1467</v>
+        <v>1187</v>
       </c>
       <c r="B59" s="416" t="s">
         <v>967</v>
       </c>
       <c r="C59" s="418">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="D59" s="416" t="s">
+        <v>184</v>
       </c>
       <c r="E59" s="416" t="s">
-        <v>947</v>
+        <v>968</v>
       </c>
       <c r="F59" s="416" t="s">
-        <v>104</v>
+        <v>1466</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A60" s="417" t="s">
-        <v>1098</v>
+        <v>1467</v>
       </c>
       <c r="B60" s="416" t="s">
-        <v>969</v>
+        <v>967</v>
       </c>
       <c r="C60" s="418">
-        <v>3</v>
-      </c>
-      <c r="D60" s="416" t="s">
-        <v>756</v>
+        <v>1</v>
       </c>
       <c r="E60" s="416" t="s">
-        <v>970</v>
+        <v>947</v>
       </c>
       <c r="F60" s="416" t="s">
-        <v>89</v>
+        <v>104</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A61" s="417" t="s">
-        <v>1099</v>
+        <v>1098</v>
       </c>
       <c r="B61" s="416" t="s">
-        <v>972</v>
+        <v>969</v>
       </c>
       <c r="C61" s="418">
         <v>3</v>
       </c>
       <c r="D61" s="416" t="s">
-        <v>414</v>
+        <v>756</v>
       </c>
       <c r="E61" s="416" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
       <c r="F61" s="416" t="s">
-        <v>66</v>
+        <v>89</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A62" s="417" t="s">
-        <v>1403</v>
+        <v>1099</v>
       </c>
       <c r="B62" s="416" t="s">
-        <v>1404</v>
+        <v>972</v>
       </c>
       <c r="C62" s="418">
-        <v>1</v>
+        <v>3</v>
+      </c>
+      <c r="D62" s="416" t="s">
+        <v>414</v>
       </c>
       <c r="E62" s="416" t="s">
-        <v>1234</v>
+        <v>971</v>
       </c>
       <c r="F62" s="416" t="s">
-        <v>104</v>
+        <v>66</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A63" s="417" t="s">
-        <v>1047</v>
+        <v>1403</v>
       </c>
       <c r="B63" s="416" t="s">
-        <v>975</v>
+        <v>1404</v>
       </c>
       <c r="C63" s="418">
-        <v>3</v>
-      </c>
-      <c r="D63" s="416" t="s">
-        <v>896</v>
+        <v>1</v>
       </c>
       <c r="E63" s="416" t="s">
-        <v>974</v>
+        <v>1234</v>
       </c>
       <c r="F63" s="416" t="s">
-        <v>189</v>
+        <v>104</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A64" s="417" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
       <c r="B64" s="416" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
       <c r="C64" s="418">
         <v>3</v>
       </c>
-      <c r="D64" s="416" t="s">
-        <v>896</v>
-      </c>
       <c r="E64" s="416" t="s">
-        <v>971</v>
+        <v>974</v>
       </c>
       <c r="F64" s="416" t="s">
         <v>189</v>
@@ -43530,19 +43545,19 @@
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A65" s="417" t="s">
-        <v>1049</v>
+        <v>1048</v>
       </c>
       <c r="B65" s="416" t="s">
-        <v>978</v>
+        <v>976</v>
       </c>
       <c r="C65" s="418">
         <v>3</v>
       </c>
       <c r="D65" s="416" t="s">
-        <v>682</v>
+        <v>896</v>
       </c>
       <c r="E65" s="416" t="s">
-        <v>938</v>
+        <v>971</v>
       </c>
       <c r="F65" s="416" t="s">
         <v>189</v>
@@ -43550,19 +43565,19 @@
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A66" s="417" t="s">
-        <v>1101</v>
+        <v>1049</v>
       </c>
       <c r="B66" s="416" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
       <c r="C66" s="418">
         <v>3</v>
       </c>
       <c r="D66" s="416" t="s">
-        <v>1242</v>
+        <v>682</v>
       </c>
       <c r="E66" s="416" t="s">
-        <v>977</v>
+        <v>938</v>
       </c>
       <c r="F66" s="416" t="s">
         <v>189</v>
@@ -43570,59 +43585,59 @@
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A67" s="417" t="s">
-        <v>1103</v>
+        <v>1101</v>
       </c>
       <c r="B67" s="416" t="s">
-        <v>981</v>
+        <v>979</v>
       </c>
       <c r="C67" s="418">
         <v>3</v>
       </c>
       <c r="D67" s="416" t="s">
-        <v>481</v>
+        <v>1242</v>
       </c>
       <c r="E67" s="416" t="s">
-        <v>952</v>
+        <v>977</v>
       </c>
       <c r="F67" s="416" t="s">
-        <v>119</v>
+        <v>189</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A68" s="417" t="s">
-        <v>1104</v>
+        <v>1103</v>
       </c>
       <c r="B68" s="416" t="s">
-        <v>983</v>
+        <v>981</v>
       </c>
       <c r="C68" s="418">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D68" s="416" t="s">
-        <v>767</v>
+        <v>481</v>
       </c>
       <c r="E68" s="416" t="s">
-        <v>1227</v>
+        <v>952</v>
       </c>
       <c r="F68" s="416" t="s">
-        <v>100</v>
+        <v>119</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A69" s="417" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
       <c r="B69" s="416" t="s">
         <v>983</v>
       </c>
       <c r="C69" s="418">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D69" s="416" t="s">
         <v>767</v>
       </c>
       <c r="E69" s="416" t="s">
-        <v>1058</v>
+        <v>1227</v>
       </c>
       <c r="F69" s="416" t="s">
         <v>100</v>
@@ -43630,82 +43645,336 @@
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A70" s="417" t="s">
-        <v>1408</v>
+        <v>1105</v>
       </c>
       <c r="B70" s="416" t="s">
-        <v>1468</v>
+        <v>983</v>
       </c>
       <c r="C70" s="418">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D70" s="416" t="s">
-        <v>414</v>
+        <v>767</v>
       </c>
       <c r="E70" s="416" t="s">
-        <v>970</v>
+        <v>1058</v>
       </c>
       <c r="F70" s="416" t="s">
-        <v>66</v>
+        <v>100</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A71" s="417" t="s">
-        <v>1106</v>
+        <v>1408</v>
       </c>
       <c r="B71" s="416" t="s">
-        <v>1469</v>
+        <v>1468</v>
       </c>
       <c r="C71" s="418">
         <v>3</v>
       </c>
       <c r="D71" s="416" t="s">
-        <v>64</v>
+        <v>414</v>
       </c>
       <c r="E71" s="416" t="s">
-        <v>986</v>
+        <v>970</v>
       </c>
       <c r="F71" s="416" t="s">
-        <v>432</v>
+        <v>66</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A72" s="417" t="s">
-        <v>1107</v>
+        <v>1106</v>
       </c>
       <c r="B72" s="416" t="s">
-        <v>987</v>
+        <v>1469</v>
       </c>
       <c r="C72" s="418">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D72" s="416" t="s">
-        <v>912</v>
+        <v>64</v>
       </c>
       <c r="E72" s="416" t="s">
-        <v>1231</v>
+        <v>986</v>
       </c>
       <c r="F72" s="416" t="s">
-        <v>135</v>
+        <v>432</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A73" s="417" t="s">
+        <v>1107</v>
+      </c>
+      <c r="B73" s="416" t="s">
+        <v>987</v>
+      </c>
+      <c r="C73" s="418">
+        <v>1</v>
+      </c>
+      <c r="D73" s="416" t="s">
+        <v>912</v>
+      </c>
+      <c r="E73" s="416" t="s">
+        <v>1231</v>
+      </c>
+      <c r="F73" s="416" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A74" s="417" t="s">
         <v>1405</v>
       </c>
-      <c r="B73" s="416" t="s">
+      <c r="B74" s="416" t="s">
         <v>1406</v>
       </c>
-      <c r="C73" s="418">
+      <c r="C74" s="418">
         <v>3</v>
       </c>
-      <c r="D73" s="416" t="s">
+      <c r="D74" s="416" t="s">
         <v>184</v>
       </c>
-      <c r="E73" s="416" t="s">
+      <c r="E74" s="416" t="s">
         <v>966</v>
       </c>
-      <c r="F73" s="416" t="s">
+      <c r="F74" s="416" t="s">
         <v>223</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A75" s="417" t="s">
+        <v>1232</v>
+      </c>
+      <c r="B75" s="416" t="s">
+        <v>989</v>
+      </c>
+      <c r="C75" s="418">
+        <v>3</v>
+      </c>
+      <c r="D75" s="416" t="s">
+        <v>628</v>
+      </c>
+      <c r="E75" s="416" t="s">
+        <v>1407</v>
+      </c>
+      <c r="F75" s="416" t="s">
+        <v>1249</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A76" s="417" t="s">
+        <v>1108</v>
+      </c>
+      <c r="B76" s="416" t="s">
+        <v>992</v>
+      </c>
+      <c r="C76" s="418">
+        <v>3</v>
+      </c>
+      <c r="E76" s="416" t="s">
+        <v>993</v>
+      </c>
+      <c r="F76" s="416" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A77" s="417" t="s">
+        <v>1109</v>
+      </c>
+      <c r="B77" s="416" t="s">
+        <v>994</v>
+      </c>
+      <c r="C77" s="418">
+        <v>3</v>
+      </c>
+      <c r="D77" s="416" t="s">
+        <v>166</v>
+      </c>
+      <c r="E77" s="416" t="s">
+        <v>977</v>
+      </c>
+      <c r="F77" s="416" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A78" s="417" t="s">
+        <v>1110</v>
+      </c>
+      <c r="B78" s="416" t="s">
+        <v>995</v>
+      </c>
+      <c r="C78" s="418">
+        <v>3</v>
+      </c>
+      <c r="D78" s="416" t="s">
+        <v>414</v>
+      </c>
+      <c r="E78" s="416" t="s">
+        <v>996</v>
+      </c>
+      <c r="F78" s="416" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A79" s="417" t="s">
+        <v>1398</v>
+      </c>
+      <c r="B79" s="416" t="s">
+        <v>1399</v>
+      </c>
+      <c r="C79" s="418">
+        <v>3</v>
+      </c>
+      <c r="E79" s="416" t="s">
+        <v>971</v>
+      </c>
+      <c r="F79" s="416" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A80" s="417" t="s">
+        <v>1491</v>
+      </c>
+      <c r="B80" s="416" t="s">
+        <v>1492</v>
+      </c>
+      <c r="C80" s="418">
+        <v>3</v>
+      </c>
+      <c r="D80" s="416" t="s">
+        <v>896</v>
+      </c>
+      <c r="E80" s="416" t="s">
+        <v>948</v>
+      </c>
+      <c r="F80" s="416" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A81" s="417" t="s">
+        <v>1111</v>
+      </c>
+      <c r="B81" s="416" t="s">
+        <v>1112</v>
+      </c>
+      <c r="C81" s="418">
+        <v>3</v>
+      </c>
+      <c r="D81" s="416" t="s">
+        <v>682</v>
+      </c>
+      <c r="E81" s="416" t="s">
+        <v>970</v>
+      </c>
+      <c r="F81" s="416" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A82" s="417" t="s">
+        <v>1113</v>
+      </c>
+      <c r="B82" s="416" t="s">
+        <v>997</v>
+      </c>
+      <c r="C82" s="418">
+        <v>3</v>
+      </c>
+      <c r="D82" s="416" t="s">
+        <v>476</v>
+      </c>
+      <c r="E82" s="416" t="s">
+        <v>952</v>
+      </c>
+      <c r="F82" s="416" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A83" s="417" t="s">
+        <v>1114</v>
+      </c>
+      <c r="B83" s="416" t="s">
+        <v>1212</v>
+      </c>
+      <c r="C83" s="418">
+        <v>3</v>
+      </c>
+      <c r="D83" s="416" t="s">
+        <v>59</v>
+      </c>
+      <c r="E83" s="416" t="s">
+        <v>982</v>
+      </c>
+      <c r="F83" s="416" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A84" s="417" t="s">
+        <v>1116</v>
+      </c>
+      <c r="B84" s="416" t="s">
+        <v>998</v>
+      </c>
+      <c r="C84" s="418">
+        <v>3</v>
+      </c>
+      <c r="D84" s="416" t="s">
+        <v>1448</v>
+      </c>
+      <c r="E84" s="416" t="s">
+        <v>996</v>
+      </c>
+      <c r="F84" s="416" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A85" s="417" t="s">
+        <v>1118</v>
+      </c>
+      <c r="B85" s="416" t="s">
+        <v>1000</v>
+      </c>
+      <c r="C85" s="418">
+        <v>3</v>
+      </c>
+      <c r="D85" s="416" t="s">
+        <v>166</v>
+      </c>
+      <c r="E85" s="416" t="s">
+        <v>982</v>
+      </c>
+      <c r="F85" s="416" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A86" s="417" t="s">
+        <v>1119</v>
+      </c>
+      <c r="B86" s="416" t="s">
+        <v>1001</v>
+      </c>
+      <c r="C86" s="418">
+        <v>3</v>
+      </c>
+      <c r="D86" s="416" t="s">
+        <v>184</v>
+      </c>
+      <c r="E86" s="416" t="s">
+        <v>938</v>
+      </c>
+      <c r="F86" s="416" t="s">
+        <v>119</v>
       </c>
     </row>
   </sheetData>
@@ -43785,11 +44054,11 @@
       <c r="F3" s="455"/>
     </row>
     <row r="4" spans="1:6" s="414" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="469" t="s">
+      <c r="A4" s="466" t="s">
         <v>1093</v>
       </c>
-      <c r="B4" s="469"/>
-      <c r="C4" s="469"/>
+      <c r="B4" s="466"/>
+      <c r="C4" s="466"/>
       <c r="D4" s="453" t="s">
         <v>1327</v>
       </c>
@@ -43799,9 +44068,9 @@
       <c r="F4" s="455"/>
     </row>
     <row r="5" spans="1:6" s="414" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="469"/>
-      <c r="B5" s="469"/>
-      <c r="C5" s="469"/>
+      <c r="A5" s="466"/>
+      <c r="B5" s="466"/>
+      <c r="C5" s="466"/>
       <c r="D5" s="453" t="s">
         <v>1328</v>
       </c>
@@ -43811,9 +44080,9 @@
       <c r="F5" s="455"/>
     </row>
     <row r="6" spans="1:6" s="414" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="469"/>
-      <c r="B6" s="469"/>
-      <c r="C6" s="469"/>
+      <c r="A6" s="466"/>
+      <c r="B6" s="466"/>
+      <c r="C6" s="466"/>
       <c r="D6" s="453" t="s">
         <v>1329</v>
       </c>
@@ -43823,11 +44092,11 @@
       <c r="F6" s="455"/>
     </row>
     <row r="7" spans="1:6" s="414" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="469" t="s">
+      <c r="A7" s="466" t="s">
         <v>1415</v>
       </c>
-      <c r="B7" s="469"/>
-      <c r="C7" s="469"/>
+      <c r="B7" s="466"/>
+      <c r="C7" s="466"/>
       <c r="D7" s="453" t="s">
         <v>1330</v>
       </c>
@@ -43837,9 +44106,9 @@
       <c r="F7" s="455"/>
     </row>
     <row r="8" spans="1:6" s="414" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="469"/>
-      <c r="B8" s="469"/>
-      <c r="C8" s="469"/>
+      <c r="A8" s="466"/>
+      <c r="B8" s="466"/>
+      <c r="C8" s="466"/>
       <c r="D8" s="453" t="s">
         <v>1331</v>
       </c>
@@ -43849,9 +44118,9 @@
       <c r="F8" s="455"/>
     </row>
     <row r="9" spans="1:6" s="414" customFormat="1" ht="9" x14ac:dyDescent="0.15">
-      <c r="A9" s="469"/>
-      <c r="B9" s="469"/>
-      <c r="C9" s="469"/>
+      <c r="A9" s="466"/>
+      <c r="B9" s="466"/>
+      <c r="C9" s="466"/>
       <c r="D9" s="453" t="s">
         <v>1332</v>
       </c>
@@ -45290,11 +45559,11 @@
       <c r="F3" s="458"/>
     </row>
     <row r="4" spans="1:6" s="414" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="465" t="s">
+      <c r="A4" s="467" t="s">
         <v>1093</v>
       </c>
-      <c r="B4" s="465"/>
-      <c r="C4" s="465"/>
+      <c r="B4" s="467"/>
+      <c r="C4" s="467"/>
       <c r="D4" s="459" t="s">
         <v>1134</v>
       </c>
@@ -45304,9 +45573,9 @@
       <c r="F4" s="458"/>
     </row>
     <row r="5" spans="1:6" s="414" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="465"/>
-      <c r="B5" s="465"/>
-      <c r="C5" s="465"/>
+      <c r="A5" s="467"/>
+      <c r="B5" s="467"/>
+      <c r="C5" s="467"/>
       <c r="D5" s="408" t="s">
         <v>1322</v>
       </c>
@@ -45315,33 +45584,33 @@
       </c>
     </row>
     <row r="6" spans="1:6" s="414" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="465"/>
-      <c r="B6" s="465"/>
-      <c r="C6" s="465"/>
+      <c r="A6" s="467"/>
+      <c r="B6" s="467"/>
+      <c r="C6" s="467"/>
       <c r="D6" s="410"/>
       <c r="E6" s="458"/>
       <c r="F6" s="458"/>
     </row>
     <row r="7" spans="1:6" s="414" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="465" t="s">
+      <c r="A7" s="467" t="s">
         <v>1427</v>
       </c>
-      <c r="B7" s="465"/>
-      <c r="C7" s="465"/>
+      <c r="B7" s="467"/>
+      <c r="C7" s="467"/>
       <c r="D7" s="408"/>
       <c r="E7" s="458"/>
       <c r="F7" s="458"/>
     </row>
     <row r="8" spans="1:6" s="414" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="465"/>
-      <c r="B8" s="465"/>
-      <c r="C8" s="465"/>
+      <c r="A8" s="467"/>
+      <c r="B8" s="467"/>
+      <c r="C8" s="467"/>
       <c r="D8" s="408"/>
     </row>
     <row r="9" spans="1:6" s="414" customFormat="1" ht="9" x14ac:dyDescent="0.15">
-      <c r="A9" s="465"/>
-      <c r="B9" s="465"/>
-      <c r="C9" s="465"/>
+      <c r="A9" s="467"/>
+      <c r="B9" s="467"/>
+      <c r="C9" s="467"/>
     </row>
     <row r="10" spans="1:6" s="414" customFormat="1" ht="9" x14ac:dyDescent="0.15">
       <c r="A10" s="413"/>
@@ -45608,11 +45877,11 @@
       <c r="F3" s="453"/>
     </row>
     <row r="4" spans="1:6" s="414" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="466" t="s">
+      <c r="A4" s="468" t="s">
         <v>1093</v>
       </c>
-      <c r="B4" s="466"/>
-      <c r="C4" s="466"/>
+      <c r="B4" s="468"/>
+      <c r="C4" s="468"/>
       <c r="D4" s="453" t="s">
         <v>1307</v>
       </c>
@@ -45622,9 +45891,9 @@
       <c r="F4" s="453"/>
     </row>
     <row r="5" spans="1:6" s="414" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="466"/>
-      <c r="B5" s="466"/>
-      <c r="C5" s="466"/>
+      <c r="A5" s="468"/>
+      <c r="B5" s="468"/>
+      <c r="C5" s="468"/>
       <c r="D5" s="453" t="s">
         <v>1309</v>
       </c>
@@ -45633,9 +45902,9 @@
       </c>
     </row>
     <row r="6" spans="1:6" s="414" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="466"/>
-      <c r="B6" s="466"/>
-      <c r="C6" s="466"/>
+      <c r="A6" s="468"/>
+      <c r="B6" s="468"/>
+      <c r="C6" s="468"/>
       <c r="D6" s="453" t="s">
         <v>1311</v>
       </c>
@@ -45645,11 +45914,11 @@
       <c r="F6" s="453"/>
     </row>
     <row r="7" spans="1:6" s="414" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="466" t="s">
+      <c r="A7" s="468" t="s">
         <v>1303</v>
       </c>
-      <c r="B7" s="466"/>
-      <c r="C7" s="466"/>
+      <c r="B7" s="468"/>
+      <c r="C7" s="468"/>
       <c r="D7" s="453" t="s">
         <v>1312</v>
       </c>
@@ -45659,9 +45928,9 @@
       <c r="F7" s="453"/>
     </row>
     <row r="8" spans="1:6" s="414" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="466"/>
-      <c r="B8" s="466"/>
-      <c r="C8" s="466"/>
+      <c r="A8" s="468"/>
+      <c r="B8" s="468"/>
+      <c r="C8" s="468"/>
       <c r="D8" s="453" t="s">
         <v>1314</v>
       </c>
@@ -45670,9 +45939,9 @@
       </c>
     </row>
     <row r="9" spans="1:6" s="414" customFormat="1" ht="9" x14ac:dyDescent="0.15">
-      <c r="A9" s="466"/>
-      <c r="B9" s="466"/>
-      <c r="C9" s="466"/>
+      <c r="A9" s="468"/>
+      <c r="B9" s="468"/>
+      <c r="C9" s="468"/>
       <c r="D9" s="453" t="s">
         <v>1315</v>
       </c>

--- a/schedule/semester/schedule.xlsx
+++ b/schedule/semester/schedule.xlsx
@@ -80,7 +80,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8274" uniqueCount="1475">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8261" uniqueCount="1474">
   <si>
     <t>ELECTRICAL AND COMPUTER ENGINEERING</t>
   </si>
@@ -4390,9 +4390,6 @@
     <t>T 1200-150PM</t>
   </si>
   <si>
-    <t>R 200-430PM</t>
-  </si>
-  <si>
     <t>W 1000-1150AM</t>
   </si>
   <si>
@@ -4504,7 +4501,7 @@
     <t>Optoelectronics</t>
   </si>
   <si>
-    <t>Posted 1/14/2019</t>
+    <t>Posted 1/16/2019</t>
   </si>
 </sst>
 </file>
@@ -40486,13 +40483,13 @@
   <sheetPr codeName="Sheet46">
     <tabColor rgb="FF92D050"/>
   </sheetPr>
-  <dimension ref="A1:F82"/>
+  <dimension ref="A1:F79"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <pane xSplit="1" ySplit="12" topLeftCell="B13" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A13" sqref="A13"/>
-      <selection pane="bottomRight" activeCell="B2" sqref="B2"/>
+      <selection pane="bottomRight" activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
@@ -40509,7 +40506,7 @@
     <row r="1" spans="1:6" s="410" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="407"/>
       <c r="B1" s="456" t="s">
-        <v>1474</v>
+        <v>1473</v>
       </c>
       <c r="C1" s="409"/>
       <c r="D1" s="418" t="s">
@@ -40729,7 +40726,7 @@
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" s="413" t="s">
-        <v>1466</v>
+        <v>1465</v>
       </c>
       <c r="B17" s="412" t="s">
         <v>915</v>
@@ -40969,7 +40966,7 @@
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A29" s="413" t="s">
-        <v>1168</v>
+        <v>1176</v>
       </c>
       <c r="B29" s="412" t="s">
         <v>921</v>
@@ -40978,10 +40975,10 @@
         <v>2</v>
       </c>
       <c r="D29" s="412" t="s">
-        <v>743</v>
+        <v>481</v>
       </c>
       <c r="E29" s="412" t="s">
-        <v>1435</v>
+        <v>1436</v>
       </c>
       <c r="F29" s="412" t="s">
         <v>100</v>
@@ -40989,7 +40986,7 @@
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A30" s="413" t="s">
-        <v>1170</v>
+        <v>1177</v>
       </c>
       <c r="B30" s="412" t="s">
         <v>921</v>
@@ -40998,10 +40995,10 @@
         <v>1</v>
       </c>
       <c r="D30" s="412" t="s">
-        <v>743</v>
+        <v>481</v>
       </c>
       <c r="E30" s="412" t="s">
-        <v>1436</v>
+        <v>1343</v>
       </c>
       <c r="F30" s="412" t="s">
         <v>100</v>
@@ -41009,199 +41006,199 @@
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31" s="413" t="s">
-        <v>1176</v>
+        <v>1006</v>
       </c>
       <c r="B31" s="412" t="s">
-        <v>921</v>
+        <v>1191</v>
       </c>
       <c r="C31" s="414">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D31" s="412" t="s">
-        <v>481</v>
+        <v>912</v>
       </c>
       <c r="E31" s="412" t="s">
-        <v>1437</v>
+        <v>924</v>
       </c>
       <c r="F31" s="412" t="s">
-        <v>100</v>
+        <v>432</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A32" s="413" t="s">
-        <v>1177</v>
+        <v>1007</v>
       </c>
       <c r="B32" s="412" t="s">
-        <v>921</v>
+        <v>925</v>
       </c>
       <c r="C32" s="414">
         <v>1</v>
       </c>
       <c r="D32" s="412" t="s">
-        <v>481</v>
+        <v>811</v>
       </c>
       <c r="E32" s="412" t="s">
-        <v>1343</v>
+        <v>1392</v>
       </c>
       <c r="F32" s="412" t="s">
-        <v>100</v>
+        <v>77</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A33" s="413" t="s">
-        <v>1006</v>
+        <v>1008</v>
       </c>
       <c r="B33" s="412" t="s">
-        <v>1191</v>
+        <v>927</v>
       </c>
       <c r="C33" s="414">
         <v>3</v>
       </c>
       <c r="D33" s="412" t="s">
-        <v>912</v>
+        <v>1369</v>
       </c>
       <c r="E33" s="412" t="s">
-        <v>924</v>
+        <v>958</v>
       </c>
       <c r="F33" s="412" t="s">
-        <v>432</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A34" s="413" t="s">
-        <v>1007</v>
+        <v>1009</v>
       </c>
       <c r="B34" s="412" t="s">
-        <v>925</v>
+        <v>1179</v>
       </c>
       <c r="C34" s="414">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D34" s="412" t="s">
-        <v>811</v>
+        <v>64</v>
       </c>
       <c r="E34" s="412" t="s">
-        <v>1392</v>
+        <v>929</v>
       </c>
       <c r="F34" s="412" t="s">
-        <v>77</v>
+        <v>178</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A35" s="413" t="s">
-        <v>1008</v>
+        <v>1377</v>
       </c>
       <c r="B35" s="412" t="s">
-        <v>927</v>
+        <v>1378</v>
       </c>
       <c r="C35" s="414">
         <v>3</v>
       </c>
       <c r="D35" s="412" t="s">
-        <v>1369</v>
+        <v>34</v>
       </c>
       <c r="E35" s="412" t="s">
-        <v>958</v>
+        <v>914</v>
       </c>
       <c r="F35" s="412" t="s">
-        <v>1438</v>
+        <v>1401</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A36" s="413" t="s">
-        <v>1009</v>
+        <v>1070</v>
       </c>
       <c r="B36" s="412" t="s">
-        <v>1179</v>
+        <v>930</v>
       </c>
       <c r="C36" s="414">
         <v>3</v>
       </c>
       <c r="D36" s="412" t="s">
-        <v>64</v>
+        <v>34</v>
       </c>
       <c r="E36" s="412" t="s">
-        <v>929</v>
+        <v>931</v>
       </c>
       <c r="F36" s="412" t="s">
-        <v>178</v>
+        <v>1393</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A37" s="413" t="s">
-        <v>1377</v>
+        <v>1213</v>
       </c>
       <c r="B37" s="412" t="s">
-        <v>1378</v>
+        <v>934</v>
       </c>
       <c r="C37" s="414">
         <v>3</v>
       </c>
       <c r="D37" s="412" t="s">
-        <v>34</v>
+        <v>64</v>
       </c>
       <c r="E37" s="412" t="s">
-        <v>914</v>
+        <v>931</v>
       </c>
       <c r="F37" s="412" t="s">
-        <v>1401</v>
+        <v>178</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A38" s="413" t="s">
-        <v>1070</v>
+        <v>1214</v>
       </c>
       <c r="B38" s="412" t="s">
-        <v>930</v>
+        <v>934</v>
       </c>
       <c r="C38" s="414">
         <v>3</v>
       </c>
       <c r="D38" s="412" t="s">
-        <v>34</v>
+        <v>607</v>
       </c>
       <c r="E38" s="412" t="s">
-        <v>931</v>
+        <v>1067</v>
       </c>
       <c r="F38" s="412" t="s">
-        <v>1393</v>
+        <v>189</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A39" s="413" t="s">
-        <v>1213</v>
+        <v>1425</v>
       </c>
       <c r="B39" s="412" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="C39" s="414">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D39" s="412" t="s">
-        <v>64</v>
+        <v>1426</v>
       </c>
       <c r="E39" s="412" t="s">
-        <v>931</v>
+        <v>936</v>
       </c>
       <c r="F39" s="412" t="s">
-        <v>178</v>
+        <v>189</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A40" s="413" t="s">
-        <v>1214</v>
+        <v>1427</v>
       </c>
       <c r="B40" s="412" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="C40" s="414">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D40" s="412" t="s">
-        <v>607</v>
+        <v>888</v>
       </c>
       <c r="E40" s="412" t="s">
-        <v>1067</v>
+        <v>933</v>
       </c>
       <c r="F40" s="412" t="s">
         <v>189</v>
@@ -41209,47 +41206,47 @@
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A41" s="413" t="s">
-        <v>1425</v>
+        <v>1154</v>
       </c>
       <c r="B41" s="412" t="s">
-        <v>935</v>
+        <v>1192</v>
       </c>
       <c r="C41" s="414">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D41" s="412" t="s">
-        <v>1426</v>
+        <v>1428</v>
       </c>
       <c r="E41" s="412" t="s">
-        <v>936</v>
+        <v>942</v>
       </c>
       <c r="F41" s="412" t="s">
-        <v>189</v>
+        <v>1466</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A42" s="413" t="s">
-        <v>1427</v>
+        <v>1156</v>
       </c>
       <c r="B42" s="412" t="s">
-        <v>935</v>
+        <v>1192</v>
       </c>
       <c r="C42" s="414">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D42" s="412" t="s">
-        <v>888</v>
+        <v>1428</v>
       </c>
       <c r="E42" s="412" t="s">
-        <v>933</v>
+        <v>938</v>
       </c>
       <c r="F42" s="412" t="s">
-        <v>189</v>
+        <v>1466</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A43" s="413" t="s">
-        <v>1154</v>
+        <v>1172</v>
       </c>
       <c r="B43" s="412" t="s">
         <v>1192</v>
@@ -41261,55 +41258,55 @@
         <v>1428</v>
       </c>
       <c r="E43" s="412" t="s">
-        <v>942</v>
+        <v>1462</v>
       </c>
       <c r="F43" s="412" t="s">
-        <v>1467</v>
+        <v>1466</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A44" s="413" t="s">
-        <v>1156</v>
+        <v>1015</v>
       </c>
       <c r="B44" s="412" t="s">
-        <v>1192</v>
+        <v>1215</v>
       </c>
       <c r="C44" s="414">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D44" s="412" t="s">
-        <v>1428</v>
+        <v>741</v>
       </c>
       <c r="E44" s="412" t="s">
-        <v>938</v>
+        <v>1438</v>
       </c>
       <c r="F44" s="412" t="s">
-        <v>1467</v>
+        <v>100</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A45" s="413" t="s">
-        <v>1172</v>
+        <v>1016</v>
       </c>
       <c r="B45" s="412" t="s">
-        <v>1192</v>
+        <v>1215</v>
       </c>
       <c r="C45" s="414">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D45" s="412" t="s">
-        <v>1428</v>
+        <v>741</v>
       </c>
       <c r="E45" s="412" t="s">
-        <v>1463</v>
+        <v>1439</v>
       </c>
       <c r="F45" s="412" t="s">
-        <v>1467</v>
+        <v>100</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A46" s="413" t="s">
-        <v>1015</v>
+        <v>1196</v>
       </c>
       <c r="B46" s="412" t="s">
         <v>1215</v>
@@ -41321,7 +41318,7 @@
         <v>741</v>
       </c>
       <c r="E46" s="412" t="s">
-        <v>1439</v>
+        <v>1336</v>
       </c>
       <c r="F46" s="412" t="s">
         <v>100</v>
@@ -41329,7 +41326,7 @@
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A47" s="413" t="s">
-        <v>1016</v>
+        <v>1198</v>
       </c>
       <c r="B47" s="412" t="s">
         <v>1215</v>
@@ -41341,7 +41338,7 @@
         <v>741</v>
       </c>
       <c r="E47" s="412" t="s">
-        <v>1440</v>
+        <v>1207</v>
       </c>
       <c r="F47" s="412" t="s">
         <v>100</v>
@@ -41349,7 +41346,7 @@
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A48" s="413" t="s">
-        <v>1196</v>
+        <v>1199</v>
       </c>
       <c r="B48" s="412" t="s">
         <v>1215</v>
@@ -41361,7 +41358,7 @@
         <v>741</v>
       </c>
       <c r="E48" s="412" t="s">
-        <v>1336</v>
+        <v>1440</v>
       </c>
       <c r="F48" s="412" t="s">
         <v>100</v>
@@ -41369,7 +41366,7 @@
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A49" s="413" t="s">
-        <v>1198</v>
+        <v>1201</v>
       </c>
       <c r="B49" s="412" t="s">
         <v>1215</v>
@@ -41381,7 +41378,7 @@
         <v>741</v>
       </c>
       <c r="E49" s="412" t="s">
-        <v>1207</v>
+        <v>1210</v>
       </c>
       <c r="F49" s="412" t="s">
         <v>100</v>
@@ -41389,107 +41386,107 @@
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A50" s="413" t="s">
-        <v>1199</v>
+        <v>1071</v>
       </c>
       <c r="B50" s="412" t="s">
-        <v>1215</v>
+        <v>1202</v>
       </c>
       <c r="C50" s="414">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D50" s="412" t="s">
-        <v>741</v>
+        <v>34</v>
       </c>
       <c r="E50" s="412" t="s">
-        <v>1441</v>
+        <v>929</v>
       </c>
       <c r="F50" s="412" t="s">
-        <v>100</v>
+        <v>1393</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A51" s="413" t="s">
-        <v>1201</v>
+        <v>1072</v>
       </c>
       <c r="B51" s="412" t="s">
-        <v>1215</v>
+        <v>937</v>
       </c>
       <c r="C51" s="414">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D51" s="412" t="s">
-        <v>741</v>
+        <v>34</v>
       </c>
       <c r="E51" s="412" t="s">
-        <v>1210</v>
+        <v>938</v>
       </c>
       <c r="F51" s="412" t="s">
-        <v>100</v>
+        <v>1393</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A52" s="413" t="s">
-        <v>1071</v>
+        <v>1073</v>
       </c>
       <c r="B52" s="412" t="s">
-        <v>1202</v>
+        <v>941</v>
       </c>
       <c r="C52" s="414">
         <v>3</v>
       </c>
       <c r="D52" s="412" t="s">
-        <v>34</v>
+        <v>64</v>
       </c>
       <c r="E52" s="412" t="s">
-        <v>929</v>
+        <v>942</v>
       </c>
       <c r="F52" s="412" t="s">
-        <v>1393</v>
+        <v>178</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A53" s="413" t="s">
-        <v>1072</v>
+        <v>1019</v>
       </c>
       <c r="B53" s="412" t="s">
-        <v>937</v>
+        <v>943</v>
       </c>
       <c r="C53" s="414">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D53" s="412" t="s">
-        <v>34</v>
+        <v>1467</v>
       </c>
       <c r="E53" s="412" t="s">
-        <v>938</v>
+        <v>944</v>
       </c>
       <c r="F53" s="412" t="s">
-        <v>1393</v>
+        <v>905</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A54" s="413" t="s">
-        <v>1073</v>
+        <v>1161</v>
       </c>
       <c r="B54" s="412" t="s">
-        <v>941</v>
+        <v>943</v>
       </c>
       <c r="C54" s="414">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D54" s="412" t="s">
-        <v>64</v>
+        <v>1448</v>
       </c>
       <c r="E54" s="412" t="s">
-        <v>942</v>
+        <v>916</v>
       </c>
       <c r="F54" s="412" t="s">
-        <v>178</v>
+        <v>1468</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A55" s="413" t="s">
-        <v>1019</v>
+        <v>1163</v>
       </c>
       <c r="B55" s="412" t="s">
         <v>943</v>
@@ -41498,7 +41495,7 @@
         <v>2</v>
       </c>
       <c r="D55" s="412" t="s">
-        <v>1468</v>
+        <v>1467</v>
       </c>
       <c r="E55" s="412" t="s">
         <v>944</v>
@@ -41509,7 +41506,7 @@
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A56" s="413" t="s">
-        <v>1161</v>
+        <v>1441</v>
       </c>
       <c r="B56" s="412" t="s">
         <v>943</v>
@@ -41518,10 +41515,10 @@
         <v>1</v>
       </c>
       <c r="D56" s="412" t="s">
-        <v>1449</v>
+        <v>1448</v>
       </c>
       <c r="E56" s="412" t="s">
-        <v>916</v>
+        <v>1343</v>
       </c>
       <c r="F56" s="412" t="s">
         <v>1469</v>
@@ -41529,136 +41526,139 @@
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A57" s="413" t="s">
-        <v>1163</v>
+        <v>1074</v>
       </c>
       <c r="B57" s="412" t="s">
-        <v>943</v>
+        <v>945</v>
       </c>
       <c r="C57" s="414">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D57" s="412" t="s">
-        <v>1468</v>
+        <v>732</v>
       </c>
       <c r="E57" s="412" t="s">
-        <v>944</v>
+        <v>946</v>
       </c>
       <c r="F57" s="412" t="s">
-        <v>905</v>
+        <v>89</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A58" s="413" t="s">
-        <v>1442</v>
+        <v>1075</v>
       </c>
       <c r="B58" s="412" t="s">
-        <v>943</v>
+        <v>948</v>
       </c>
       <c r="C58" s="414">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D58" s="412" t="s">
-        <v>1449</v>
+        <v>414</v>
       </c>
       <c r="E58" s="412" t="s">
-        <v>1343</v>
+        <v>947</v>
       </c>
       <c r="F58" s="412" t="s">
-        <v>1470</v>
+        <v>66</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A59" s="413" t="s">
-        <v>1074</v>
+        <v>1379</v>
       </c>
       <c r="B59" s="412" t="s">
-        <v>945</v>
+        <v>1380</v>
       </c>
       <c r="C59" s="414">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D59" s="412" t="s">
-        <v>732</v>
+        <v>1424</v>
       </c>
       <c r="E59" s="412" t="s">
-        <v>946</v>
+        <v>1210</v>
       </c>
       <c r="F59" s="412" t="s">
-        <v>89</v>
+        <v>104</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A60" s="413" t="s">
-        <v>1075</v>
+        <v>1023</v>
       </c>
       <c r="B60" s="412" t="s">
-        <v>948</v>
+        <v>951</v>
       </c>
       <c r="C60" s="414">
         <v>3</v>
       </c>
       <c r="D60" s="412" t="s">
-        <v>414</v>
+        <v>112</v>
       </c>
       <c r="E60" s="412" t="s">
-        <v>947</v>
+        <v>950</v>
       </c>
       <c r="F60" s="412" t="s">
-        <v>66</v>
+        <v>1470</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A61" s="413" t="s">
-        <v>1379</v>
+        <v>1024</v>
       </c>
       <c r="B61" s="412" t="s">
-        <v>1380</v>
+        <v>952</v>
       </c>
       <c r="C61" s="414">
-        <v>1</v>
+        <v>3</v>
+      </c>
+      <c r="D61" s="412" t="s">
+        <v>872</v>
       </c>
       <c r="E61" s="412" t="s">
-        <v>1210</v>
+        <v>947</v>
       </c>
       <c r="F61" s="412" t="s">
-        <v>104</v>
+        <v>189</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A62" s="413" t="s">
-        <v>1023</v>
+        <v>1025</v>
       </c>
       <c r="B62" s="412" t="s">
-        <v>951</v>
+        <v>954</v>
       </c>
       <c r="C62" s="414">
         <v>3</v>
       </c>
       <c r="D62" s="412" t="s">
-        <v>112</v>
+        <v>658</v>
       </c>
       <c r="E62" s="412" t="s">
-        <v>950</v>
+        <v>914</v>
       </c>
       <c r="F62" s="412" t="s">
-        <v>1471</v>
+        <v>189</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A63" s="413" t="s">
-        <v>1024</v>
+        <v>1077</v>
       </c>
       <c r="B63" s="412" t="s">
-        <v>952</v>
+        <v>955</v>
       </c>
       <c r="C63" s="414">
         <v>3</v>
       </c>
       <c r="D63" s="412" t="s">
-        <v>872</v>
+        <v>1218</v>
       </c>
       <c r="E63" s="412" t="s">
-        <v>947</v>
+        <v>953</v>
       </c>
       <c r="F63" s="412" t="s">
         <v>189</v>
@@ -41666,378 +41666,321 @@
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A64" s="413" t="s">
-        <v>1025</v>
+        <v>1079</v>
       </c>
       <c r="B64" s="412" t="s">
-        <v>954</v>
+        <v>957</v>
       </c>
       <c r="C64" s="414">
         <v>3</v>
       </c>
       <c r="D64" s="412" t="s">
-        <v>658</v>
+        <v>481</v>
       </c>
       <c r="E64" s="412" t="s">
-        <v>914</v>
+        <v>928</v>
       </c>
       <c r="F64" s="412" t="s">
-        <v>189</v>
+        <v>119</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A65" s="413" t="s">
-        <v>1077</v>
+        <v>1080</v>
       </c>
       <c r="B65" s="412" t="s">
-        <v>955</v>
+        <v>959</v>
       </c>
       <c r="C65" s="414">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D65" s="412" t="s">
-        <v>1218</v>
+        <v>743</v>
       </c>
       <c r="E65" s="412" t="s">
-        <v>953</v>
+        <v>1203</v>
       </c>
       <c r="F65" s="412" t="s">
-        <v>189</v>
+        <v>100</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A66" s="413" t="s">
-        <v>1079</v>
+        <v>1081</v>
       </c>
       <c r="B66" s="412" t="s">
-        <v>957</v>
+        <v>959</v>
       </c>
       <c r="C66" s="414">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D66" s="412" t="s">
-        <v>481</v>
+        <v>743</v>
       </c>
       <c r="E66" s="412" t="s">
-        <v>928</v>
+        <v>1034</v>
       </c>
       <c r="F66" s="412" t="s">
-        <v>119</v>
+        <v>100</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A67" s="413" t="s">
-        <v>1080</v>
+        <v>1384</v>
       </c>
       <c r="B67" s="412" t="s">
-        <v>959</v>
+        <v>1442</v>
       </c>
       <c r="C67" s="414">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D67" s="412" t="s">
-        <v>743</v>
+        <v>414</v>
       </c>
       <c r="E67" s="412" t="s">
-        <v>1203</v>
+        <v>946</v>
       </c>
       <c r="F67" s="412" t="s">
-        <v>100</v>
+        <v>66</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A68" s="413" t="s">
-        <v>1081</v>
+        <v>1082</v>
       </c>
       <c r="B68" s="412" t="s">
-        <v>959</v>
+        <v>1443</v>
       </c>
       <c r="C68" s="414">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D68" s="412" t="s">
-        <v>743</v>
+        <v>64</v>
       </c>
       <c r="E68" s="412" t="s">
-        <v>1034</v>
+        <v>962</v>
       </c>
       <c r="F68" s="412" t="s">
-        <v>100</v>
+        <v>432</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A69" s="413" t="s">
-        <v>1384</v>
+        <v>1083</v>
       </c>
       <c r="B69" s="412" t="s">
-        <v>1443</v>
+        <v>963</v>
       </c>
       <c r="C69" s="414">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D69" s="412" t="s">
-        <v>414</v>
+        <v>1426</v>
       </c>
       <c r="E69" s="412" t="s">
-        <v>946</v>
+        <v>1207</v>
       </c>
       <c r="F69" s="412" t="s">
-        <v>66</v>
+        <v>135</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A70" s="413" t="s">
-        <v>1082</v>
+        <v>1471</v>
       </c>
       <c r="B70" s="412" t="s">
-        <v>1444</v>
+        <v>1472</v>
       </c>
       <c r="C70" s="414">
         <v>3</v>
       </c>
       <c r="D70" s="412" t="s">
-        <v>64</v>
+        <v>138</v>
       </c>
       <c r="E70" s="412" t="s">
-        <v>962</v>
+        <v>964</v>
       </c>
       <c r="F70" s="412" t="s">
-        <v>432</v>
+        <v>50</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A71" s="413" t="s">
-        <v>1083</v>
+        <v>1381</v>
       </c>
       <c r="B71" s="412" t="s">
-        <v>963</v>
+        <v>1382</v>
       </c>
       <c r="C71" s="414">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D71" s="412" t="s">
-        <v>1426</v>
+        <v>184</v>
       </c>
       <c r="E71" s="412" t="s">
-        <v>1207</v>
+        <v>942</v>
       </c>
       <c r="F71" s="412" t="s">
-        <v>135</v>
+        <v>223</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A72" s="413" t="s">
-        <v>1472</v>
+        <v>1208</v>
       </c>
       <c r="B72" s="412" t="s">
-        <v>1473</v>
+        <v>965</v>
       </c>
       <c r="C72" s="414">
         <v>3</v>
       </c>
       <c r="D72" s="412" t="s">
-        <v>138</v>
+        <v>604</v>
       </c>
       <c r="E72" s="412" t="s">
-        <v>964</v>
+        <v>1383</v>
       </c>
       <c r="F72" s="412" t="s">
-        <v>50</v>
+        <v>1225</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A73" s="413" t="s">
-        <v>1381</v>
+        <v>1084</v>
       </c>
       <c r="B73" s="412" t="s">
-        <v>1382</v>
+        <v>968</v>
       </c>
       <c r="C73" s="414">
         <v>3</v>
       </c>
       <c r="D73" s="412" t="s">
-        <v>184</v>
+        <v>166</v>
       </c>
       <c r="E73" s="412" t="s">
-        <v>942</v>
+        <v>969</v>
       </c>
       <c r="F73" s="412" t="s">
-        <v>223</v>
+        <v>119</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A74" s="413" t="s">
-        <v>1208</v>
+        <v>1085</v>
       </c>
       <c r="B74" s="412" t="s">
-        <v>965</v>
+        <v>970</v>
       </c>
       <c r="C74" s="414">
         <v>3</v>
       </c>
       <c r="D74" s="412" t="s">
-        <v>604</v>
+        <v>166</v>
       </c>
       <c r="E74" s="412" t="s">
-        <v>1383</v>
+        <v>953</v>
       </c>
       <c r="F74" s="412" t="s">
-        <v>1225</v>
+        <v>293</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A75" s="413" t="s">
-        <v>1084</v>
+        <v>1086</v>
       </c>
       <c r="B75" s="412" t="s">
-        <v>968</v>
+        <v>971</v>
       </c>
       <c r="C75" s="414">
         <v>3</v>
       </c>
+      <c r="D75" s="412" t="s">
+        <v>414</v>
+      </c>
       <c r="E75" s="412" t="s">
-        <v>969</v>
+        <v>972</v>
       </c>
       <c r="F75" s="412" t="s">
-        <v>119</v>
+        <v>223</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A76" s="413" t="s">
-        <v>1085</v>
+        <v>1463</v>
       </c>
       <c r="B76" s="412" t="s">
-        <v>970</v>
+        <v>1464</v>
       </c>
       <c r="C76" s="414">
         <v>3</v>
       </c>
       <c r="D76" s="412" t="s">
-        <v>166</v>
+        <v>872</v>
       </c>
       <c r="E76" s="412" t="s">
-        <v>953</v>
+        <v>924</v>
       </c>
       <c r="F76" s="412" t="s">
-        <v>293</v>
+        <v>77</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A77" s="413" t="s">
-        <v>1086</v>
+        <v>1087</v>
       </c>
       <c r="B77" s="412" t="s">
-        <v>971</v>
+        <v>1088</v>
       </c>
       <c r="C77" s="414">
         <v>3</v>
       </c>
       <c r="D77" s="412" t="s">
-        <v>414</v>
+        <v>658</v>
       </c>
       <c r="E77" s="412" t="s">
-        <v>972</v>
+        <v>946</v>
       </c>
       <c r="F77" s="412" t="s">
-        <v>223</v>
+        <v>189</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A78" s="413" t="s">
-        <v>1464</v>
+        <v>1090</v>
       </c>
       <c r="B78" s="412" t="s">
-        <v>1465</v>
+        <v>1188</v>
       </c>
       <c r="C78" s="414">
         <v>3</v>
       </c>
       <c r="D78" s="412" t="s">
-        <v>872</v>
+        <v>59</v>
       </c>
       <c r="E78" s="412" t="s">
-        <v>924</v>
+        <v>958</v>
       </c>
       <c r="F78" s="412" t="s">
-        <v>77</v>
+        <v>119</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A79" s="413" t="s">
-        <v>1087</v>
+        <v>1095</v>
       </c>
       <c r="B79" s="412" t="s">
-        <v>1088</v>
+        <v>977</v>
       </c>
       <c r="C79" s="414">
         <v>3</v>
       </c>
       <c r="D79" s="412" t="s">
-        <v>658</v>
+        <v>184</v>
       </c>
       <c r="E79" s="412" t="s">
-        <v>946</v>
+        <v>914</v>
       </c>
       <c r="F79" s="412" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A80" s="413" t="s">
-        <v>1090</v>
-      </c>
-      <c r="B80" s="412" t="s">
-        <v>1188</v>
-      </c>
-      <c r="C80" s="414">
-        <v>3</v>
-      </c>
-      <c r="D80" s="412" t="s">
-        <v>59</v>
-      </c>
-      <c r="E80" s="412" t="s">
-        <v>958</v>
-      </c>
-      <c r="F80" s="412" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A81" s="413" t="s">
-        <v>1094</v>
-      </c>
-      <c r="B81" s="412" t="s">
-        <v>976</v>
-      </c>
-      <c r="C81" s="414">
-        <v>3</v>
-      </c>
-      <c r="D81" s="412" t="s">
-        <v>166</v>
-      </c>
-      <c r="E81" s="412" t="s">
-        <v>958</v>
-      </c>
-      <c r="F81" s="412" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A82" s="413" t="s">
-        <v>1095</v>
-      </c>
-      <c r="B82" s="412" t="s">
-        <v>977</v>
-      </c>
-      <c r="C82" s="414">
-        <v>3</v>
-      </c>
-      <c r="D82" s="412" t="s">
-        <v>184</v>
-      </c>
-      <c r="E82" s="412" t="s">
-        <v>914</v>
-      </c>
-      <c r="F82" s="412" t="s">
         <v>119</v>
       </c>
     </row>
@@ -44052,7 +43995,7 @@
     </row>
     <row r="13" spans="1:6" ht="12" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A13" s="413" t="s">
-        <v>1445</v>
+        <v>1444</v>
       </c>
       <c r="B13" s="412" t="s">
         <v>1371</v>
@@ -44067,12 +44010,12 @@
         <v>914</v>
       </c>
       <c r="F13" s="412" t="s">
-        <v>1446</v>
+        <v>1445</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" s="413" t="s">
-        <v>1447</v>
+        <v>1446</v>
       </c>
       <c r="B14" s="412" t="s">
         <v>1371</v>
@@ -44087,7 +44030,7 @@
         <v>914</v>
       </c>
       <c r="F14" s="412" t="s">
-        <v>1448</v>
+        <v>1447</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
@@ -44121,7 +44064,7 @@
         <v>1</v>
       </c>
       <c r="D16" s="412" t="s">
-        <v>1449</v>
+        <v>1448</v>
       </c>
       <c r="E16" s="412" t="s">
         <v>933</v>
@@ -44141,7 +44084,7 @@
         <v>1</v>
       </c>
       <c r="D17" s="412" t="s">
-        <v>1449</v>
+        <v>1448</v>
       </c>
       <c r="E17" s="412" t="s">
         <v>1210</v>
@@ -44204,7 +44147,7 @@
         <v>59</v>
       </c>
       <c r="E20" s="412" t="s">
-        <v>1450</v>
+        <v>1449</v>
       </c>
       <c r="F20" s="412" t="s">
         <v>119</v>
@@ -44244,7 +44187,7 @@
         <v>741</v>
       </c>
       <c r="E22" s="412" t="s">
-        <v>1451</v>
+        <v>1450</v>
       </c>
       <c r="F22" s="412" t="s">
         <v>189</v>
@@ -44384,7 +44327,7 @@
         <v>741</v>
       </c>
       <c r="E29" s="412" t="s">
-        <v>1452</v>
+        <v>1451</v>
       </c>
       <c r="F29" s="412" t="s">
         <v>100</v>
@@ -44424,7 +44367,7 @@
         <v>743</v>
       </c>
       <c r="E31" s="412" t="s">
-        <v>1452</v>
+        <v>1451</v>
       </c>
       <c r="F31" s="412" t="s">
         <v>66</v>
@@ -44464,7 +44407,7 @@
         <v>811</v>
       </c>
       <c r="E33" s="412" t="s">
-        <v>1453</v>
+        <v>1452</v>
       </c>
       <c r="F33" s="412" t="s">
         <v>100</v>
@@ -44567,7 +44510,7 @@
         <v>929</v>
       </c>
       <c r="F38" s="412" t="s">
-        <v>1454</v>
+        <v>1453</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.2">
@@ -44744,7 +44687,7 @@
         <v>481</v>
       </c>
       <c r="E47" s="412" t="s">
-        <v>1455</v>
+        <v>1454</v>
       </c>
       <c r="F47" s="412" t="s">
         <v>77</v>
@@ -44764,7 +44707,7 @@
         <v>741</v>
       </c>
       <c r="E48" s="412" t="s">
-        <v>1456</v>
+        <v>1455</v>
       </c>
       <c r="F48" s="412" t="s">
         <v>100</v>
@@ -44844,7 +44787,7 @@
         <v>741</v>
       </c>
       <c r="E52" s="412" t="s">
-        <v>1457</v>
+        <v>1456</v>
       </c>
       <c r="F52" s="412" t="s">
         <v>100</v>
@@ -44941,7 +44884,7 @@
         <v>2</v>
       </c>
       <c r="D57" s="412" t="s">
-        <v>1458</v>
+        <v>1457</v>
       </c>
       <c r="E57" s="412" t="s">
         <v>944</v>
@@ -45001,7 +44944,7 @@
         <v>1</v>
       </c>
       <c r="D60" s="412" t="s">
-        <v>1449</v>
+        <v>1448</v>
       </c>
       <c r="E60" s="412" t="s">
         <v>923</v>
@@ -45164,7 +45107,7 @@
         <v>481</v>
       </c>
       <c r="E68" s="412" t="s">
-        <v>1459</v>
+        <v>1458</v>
       </c>
       <c r="F68" s="412" t="s">
         <v>417</v>
@@ -45215,13 +45158,13 @@
         <v>1384</v>
       </c>
       <c r="B71" s="412" t="s">
-        <v>1460</v>
+        <v>1459</v>
       </c>
       <c r="C71" s="414">
         <v>3</v>
       </c>
       <c r="D71" s="412" t="s">
-        <v>1461</v>
+        <v>1460</v>
       </c>
       <c r="E71" s="412" t="s">
         <v>964</v>
@@ -45307,7 +45250,7 @@
         <v>1383</v>
       </c>
       <c r="F75" s="412" t="s">
-        <v>1462</v>
+        <v>1461</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.2">

--- a/schedule/semester/schedule.xlsx
+++ b/schedule/semester/schedule.xlsx
@@ -40489,7 +40489,7 @@
       <pane xSplit="1" ySplit="12" topLeftCell="B13" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A13" sqref="A13"/>
-      <selection pane="bottomRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomRight" activeCell="B84" sqref="B84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
@@ -41081,7 +41081,7 @@
         <v>929</v>
       </c>
       <c r="F34" s="412" t="s">
-        <v>178</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.2">

--- a/schedule/semester/schedule.xlsx
+++ b/schedule/semester/schedule.xlsx
@@ -4483,25 +4483,25 @@
     <t>BIOS352</t>
   </si>
   <si>
+    <t>ETC251 and ETC252</t>
+  </si>
+  <si>
+    <t>ETC252 and ETC251</t>
+  </si>
+  <si>
+    <t>KHB4015</t>
+  </si>
+  <si>
+    <t>EE4730</t>
+  </si>
+  <si>
+    <t>Optoelectronics</t>
+  </si>
+  <si>
+    <t>Posted 1/16/2019</t>
+  </si>
+  <si>
     <t>Won/Karuhaka</t>
-  </si>
-  <si>
-    <t>ETC251 and ETC252</t>
-  </si>
-  <si>
-    <t>ETC252 and ETC251</t>
-  </si>
-  <si>
-    <t>KHB4015</t>
-  </si>
-  <si>
-    <t>EE4730</t>
-  </si>
-  <si>
-    <t>Optoelectronics</t>
-  </si>
-  <si>
-    <t>Posted 1/16/2019</t>
   </si>
 </sst>
 </file>
@@ -40486,10 +40486,10 @@
   <dimension ref="A1:F79"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane xSplit="1" ySplit="12" topLeftCell="B13" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="12" topLeftCell="B40" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A13" sqref="A13"/>
-      <selection pane="bottomRight" activeCell="B84" sqref="B84"/>
+      <selection pane="bottomRight" activeCell="D55" sqref="D55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
@@ -40506,7 +40506,7 @@
     <row r="1" spans="1:6" s="410" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="407"/>
       <c r="B1" s="456" t="s">
-        <v>1473</v>
+        <v>1472</v>
       </c>
       <c r="C1" s="409"/>
       <c r="D1" s="418" t="s">
@@ -41455,7 +41455,7 @@
         <v>2</v>
       </c>
       <c r="D53" s="412" t="s">
-        <v>1467</v>
+        <v>1473</v>
       </c>
       <c r="E53" s="412" t="s">
         <v>944</v>
@@ -41481,7 +41481,7 @@
         <v>916</v>
       </c>
       <c r="F54" s="412" t="s">
-        <v>1468</v>
+        <v>1467</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.2">
@@ -41495,7 +41495,7 @@
         <v>2</v>
       </c>
       <c r="D55" s="412" t="s">
-        <v>1467</v>
+        <v>1473</v>
       </c>
       <c r="E55" s="412" t="s">
         <v>944</v>
@@ -41521,7 +41521,7 @@
         <v>1343</v>
       </c>
       <c r="F56" s="412" t="s">
-        <v>1469</v>
+        <v>1468</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.2">
@@ -41601,7 +41601,7 @@
         <v>950</v>
       </c>
       <c r="F60" s="412" t="s">
-        <v>1470</v>
+        <v>1469</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.2">
@@ -41786,10 +41786,10 @@
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A70" s="413" t="s">
+        <v>1470</v>
+      </c>
+      <c r="B70" s="412" t="s">
         <v>1471</v>
-      </c>
-      <c r="B70" s="412" t="s">
-        <v>1472</v>
       </c>
       <c r="C70" s="414">
         <v>3</v>

--- a/schedule/semester/schedule.xlsx
+++ b/schedule/semester/schedule.xlsx
@@ -80,7 +80,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8261" uniqueCount="1474">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8256" uniqueCount="1474">
   <si>
     <t>ELECTRICAL AND COMPUTER ENGINEERING</t>
   </si>
@@ -4498,10 +4498,10 @@
     <t>Optoelectronics</t>
   </si>
   <si>
-    <t>Posted 1/16/2019</t>
-  </si>
-  <si>
     <t>Won/Karuhaka</t>
+  </si>
+  <si>
+    <t>Posted 1/24/2019</t>
   </si>
 </sst>
 </file>
@@ -40483,13 +40483,13 @@
   <sheetPr codeName="Sheet46">
     <tabColor rgb="FF92D050"/>
   </sheetPr>
-  <dimension ref="A1:F79"/>
+  <dimension ref="A1:F78"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane xSplit="1" ySplit="12" topLeftCell="B40" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="12" topLeftCell="B13" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A13" sqref="A13"/>
-      <selection pane="bottomRight" activeCell="D55" sqref="D55"/>
+      <selection pane="bottomRight" activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
@@ -40506,7 +40506,7 @@
     <row r="1" spans="1:6" s="410" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="407"/>
       <c r="B1" s="456" t="s">
-        <v>1472</v>
+        <v>1473</v>
       </c>
       <c r="C1" s="409"/>
       <c r="D1" s="418" t="s">
@@ -40746,19 +40746,19 @@
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" s="413" t="s">
-        <v>1059</v>
+        <v>1060</v>
       </c>
       <c r="B18" s="412" t="s">
         <v>917</v>
       </c>
       <c r="C18" s="414">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D18" s="412" t="s">
         <v>481</v>
       </c>
       <c r="E18" s="412" t="s">
-        <v>1433</v>
+        <v>1337</v>
       </c>
       <c r="F18" s="412" t="s">
         <v>100</v>
@@ -40766,19 +40766,19 @@
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" s="413" t="s">
-        <v>1060</v>
+        <v>1061</v>
       </c>
       <c r="B19" s="412" t="s">
         <v>917</v>
       </c>
       <c r="C19" s="414">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D19" s="412" t="s">
-        <v>481</v>
+        <v>59</v>
       </c>
       <c r="E19" s="412" t="s">
-        <v>1337</v>
+        <v>1434</v>
       </c>
       <c r="F19" s="412" t="s">
         <v>100</v>
@@ -40786,19 +40786,19 @@
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" s="413" t="s">
-        <v>1061</v>
+        <v>1063</v>
       </c>
       <c r="B20" s="412" t="s">
         <v>917</v>
       </c>
       <c r="C20" s="414">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D20" s="412" t="s">
         <v>59</v>
       </c>
       <c r="E20" s="412" t="s">
-        <v>1434</v>
+        <v>1339</v>
       </c>
       <c r="F20" s="412" t="s">
         <v>100</v>
@@ -40806,27 +40806,27 @@
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" s="413" t="s">
-        <v>1063</v>
+        <v>1064</v>
       </c>
       <c r="B21" s="412" t="s">
-        <v>917</v>
+        <v>920</v>
       </c>
       <c r="C21" s="414">
         <v>1</v>
       </c>
       <c r="D21" s="412" t="s">
-        <v>59</v>
+        <v>743</v>
       </c>
       <c r="E21" s="412" t="s">
-        <v>1339</v>
+        <v>919</v>
       </c>
       <c r="F21" s="412" t="s">
-        <v>100</v>
+        <v>19</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" s="413" t="s">
-        <v>1064</v>
+        <v>1065</v>
       </c>
       <c r="B22" s="412" t="s">
         <v>920</v>
@@ -40835,10 +40835,10 @@
         <v>1</v>
       </c>
       <c r="D22" s="412" t="s">
-        <v>743</v>
+        <v>1372</v>
       </c>
       <c r="E22" s="412" t="s">
-        <v>919</v>
+        <v>936</v>
       </c>
       <c r="F22" s="412" t="s">
         <v>19</v>
@@ -40846,7 +40846,7 @@
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" s="413" t="s">
-        <v>1065</v>
+        <v>1066</v>
       </c>
       <c r="B23" s="412" t="s">
         <v>920</v>
@@ -40858,7 +40858,7 @@
         <v>1372</v>
       </c>
       <c r="E23" s="412" t="s">
-        <v>936</v>
+        <v>1034</v>
       </c>
       <c r="F23" s="412" t="s">
         <v>19</v>
@@ -40866,7 +40866,7 @@
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24" s="413" t="s">
-        <v>1066</v>
+        <v>1387</v>
       </c>
       <c r="B24" s="412" t="s">
         <v>920</v>
@@ -40875,10 +40875,10 @@
         <v>1</v>
       </c>
       <c r="D24" s="412" t="s">
-        <v>1372</v>
+        <v>811</v>
       </c>
       <c r="E24" s="412" t="s">
-        <v>1034</v>
+        <v>1388</v>
       </c>
       <c r="F24" s="412" t="s">
         <v>19</v>
@@ -40886,7 +40886,7 @@
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25" s="413" t="s">
-        <v>1387</v>
+        <v>1389</v>
       </c>
       <c r="B25" s="412" t="s">
         <v>920</v>
@@ -40898,7 +40898,7 @@
         <v>811</v>
       </c>
       <c r="E25" s="412" t="s">
-        <v>1388</v>
+        <v>1390</v>
       </c>
       <c r="F25" s="412" t="s">
         <v>19</v>
@@ -40906,39 +40906,39 @@
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26" s="413" t="s">
-        <v>1389</v>
+        <v>1004</v>
       </c>
       <c r="B26" s="412" t="s">
-        <v>920</v>
+        <v>921</v>
       </c>
       <c r="C26" s="414">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D26" s="412" t="s">
-        <v>811</v>
+        <v>159</v>
       </c>
       <c r="E26" s="412" t="s">
-        <v>1390</v>
+        <v>1385</v>
       </c>
       <c r="F26" s="412" t="s">
-        <v>19</v>
+        <v>100</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27" s="413" t="s">
-        <v>1004</v>
+        <v>1005</v>
       </c>
       <c r="B27" s="412" t="s">
         <v>921</v>
       </c>
       <c r="C27" s="414">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D27" s="412" t="s">
         <v>159</v>
       </c>
       <c r="E27" s="412" t="s">
-        <v>1385</v>
+        <v>1171</v>
       </c>
       <c r="F27" s="412" t="s">
         <v>100</v>
@@ -40946,19 +40946,19 @@
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A28" s="413" t="s">
-        <v>1005</v>
+        <v>1176</v>
       </c>
       <c r="B28" s="412" t="s">
         <v>921</v>
       </c>
       <c r="C28" s="414">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D28" s="412" t="s">
-        <v>159</v>
+        <v>481</v>
       </c>
       <c r="E28" s="412" t="s">
-        <v>1171</v>
+        <v>1436</v>
       </c>
       <c r="F28" s="412" t="s">
         <v>100</v>
@@ -40966,19 +40966,19 @@
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A29" s="413" t="s">
-        <v>1176</v>
+        <v>1177</v>
       </c>
       <c r="B29" s="412" t="s">
         <v>921</v>
       </c>
       <c r="C29" s="414">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D29" s="412" t="s">
         <v>481</v>
       </c>
       <c r="E29" s="412" t="s">
-        <v>1436</v>
+        <v>1343</v>
       </c>
       <c r="F29" s="412" t="s">
         <v>100</v>
@@ -40986,79 +40986,79 @@
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A30" s="413" t="s">
-        <v>1177</v>
+        <v>1006</v>
       </c>
       <c r="B30" s="412" t="s">
-        <v>921</v>
+        <v>1191</v>
       </c>
       <c r="C30" s="414">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D30" s="412" t="s">
-        <v>481</v>
+        <v>912</v>
       </c>
       <c r="E30" s="412" t="s">
-        <v>1343</v>
+        <v>924</v>
       </c>
       <c r="F30" s="412" t="s">
-        <v>100</v>
+        <v>432</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31" s="413" t="s">
-        <v>1006</v>
+        <v>1007</v>
       </c>
       <c r="B31" s="412" t="s">
-        <v>1191</v>
+        <v>925</v>
       </c>
       <c r="C31" s="414">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D31" s="412" t="s">
-        <v>912</v>
+        <v>811</v>
       </c>
       <c r="E31" s="412" t="s">
-        <v>924</v>
+        <v>1392</v>
       </c>
       <c r="F31" s="412" t="s">
-        <v>432</v>
+        <v>77</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A32" s="413" t="s">
-        <v>1007</v>
+        <v>1008</v>
       </c>
       <c r="B32" s="412" t="s">
-        <v>925</v>
+        <v>927</v>
       </c>
       <c r="C32" s="414">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D32" s="412" t="s">
-        <v>811</v>
+        <v>1369</v>
       </c>
       <c r="E32" s="412" t="s">
-        <v>1392</v>
+        <v>958</v>
       </c>
       <c r="F32" s="412" t="s">
-        <v>77</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A33" s="413" t="s">
-        <v>1008</v>
+        <v>1009</v>
       </c>
       <c r="B33" s="412" t="s">
-        <v>927</v>
+        <v>1179</v>
       </c>
       <c r="C33" s="414">
         <v>3</v>
       </c>
       <c r="D33" s="412" t="s">
-        <v>1369</v>
+        <v>64</v>
       </c>
       <c r="E33" s="412" t="s">
-        <v>958</v>
+        <v>929</v>
       </c>
       <c r="F33" s="412" t="s">
         <v>1437</v>
@@ -41066,30 +41066,30 @@
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A34" s="413" t="s">
-        <v>1009</v>
+        <v>1377</v>
       </c>
       <c r="B34" s="412" t="s">
-        <v>1179</v>
+        <v>1378</v>
       </c>
       <c r="C34" s="414">
         <v>3</v>
       </c>
       <c r="D34" s="412" t="s">
-        <v>64</v>
+        <v>34</v>
       </c>
       <c r="E34" s="412" t="s">
-        <v>929</v>
+        <v>914</v>
       </c>
       <c r="F34" s="412" t="s">
-        <v>1437</v>
+        <v>1401</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A35" s="413" t="s">
-        <v>1377</v>
+        <v>1070</v>
       </c>
       <c r="B35" s="412" t="s">
-        <v>1378</v>
+        <v>930</v>
       </c>
       <c r="C35" s="414">
         <v>3</v>
@@ -41098,35 +41098,35 @@
         <v>34</v>
       </c>
       <c r="E35" s="412" t="s">
-        <v>914</v>
+        <v>931</v>
       </c>
       <c r="F35" s="412" t="s">
-        <v>1401</v>
+        <v>1393</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A36" s="413" t="s">
-        <v>1070</v>
+        <v>1213</v>
       </c>
       <c r="B36" s="412" t="s">
-        <v>930</v>
+        <v>934</v>
       </c>
       <c r="C36" s="414">
         <v>3</v>
       </c>
       <c r="D36" s="412" t="s">
-        <v>34</v>
+        <v>64</v>
       </c>
       <c r="E36" s="412" t="s">
         <v>931</v>
       </c>
       <c r="F36" s="412" t="s">
-        <v>1393</v>
+        <v>178</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A37" s="413" t="s">
-        <v>1213</v>
+        <v>1214</v>
       </c>
       <c r="B37" s="412" t="s">
         <v>934</v>
@@ -41135,30 +41135,30 @@
         <v>3</v>
       </c>
       <c r="D37" s="412" t="s">
-        <v>64</v>
+        <v>607</v>
       </c>
       <c r="E37" s="412" t="s">
-        <v>931</v>
+        <v>1067</v>
       </c>
       <c r="F37" s="412" t="s">
-        <v>178</v>
+        <v>189</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A38" s="413" t="s">
-        <v>1214</v>
+        <v>1425</v>
       </c>
       <c r="B38" s="412" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="C38" s="414">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D38" s="412" t="s">
-        <v>607</v>
+        <v>1426</v>
       </c>
       <c r="E38" s="412" t="s">
-        <v>1067</v>
+        <v>936</v>
       </c>
       <c r="F38" s="412" t="s">
         <v>189</v>
@@ -41166,7 +41166,7 @@
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A39" s="413" t="s">
-        <v>1425</v>
+        <v>1427</v>
       </c>
       <c r="B39" s="412" t="s">
         <v>935</v>
@@ -41175,10 +41175,10 @@
         <v>1</v>
       </c>
       <c r="D39" s="412" t="s">
-        <v>1426</v>
+        <v>888</v>
       </c>
       <c r="E39" s="412" t="s">
-        <v>936</v>
+        <v>933</v>
       </c>
       <c r="F39" s="412" t="s">
         <v>189</v>
@@ -41186,27 +41186,27 @@
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A40" s="413" t="s">
-        <v>1427</v>
+        <v>1154</v>
       </c>
       <c r="B40" s="412" t="s">
-        <v>935</v>
+        <v>1192</v>
       </c>
       <c r="C40" s="414">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D40" s="412" t="s">
-        <v>888</v>
+        <v>1428</v>
       </c>
       <c r="E40" s="412" t="s">
-        <v>933</v>
+        <v>942</v>
       </c>
       <c r="F40" s="412" t="s">
-        <v>189</v>
+        <v>1466</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A41" s="413" t="s">
-        <v>1154</v>
+        <v>1156</v>
       </c>
       <c r="B41" s="412" t="s">
         <v>1192</v>
@@ -41218,7 +41218,7 @@
         <v>1428</v>
       </c>
       <c r="E41" s="412" t="s">
-        <v>942</v>
+        <v>938</v>
       </c>
       <c r="F41" s="412" t="s">
         <v>1466</v>
@@ -41226,7 +41226,7 @@
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A42" s="413" t="s">
-        <v>1156</v>
+        <v>1172</v>
       </c>
       <c r="B42" s="412" t="s">
         <v>1192</v>
@@ -41238,7 +41238,7 @@
         <v>1428</v>
       </c>
       <c r="E42" s="412" t="s">
-        <v>938</v>
+        <v>1462</v>
       </c>
       <c r="F42" s="412" t="s">
         <v>1466</v>
@@ -41246,39 +41246,39 @@
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A43" s="413" t="s">
-        <v>1172</v>
+        <v>1015</v>
       </c>
       <c r="B43" s="412" t="s">
-        <v>1192</v>
+        <v>1215</v>
       </c>
       <c r="C43" s="414">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D43" s="412" t="s">
-        <v>1428</v>
+        <v>741</v>
       </c>
       <c r="E43" s="412" t="s">
-        <v>1462</v>
+        <v>1438</v>
       </c>
       <c r="F43" s="412" t="s">
-        <v>1466</v>
+        <v>100</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A44" s="413" t="s">
-        <v>1015</v>
+        <v>1016</v>
       </c>
       <c r="B44" s="412" t="s">
         <v>1215</v>
       </c>
       <c r="C44" s="414">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D44" s="412" t="s">
         <v>741</v>
       </c>
       <c r="E44" s="412" t="s">
-        <v>1438</v>
+        <v>1439</v>
       </c>
       <c r="F44" s="412" t="s">
         <v>100</v>
@@ -41286,19 +41286,19 @@
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A45" s="413" t="s">
-        <v>1016</v>
+        <v>1196</v>
       </c>
       <c r="B45" s="412" t="s">
         <v>1215</v>
       </c>
       <c r="C45" s="414">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D45" s="412" t="s">
         <v>741</v>
       </c>
       <c r="E45" s="412" t="s">
-        <v>1439</v>
+        <v>1336</v>
       </c>
       <c r="F45" s="412" t="s">
         <v>100</v>
@@ -41306,19 +41306,19 @@
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A46" s="413" t="s">
-        <v>1196</v>
+        <v>1198</v>
       </c>
       <c r="B46" s="412" t="s">
         <v>1215</v>
       </c>
       <c r="C46" s="414">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D46" s="412" t="s">
         <v>741</v>
       </c>
       <c r="E46" s="412" t="s">
-        <v>1336</v>
+        <v>1207</v>
       </c>
       <c r="F46" s="412" t="s">
         <v>100</v>
@@ -41326,19 +41326,19 @@
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A47" s="413" t="s">
-        <v>1198</v>
+        <v>1199</v>
       </c>
       <c r="B47" s="412" t="s">
         <v>1215</v>
       </c>
       <c r="C47" s="414">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D47" s="412" t="s">
         <v>741</v>
       </c>
       <c r="E47" s="412" t="s">
-        <v>1207</v>
+        <v>1440</v>
       </c>
       <c r="F47" s="412" t="s">
         <v>100</v>
@@ -41346,19 +41346,19 @@
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A48" s="413" t="s">
-        <v>1199</v>
+        <v>1201</v>
       </c>
       <c r="B48" s="412" t="s">
         <v>1215</v>
       </c>
       <c r="C48" s="414">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D48" s="412" t="s">
         <v>741</v>
       </c>
       <c r="E48" s="412" t="s">
-        <v>1440</v>
+        <v>1210</v>
       </c>
       <c r="F48" s="412" t="s">
         <v>100</v>
@@ -41366,30 +41366,30 @@
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A49" s="413" t="s">
-        <v>1201</v>
+        <v>1071</v>
       </c>
       <c r="B49" s="412" t="s">
-        <v>1215</v>
+        <v>1202</v>
       </c>
       <c r="C49" s="414">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D49" s="412" t="s">
-        <v>741</v>
+        <v>34</v>
       </c>
       <c r="E49" s="412" t="s">
-        <v>1210</v>
+        <v>929</v>
       </c>
       <c r="F49" s="412" t="s">
-        <v>100</v>
+        <v>1393</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A50" s="413" t="s">
-        <v>1071</v>
+        <v>1072</v>
       </c>
       <c r="B50" s="412" t="s">
-        <v>1202</v>
+        <v>937</v>
       </c>
       <c r="C50" s="414">
         <v>3</v>
@@ -41398,7 +41398,7 @@
         <v>34</v>
       </c>
       <c r="E50" s="412" t="s">
-        <v>929</v>
+        <v>938</v>
       </c>
       <c r="F50" s="412" t="s">
         <v>1393</v>
@@ -41406,219 +41406,219 @@
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A51" s="413" t="s">
-        <v>1072</v>
+        <v>1073</v>
       </c>
       <c r="B51" s="412" t="s">
-        <v>937</v>
+        <v>941</v>
       </c>
       <c r="C51" s="414">
         <v>3</v>
       </c>
       <c r="D51" s="412" t="s">
-        <v>34</v>
+        <v>64</v>
       </c>
       <c r="E51" s="412" t="s">
-        <v>938</v>
+        <v>942</v>
       </c>
       <c r="F51" s="412" t="s">
-        <v>1393</v>
+        <v>178</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A52" s="413" t="s">
-        <v>1073</v>
+        <v>1019</v>
       </c>
       <c r="B52" s="412" t="s">
-        <v>941</v>
+        <v>943</v>
       </c>
       <c r="C52" s="414">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D52" s="412" t="s">
-        <v>64</v>
+        <v>1472</v>
       </c>
       <c r="E52" s="412" t="s">
-        <v>942</v>
+        <v>944</v>
       </c>
       <c r="F52" s="412" t="s">
-        <v>178</v>
+        <v>905</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A53" s="413" t="s">
-        <v>1019</v>
+        <v>1161</v>
       </c>
       <c r="B53" s="412" t="s">
         <v>943</v>
       </c>
       <c r="C53" s="414">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D53" s="412" t="s">
-        <v>1473</v>
+        <v>1448</v>
       </c>
       <c r="E53" s="412" t="s">
-        <v>944</v>
+        <v>916</v>
       </c>
       <c r="F53" s="412" t="s">
-        <v>905</v>
+        <v>1467</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A54" s="413" t="s">
-        <v>1161</v>
+        <v>1163</v>
       </c>
       <c r="B54" s="412" t="s">
         <v>943</v>
       </c>
       <c r="C54" s="414">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D54" s="412" t="s">
-        <v>1448</v>
+        <v>1472</v>
       </c>
       <c r="E54" s="412" t="s">
-        <v>916</v>
+        <v>944</v>
       </c>
       <c r="F54" s="412" t="s">
-        <v>1467</v>
+        <v>905</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A55" s="413" t="s">
-        <v>1163</v>
+        <v>1441</v>
       </c>
       <c r="B55" s="412" t="s">
         <v>943</v>
       </c>
       <c r="C55" s="414">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D55" s="412" t="s">
-        <v>1473</v>
+        <v>1448</v>
       </c>
       <c r="E55" s="412" t="s">
-        <v>944</v>
+        <v>1343</v>
       </c>
       <c r="F55" s="412" t="s">
-        <v>905</v>
+        <v>1468</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A56" s="413" t="s">
-        <v>1441</v>
+        <v>1074</v>
       </c>
       <c r="B56" s="412" t="s">
-        <v>943</v>
+        <v>945</v>
       </c>
       <c r="C56" s="414">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D56" s="412" t="s">
-        <v>1448</v>
+        <v>732</v>
       </c>
       <c r="E56" s="412" t="s">
-        <v>1343</v>
+        <v>946</v>
       </c>
       <c r="F56" s="412" t="s">
-        <v>1468</v>
+        <v>89</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A57" s="413" t="s">
-        <v>1074</v>
+        <v>1075</v>
       </c>
       <c r="B57" s="412" t="s">
-        <v>945</v>
+        <v>948</v>
       </c>
       <c r="C57" s="414">
         <v>3</v>
       </c>
       <c r="D57" s="412" t="s">
-        <v>732</v>
+        <v>414</v>
       </c>
       <c r="E57" s="412" t="s">
-        <v>946</v>
+        <v>947</v>
       </c>
       <c r="F57" s="412" t="s">
-        <v>89</v>
+        <v>66</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A58" s="413" t="s">
-        <v>1075</v>
+        <v>1379</v>
       </c>
       <c r="B58" s="412" t="s">
-        <v>948</v>
+        <v>1380</v>
       </c>
       <c r="C58" s="414">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D58" s="412" t="s">
-        <v>414</v>
+        <v>1424</v>
       </c>
       <c r="E58" s="412" t="s">
-        <v>947</v>
+        <v>1210</v>
       </c>
       <c r="F58" s="412" t="s">
-        <v>66</v>
+        <v>104</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A59" s="413" t="s">
-        <v>1379</v>
+        <v>1023</v>
       </c>
       <c r="B59" s="412" t="s">
-        <v>1380</v>
+        <v>951</v>
       </c>
       <c r="C59" s="414">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D59" s="412" t="s">
-        <v>1424</v>
+        <v>112</v>
       </c>
       <c r="E59" s="412" t="s">
-        <v>1210</v>
+        <v>950</v>
       </c>
       <c r="F59" s="412" t="s">
-        <v>104</v>
+        <v>1469</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A60" s="413" t="s">
-        <v>1023</v>
+        <v>1024</v>
       </c>
       <c r="B60" s="412" t="s">
-        <v>951</v>
+        <v>952</v>
       </c>
       <c r="C60" s="414">
         <v>3</v>
       </c>
       <c r="D60" s="412" t="s">
-        <v>112</v>
+        <v>872</v>
       </c>
       <c r="E60" s="412" t="s">
-        <v>950</v>
+        <v>947</v>
       </c>
       <c r="F60" s="412" t="s">
-        <v>1469</v>
+        <v>189</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A61" s="413" t="s">
-        <v>1024</v>
+        <v>1025</v>
       </c>
       <c r="B61" s="412" t="s">
-        <v>952</v>
+        <v>954</v>
       </c>
       <c r="C61" s="414">
         <v>3</v>
       </c>
       <c r="D61" s="412" t="s">
-        <v>872</v>
+        <v>658</v>
       </c>
       <c r="E61" s="412" t="s">
-        <v>947</v>
+        <v>914</v>
       </c>
       <c r="F61" s="412" t="s">
         <v>189</v>
@@ -41626,19 +41626,19 @@
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A62" s="413" t="s">
-        <v>1025</v>
+        <v>1077</v>
       </c>
       <c r="B62" s="412" t="s">
-        <v>954</v>
+        <v>955</v>
       </c>
       <c r="C62" s="414">
         <v>3</v>
       </c>
       <c r="D62" s="412" t="s">
-        <v>658</v>
+        <v>1218</v>
       </c>
       <c r="E62" s="412" t="s">
-        <v>914</v>
+        <v>953</v>
       </c>
       <c r="F62" s="412" t="s">
         <v>189</v>
@@ -41646,59 +41646,59 @@
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A63" s="413" t="s">
-        <v>1077</v>
+        <v>1079</v>
       </c>
       <c r="B63" s="412" t="s">
-        <v>955</v>
+        <v>957</v>
       </c>
       <c r="C63" s="414">
         <v>3</v>
       </c>
       <c r="D63" s="412" t="s">
-        <v>1218</v>
+        <v>481</v>
       </c>
       <c r="E63" s="412" t="s">
-        <v>953</v>
+        <v>928</v>
       </c>
       <c r="F63" s="412" t="s">
-        <v>189</v>
+        <v>119</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A64" s="413" t="s">
-        <v>1079</v>
+        <v>1080</v>
       </c>
       <c r="B64" s="412" t="s">
-        <v>957</v>
+        <v>959</v>
       </c>
       <c r="C64" s="414">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D64" s="412" t="s">
-        <v>481</v>
+        <v>743</v>
       </c>
       <c r="E64" s="412" t="s">
-        <v>928</v>
+        <v>1203</v>
       </c>
       <c r="F64" s="412" t="s">
-        <v>119</v>
+        <v>100</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A65" s="413" t="s">
-        <v>1080</v>
+        <v>1081</v>
       </c>
       <c r="B65" s="412" t="s">
         <v>959</v>
       </c>
       <c r="C65" s="414">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D65" s="412" t="s">
         <v>743</v>
       </c>
       <c r="E65" s="412" t="s">
-        <v>1203</v>
+        <v>1034</v>
       </c>
       <c r="F65" s="412" t="s">
         <v>100</v>
@@ -41706,150 +41706,150 @@
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A66" s="413" t="s">
-        <v>1081</v>
+        <v>1384</v>
       </c>
       <c r="B66" s="412" t="s">
-        <v>959</v>
+        <v>1442</v>
       </c>
       <c r="C66" s="414">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D66" s="412" t="s">
-        <v>743</v>
+        <v>414</v>
       </c>
       <c r="E66" s="412" t="s">
-        <v>1034</v>
+        <v>946</v>
       </c>
       <c r="F66" s="412" t="s">
-        <v>100</v>
+        <v>66</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A67" s="413" t="s">
-        <v>1384</v>
+        <v>1082</v>
       </c>
       <c r="B67" s="412" t="s">
-        <v>1442</v>
+        <v>1443</v>
       </c>
       <c r="C67" s="414">
         <v>3</v>
       </c>
       <c r="D67" s="412" t="s">
-        <v>414</v>
+        <v>64</v>
       </c>
       <c r="E67" s="412" t="s">
-        <v>946</v>
+        <v>962</v>
       </c>
       <c r="F67" s="412" t="s">
-        <v>66</v>
+        <v>432</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A68" s="413" t="s">
-        <v>1082</v>
+        <v>1083</v>
       </c>
       <c r="B68" s="412" t="s">
-        <v>1443</v>
+        <v>963</v>
       </c>
       <c r="C68" s="414">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D68" s="412" t="s">
-        <v>64</v>
+        <v>1426</v>
       </c>
       <c r="E68" s="412" t="s">
-        <v>962</v>
+        <v>1207</v>
       </c>
       <c r="F68" s="412" t="s">
-        <v>432</v>
+        <v>135</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A69" s="413" t="s">
-        <v>1083</v>
+        <v>1470</v>
       </c>
       <c r="B69" s="412" t="s">
-        <v>963</v>
+        <v>1471</v>
       </c>
       <c r="C69" s="414">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D69" s="412" t="s">
-        <v>1426</v>
+        <v>138</v>
       </c>
       <c r="E69" s="412" t="s">
-        <v>1207</v>
+        <v>964</v>
       </c>
       <c r="F69" s="412" t="s">
-        <v>135</v>
+        <v>50</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A70" s="413" t="s">
-        <v>1470</v>
+        <v>1381</v>
       </c>
       <c r="B70" s="412" t="s">
-        <v>1471</v>
+        <v>1382</v>
       </c>
       <c r="C70" s="414">
         <v>3</v>
       </c>
       <c r="D70" s="412" t="s">
-        <v>138</v>
+        <v>184</v>
       </c>
       <c r="E70" s="412" t="s">
-        <v>964</v>
+        <v>942</v>
       </c>
       <c r="F70" s="412" t="s">
-        <v>50</v>
+        <v>223</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A71" s="413" t="s">
-        <v>1381</v>
+        <v>1208</v>
       </c>
       <c r="B71" s="412" t="s">
-        <v>1382</v>
+        <v>965</v>
       </c>
       <c r="C71" s="414">
         <v>3</v>
       </c>
       <c r="D71" s="412" t="s">
-        <v>184</v>
+        <v>604</v>
       </c>
       <c r="E71" s="412" t="s">
-        <v>942</v>
+        <v>1383</v>
       </c>
       <c r="F71" s="412" t="s">
-        <v>223</v>
+        <v>1225</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A72" s="413" t="s">
-        <v>1208</v>
+        <v>1084</v>
       </c>
       <c r="B72" s="412" t="s">
-        <v>965</v>
+        <v>968</v>
       </c>
       <c r="C72" s="414">
         <v>3</v>
       </c>
       <c r="D72" s="412" t="s">
-        <v>604</v>
+        <v>166</v>
       </c>
       <c r="E72" s="412" t="s">
-        <v>1383</v>
+        <v>969</v>
       </c>
       <c r="F72" s="412" t="s">
-        <v>1225</v>
+        <v>119</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A73" s="413" t="s">
-        <v>1084</v>
+        <v>1085</v>
       </c>
       <c r="B73" s="412" t="s">
-        <v>968</v>
+        <v>970</v>
       </c>
       <c r="C73" s="414">
         <v>3</v>
@@ -41858,129 +41858,109 @@
         <v>166</v>
       </c>
       <c r="E73" s="412" t="s">
-        <v>969</v>
+        <v>953</v>
       </c>
       <c r="F73" s="412" t="s">
-        <v>119</v>
+        <v>293</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A74" s="413" t="s">
-        <v>1085</v>
+        <v>1086</v>
       </c>
       <c r="B74" s="412" t="s">
-        <v>970</v>
+        <v>971</v>
       </c>
       <c r="C74" s="414">
         <v>3</v>
       </c>
       <c r="D74" s="412" t="s">
-        <v>166</v>
+        <v>414</v>
       </c>
       <c r="E74" s="412" t="s">
-        <v>953</v>
+        <v>972</v>
       </c>
       <c r="F74" s="412" t="s">
-        <v>293</v>
+        <v>223</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A75" s="413" t="s">
-        <v>1086</v>
+        <v>1463</v>
       </c>
       <c r="B75" s="412" t="s">
-        <v>971</v>
+        <v>1464</v>
       </c>
       <c r="C75" s="414">
         <v>3</v>
       </c>
       <c r="D75" s="412" t="s">
-        <v>414</v>
+        <v>872</v>
       </c>
       <c r="E75" s="412" t="s">
-        <v>972</v>
+        <v>924</v>
       </c>
       <c r="F75" s="412" t="s">
-        <v>223</v>
+        <v>77</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A76" s="413" t="s">
-        <v>1463</v>
+        <v>1087</v>
       </c>
       <c r="B76" s="412" t="s">
-        <v>1464</v>
+        <v>1088</v>
       </c>
       <c r="C76" s="414">
         <v>3</v>
       </c>
       <c r="D76" s="412" t="s">
-        <v>872</v>
+        <v>658</v>
       </c>
       <c r="E76" s="412" t="s">
-        <v>924</v>
+        <v>946</v>
       </c>
       <c r="F76" s="412" t="s">
-        <v>77</v>
+        <v>189</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A77" s="413" t="s">
-        <v>1087</v>
+        <v>1090</v>
       </c>
       <c r="B77" s="412" t="s">
-        <v>1088</v>
+        <v>1188</v>
       </c>
       <c r="C77" s="414">
         <v>3</v>
       </c>
       <c r="D77" s="412" t="s">
-        <v>658</v>
+        <v>59</v>
       </c>
       <c r="E77" s="412" t="s">
-        <v>946</v>
+        <v>958</v>
       </c>
       <c r="F77" s="412" t="s">
-        <v>189</v>
+        <v>119</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A78" s="413" t="s">
-        <v>1090</v>
+        <v>1095</v>
       </c>
       <c r="B78" s="412" t="s">
-        <v>1188</v>
+        <v>977</v>
       </c>
       <c r="C78" s="414">
         <v>3</v>
       </c>
       <c r="D78" s="412" t="s">
-        <v>59</v>
+        <v>184</v>
       </c>
       <c r="E78" s="412" t="s">
-        <v>958</v>
+        <v>914</v>
       </c>
       <c r="F78" s="412" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A79" s="413" t="s">
-        <v>1095</v>
-      </c>
-      <c r="B79" s="412" t="s">
-        <v>977</v>
-      </c>
-      <c r="C79" s="414">
-        <v>3</v>
-      </c>
-      <c r="D79" s="412" t="s">
-        <v>184</v>
-      </c>
-      <c r="E79" s="412" t="s">
-        <v>914</v>
-      </c>
-      <c r="F79" s="412" t="s">
         <v>119</v>
       </c>
     </row>

--- a/schedule/semester/schedule.xlsx
+++ b/schedule/semester/schedule.xlsx
@@ -4501,7 +4501,7 @@
     <t>Won/Karuhaka</t>
   </si>
   <si>
-    <t>Posted 1/24/2019</t>
+    <t>Posted 1/28/2019</t>
   </si>
 </sst>
 </file>
@@ -40489,7 +40489,7 @@
       <pane xSplit="1" ySplit="12" topLeftCell="B13" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A13" sqref="A13"/>
-      <selection pane="bottomRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomRight" activeCell="B65" sqref="B65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
@@ -40746,19 +40746,19 @@
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" s="413" t="s">
-        <v>1060</v>
+        <v>1059</v>
       </c>
       <c r="B18" s="412" t="s">
         <v>917</v>
       </c>
       <c r="C18" s="414">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D18" s="412" t="s">
         <v>481</v>
       </c>
       <c r="E18" s="412" t="s">
-        <v>1337</v>
+        <v>1433</v>
       </c>
       <c r="F18" s="412" t="s">
         <v>100</v>
@@ -40766,19 +40766,19 @@
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" s="413" t="s">
-        <v>1061</v>
+        <v>1060</v>
       </c>
       <c r="B19" s="412" t="s">
         <v>917</v>
       </c>
       <c r="C19" s="414">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D19" s="412" t="s">
-        <v>59</v>
+        <v>481</v>
       </c>
       <c r="E19" s="412" t="s">
-        <v>1434</v>
+        <v>1337</v>
       </c>
       <c r="F19" s="412" t="s">
         <v>100</v>
@@ -40786,19 +40786,19 @@
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" s="413" t="s">
-        <v>1063</v>
+        <v>1061</v>
       </c>
       <c r="B20" s="412" t="s">
         <v>917</v>
       </c>
       <c r="C20" s="414">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D20" s="412" t="s">
         <v>59</v>
       </c>
       <c r="E20" s="412" t="s">
-        <v>1339</v>
+        <v>1434</v>
       </c>
       <c r="F20" s="412" t="s">
         <v>100</v>
@@ -40806,27 +40806,27 @@
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" s="413" t="s">
-        <v>1064</v>
+        <v>1063</v>
       </c>
       <c r="B21" s="412" t="s">
-        <v>920</v>
+        <v>917</v>
       </c>
       <c r="C21" s="414">
         <v>1</v>
       </c>
       <c r="D21" s="412" t="s">
-        <v>743</v>
+        <v>59</v>
       </c>
       <c r="E21" s="412" t="s">
-        <v>919</v>
+        <v>1339</v>
       </c>
       <c r="F21" s="412" t="s">
-        <v>19</v>
+        <v>100</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" s="413" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="B22" s="412" t="s">
         <v>920</v>
@@ -40835,10 +40835,10 @@
         <v>1</v>
       </c>
       <c r="D22" s="412" t="s">
-        <v>1372</v>
+        <v>743</v>
       </c>
       <c r="E22" s="412" t="s">
-        <v>936</v>
+        <v>919</v>
       </c>
       <c r="F22" s="412" t="s">
         <v>19</v>
@@ -40846,7 +40846,7 @@
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" s="413" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
       <c r="B23" s="412" t="s">
         <v>920</v>
@@ -40858,7 +40858,7 @@
         <v>1372</v>
       </c>
       <c r="E23" s="412" t="s">
-        <v>1034</v>
+        <v>936</v>
       </c>
       <c r="F23" s="412" t="s">
         <v>19</v>
@@ -41081,7 +41081,7 @@
         <v>914</v>
       </c>
       <c r="F34" s="412" t="s">
-        <v>1401</v>
+        <v>1393</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.2">

--- a/schedule/semester/schedule.xlsx
+++ b/schedule/semester/schedule.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="5250" yWindow="75" windowWidth="16320" windowHeight="12375" tabRatio="734" activeTab="4"/>
+    <workbookView xWindow="5250" yWindow="75" windowWidth="16320" windowHeight="12375" tabRatio="734" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="sum20" sheetId="83" r:id="rId1"/>
@@ -80,7 +80,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8256" uniqueCount="1474">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8590" uniqueCount="1475">
   <si>
     <t>ELECTRICAL AND COMPUTER ENGINEERING</t>
   </si>
@@ -4039,27 +4039,9 @@
     <t>Aug 10</t>
   </si>
   <si>
-    <t>August 15                   </t>
-  </si>
-  <si>
-    <t>August 19</t>
-  </si>
-  <si>
     <t>September 2</t>
   </si>
   <si>
-    <t>November 27</t>
-  </si>
-  <si>
-    <t>November 28-December 1</t>
-  </si>
-  <si>
-    <t>December 3-7</t>
-  </si>
-  <si>
-    <t>December 13</t>
-  </si>
-  <si>
     <t>January 21                  </t>
   </si>
   <si>
@@ -4502,6 +4484,27 @@
   </si>
   <si>
     <t>Posted 1/28/2019</t>
+  </si>
+  <si>
+    <t>T 800-940AM</t>
+  </si>
+  <si>
+    <t>November 25-27</t>
+  </si>
+  <si>
+    <t>November 28-30</t>
+  </si>
+  <si>
+    <t>Fall Recess</t>
+  </si>
+  <si>
+    <t>December 10-16</t>
+  </si>
+  <si>
+    <t>December 20</t>
+  </si>
+  <si>
+    <t>August 19                  </t>
   </si>
 </sst>
 </file>
@@ -7735,14 +7738,14 @@
       </c>
       <c r="E1" s="418"/>
       <c r="F1" s="458" t="s">
-        <v>1351</v>
+        <v>1345</v>
       </c>
     </row>
     <row r="2" spans="1:6" s="410" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B2" s="409"/>
       <c r="C2" s="409"/>
       <c r="D2" s="449" t="s">
-        <v>1332</v>
+        <v>1326</v>
       </c>
       <c r="E2" s="449" t="s">
         <v>1296</v>
@@ -7767,7 +7770,7 @@
       <c r="B4" s="457"/>
       <c r="C4" s="457"/>
       <c r="D4" s="449" t="s">
-        <v>1333</v>
+        <v>1327</v>
       </c>
       <c r="E4" s="449" t="s">
         <v>1299</v>
@@ -7884,7 +7887,7 @@
   <sheetData>
     <row r="1" spans="1:6" s="410" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="407" t="s">
-        <v>1364</v>
+        <v>1358</v>
       </c>
       <c r="B1" s="408"/>
       <c r="C1" s="409"/>
@@ -7893,7 +7896,7 @@
       </c>
       <c r="E1" s="418"/>
       <c r="F1" s="458" t="s">
-        <v>1351</v>
+        <v>1345</v>
       </c>
     </row>
     <row r="2" spans="1:6" s="410" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.15">
@@ -8000,19 +8003,19 @@
     </row>
     <row r="13" spans="1:6" ht="12" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A13" s="413" t="s">
-        <v>1361</v>
+        <v>1355</v>
       </c>
       <c r="B13" s="412" t="s">
-        <v>1362</v>
+        <v>1356</v>
       </c>
       <c r="C13" s="414">
         <v>3</v>
       </c>
       <c r="D13" s="412" t="s">
-        <v>1363</v>
+        <v>1357</v>
       </c>
       <c r="E13" s="412" t="s">
-        <v>1355</v>
+        <v>1349</v>
       </c>
       <c r="F13" s="412" t="s">
         <v>119</v>
@@ -8020,10 +8023,10 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" s="413" t="s">
-        <v>1356</v>
+        <v>1350</v>
       </c>
       <c r="B14" s="412" t="s">
-        <v>1357</v>
+        <v>1351</v>
       </c>
       <c r="C14" s="414">
         <v>3</v>
@@ -8032,7 +8035,7 @@
         <v>64</v>
       </c>
       <c r="E14" s="412" t="s">
-        <v>1358</v>
+        <v>1352</v>
       </c>
       <c r="F14" s="412" t="s">
         <v>89</v>
@@ -8040,7 +8043,7 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" s="413" t="s">
-        <v>1359</v>
+        <v>1353</v>
       </c>
       <c r="B15" s="412" t="s">
         <v>801</v>
@@ -8052,7 +8055,7 @@
         <v>45</v>
       </c>
       <c r="E15" s="412" t="s">
-        <v>1360</v>
+        <v>1354</v>
       </c>
       <c r="F15" s="412" t="s">
         <v>89</v>
@@ -8108,7 +8111,7 @@
       </c>
       <c r="E1" s="418"/>
       <c r="F1" s="458" t="s">
-        <v>1351</v>
+        <v>1345</v>
       </c>
     </row>
     <row r="2" spans="1:6" s="410" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.15">
@@ -9254,7 +9257,7 @@
         <v>1031</v>
       </c>
       <c r="D63" s="412" t="s">
-        <v>1352</v>
+        <v>1346</v>
       </c>
       <c r="E63" s="412" t="s">
         <v>942</v>
@@ -9394,7 +9397,7 @@
         <v>3</v>
       </c>
       <c r="D70" s="412" t="s">
-        <v>1353</v>
+        <v>1347</v>
       </c>
       <c r="E70" s="412" t="s">
         <v>964</v>
@@ -9613,7 +9616,7 @@
       </c>
       <c r="E1" s="418"/>
       <c r="F1" s="458" t="s">
-        <v>1351</v>
+        <v>1345</v>
       </c>
     </row>
     <row r="2" spans="1:7" s="410" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.15">
@@ -11145,7 +11148,7 @@
       </c>
       <c r="E1" s="418"/>
       <c r="F1" s="458" t="s">
-        <v>1351</v>
+        <v>1345</v>
       </c>
     </row>
     <row r="2" spans="1:7" s="410" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.15">
@@ -11534,7 +11537,7 @@
       </c>
       <c r="E1" s="418"/>
       <c r="F1" s="458" t="s">
-        <v>1351</v>
+        <v>1345</v>
       </c>
     </row>
     <row r="2" spans="1:6" s="410" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.15">
@@ -18928,14 +18931,14 @@
       </c>
       <c r="E1" s="418"/>
       <c r="F1" s="458" t="s">
-        <v>1351</v>
+        <v>1345</v>
       </c>
     </row>
     <row r="2" spans="1:6" s="410" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B2" s="409"/>
       <c r="C2" s="409"/>
       <c r="D2" s="449" t="s">
-        <v>1326</v>
+        <v>1320</v>
       </c>
       <c r="E2" s="449" t="s">
         <v>1281</v>
@@ -18946,7 +18949,7 @@
       <c r="B3" s="409"/>
       <c r="C3" s="409"/>
       <c r="D3" s="449" t="s">
-        <v>1327</v>
+        <v>1321</v>
       </c>
       <c r="E3" s="449" t="s">
         <v>1136</v>
@@ -18960,7 +18963,7 @@
       <c r="B4" s="459"/>
       <c r="C4" s="459"/>
       <c r="D4" s="449" t="s">
-        <v>1328</v>
+        <v>1322</v>
       </c>
       <c r="E4" s="449" t="s">
         <v>1284</v>
@@ -18972,7 +18975,7 @@
       <c r="B5" s="459"/>
       <c r="C5" s="459"/>
       <c r="D5" s="449" t="s">
-        <v>1329</v>
+        <v>1323</v>
       </c>
       <c r="E5" s="449" t="s">
         <v>1286</v>
@@ -18997,7 +19000,7 @@
       <c r="B7" s="460"/>
       <c r="C7" s="460"/>
       <c r="D7" s="449" t="s">
-        <v>1330</v>
+        <v>1324</v>
       </c>
       <c r="E7" s="449" t="s">
         <v>1289</v>
@@ -19009,7 +19012,7 @@
       <c r="B8" s="460"/>
       <c r="C8" s="460"/>
       <c r="D8" s="449" t="s">
-        <v>1331</v>
+        <v>1325</v>
       </c>
       <c r="E8" s="449" t="s">
         <v>1102</v>
@@ -27984,13 +27987,13 @@
   <sheetPr codeName="Sheet43">
     <tabColor theme="9" tint="-0.249977111117893"/>
   </sheetPr>
-  <dimension ref="A1:F13"/>
+  <dimension ref="A1:F82"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <pane xSplit="1" ySplit="12" topLeftCell="B13" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A13" sqref="A13"/>
-      <selection pane="bottomRight" activeCell="A4" sqref="A4:C9"/>
+      <selection pane="bottomRight" activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
@@ -28015,14 +28018,14 @@
       </c>
       <c r="E1" s="418"/>
       <c r="F1" s="458" t="s">
-        <v>1351</v>
+        <v>1345</v>
       </c>
     </row>
     <row r="2" spans="1:6" s="410" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B2" s="409"/>
       <c r="C2" s="409"/>
       <c r="D2" s="449" t="s">
-        <v>1319</v>
+        <v>1474</v>
       </c>
       <c r="E2" s="449" t="s">
         <v>1301</v>
@@ -28032,8 +28035,8 @@
     <row r="3" spans="1:6" s="410" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B3" s="409"/>
       <c r="C3" s="409"/>
-      <c r="D3" s="449" t="s">
-        <v>1320</v>
+      <c r="D3" s="406" t="s">
+        <v>1302</v>
       </c>
       <c r="E3" s="449" t="s">
         <v>1227</v>
@@ -28047,7 +28050,7 @@
       <c r="B4" s="457"/>
       <c r="C4" s="457"/>
       <c r="D4" s="449" t="s">
-        <v>1321</v>
+        <v>1319</v>
       </c>
       <c r="E4" s="449" t="s">
         <v>1228</v>
@@ -28071,10 +28074,10 @@
       <c r="B6" s="457"/>
       <c r="C6" s="457"/>
       <c r="D6" s="449" t="s">
-        <v>1322</v>
+        <v>1469</v>
       </c>
       <c r="E6" s="449" t="s">
-        <v>1230</v>
+        <v>1471</v>
       </c>
       <c r="F6" s="451"/>
     </row>
@@ -28085,7 +28088,7 @@
       <c r="B7" s="457"/>
       <c r="C7" s="457"/>
       <c r="D7" s="449" t="s">
-        <v>1323</v>
+        <v>1470</v>
       </c>
       <c r="E7" s="449" t="s">
         <v>1231</v>
@@ -28097,7 +28100,7 @@
       <c r="B8" s="457"/>
       <c r="C8" s="457"/>
       <c r="D8" s="449" t="s">
-        <v>1324</v>
+        <v>1472</v>
       </c>
       <c r="E8" s="449" t="s">
         <v>1101</v>
@@ -28108,8 +28111,8 @@
       <c r="A9" s="457"/>
       <c r="B9" s="457"/>
       <c r="C9" s="457"/>
-      <c r="D9" s="449" t="s">
-        <v>1325</v>
+      <c r="D9" s="406" t="s">
+        <v>1473</v>
       </c>
       <c r="E9" s="449" t="s">
         <v>1309</v>
@@ -28150,7 +28153,1358 @@
         <v>6</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="12" thickTop="1" x14ac:dyDescent="0.2"/>
+    <row r="13" spans="1:6" ht="12" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="413" t="s">
+        <v>1001</v>
+      </c>
+      <c r="B13" s="412" t="s">
+        <v>1365</v>
+      </c>
+      <c r="C13" s="414">
+        <v>3</v>
+      </c>
+      <c r="D13" s="412" t="s">
+        <v>34</v>
+      </c>
+      <c r="E13" s="412" t="s">
+        <v>931</v>
+      </c>
+      <c r="F13" s="412" t="s">
+        <v>1387</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A14" s="413" t="s">
+        <v>1056</v>
+      </c>
+      <c r="B14" s="412" t="s">
+        <v>915</v>
+      </c>
+      <c r="C14" s="414">
+        <v>1</v>
+      </c>
+      <c r="E14" s="412" t="s">
+        <v>1328</v>
+      </c>
+      <c r="F14" s="412" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A15" s="413" t="s">
+        <v>1057</v>
+      </c>
+      <c r="B15" s="412" t="s">
+        <v>915</v>
+      </c>
+      <c r="C15" s="414">
+        <v>1</v>
+      </c>
+      <c r="E15" s="412" t="s">
+        <v>936</v>
+      </c>
+      <c r="F15" s="412" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A16" s="413" t="s">
+        <v>1058</v>
+      </c>
+      <c r="B16" s="412" t="s">
+        <v>915</v>
+      </c>
+      <c r="C16" s="414">
+        <v>1</v>
+      </c>
+      <c r="E16" s="412" t="s">
+        <v>1034</v>
+      </c>
+      <c r="F16" s="412" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A17" s="413" t="s">
+        <v>1002</v>
+      </c>
+      <c r="B17" s="412" t="s">
+        <v>917</v>
+      </c>
+      <c r="C17" s="414">
+        <v>2</v>
+      </c>
+      <c r="E17" s="412" t="s">
+        <v>1388</v>
+      </c>
+      <c r="F17" s="412" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A18" s="413" t="s">
+        <v>1003</v>
+      </c>
+      <c r="B18" s="412" t="s">
+        <v>917</v>
+      </c>
+      <c r="C18" s="414">
+        <v>1</v>
+      </c>
+      <c r="E18" s="412" t="s">
+        <v>1329</v>
+      </c>
+      <c r="F18" s="412" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A19" s="413" t="s">
+        <v>1059</v>
+      </c>
+      <c r="B19" s="412" t="s">
+        <v>917</v>
+      </c>
+      <c r="C19" s="414">
+        <v>2</v>
+      </c>
+      <c r="E19" s="412" t="s">
+        <v>1330</v>
+      </c>
+      <c r="F19" s="412" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A20" s="413" t="s">
+        <v>1060</v>
+      </c>
+      <c r="B20" s="412" t="s">
+        <v>917</v>
+      </c>
+      <c r="C20" s="414">
+        <v>1</v>
+      </c>
+      <c r="E20" s="412" t="s">
+        <v>1210</v>
+      </c>
+      <c r="F20" s="412" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A21" s="413" t="s">
+        <v>1061</v>
+      </c>
+      <c r="B21" s="412" t="s">
+        <v>917</v>
+      </c>
+      <c r="C21" s="414">
+        <v>2</v>
+      </c>
+      <c r="D21" s="412" t="s">
+        <v>59</v>
+      </c>
+      <c r="E21" s="412" t="s">
+        <v>1062</v>
+      </c>
+      <c r="F21" s="412" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A22" s="413" t="s">
+        <v>1063</v>
+      </c>
+      <c r="B22" s="412" t="s">
+        <v>917</v>
+      </c>
+      <c r="C22" s="414">
+        <v>1</v>
+      </c>
+      <c r="D22" s="412" t="s">
+        <v>59</v>
+      </c>
+      <c r="E22" s="412" t="s">
+        <v>938</v>
+      </c>
+      <c r="F22" s="412" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A23" s="413" t="s">
+        <v>1064</v>
+      </c>
+      <c r="B23" s="412" t="s">
+        <v>920</v>
+      </c>
+      <c r="C23" s="414">
+        <v>1</v>
+      </c>
+      <c r="D23" s="412" t="s">
+        <v>741</v>
+      </c>
+      <c r="E23" s="412" t="s">
+        <v>919</v>
+      </c>
+      <c r="F23" s="412" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A24" s="413" t="s">
+        <v>1065</v>
+      </c>
+      <c r="B24" s="412" t="s">
+        <v>920</v>
+      </c>
+      <c r="C24" s="414">
+        <v>1</v>
+      </c>
+      <c r="D24" s="412" t="s">
+        <v>1366</v>
+      </c>
+      <c r="E24" s="412" t="s">
+        <v>936</v>
+      </c>
+      <c r="F24" s="412" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A25" s="413" t="s">
+        <v>1066</v>
+      </c>
+      <c r="B25" s="412" t="s">
+        <v>920</v>
+      </c>
+      <c r="C25" s="414">
+        <v>1</v>
+      </c>
+      <c r="D25" s="412" t="s">
+        <v>1366</v>
+      </c>
+      <c r="E25" s="412" t="s">
+        <v>1034</v>
+      </c>
+      <c r="F25" s="412" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A26" s="413" t="s">
+        <v>1004</v>
+      </c>
+      <c r="B26" s="412" t="s">
+        <v>921</v>
+      </c>
+      <c r="C26" s="414">
+        <v>2</v>
+      </c>
+      <c r="E26" s="412" t="s">
+        <v>1389</v>
+      </c>
+      <c r="F26" s="412" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A27" s="413" t="s">
+        <v>1005</v>
+      </c>
+      <c r="B27" s="412" t="s">
+        <v>921</v>
+      </c>
+      <c r="C27" s="414">
+        <v>1</v>
+      </c>
+      <c r="E27" s="412" t="s">
+        <v>1331</v>
+      </c>
+      <c r="F27" s="412" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A28" s="413" t="s">
+        <v>1168</v>
+      </c>
+      <c r="B28" s="412" t="s">
+        <v>921</v>
+      </c>
+      <c r="C28" s="414">
+        <v>2</v>
+      </c>
+      <c r="D28" s="412" t="s">
+        <v>743</v>
+      </c>
+      <c r="E28" s="412" t="s">
+        <v>1468</v>
+      </c>
+      <c r="F28" s="412" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A29" s="413" t="s">
+        <v>1170</v>
+      </c>
+      <c r="B29" s="412" t="s">
+        <v>921</v>
+      </c>
+      <c r="C29" s="414">
+        <v>1</v>
+      </c>
+      <c r="D29" s="412" t="s">
+        <v>743</v>
+      </c>
+      <c r="E29" s="412" t="s">
+        <v>1171</v>
+      </c>
+      <c r="F29" s="412" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A30" s="413" t="s">
+        <v>1176</v>
+      </c>
+      <c r="B30" s="412" t="s">
+        <v>921</v>
+      </c>
+      <c r="C30" s="414">
+        <v>2</v>
+      </c>
+      <c r="D30" s="412" t="s">
+        <v>811</v>
+      </c>
+      <c r="E30" s="412" t="s">
+        <v>1390</v>
+      </c>
+      <c r="F30" s="412" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A31" s="413" t="s">
+        <v>1177</v>
+      </c>
+      <c r="B31" s="412" t="s">
+        <v>921</v>
+      </c>
+      <c r="C31" s="414">
+        <v>1</v>
+      </c>
+      <c r="D31" s="412" t="s">
+        <v>811</v>
+      </c>
+      <c r="E31" s="412" t="s">
+        <v>1333</v>
+      </c>
+      <c r="F31" s="412" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A32" s="413" t="s">
+        <v>1359</v>
+      </c>
+      <c r="B32" s="412" t="s">
+        <v>921</v>
+      </c>
+      <c r="C32" s="414">
+        <v>2</v>
+      </c>
+      <c r="D32" s="412" t="s">
+        <v>741</v>
+      </c>
+      <c r="E32" s="412" t="s">
+        <v>1360</v>
+      </c>
+      <c r="F32" s="412" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A33" s="413" t="s">
+        <v>1361</v>
+      </c>
+      <c r="B33" s="412" t="s">
+        <v>921</v>
+      </c>
+      <c r="C33" s="414">
+        <v>1</v>
+      </c>
+      <c r="D33" s="412" t="s">
+        <v>741</v>
+      </c>
+      <c r="E33" s="412" t="s">
+        <v>1362</v>
+      </c>
+      <c r="F33" s="412" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A34" s="413" t="s">
+        <v>1391</v>
+      </c>
+      <c r="B34" s="412" t="s">
+        <v>1392</v>
+      </c>
+      <c r="C34" s="414">
+        <v>3</v>
+      </c>
+      <c r="D34" s="412" t="s">
+        <v>1393</v>
+      </c>
+      <c r="E34" s="412" t="s">
+        <v>929</v>
+      </c>
+      <c r="F34" s="412" t="s">
+        <v>1394</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A35" s="413" t="s">
+        <v>1006</v>
+      </c>
+      <c r="B35" s="412" t="s">
+        <v>1178</v>
+      </c>
+      <c r="C35" s="414">
+        <v>3</v>
+      </c>
+      <c r="D35" s="412" t="s">
+        <v>912</v>
+      </c>
+      <c r="E35" s="412" t="s">
+        <v>924</v>
+      </c>
+      <c r="F35" s="412" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A36" s="413" t="s">
+        <v>1007</v>
+      </c>
+      <c r="B36" s="412" t="s">
+        <v>925</v>
+      </c>
+      <c r="C36" s="414">
+        <v>1</v>
+      </c>
+      <c r="D36" s="412" t="s">
+        <v>1219</v>
+      </c>
+      <c r="E36" s="412" t="s">
+        <v>926</v>
+      </c>
+      <c r="F36" s="412" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A37" s="413" t="s">
+        <v>1008</v>
+      </c>
+      <c r="B37" s="412" t="s">
+        <v>927</v>
+      </c>
+      <c r="C37" s="414">
+        <v>3</v>
+      </c>
+      <c r="D37" s="412" t="s">
+        <v>1363</v>
+      </c>
+      <c r="E37" s="412" t="s">
+        <v>972</v>
+      </c>
+      <c r="F37" s="412" t="s">
+        <v>1334</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A38" s="413" t="s">
+        <v>1009</v>
+      </c>
+      <c r="B38" s="412" t="s">
+        <v>1179</v>
+      </c>
+      <c r="C38" s="414">
+        <v>3</v>
+      </c>
+      <c r="D38" s="412" t="s">
+        <v>34</v>
+      </c>
+      <c r="E38" s="412" t="s">
+        <v>929</v>
+      </c>
+      <c r="F38" s="412" t="s">
+        <v>1395</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A39" s="413" t="s">
+        <v>1010</v>
+      </c>
+      <c r="B39" s="412" t="s">
+        <v>1415</v>
+      </c>
+      <c r="C39" s="414">
+        <v>3</v>
+      </c>
+      <c r="D39" s="412" t="s">
+        <v>34</v>
+      </c>
+      <c r="E39" s="412" t="s">
+        <v>914</v>
+      </c>
+      <c r="F39" s="412" t="s">
+        <v>1387</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A40" s="413" t="s">
+        <v>1011</v>
+      </c>
+      <c r="B40" s="412" t="s">
+        <v>979</v>
+      </c>
+      <c r="C40" s="414">
+        <v>3</v>
+      </c>
+      <c r="D40" s="412" t="s">
+        <v>34</v>
+      </c>
+      <c r="E40" s="412" t="s">
+        <v>938</v>
+      </c>
+      <c r="F40" s="412" t="s">
+        <v>1387</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A41" s="413" t="s">
+        <v>1012</v>
+      </c>
+      <c r="B41" s="412" t="s">
+        <v>932</v>
+      </c>
+      <c r="C41" s="414">
+        <v>1</v>
+      </c>
+      <c r="D41" s="412" t="s">
+        <v>730</v>
+      </c>
+      <c r="E41" s="412" t="s">
+        <v>933</v>
+      </c>
+      <c r="F41" s="412" t="s">
+        <v>1370</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A42" s="413" t="s">
+        <v>1013</v>
+      </c>
+      <c r="B42" s="412" t="s">
+        <v>934</v>
+      </c>
+      <c r="C42" s="414">
+        <v>3</v>
+      </c>
+      <c r="D42" s="412" t="s">
+        <v>64</v>
+      </c>
+      <c r="E42" s="412" t="s">
+        <v>931</v>
+      </c>
+      <c r="F42" s="412" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A43" s="413" t="s">
+        <v>1419</v>
+      </c>
+      <c r="B43" s="412" t="s">
+        <v>935</v>
+      </c>
+      <c r="C43" s="414">
+        <v>1</v>
+      </c>
+      <c r="E43" s="412" t="s">
+        <v>936</v>
+      </c>
+      <c r="F43" s="412" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A44" s="413" t="s">
+        <v>1421</v>
+      </c>
+      <c r="B44" s="412" t="s">
+        <v>935</v>
+      </c>
+      <c r="C44" s="414">
+        <v>1</v>
+      </c>
+      <c r="E44" s="412" t="s">
+        <v>1034</v>
+      </c>
+      <c r="F44" s="412" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A45" s="413" t="s">
+        <v>1154</v>
+      </c>
+      <c r="B45" s="412" t="s">
+        <v>1155</v>
+      </c>
+      <c r="C45" s="414">
+        <v>3</v>
+      </c>
+      <c r="E45" s="412" t="s">
+        <v>942</v>
+      </c>
+      <c r="F45" s="412" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A46" s="413" t="s">
+        <v>1156</v>
+      </c>
+      <c r="B46" s="412" t="s">
+        <v>1155</v>
+      </c>
+      <c r="C46" s="414">
+        <v>3</v>
+      </c>
+      <c r="E46" s="412" t="s">
+        <v>938</v>
+      </c>
+      <c r="F46" s="412" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A47" s="413" t="s">
+        <v>1172</v>
+      </c>
+      <c r="B47" s="412" t="s">
+        <v>1155</v>
+      </c>
+      <c r="C47" s="414">
+        <v>3</v>
+      </c>
+      <c r="E47" s="412" t="s">
+        <v>1193</v>
+      </c>
+      <c r="F47" s="412" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A48" s="413" t="s">
+        <v>1015</v>
+      </c>
+      <c r="B48" s="412" t="s">
+        <v>1335</v>
+      </c>
+      <c r="C48" s="414">
+        <v>2</v>
+      </c>
+      <c r="D48" s="412" t="s">
+        <v>743</v>
+      </c>
+      <c r="E48" s="412" t="s">
+        <v>1423</v>
+      </c>
+      <c r="F48" s="412" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A49" s="413" t="s">
+        <v>1016</v>
+      </c>
+      <c r="B49" s="412" t="s">
+        <v>1335</v>
+      </c>
+      <c r="C49" s="414">
+        <v>1</v>
+      </c>
+      <c r="D49" s="412" t="s">
+        <v>743</v>
+      </c>
+      <c r="E49" s="412" t="s">
+        <v>919</v>
+      </c>
+      <c r="F49" s="412" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A50" s="413" t="s">
+        <v>1196</v>
+      </c>
+      <c r="B50" s="412" t="s">
+        <v>1335</v>
+      </c>
+      <c r="C50" s="414">
+        <v>2</v>
+      </c>
+      <c r="D50" s="412" t="s">
+        <v>741</v>
+      </c>
+      <c r="E50" s="412" t="s">
+        <v>1203</v>
+      </c>
+      <c r="F50" s="412" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A51" s="413" t="s">
+        <v>1198</v>
+      </c>
+      <c r="B51" s="412" t="s">
+        <v>1335</v>
+      </c>
+      <c r="C51" s="414">
+        <v>1</v>
+      </c>
+      <c r="D51" s="412" t="s">
+        <v>741</v>
+      </c>
+      <c r="E51" s="412" t="s">
+        <v>1034</v>
+      </c>
+      <c r="F51" s="412" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A52" s="413" t="s">
+        <v>1017</v>
+      </c>
+      <c r="B52" s="412" t="s">
+        <v>939</v>
+      </c>
+      <c r="C52" s="414">
+        <v>1</v>
+      </c>
+      <c r="D52" s="412" t="s">
+        <v>741</v>
+      </c>
+      <c r="E52" s="412" t="s">
+        <v>916</v>
+      </c>
+      <c r="F52" s="412" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A53" s="413" t="s">
+        <v>1018</v>
+      </c>
+      <c r="B53" s="412" t="s">
+        <v>980</v>
+      </c>
+      <c r="C53" s="414">
+        <v>3</v>
+      </c>
+      <c r="D53" s="412" t="s">
+        <v>64</v>
+      </c>
+      <c r="E53" s="412" t="s">
+        <v>942</v>
+      </c>
+      <c r="F53" s="412" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A54" s="413" t="s">
+        <v>1019</v>
+      </c>
+      <c r="B54" s="412" t="s">
+        <v>943</v>
+      </c>
+      <c r="C54" s="414">
+        <v>2</v>
+      </c>
+      <c r="D54" s="412" t="s">
+        <v>184</v>
+      </c>
+      <c r="E54" s="412" t="s">
+        <v>944</v>
+      </c>
+      <c r="F54" s="412" t="s">
+        <v>1424</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A55" s="413" t="s">
+        <v>1020</v>
+      </c>
+      <c r="B55" s="412" t="s">
+        <v>943</v>
+      </c>
+      <c r="C55" s="414">
+        <v>1</v>
+      </c>
+      <c r="D55" s="412" t="s">
+        <v>1219</v>
+      </c>
+      <c r="E55" s="412" t="s">
+        <v>1337</v>
+      </c>
+      <c r="F55" s="412" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A56" s="413" t="s">
+        <v>1161</v>
+      </c>
+      <c r="B56" s="412" t="s">
+        <v>943</v>
+      </c>
+      <c r="C56" s="414">
+        <v>2</v>
+      </c>
+      <c r="D56" s="412" t="s">
+        <v>184</v>
+      </c>
+      <c r="E56" s="412" t="s">
+        <v>1062</v>
+      </c>
+      <c r="F56" s="412" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A57" s="413" t="s">
+        <v>1163</v>
+      </c>
+      <c r="B57" s="412" t="s">
+        <v>943</v>
+      </c>
+      <c r="C57" s="414">
+        <v>1</v>
+      </c>
+      <c r="D57" s="412" t="s">
+        <v>1219</v>
+      </c>
+      <c r="E57" s="412" t="s">
+        <v>1337</v>
+      </c>
+      <c r="F57" s="412" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A58" s="413" t="s">
+        <v>1074</v>
+      </c>
+      <c r="B58" s="412" t="s">
+        <v>945</v>
+      </c>
+      <c r="C58" s="414">
+        <v>3</v>
+      </c>
+      <c r="D58" s="412" t="s">
+        <v>732</v>
+      </c>
+      <c r="E58" s="412" t="s">
+        <v>946</v>
+      </c>
+      <c r="F58" s="412" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A59" s="413" t="s">
+        <v>1022</v>
+      </c>
+      <c r="B59" s="412" t="s">
+        <v>981</v>
+      </c>
+      <c r="C59" s="414">
+        <v>3</v>
+      </c>
+      <c r="D59" s="412" t="s">
+        <v>414</v>
+      </c>
+      <c r="E59" s="412" t="s">
+        <v>947</v>
+      </c>
+      <c r="F59" s="412" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A60" s="413" t="s">
+        <v>1338</v>
+      </c>
+      <c r="B60" s="412" t="s">
+        <v>1339</v>
+      </c>
+      <c r="C60" s="414">
+        <v>3</v>
+      </c>
+      <c r="D60" s="412" t="s">
+        <v>138</v>
+      </c>
+      <c r="E60" s="412" t="s">
+        <v>946</v>
+      </c>
+      <c r="F60" s="412" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A61" s="413" t="s">
+        <v>1023</v>
+      </c>
+      <c r="B61" s="412" t="s">
+        <v>951</v>
+      </c>
+      <c r="C61" s="414">
+        <v>3</v>
+      </c>
+      <c r="D61" s="412" t="s">
+        <v>872</v>
+      </c>
+      <c r="E61" s="412" t="s">
+        <v>950</v>
+      </c>
+      <c r="F61" s="412" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A62" s="413" t="s">
+        <v>1024</v>
+      </c>
+      <c r="B62" s="412" t="s">
+        <v>952</v>
+      </c>
+      <c r="C62" s="414">
+        <v>3</v>
+      </c>
+      <c r="D62" s="412" t="s">
+        <v>607</v>
+      </c>
+      <c r="E62" s="412" t="s">
+        <v>962</v>
+      </c>
+      <c r="F62" s="412" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A63" s="413" t="s">
+        <v>1025</v>
+      </c>
+      <c r="B63" s="412" t="s">
+        <v>954</v>
+      </c>
+      <c r="C63" s="414">
+        <v>3</v>
+      </c>
+      <c r="D63" s="412" t="s">
+        <v>658</v>
+      </c>
+      <c r="E63" s="412" t="s">
+        <v>929</v>
+      </c>
+      <c r="F63" s="412" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A64" s="413" t="s">
+        <v>1026</v>
+      </c>
+      <c r="B64" s="412" t="s">
+        <v>982</v>
+      </c>
+      <c r="C64" s="414">
+        <v>3</v>
+      </c>
+      <c r="D64" s="412" t="s">
+        <v>872</v>
+      </c>
+      <c r="E64" s="412" t="s">
+        <v>947</v>
+      </c>
+      <c r="F64" s="412" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A65" s="413" t="s">
+        <v>1078</v>
+      </c>
+      <c r="B65" s="412" t="s">
+        <v>956</v>
+      </c>
+      <c r="C65" s="414">
+        <v>3</v>
+      </c>
+      <c r="D65" s="412" t="s">
+        <v>811</v>
+      </c>
+      <c r="E65" s="412" t="s">
+        <v>946</v>
+      </c>
+      <c r="F65" s="412" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A66" s="413" t="s">
+        <v>1079</v>
+      </c>
+      <c r="B66" s="412" t="s">
+        <v>957</v>
+      </c>
+      <c r="C66" s="414">
+        <v>3</v>
+      </c>
+      <c r="E66" s="412" t="s">
+        <v>928</v>
+      </c>
+      <c r="F66" s="412" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A67" s="413" t="s">
+        <v>1340</v>
+      </c>
+      <c r="B67" s="412" t="s">
+        <v>983</v>
+      </c>
+      <c r="C67" s="414">
+        <v>3</v>
+      </c>
+      <c r="D67" s="412" t="s">
+        <v>743</v>
+      </c>
+      <c r="E67" s="412" t="s">
+        <v>950</v>
+      </c>
+      <c r="F67" s="412" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A68" s="413" t="s">
+        <v>1032</v>
+      </c>
+      <c r="B68" s="412" t="s">
+        <v>1180</v>
+      </c>
+      <c r="C68" s="414">
+        <v>3</v>
+      </c>
+      <c r="D68" s="412" t="s">
+        <v>64</v>
+      </c>
+      <c r="E68" s="412" t="s">
+        <v>962</v>
+      </c>
+      <c r="F68" s="412" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A69" s="413" t="s">
+        <v>1033</v>
+      </c>
+      <c r="B69" s="412" t="s">
+        <v>984</v>
+      </c>
+      <c r="C69" s="414">
+        <v>3</v>
+      </c>
+      <c r="D69" s="412" t="s">
+        <v>166</v>
+      </c>
+      <c r="E69" s="412" t="s">
+        <v>972</v>
+      </c>
+      <c r="F69" s="412" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A70" s="413" t="s">
+        <v>1083</v>
+      </c>
+      <c r="B70" s="412" t="s">
+        <v>1183</v>
+      </c>
+      <c r="C70" s="414">
+        <v>1</v>
+      </c>
+      <c r="D70" s="412" t="s">
+        <v>888</v>
+      </c>
+      <c r="E70" s="412" t="s">
+        <v>1207</v>
+      </c>
+      <c r="F70" s="412" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A71" s="413" t="s">
+        <v>1341</v>
+      </c>
+      <c r="B71" s="412" t="s">
+        <v>1342</v>
+      </c>
+      <c r="C71" s="414">
+        <v>3</v>
+      </c>
+      <c r="D71" s="412" t="s">
+        <v>64</v>
+      </c>
+      <c r="E71" s="412" t="s">
+        <v>972</v>
+      </c>
+      <c r="F71" s="412" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A72" s="413" t="s">
+        <v>1035</v>
+      </c>
+      <c r="B72" s="412" t="s">
+        <v>985</v>
+      </c>
+      <c r="C72" s="414">
+        <v>3</v>
+      </c>
+      <c r="D72" s="412" t="s">
+        <v>184</v>
+      </c>
+      <c r="E72" s="412" t="s">
+        <v>942</v>
+      </c>
+      <c r="F72" s="412" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A73" s="413" t="s">
+        <v>1343</v>
+      </c>
+      <c r="B73" s="412" t="s">
+        <v>986</v>
+      </c>
+      <c r="C73" s="414">
+        <v>3</v>
+      </c>
+      <c r="D73" s="412" t="s">
+        <v>604</v>
+      </c>
+      <c r="E73" s="412" t="s">
+        <v>1396</v>
+      </c>
+      <c r="F73" s="412" t="s">
+        <v>1225</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A74" s="413" t="s">
+        <v>1348</v>
+      </c>
+      <c r="B74" s="412" t="s">
+        <v>988</v>
+      </c>
+      <c r="C74" s="414">
+        <v>3</v>
+      </c>
+      <c r="E74" s="412" t="s">
+        <v>964</v>
+      </c>
+      <c r="F74" s="412" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A75" s="413" t="s">
+        <v>1220</v>
+      </c>
+      <c r="B75" s="412" t="s">
+        <v>1186</v>
+      </c>
+      <c r="C75" s="414">
+        <v>3</v>
+      </c>
+      <c r="D75" s="412" t="s">
+        <v>166</v>
+      </c>
+      <c r="E75" s="412" t="s">
+        <v>958</v>
+      </c>
+      <c r="F75" s="412" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A76" s="413" t="s">
+        <v>1040</v>
+      </c>
+      <c r="B76" s="412" t="s">
+        <v>989</v>
+      </c>
+      <c r="C76" s="414">
+        <v>3</v>
+      </c>
+      <c r="D76" s="412" t="s">
+        <v>414</v>
+      </c>
+      <c r="E76" s="412" t="s">
+        <v>972</v>
+      </c>
+      <c r="F76" s="412" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A77" s="413" t="s">
+        <v>1041</v>
+      </c>
+      <c r="B77" s="412" t="s">
+        <v>990</v>
+      </c>
+      <c r="C77" s="414">
+        <v>3</v>
+      </c>
+      <c r="D77" s="412" t="s">
+        <v>45</v>
+      </c>
+      <c r="E77" s="412" t="s">
+        <v>964</v>
+      </c>
+      <c r="F77" s="412" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A78" s="413" t="s">
+        <v>1042</v>
+      </c>
+      <c r="B78" s="412" t="s">
+        <v>991</v>
+      </c>
+      <c r="C78" s="414">
+        <v>3</v>
+      </c>
+      <c r="D78" s="412" t="s">
+        <v>1218</v>
+      </c>
+      <c r="E78" s="412" t="s">
+        <v>928</v>
+      </c>
+      <c r="F78" s="412" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A79" s="413" t="s">
+        <v>1043</v>
+      </c>
+      <c r="B79" s="412" t="s">
+        <v>992</v>
+      </c>
+      <c r="C79" s="414">
+        <v>3</v>
+      </c>
+      <c r="D79" s="412" t="s">
+        <v>658</v>
+      </c>
+      <c r="E79" s="412" t="s">
+        <v>946</v>
+      </c>
+      <c r="F79" s="412" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A80" s="413" t="s">
+        <v>1096</v>
+      </c>
+      <c r="B80" s="412" t="s">
+        <v>1097</v>
+      </c>
+      <c r="C80" s="414">
+        <v>3</v>
+      </c>
+      <c r="D80" s="412" t="s">
+        <v>872</v>
+      </c>
+      <c r="E80" s="412" t="s">
+        <v>972</v>
+      </c>
+      <c r="F80" s="412" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A81" s="413" t="s">
+        <v>1344</v>
+      </c>
+      <c r="B81" s="412" t="s">
+        <v>1181</v>
+      </c>
+      <c r="C81" s="414">
+        <v>3</v>
+      </c>
+      <c r="D81" s="412" t="s">
+        <v>59</v>
+      </c>
+      <c r="E81" s="412" t="s">
+        <v>947</v>
+      </c>
+      <c r="F81" s="412" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A82" s="413" t="s">
+        <v>1046</v>
+      </c>
+      <c r="B82" s="412" t="s">
+        <v>993</v>
+      </c>
+      <c r="C82" s="414">
+        <v>3</v>
+      </c>
+      <c r="D82" s="412" t="s">
+        <v>1219</v>
+      </c>
+      <c r="E82" s="412" t="s">
+        <v>969</v>
+      </c>
+      <c r="F82" s="412" t="s">
+        <v>215</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="A4:C6"/>
@@ -36308,7 +37662,7 @@
       </c>
       <c r="E1" s="418"/>
       <c r="F1" s="458" t="s">
-        <v>1351</v>
+        <v>1345</v>
       </c>
     </row>
     <row r="2" spans="1:6" s="410" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.15">
@@ -36418,7 +37772,7 @@
         <v>1001</v>
       </c>
       <c r="B13" s="412" t="s">
-        <v>1371</v>
+        <v>1365</v>
       </c>
       <c r="C13" s="414">
         <v>3</v>
@@ -36447,7 +37801,7 @@
         <v>872</v>
       </c>
       <c r="E14" s="412" t="s">
-        <v>1386</v>
+        <v>1380</v>
       </c>
       <c r="F14" s="412" t="s">
         <v>14</v>
@@ -36464,7 +37818,7 @@
         <v>1</v>
       </c>
       <c r="D15" s="412" t="s">
-        <v>1423</v>
+        <v>1417</v>
       </c>
       <c r="E15" s="412" t="s">
         <v>933</v>
@@ -36484,7 +37838,7 @@
         <v>1</v>
       </c>
       <c r="D16" s="412" t="s">
-        <v>1423</v>
+        <v>1417</v>
       </c>
       <c r="E16" s="412" t="s">
         <v>1210</v>
@@ -36507,7 +37861,7 @@
         <v>481</v>
       </c>
       <c r="E17" s="412" t="s">
-        <v>1432</v>
+        <v>1426</v>
       </c>
       <c r="F17" s="412" t="s">
         <v>100</v>
@@ -36547,7 +37901,7 @@
         <v>481</v>
       </c>
       <c r="E19" s="412" t="s">
-        <v>1433</v>
+        <v>1427</v>
       </c>
       <c r="F19" s="412" t="s">
         <v>100</v>
@@ -36567,7 +37921,7 @@
         <v>481</v>
       </c>
       <c r="E20" s="412" t="s">
-        <v>1337</v>
+        <v>1331</v>
       </c>
       <c r="F20" s="412" t="s">
         <v>100</v>
@@ -36587,7 +37941,7 @@
         <v>59</v>
       </c>
       <c r="E21" s="412" t="s">
-        <v>1434</v>
+        <v>1428</v>
       </c>
       <c r="F21" s="412" t="s">
         <v>100</v>
@@ -36607,7 +37961,7 @@
         <v>59</v>
       </c>
       <c r="E22" s="412" t="s">
-        <v>1339</v>
+        <v>1333</v>
       </c>
       <c r="F22" s="412" t="s">
         <v>100</v>
@@ -36644,7 +37998,7 @@
         <v>1</v>
       </c>
       <c r="D24" s="412" t="s">
-        <v>1372</v>
+        <v>1366</v>
       </c>
       <c r="E24" s="412" t="s">
         <v>936</v>
@@ -36664,7 +38018,7 @@
         <v>1</v>
       </c>
       <c r="D25" s="412" t="s">
-        <v>1372</v>
+        <v>1366</v>
       </c>
       <c r="E25" s="412" t="s">
         <v>1034</v>
@@ -36675,7 +38029,7 @@
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26" s="413" t="s">
-        <v>1387</v>
+        <v>1381</v>
       </c>
       <c r="B26" s="412" t="s">
         <v>920</v>
@@ -36687,7 +38041,7 @@
         <v>811</v>
       </c>
       <c r="E26" s="412" t="s">
-        <v>1388</v>
+        <v>1382</v>
       </c>
       <c r="F26" s="412" t="s">
         <v>19</v>
@@ -36695,7 +38049,7 @@
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27" s="413" t="s">
-        <v>1389</v>
+        <v>1383</v>
       </c>
       <c r="B27" s="412" t="s">
         <v>920</v>
@@ -36707,7 +38061,7 @@
         <v>811</v>
       </c>
       <c r="E27" s="412" t="s">
-        <v>1390</v>
+        <v>1384</v>
       </c>
       <c r="F27" s="412" t="s">
         <v>19</v>
@@ -36727,7 +38081,7 @@
         <v>159</v>
       </c>
       <c r="E28" s="412" t="s">
-        <v>1385</v>
+        <v>1379</v>
       </c>
       <c r="F28" s="412" t="s">
         <v>100</v>
@@ -36767,7 +38121,7 @@
         <v>743</v>
       </c>
       <c r="E30" s="412" t="s">
-        <v>1435</v>
+        <v>1429</v>
       </c>
       <c r="F30" s="412" t="s">
         <v>100</v>
@@ -40485,7 +41839,7 @@
   </sheetPr>
   <dimension ref="A1:F78"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <pane xSplit="1" ySplit="12" topLeftCell="B13" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A13" sqref="A13"/>
@@ -40506,7 +41860,7 @@
     <row r="1" spans="1:6" s="410" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="407"/>
       <c r="B1" s="456" t="s">
-        <v>1473</v>
+        <v>1467</v>
       </c>
       <c r="C1" s="409"/>
       <c r="D1" s="418" t="s">
@@ -40514,7 +41868,7 @@
       </c>
       <c r="E1" s="418"/>
       <c r="F1" s="458" t="s">
-        <v>1351</v>
+        <v>1345</v>
       </c>
     </row>
     <row r="2" spans="1:6" s="410" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.15">
@@ -40649,7 +42003,7 @@
         <v>1001</v>
       </c>
       <c r="B13" s="412" t="s">
-        <v>1371</v>
+        <v>1365</v>
       </c>
       <c r="C13" s="414">
         <v>3</v>
@@ -40678,7 +42032,7 @@
         <v>872</v>
       </c>
       <c r="E14" s="412" t="s">
-        <v>1386</v>
+        <v>1380</v>
       </c>
       <c r="F14" s="412" t="s">
         <v>14</v>
@@ -40695,7 +42049,7 @@
         <v>1</v>
       </c>
       <c r="D15" s="412" t="s">
-        <v>1423</v>
+        <v>1417</v>
       </c>
       <c r="E15" s="412" t="s">
         <v>933</v>
@@ -40726,7 +42080,7 @@
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" s="413" t="s">
-        <v>1465</v>
+        <v>1459</v>
       </c>
       <c r="B17" s="412" t="s">
         <v>915</v>
@@ -40758,7 +42112,7 @@
         <v>481</v>
       </c>
       <c r="E18" s="412" t="s">
-        <v>1433</v>
+        <v>1427</v>
       </c>
       <c r="F18" s="412" t="s">
         <v>100</v>
@@ -40778,7 +42132,7 @@
         <v>481</v>
       </c>
       <c r="E19" s="412" t="s">
-        <v>1337</v>
+        <v>1331</v>
       </c>
       <c r="F19" s="412" t="s">
         <v>100</v>
@@ -40798,7 +42152,7 @@
         <v>59</v>
       </c>
       <c r="E20" s="412" t="s">
-        <v>1434</v>
+        <v>1428</v>
       </c>
       <c r="F20" s="412" t="s">
         <v>100</v>
@@ -40818,7 +42172,7 @@
         <v>59</v>
       </c>
       <c r="E21" s="412" t="s">
-        <v>1339</v>
+        <v>1333</v>
       </c>
       <c r="F21" s="412" t="s">
         <v>100</v>
@@ -40855,7 +42209,7 @@
         <v>1</v>
       </c>
       <c r="D23" s="412" t="s">
-        <v>1372</v>
+        <v>1366</v>
       </c>
       <c r="E23" s="412" t="s">
         <v>936</v>
@@ -40866,7 +42220,7 @@
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24" s="413" t="s">
-        <v>1387</v>
+        <v>1381</v>
       </c>
       <c r="B24" s="412" t="s">
         <v>920</v>
@@ -40878,7 +42232,7 @@
         <v>811</v>
       </c>
       <c r="E24" s="412" t="s">
-        <v>1388</v>
+        <v>1382</v>
       </c>
       <c r="F24" s="412" t="s">
         <v>19</v>
@@ -40886,7 +42240,7 @@
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25" s="413" t="s">
-        <v>1389</v>
+        <v>1383</v>
       </c>
       <c r="B25" s="412" t="s">
         <v>920</v>
@@ -40898,7 +42252,7 @@
         <v>811</v>
       </c>
       <c r="E25" s="412" t="s">
-        <v>1390</v>
+        <v>1384</v>
       </c>
       <c r="F25" s="412" t="s">
         <v>19</v>
@@ -40918,7 +42272,7 @@
         <v>159</v>
       </c>
       <c r="E26" s="412" t="s">
-        <v>1385</v>
+        <v>1379</v>
       </c>
       <c r="F26" s="412" t="s">
         <v>100</v>
@@ -40958,7 +42312,7 @@
         <v>481</v>
       </c>
       <c r="E28" s="412" t="s">
-        <v>1436</v>
+        <v>1430</v>
       </c>
       <c r="F28" s="412" t="s">
         <v>100</v>
@@ -40978,7 +42332,7 @@
         <v>481</v>
       </c>
       <c r="E29" s="412" t="s">
-        <v>1343</v>
+        <v>1337</v>
       </c>
       <c r="F29" s="412" t="s">
         <v>100</v>
@@ -41018,7 +42372,7 @@
         <v>811</v>
       </c>
       <c r="E31" s="412" t="s">
-        <v>1392</v>
+        <v>1386</v>
       </c>
       <c r="F31" s="412" t="s">
         <v>77</v>
@@ -41035,13 +42389,13 @@
         <v>3</v>
       </c>
       <c r="D32" s="412" t="s">
-        <v>1369</v>
+        <v>1363</v>
       </c>
       <c r="E32" s="412" t="s">
         <v>958</v>
       </c>
       <c r="F32" s="412" t="s">
-        <v>1437</v>
+        <v>1431</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.2">
@@ -41061,15 +42415,15 @@
         <v>929</v>
       </c>
       <c r="F33" s="412" t="s">
-        <v>1437</v>
+        <v>1431</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A34" s="413" t="s">
-        <v>1377</v>
+        <v>1371</v>
       </c>
       <c r="B34" s="412" t="s">
-        <v>1378</v>
+        <v>1372</v>
       </c>
       <c r="C34" s="414">
         <v>3</v>
@@ -41081,7 +42435,7 @@
         <v>914</v>
       </c>
       <c r="F34" s="412" t="s">
-        <v>1393</v>
+        <v>1387</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.2">
@@ -41101,7 +42455,7 @@
         <v>931</v>
       </c>
       <c r="F35" s="412" t="s">
-        <v>1393</v>
+        <v>1387</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.2">
@@ -41146,7 +42500,7 @@
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A38" s="413" t="s">
-        <v>1425</v>
+        <v>1419</v>
       </c>
       <c r="B38" s="412" t="s">
         <v>935</v>
@@ -41155,7 +42509,7 @@
         <v>1</v>
       </c>
       <c r="D38" s="412" t="s">
-        <v>1426</v>
+        <v>1420</v>
       </c>
       <c r="E38" s="412" t="s">
         <v>936</v>
@@ -41166,7 +42520,7 @@
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A39" s="413" t="s">
-        <v>1427</v>
+        <v>1421</v>
       </c>
       <c r="B39" s="412" t="s">
         <v>935</v>
@@ -41195,13 +42549,13 @@
         <v>3</v>
       </c>
       <c r="D40" s="412" t="s">
-        <v>1428</v>
+        <v>1422</v>
       </c>
       <c r="E40" s="412" t="s">
         <v>942</v>
       </c>
       <c r="F40" s="412" t="s">
-        <v>1466</v>
+        <v>1460</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.2">
@@ -41215,13 +42569,13 @@
         <v>3</v>
       </c>
       <c r="D41" s="412" t="s">
-        <v>1428</v>
+        <v>1422</v>
       </c>
       <c r="E41" s="412" t="s">
         <v>938</v>
       </c>
       <c r="F41" s="412" t="s">
-        <v>1466</v>
+        <v>1460</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.2">
@@ -41235,13 +42589,13 @@
         <v>3</v>
       </c>
       <c r="D42" s="412" t="s">
-        <v>1428</v>
+        <v>1422</v>
       </c>
       <c r="E42" s="412" t="s">
-        <v>1462</v>
+        <v>1456</v>
       </c>
       <c r="F42" s="412" t="s">
-        <v>1466</v>
+        <v>1460</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.2">
@@ -41258,7 +42612,7 @@
         <v>741</v>
       </c>
       <c r="E43" s="412" t="s">
-        <v>1438</v>
+        <v>1432</v>
       </c>
       <c r="F43" s="412" t="s">
         <v>100</v>
@@ -41278,7 +42632,7 @@
         <v>741</v>
       </c>
       <c r="E44" s="412" t="s">
-        <v>1439</v>
+        <v>1433</v>
       </c>
       <c r="F44" s="412" t="s">
         <v>100</v>
@@ -41298,7 +42652,7 @@
         <v>741</v>
       </c>
       <c r="E45" s="412" t="s">
-        <v>1336</v>
+        <v>1330</v>
       </c>
       <c r="F45" s="412" t="s">
         <v>100</v>
@@ -41338,7 +42692,7 @@
         <v>741</v>
       </c>
       <c r="E47" s="412" t="s">
-        <v>1440</v>
+        <v>1434</v>
       </c>
       <c r="F47" s="412" t="s">
         <v>100</v>
@@ -41381,7 +42735,7 @@
         <v>929</v>
       </c>
       <c r="F49" s="412" t="s">
-        <v>1393</v>
+        <v>1387</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.2">
@@ -41401,7 +42755,7 @@
         <v>938</v>
       </c>
       <c r="F50" s="412" t="s">
-        <v>1393</v>
+        <v>1387</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.2">
@@ -41435,7 +42789,7 @@
         <v>2</v>
       </c>
       <c r="D52" s="412" t="s">
-        <v>1472</v>
+        <v>1466</v>
       </c>
       <c r="E52" s="412" t="s">
         <v>944</v>
@@ -41455,13 +42809,13 @@
         <v>1</v>
       </c>
       <c r="D53" s="412" t="s">
-        <v>1448</v>
+        <v>1442</v>
       </c>
       <c r="E53" s="412" t="s">
         <v>916</v>
       </c>
       <c r="F53" s="412" t="s">
-        <v>1467</v>
+        <v>1461</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.2">
@@ -41475,7 +42829,7 @@
         <v>2</v>
       </c>
       <c r="D54" s="412" t="s">
-        <v>1472</v>
+        <v>1466</v>
       </c>
       <c r="E54" s="412" t="s">
         <v>944</v>
@@ -41486,7 +42840,7 @@
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A55" s="413" t="s">
-        <v>1441</v>
+        <v>1435</v>
       </c>
       <c r="B55" s="412" t="s">
         <v>943</v>
@@ -41495,13 +42849,13 @@
         <v>1</v>
       </c>
       <c r="D55" s="412" t="s">
-        <v>1448</v>
+        <v>1442</v>
       </c>
       <c r="E55" s="412" t="s">
-        <v>1343</v>
+        <v>1337</v>
       </c>
       <c r="F55" s="412" t="s">
-        <v>1468</v>
+        <v>1462</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.2">
@@ -41546,16 +42900,16 @@
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A58" s="413" t="s">
-        <v>1379</v>
+        <v>1373</v>
       </c>
       <c r="B58" s="412" t="s">
-        <v>1380</v>
+        <v>1374</v>
       </c>
       <c r="C58" s="414">
         <v>1</v>
       </c>
       <c r="D58" s="412" t="s">
-        <v>1424</v>
+        <v>1418</v>
       </c>
       <c r="E58" s="412" t="s">
         <v>1210</v>
@@ -41581,7 +42935,7 @@
         <v>950</v>
       </c>
       <c r="F59" s="412" t="s">
-        <v>1469</v>
+        <v>1463</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.2">
@@ -41706,10 +43060,10 @@
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A66" s="413" t="s">
-        <v>1384</v>
+        <v>1378</v>
       </c>
       <c r="B66" s="412" t="s">
-        <v>1442</v>
+        <v>1436</v>
       </c>
       <c r="C66" s="414">
         <v>3</v>
@@ -41729,7 +43083,7 @@
         <v>1082</v>
       </c>
       <c r="B67" s="412" t="s">
-        <v>1443</v>
+        <v>1437</v>
       </c>
       <c r="C67" s="414">
         <v>3</v>
@@ -41755,7 +43109,7 @@
         <v>1</v>
       </c>
       <c r="D68" s="412" t="s">
-        <v>1426</v>
+        <v>1420</v>
       </c>
       <c r="E68" s="412" t="s">
         <v>1207</v>
@@ -41766,10 +43120,10 @@
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A69" s="413" t="s">
-        <v>1470</v>
+        <v>1464</v>
       </c>
       <c r="B69" s="412" t="s">
-        <v>1471</v>
+        <v>1465</v>
       </c>
       <c r="C69" s="414">
         <v>3</v>
@@ -41786,10 +43140,10 @@
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A70" s="413" t="s">
-        <v>1381</v>
+        <v>1375</v>
       </c>
       <c r="B70" s="412" t="s">
-        <v>1382</v>
+        <v>1376</v>
       </c>
       <c r="C70" s="414">
         <v>3</v>
@@ -41818,7 +43172,7 @@
         <v>604</v>
       </c>
       <c r="E71" s="412" t="s">
-        <v>1383</v>
+        <v>1377</v>
       </c>
       <c r="F71" s="412" t="s">
         <v>1225</v>
@@ -41886,10 +43240,10 @@
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A75" s="413" t="s">
-        <v>1463</v>
+        <v>1457</v>
       </c>
       <c r="B75" s="412" t="s">
-        <v>1464</v>
+        <v>1458</v>
       </c>
       <c r="C75" s="414">
         <v>3</v>
@@ -42006,7 +43360,7 @@
   <sheetData>
     <row r="1" spans="1:6" s="410" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="407" t="s">
-        <v>1431</v>
+        <v>1425</v>
       </c>
       <c r="B1" s="408"/>
       <c r="C1" s="409"/>
@@ -42015,7 +43369,7 @@
       </c>
       <c r="E1" s="418"/>
       <c r="F1" s="458" t="s">
-        <v>1351</v>
+        <v>1345</v>
       </c>
     </row>
     <row r="2" spans="1:6" s="410" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.15">
@@ -42080,7 +43434,7 @@
     </row>
     <row r="7" spans="1:6" s="410" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="462" t="s">
-        <v>1391</v>
+        <v>1385</v>
       </c>
       <c r="B7" s="462"/>
       <c r="C7" s="462"/>
@@ -42155,7 +43509,7 @@
         <v>1001</v>
       </c>
       <c r="B13" s="412" t="s">
-        <v>1371</v>
+        <v>1365</v>
       </c>
       <c r="C13" s="414">
         <v>3</v>
@@ -42167,7 +43521,7 @@
         <v>931</v>
       </c>
       <c r="F13" s="412" t="s">
-        <v>1393</v>
+        <v>1387</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
@@ -42181,10 +43535,10 @@
         <v>1</v>
       </c>
       <c r="D14" s="412" t="s">
-        <v>1423</v>
+        <v>1417</v>
       </c>
       <c r="E14" s="412" t="s">
-        <v>1334</v>
+        <v>1328</v>
       </c>
       <c r="F14" s="412" t="s">
         <v>14</v>
@@ -42221,7 +43575,7 @@
         <v>1</v>
       </c>
       <c r="D16" s="412" t="s">
-        <v>1423</v>
+        <v>1417</v>
       </c>
       <c r="E16" s="412" t="s">
         <v>1034</v>
@@ -42244,7 +43598,7 @@
         <v>481</v>
       </c>
       <c r="E17" s="412" t="s">
-        <v>1394</v>
+        <v>1388</v>
       </c>
       <c r="F17" s="412" t="s">
         <v>119</v>
@@ -42264,7 +43618,7 @@
         <v>481</v>
       </c>
       <c r="E18" s="412" t="s">
-        <v>1335</v>
+        <v>1329</v>
       </c>
       <c r="F18" s="412" t="s">
         <v>119</v>
@@ -42284,7 +43638,7 @@
         <v>481</v>
       </c>
       <c r="E19" s="412" t="s">
-        <v>1336</v>
+        <v>1330</v>
       </c>
       <c r="F19" s="412" t="s">
         <v>119</v>
@@ -42381,7 +43735,7 @@
         <v>1</v>
       </c>
       <c r="D24" s="412" t="s">
-        <v>1372</v>
+        <v>1366</v>
       </c>
       <c r="E24" s="412" t="s">
         <v>936</v>
@@ -42401,7 +43755,7 @@
         <v>1</v>
       </c>
       <c r="D25" s="412" t="s">
-        <v>1372</v>
+        <v>1366</v>
       </c>
       <c r="E25" s="412" t="s">
         <v>1034</v>
@@ -42424,7 +43778,7 @@
         <v>481</v>
       </c>
       <c r="E26" s="412" t="s">
-        <v>1395</v>
+        <v>1389</v>
       </c>
       <c r="F26" s="412" t="s">
         <v>100</v>
@@ -42444,7 +43798,7 @@
         <v>481</v>
       </c>
       <c r="E27" s="412" t="s">
-        <v>1337</v>
+        <v>1331</v>
       </c>
       <c r="F27" s="412" t="s">
         <v>100</v>
@@ -42464,7 +43818,7 @@
         <v>811</v>
       </c>
       <c r="E28" s="412" t="s">
-        <v>1396</v>
+        <v>1390</v>
       </c>
       <c r="F28" s="412" t="s">
         <v>100</v>
@@ -42484,7 +43838,7 @@
         <v>811</v>
       </c>
       <c r="E29" s="412" t="s">
-        <v>1339</v>
+        <v>1333</v>
       </c>
       <c r="F29" s="412" t="s">
         <v>100</v>
@@ -42492,7 +43846,7 @@
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A30" s="413" t="s">
-        <v>1365</v>
+        <v>1359</v>
       </c>
       <c r="B30" s="412" t="s">
         <v>921</v>
@@ -42504,7 +43858,7 @@
         <v>741</v>
       </c>
       <c r="E30" s="412" t="s">
-        <v>1366</v>
+        <v>1360</v>
       </c>
       <c r="F30" s="412" t="s">
         <v>100</v>
@@ -42512,7 +43866,7 @@
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31" s="413" t="s">
-        <v>1367</v>
+        <v>1361</v>
       </c>
       <c r="B31" s="412" t="s">
         <v>921</v>
@@ -42524,7 +43878,7 @@
         <v>741</v>
       </c>
       <c r="E31" s="412" t="s">
-        <v>1368</v>
+        <v>1362</v>
       </c>
       <c r="F31" s="412" t="s">
         <v>100</v>
@@ -42532,22 +43886,22 @@
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A32" s="413" t="s">
-        <v>1397</v>
+        <v>1391</v>
       </c>
       <c r="B32" s="412" t="s">
-        <v>1398</v>
+        <v>1392</v>
       </c>
       <c r="C32" s="414">
         <v>3</v>
       </c>
       <c r="D32" s="412" t="s">
-        <v>1399</v>
+        <v>1393</v>
       </c>
       <c r="E32" s="412" t="s">
         <v>929</v>
       </c>
       <c r="F32" s="412" t="s">
-        <v>1400</v>
+        <v>1394</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.2">
@@ -42601,13 +43955,13 @@
         <v>3</v>
       </c>
       <c r="D35" s="412" t="s">
-        <v>1369</v>
+        <v>1363</v>
       </c>
       <c r="E35" s="412" t="s">
         <v>972</v>
       </c>
       <c r="F35" s="412" t="s">
-        <v>1340</v>
+        <v>1334</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.2">
@@ -42627,7 +43981,7 @@
         <v>929</v>
       </c>
       <c r="F36" s="412" t="s">
-        <v>1401</v>
+        <v>1395</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.2">
@@ -42635,7 +43989,7 @@
         <v>1010</v>
       </c>
       <c r="B37" s="412" t="s">
-        <v>1421</v>
+        <v>1415</v>
       </c>
       <c r="C37" s="414">
         <v>3</v>
@@ -42647,7 +44001,7 @@
         <v>914</v>
       </c>
       <c r="F37" s="412" t="s">
-        <v>1393</v>
+        <v>1387</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.2">
@@ -42667,7 +44021,7 @@
         <v>938</v>
       </c>
       <c r="F38" s="412" t="s">
-        <v>1393</v>
+        <v>1387</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.2">
@@ -42687,7 +44041,7 @@
         <v>933</v>
       </c>
       <c r="F39" s="412" t="s">
-        <v>1376</v>
+        <v>1370</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.2">
@@ -42732,7 +44086,7 @@
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A42" s="413" t="s">
-        <v>1425</v>
+        <v>1419</v>
       </c>
       <c r="B42" s="412" t="s">
         <v>935</v>
@@ -42741,7 +44095,7 @@
         <v>1</v>
       </c>
       <c r="D42" s="412" t="s">
-        <v>1426</v>
+        <v>1420</v>
       </c>
       <c r="E42" s="412" t="s">
         <v>936</v>
@@ -42752,7 +44106,7 @@
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A43" s="413" t="s">
-        <v>1427</v>
+        <v>1421</v>
       </c>
       <c r="B43" s="412" t="s">
         <v>935</v>
@@ -42761,7 +44115,7 @@
         <v>1</v>
       </c>
       <c r="D43" s="412" t="s">
-        <v>1426</v>
+        <v>1420</v>
       </c>
       <c r="E43" s="412" t="s">
         <v>1034</v>
@@ -42781,7 +44135,7 @@
         <v>3</v>
       </c>
       <c r="D44" s="412" t="s">
-        <v>1428</v>
+        <v>1422</v>
       </c>
       <c r="E44" s="412" t="s">
         <v>942</v>
@@ -42801,7 +44155,7 @@
         <v>3</v>
       </c>
       <c r="D45" s="412" t="s">
-        <v>1428</v>
+        <v>1422</v>
       </c>
       <c r="E45" s="412" t="s">
         <v>938</v>
@@ -42815,7 +44169,7 @@
         <v>1015</v>
       </c>
       <c r="B46" s="412" t="s">
-        <v>1341</v>
+        <v>1335</v>
       </c>
       <c r="C46" s="414">
         <v>2</v>
@@ -42824,7 +44178,7 @@
         <v>743</v>
       </c>
       <c r="E46" s="412" t="s">
-        <v>1429</v>
+        <v>1423</v>
       </c>
       <c r="F46" s="412" t="s">
         <v>100</v>
@@ -42835,7 +44189,7 @@
         <v>1016</v>
       </c>
       <c r="B47" s="412" t="s">
-        <v>1341</v>
+        <v>1335</v>
       </c>
       <c r="C47" s="414">
         <v>1</v>
@@ -42855,7 +44209,7 @@
         <v>1196</v>
       </c>
       <c r="B48" s="412" t="s">
-        <v>1341</v>
+        <v>1335</v>
       </c>
       <c r="C48" s="414">
         <v>2</v>
@@ -42875,7 +44229,7 @@
         <v>1198</v>
       </c>
       <c r="B49" s="412" t="s">
-        <v>1341</v>
+        <v>1335</v>
       </c>
       <c r="C49" s="414">
         <v>1</v>
@@ -42947,7 +44301,7 @@
         <v>944</v>
       </c>
       <c r="F52" s="412" t="s">
-        <v>1430</v>
+        <v>1424</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.2">
@@ -42964,7 +44318,7 @@
         <v>1219</v>
       </c>
       <c r="E53" s="412" t="s">
-        <v>1343</v>
+        <v>1337</v>
       </c>
       <c r="F53" s="412" t="s">
         <v>104</v>
@@ -43004,7 +44358,7 @@
         <v>1219</v>
       </c>
       <c r="E55" s="412" t="s">
-        <v>1343</v>
+        <v>1337</v>
       </c>
       <c r="F55" s="412" t="s">
         <v>24</v>
@@ -43172,7 +44526,7 @@
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A64" s="413" t="s">
-        <v>1346</v>
+        <v>1340</v>
       </c>
       <c r="B64" s="412" t="s">
         <v>983</v>
@@ -43252,10 +44606,10 @@
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A68" s="413" t="s">
-        <v>1347</v>
+        <v>1341</v>
       </c>
       <c r="B68" s="412" t="s">
-        <v>1348</v>
+        <v>1342</v>
       </c>
       <c r="C68" s="414">
         <v>3</v>
@@ -43292,7 +44646,7 @@
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A70" s="413" t="s">
-        <v>1349</v>
+        <v>1343</v>
       </c>
       <c r="B70" s="412" t="s">
         <v>986</v>
@@ -43304,7 +44658,7 @@
         <v>604</v>
       </c>
       <c r="E70" s="412" t="s">
-        <v>1402</v>
+        <v>1396</v>
       </c>
       <c r="F70" s="412" t="s">
         <v>1225</v>
@@ -43432,7 +44786,7 @@
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A77" s="413" t="s">
-        <v>1350</v>
+        <v>1344</v>
       </c>
       <c r="B77" s="412" t="s">
         <v>1181</v>
@@ -43461,7 +44815,7 @@
         <v>3</v>
       </c>
       <c r="D78" s="412" t="s">
-        <v>1424</v>
+        <v>1418</v>
       </c>
       <c r="E78" s="412" t="s">
         <v>969</v>
@@ -43520,7 +44874,7 @@
       </c>
       <c r="E1" s="418"/>
       <c r="F1" s="458" t="s">
-        <v>1351</v>
+        <v>1345</v>
       </c>
     </row>
     <row r="2" spans="1:6" s="410" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.15">
@@ -43580,7 +44934,7 @@
     </row>
     <row r="7" spans="1:6" s="410" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="463" t="s">
-        <v>1403</v>
+        <v>1397</v>
       </c>
       <c r="B7" s="463"/>
       <c r="C7" s="463"/>
@@ -43632,12 +44986,12 @@
     </row>
     <row r="13" spans="1:6" ht="12" thickTop="1" x14ac:dyDescent="0.2">
       <c r="B13" s="412" t="s">
-        <v>1420</v>
+        <v>1414</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" s="413" t="s">
-        <v>1404</v>
+        <v>1398</v>
       </c>
       <c r="B14" s="412" t="s">
         <v>982</v>
@@ -43649,7 +45003,7 @@
         <v>872</v>
       </c>
       <c r="E14" s="412" t="s">
-        <v>1405</v>
+        <v>1399</v>
       </c>
       <c r="F14" s="412" t="s">
         <v>189</v>
@@ -43657,15 +45011,15 @@
     </row>
     <row r="16" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B16" s="412" t="s">
-        <v>1407</v>
+        <v>1401</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" s="413" t="s">
-        <v>1406</v>
+        <v>1400</v>
       </c>
       <c r="B17" s="412" t="s">
-        <v>1414</v>
+        <v>1408</v>
       </c>
       <c r="C17" s="414">
         <v>3</v>
@@ -43674,20 +45028,20 @@
         <v>64</v>
       </c>
       <c r="E17" s="412" t="s">
-        <v>1360</v>
+        <v>1354</v>
       </c>
       <c r="F17" s="412" t="s">
-        <v>1422</v>
+        <v>1416</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B19" s="412" t="s">
-        <v>1415</v>
+        <v>1409</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" s="413" t="s">
-        <v>1408</v>
+        <v>1402</v>
       </c>
       <c r="B20" s="412" t="s">
         <v>1191</v>
@@ -43699,7 +45053,7 @@
         <v>912</v>
       </c>
       <c r="E20" s="412" t="s">
-        <v>1409</v>
+        <v>1403</v>
       </c>
       <c r="F20" s="412" t="s">
         <v>432</v>
@@ -43707,7 +45061,7 @@
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" s="413" t="s">
-        <v>1410</v>
+        <v>1404</v>
       </c>
       <c r="B21" s="412" t="s">
         <v>937</v>
@@ -43719,7 +45073,7 @@
         <v>64</v>
       </c>
       <c r="E21" s="412" t="s">
-        <v>1411</v>
+        <v>1405</v>
       </c>
       <c r="F21" s="412" t="s">
         <v>432</v>
@@ -43727,10 +45081,10 @@
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" s="413" t="s">
-        <v>1413</v>
+        <v>1407</v>
       </c>
       <c r="B22" s="412" t="s">
-        <v>1412</v>
+        <v>1406</v>
       </c>
       <c r="C22" s="414">
         <v>3</v>
@@ -43747,10 +45101,10 @@
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" s="413" t="s">
-        <v>1416</v>
+        <v>1410</v>
       </c>
       <c r="B23" s="412" t="s">
-        <v>1417</v>
+        <v>1411</v>
       </c>
       <c r="C23" s="414">
         <v>3</v>
@@ -43767,10 +45121,10 @@
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24" s="413" t="s">
-        <v>1418</v>
+        <v>1412</v>
       </c>
       <c r="B24" s="412" t="s">
-        <v>1419</v>
+        <v>1413</v>
       </c>
       <c r="C24" s="414">
         <v>3</v>
@@ -43838,7 +45192,7 @@
       </c>
       <c r="E1" s="418"/>
       <c r="F1" s="458" t="s">
-        <v>1351</v>
+        <v>1345</v>
       </c>
     </row>
     <row r="2" spans="1:6" s="410" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.15">
@@ -43975,10 +45329,10 @@
     </row>
     <row r="13" spans="1:6" ht="12" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A13" s="413" t="s">
-        <v>1444</v>
+        <v>1438</v>
       </c>
       <c r="B13" s="412" t="s">
-        <v>1371</v>
+        <v>1365</v>
       </c>
       <c r="C13" s="414">
         <v>3</v>
@@ -43990,15 +45344,15 @@
         <v>914</v>
       </c>
       <c r="F13" s="412" t="s">
-        <v>1445</v>
+        <v>1439</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" s="413" t="s">
-        <v>1446</v>
+        <v>1440</v>
       </c>
       <c r="B14" s="412" t="s">
-        <v>1371</v>
+        <v>1365</v>
       </c>
       <c r="C14" s="414">
         <v>3</v>
@@ -44010,7 +45364,7 @@
         <v>914</v>
       </c>
       <c r="F14" s="412" t="s">
-        <v>1447</v>
+        <v>1441</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
@@ -44027,7 +45381,7 @@
         <v>872</v>
       </c>
       <c r="E15" s="412" t="s">
-        <v>1386</v>
+        <v>1380</v>
       </c>
       <c r="F15" s="412" t="s">
         <v>14</v>
@@ -44044,7 +45398,7 @@
         <v>1</v>
       </c>
       <c r="D16" s="412" t="s">
-        <v>1448</v>
+        <v>1442</v>
       </c>
       <c r="E16" s="412" t="s">
         <v>933</v>
@@ -44064,7 +45418,7 @@
         <v>1</v>
       </c>
       <c r="D17" s="412" t="s">
-        <v>1448</v>
+        <v>1442</v>
       </c>
       <c r="E17" s="412" t="s">
         <v>1210</v>
@@ -44127,7 +45481,7 @@
         <v>59</v>
       </c>
       <c r="E20" s="412" t="s">
-        <v>1449</v>
+        <v>1443</v>
       </c>
       <c r="F20" s="412" t="s">
         <v>119</v>
@@ -44147,7 +45501,7 @@
         <v>59</v>
       </c>
       <c r="E21" s="412" t="s">
-        <v>1343</v>
+        <v>1337</v>
       </c>
       <c r="F21" s="412" t="s">
         <v>119</v>
@@ -44167,7 +45521,7 @@
         <v>741</v>
       </c>
       <c r="E22" s="412" t="s">
-        <v>1450</v>
+        <v>1444</v>
       </c>
       <c r="F22" s="412" t="s">
         <v>189</v>
@@ -44204,7 +45558,7 @@
         <v>1</v>
       </c>
       <c r="D24" s="412" t="s">
-        <v>1372</v>
+        <v>1366</v>
       </c>
       <c r="E24" s="412" t="s">
         <v>919</v>
@@ -44224,7 +45578,7 @@
         <v>1</v>
       </c>
       <c r="D25" s="412" t="s">
-        <v>1372</v>
+        <v>1366</v>
       </c>
       <c r="E25" s="412" t="s">
         <v>936</v>
@@ -44244,7 +45598,7 @@
         <v>1</v>
       </c>
       <c r="D26" s="412" t="s">
-        <v>1372</v>
+        <v>1366</v>
       </c>
       <c r="E26" s="412" t="s">
         <v>1034</v>
@@ -44255,7 +45609,7 @@
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27" s="413" t="s">
-        <v>1387</v>
+        <v>1381</v>
       </c>
       <c r="B27" s="412" t="s">
         <v>920</v>
@@ -44267,7 +45621,7 @@
         <v>811</v>
       </c>
       <c r="E27" s="412" t="s">
-        <v>1388</v>
+        <v>1382</v>
       </c>
       <c r="F27" s="412" t="s">
         <v>19</v>
@@ -44275,7 +45629,7 @@
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A28" s="413" t="s">
-        <v>1389</v>
+        <v>1383</v>
       </c>
       <c r="B28" s="412" t="s">
         <v>920</v>
@@ -44287,7 +45641,7 @@
         <v>811</v>
       </c>
       <c r="E28" s="412" t="s">
-        <v>1390</v>
+        <v>1384</v>
       </c>
       <c r="F28" s="412" t="s">
         <v>19</v>
@@ -44307,7 +45661,7 @@
         <v>741</v>
       </c>
       <c r="E29" s="412" t="s">
-        <v>1451</v>
+        <v>1445</v>
       </c>
       <c r="F29" s="412" t="s">
         <v>100</v>
@@ -44327,7 +45681,7 @@
         <v>741</v>
       </c>
       <c r="E30" s="412" t="s">
-        <v>1343</v>
+        <v>1337</v>
       </c>
       <c r="F30" s="412" t="s">
         <v>66</v>
@@ -44347,7 +45701,7 @@
         <v>743</v>
       </c>
       <c r="E31" s="412" t="s">
-        <v>1451</v>
+        <v>1445</v>
       </c>
       <c r="F31" s="412" t="s">
         <v>66</v>
@@ -44367,7 +45721,7 @@
         <v>743</v>
       </c>
       <c r="E32" s="412" t="s">
-        <v>1343</v>
+        <v>1337</v>
       </c>
       <c r="F32" s="412" t="s">
         <v>100</v>
@@ -44387,7 +45741,7 @@
         <v>811</v>
       </c>
       <c r="E33" s="412" t="s">
-        <v>1452</v>
+        <v>1446</v>
       </c>
       <c r="F33" s="412" t="s">
         <v>100</v>
@@ -44407,7 +45761,7 @@
         <v>811</v>
       </c>
       <c r="E34" s="412" t="s">
-        <v>1392</v>
+        <v>1386</v>
       </c>
       <c r="F34" s="412" t="s">
         <v>100</v>
@@ -44464,13 +45818,13 @@
         <v>3</v>
       </c>
       <c r="D37" s="412" t="s">
-        <v>1369</v>
+        <v>1363</v>
       </c>
       <c r="E37" s="412" t="s">
         <v>972</v>
       </c>
       <c r="F37" s="412" t="s">
-        <v>1340</v>
+        <v>1334</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.2">
@@ -44490,15 +45844,15 @@
         <v>929</v>
       </c>
       <c r="F38" s="412" t="s">
-        <v>1453</v>
+        <v>1447</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A39" s="413" t="s">
-        <v>1377</v>
+        <v>1371</v>
       </c>
       <c r="B39" s="412" t="s">
-        <v>1378</v>
+        <v>1372</v>
       </c>
       <c r="C39" s="414">
         <v>3</v>
@@ -44550,7 +45904,7 @@
         <v>933</v>
       </c>
       <c r="F41" s="412" t="s">
-        <v>1376</v>
+        <v>1370</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.2">
@@ -44667,7 +46021,7 @@
         <v>481</v>
       </c>
       <c r="E47" s="412" t="s">
-        <v>1454</v>
+        <v>1448</v>
       </c>
       <c r="F47" s="412" t="s">
         <v>77</v>
@@ -44687,7 +46041,7 @@
         <v>741</v>
       </c>
       <c r="E48" s="412" t="s">
-        <v>1455</v>
+        <v>1449</v>
       </c>
       <c r="F48" s="412" t="s">
         <v>100</v>
@@ -44727,7 +46081,7 @@
         <v>743</v>
       </c>
       <c r="E50" s="412" t="s">
-        <v>1385</v>
+        <v>1379</v>
       </c>
       <c r="F50" s="412" t="s">
         <v>100</v>
@@ -44767,7 +46121,7 @@
         <v>741</v>
       </c>
       <c r="E52" s="412" t="s">
-        <v>1456</v>
+        <v>1450</v>
       </c>
       <c r="F52" s="412" t="s">
         <v>100</v>
@@ -44864,7 +46218,7 @@
         <v>2</v>
       </c>
       <c r="D57" s="412" t="s">
-        <v>1457</v>
+        <v>1451</v>
       </c>
       <c r="E57" s="412" t="s">
         <v>944</v>
@@ -44924,7 +46278,7 @@
         <v>1</v>
       </c>
       <c r="D60" s="412" t="s">
-        <v>1448</v>
+        <v>1442</v>
       </c>
       <c r="E60" s="412" t="s">
         <v>923</v>
@@ -44975,10 +46329,10 @@
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A63" s="413" t="s">
-        <v>1379</v>
+        <v>1373</v>
       </c>
       <c r="B63" s="412" t="s">
-        <v>1380</v>
+        <v>1374</v>
       </c>
       <c r="C63" s="414">
         <v>1</v>
@@ -45087,7 +46441,7 @@
         <v>481</v>
       </c>
       <c r="E68" s="412" t="s">
-        <v>1458</v>
+        <v>1452</v>
       </c>
       <c r="F68" s="412" t="s">
         <v>417</v>
@@ -45135,16 +46489,16 @@
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A71" s="413" t="s">
-        <v>1384</v>
+        <v>1378</v>
       </c>
       <c r="B71" s="412" t="s">
-        <v>1459</v>
+        <v>1453</v>
       </c>
       <c r="C71" s="414">
         <v>3</v>
       </c>
       <c r="D71" s="412" t="s">
-        <v>1460</v>
+        <v>1454</v>
       </c>
       <c r="E71" s="412" t="s">
         <v>964</v>
@@ -45195,10 +46549,10 @@
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A74" s="413" t="s">
-        <v>1381</v>
+        <v>1375</v>
       </c>
       <c r="B74" s="412" t="s">
-        <v>1382</v>
+        <v>1376</v>
       </c>
       <c r="C74" s="414">
         <v>3</v>
@@ -45227,10 +46581,10 @@
         <v>604</v>
       </c>
       <c r="E75" s="412" t="s">
-        <v>1383</v>
+        <v>1377</v>
       </c>
       <c r="F75" s="412" t="s">
-        <v>1461</v>
+        <v>1455</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.2">
@@ -45463,7 +46817,7 @@
       </c>
       <c r="E1" s="418"/>
       <c r="F1" s="458" t="s">
-        <v>1351</v>
+        <v>1345</v>
       </c>
     </row>
     <row r="2" spans="1:6" s="410" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.15">
@@ -45603,7 +46957,7 @@
         <v>1001</v>
       </c>
       <c r="B13" s="412" t="s">
-        <v>1371</v>
+        <v>1365</v>
       </c>
       <c r="C13" s="414">
         <v>3</v>
@@ -45632,7 +46986,7 @@
         <v>533</v>
       </c>
       <c r="E14" s="412" t="s">
-        <v>1334</v>
+        <v>1328</v>
       </c>
       <c r="F14" s="412" t="s">
         <v>19</v>
@@ -45712,7 +47066,7 @@
         <v>481</v>
       </c>
       <c r="E18" s="412" t="s">
-        <v>1335</v>
+        <v>1329</v>
       </c>
       <c r="F18" s="412" t="s">
         <v>100</v>
@@ -45732,7 +47086,7 @@
         <v>741</v>
       </c>
       <c r="E19" s="412" t="s">
-        <v>1336</v>
+        <v>1330</v>
       </c>
       <c r="F19" s="412" t="s">
         <v>100</v>
@@ -45829,7 +47183,7 @@
         <v>1</v>
       </c>
       <c r="D24" s="412" t="s">
-        <v>1372</v>
+        <v>1366</v>
       </c>
       <c r="E24" s="412" t="s">
         <v>936</v>
@@ -45849,7 +47203,7 @@
         <v>1</v>
       </c>
       <c r="D25" s="412" t="s">
-        <v>1372</v>
+        <v>1366</v>
       </c>
       <c r="E25" s="412" t="s">
         <v>1034</v>
@@ -45892,7 +47246,7 @@
         <v>159</v>
       </c>
       <c r="E27" s="412" t="s">
-        <v>1337</v>
+        <v>1331</v>
       </c>
       <c r="F27" s="412" t="s">
         <v>100</v>
@@ -45952,7 +47306,7 @@
         <v>741</v>
       </c>
       <c r="E30" s="412" t="s">
-        <v>1338</v>
+        <v>1332</v>
       </c>
       <c r="F30" s="412" t="s">
         <v>100</v>
@@ -45972,7 +47326,7 @@
         <v>741</v>
       </c>
       <c r="E31" s="412" t="s">
-        <v>1339</v>
+        <v>1333</v>
       </c>
       <c r="F31" s="412" t="s">
         <v>100</v>
@@ -45980,7 +47334,7 @@
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A32" s="413" t="s">
-        <v>1365</v>
+        <v>1359</v>
       </c>
       <c r="B32" s="412" t="s">
         <v>921</v>
@@ -45992,7 +47346,7 @@
         <v>811</v>
       </c>
       <c r="E32" s="412" t="s">
-        <v>1366</v>
+        <v>1360</v>
       </c>
       <c r="F32" s="412" t="s">
         <v>100</v>
@@ -46000,7 +47354,7 @@
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A33" s="413" t="s">
-        <v>1367</v>
+        <v>1361</v>
       </c>
       <c r="B33" s="412" t="s">
         <v>921</v>
@@ -46012,7 +47366,7 @@
         <v>811</v>
       </c>
       <c r="E33" s="412" t="s">
-        <v>1368</v>
+        <v>1362</v>
       </c>
       <c r="F33" s="412" t="s">
         <v>100</v>
@@ -46049,7 +47403,7 @@
         <v>1</v>
       </c>
       <c r="D35" s="412" t="s">
-        <v>1370</v>
+        <v>1364</v>
       </c>
       <c r="E35" s="412" t="s">
         <v>926</v>
@@ -46069,13 +47423,13 @@
         <v>3</v>
       </c>
       <c r="D36" s="412" t="s">
-        <v>1369</v>
+        <v>1363</v>
       </c>
       <c r="E36" s="412" t="s">
         <v>1067</v>
       </c>
       <c r="F36" s="412" t="s">
-        <v>1340</v>
+        <v>1334</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.2">
@@ -46155,7 +47509,7 @@
         <v>933</v>
       </c>
       <c r="F40" s="412" t="s">
-        <v>1376</v>
+        <v>1370</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.2">
@@ -46243,7 +47597,7 @@
         <v>1015</v>
       </c>
       <c r="B45" s="412" t="s">
-        <v>1341</v>
+        <v>1335</v>
       </c>
       <c r="C45" s="414">
         <v>2</v>
@@ -46252,7 +47606,7 @@
         <v>743</v>
       </c>
       <c r="E45" s="412" t="s">
-        <v>1342</v>
+        <v>1336</v>
       </c>
       <c r="F45" s="412" t="s">
         <v>100</v>
@@ -46263,7 +47617,7 @@
         <v>1016</v>
       </c>
       <c r="B46" s="412" t="s">
-        <v>1341</v>
+        <v>1335</v>
       </c>
       <c r="C46" s="414">
         <v>1</v>
@@ -46283,7 +47637,7 @@
         <v>1196</v>
       </c>
       <c r="B47" s="412" t="s">
-        <v>1341</v>
+        <v>1335</v>
       </c>
       <c r="C47" s="414">
         <v>2</v>
@@ -46303,7 +47657,7 @@
         <v>1198</v>
       </c>
       <c r="B48" s="412" t="s">
-        <v>1341</v>
+        <v>1335</v>
       </c>
       <c r="C48" s="414">
         <v>1</v>
@@ -46375,7 +47729,7 @@
         <v>944</v>
       </c>
       <c r="F51" s="412" t="s">
-        <v>1373</v>
+        <v>1367</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.2">
@@ -46392,7 +47746,7 @@
         <v>184</v>
       </c>
       <c r="E52" s="412" t="s">
-        <v>1343</v>
+        <v>1337</v>
       </c>
       <c r="F52" s="412" t="s">
         <v>104</v>
@@ -46432,7 +47786,7 @@
         <v>184</v>
       </c>
       <c r="E54" s="412" t="s">
-        <v>1343</v>
+        <v>1337</v>
       </c>
       <c r="F54" s="412" t="s">
         <v>24</v>
@@ -46480,10 +47834,10 @@
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A57" s="413" t="s">
-        <v>1344</v>
+        <v>1338</v>
       </c>
       <c r="B57" s="412" t="s">
-        <v>1345</v>
+        <v>1339</v>
       </c>
       <c r="C57" s="414">
         <v>3</v>
@@ -46620,7 +47974,7 @@
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A64" s="413" t="s">
-        <v>1346</v>
+        <v>1340</v>
       </c>
       <c r="B64" s="412" t="s">
         <v>983</v>
@@ -46700,10 +48054,10 @@
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A68" s="413" t="s">
-        <v>1347</v>
+        <v>1341</v>
       </c>
       <c r="B68" s="412" t="s">
-        <v>1348</v>
+        <v>1342</v>
       </c>
       <c r="C68" s="414">
         <v>3</v>
@@ -46740,7 +48094,7 @@
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A70" s="413" t="s">
-        <v>1349</v>
+        <v>1343</v>
       </c>
       <c r="B70" s="412" t="s">
         <v>986</v>
@@ -46760,7 +48114,7 @@
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A71" s="413" t="s">
-        <v>1354</v>
+        <v>1348</v>
       </c>
       <c r="B71" s="412" t="s">
         <v>988</v>
@@ -46820,10 +48174,10 @@
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A74" s="413" t="s">
-        <v>1374</v>
+        <v>1368</v>
       </c>
       <c r="B74" s="412" t="s">
-        <v>1375</v>
+        <v>1369</v>
       </c>
       <c r="C74" s="414">
         <v>3</v>
@@ -46880,7 +48234,7 @@
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A77" s="413" t="s">
-        <v>1350</v>
+        <v>1344</v>
       </c>
       <c r="B77" s="412" t="s">
         <v>1181</v>

--- a/schedule/semester/schedule.xlsx
+++ b/schedule/semester/schedule.xlsx
@@ -80,7 +80,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8590" uniqueCount="1475">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8490" uniqueCount="1505">
   <si>
     <t>ELECTRICAL AND COMPUTER ENGINEERING</t>
   </si>
@@ -3913,9 +3913,6 @@
     <t>Fall SEMESTER 2019 COURSE LIST</t>
   </si>
   <si>
-    <t xml:space="preserve"> SUMMER INTERSESSION 2019 COURSE LIST</t>
-  </si>
-  <si>
     <t xml:space="preserve"> SPRING SEMESTER 2019 COURSE LIST</t>
   </si>
   <si>
@@ -4369,9 +4366,6 @@
     <t>T 1000-1150AM</t>
   </si>
   <si>
-    <t>T 1200-150PM</t>
-  </si>
-  <si>
     <t>W 1000-1150AM</t>
   </si>
   <si>
@@ -4486,9 +4480,6 @@
     <t>Posted 1/28/2019</t>
   </si>
   <si>
-    <t>T 800-940AM</t>
-  </si>
-  <si>
     <t>November 25-27</t>
   </si>
   <si>
@@ -4505,6 +4496,105 @@
   </si>
   <si>
     <t>August 19                  </t>
+  </si>
+  <si>
+    <t>EE 4310-80</t>
+  </si>
+  <si>
+    <t>TR 12:30pm-4:45pm</t>
+  </si>
+  <si>
+    <t>Programming in Python</t>
+  </si>
+  <si>
+    <t>TR 8:00am-12:15pm</t>
+  </si>
+  <si>
+    <t>EE 5330-80</t>
+  </si>
+  <si>
+    <t>Computer Methods in Power Systems</t>
+  </si>
+  <si>
+    <t>TR 6:00pm-10:15pm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        SUMMER 2019 COURSE LIST (Session B: 5 WEEK SESSION, MAY 28 TO JULY 1)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        SUMMER 2019 COURSE LIST (Session C: 5 WEEK SESSION, JULY 8 TO AUGUST 10)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        SUMMER 2019 COURSE LIST (Session A: 10 WEEK SESSION, May 28 TO AUGUST 10)</t>
+  </si>
+  <si>
+    <t>EE 3000</t>
+  </si>
+  <si>
+    <t>Posted 2/21/2019</t>
+  </si>
+  <si>
+    <t>Posted 2/20/2019</t>
+  </si>
+  <si>
+    <t>SH264/SH260</t>
+  </si>
+  <si>
+    <t>F 150-420PM</t>
+  </si>
+  <si>
+    <t>W 150-420PM</t>
+  </si>
+  <si>
+    <t>T 1010AM-12PM</t>
+  </si>
+  <si>
+    <t>R 1055AM-125PM</t>
+  </si>
+  <si>
+    <t>F 1055AM-125PM</t>
+  </si>
+  <si>
+    <t>T 1210-200PM</t>
+  </si>
+  <si>
+    <t>R 150-420PM</t>
+  </si>
+  <si>
+    <t>ENGR3010-01</t>
+  </si>
+  <si>
+    <t>ENGR3010-02</t>
+  </si>
+  <si>
+    <t>ENGR3010-03</t>
+  </si>
+  <si>
+    <t>KHB2015</t>
+  </si>
+  <si>
+    <t>T 210-400PM</t>
+  </si>
+  <si>
+    <t>TR 210-300PM</t>
+  </si>
+  <si>
+    <t>KHC4077</t>
+  </si>
+  <si>
+    <t>ETC251/ETC252</t>
+  </si>
+  <si>
+    <t>ETA309</t>
+  </si>
+  <si>
+    <t>KHC4071</t>
+  </si>
+  <si>
+    <t>KHC2094</t>
+  </si>
+  <si>
+    <t>F 200-340PM</t>
   </si>
 </sst>
 </file>
@@ -7738,17 +7828,17 @@
       </c>
       <c r="E1" s="418"/>
       <c r="F1" s="458" t="s">
-        <v>1345</v>
+        <v>1344</v>
       </c>
     </row>
     <row r="2" spans="1:6" s="410" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B2" s="409"/>
       <c r="C2" s="409"/>
       <c r="D2" s="449" t="s">
-        <v>1326</v>
+        <v>1325</v>
       </c>
       <c r="E2" s="449" t="s">
-        <v>1296</v>
+        <v>1295</v>
       </c>
       <c r="F2" s="458"/>
     </row>
@@ -7759,7 +7849,7 @@
         <v>1110</v>
       </c>
       <c r="E3" s="449" t="s">
-        <v>1297</v>
+        <v>1296</v>
       </c>
       <c r="F3" s="449"/>
     </row>
@@ -7770,10 +7860,10 @@
       <c r="B4" s="457"/>
       <c r="C4" s="457"/>
       <c r="D4" s="449" t="s">
-        <v>1327</v>
+        <v>1326</v>
       </c>
       <c r="E4" s="449" t="s">
-        <v>1299</v>
+        <v>1298</v>
       </c>
       <c r="F4" s="449"/>
     </row>
@@ -7887,7 +7977,7 @@
   <sheetData>
     <row r="1" spans="1:6" s="410" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="407" t="s">
-        <v>1358</v>
+        <v>1357</v>
       </c>
       <c r="B1" s="408"/>
       <c r="C1" s="409"/>
@@ -7896,7 +7986,7 @@
       </c>
       <c r="E1" s="418"/>
       <c r="F1" s="458" t="s">
-        <v>1345</v>
+        <v>1344</v>
       </c>
     </row>
     <row r="2" spans="1:6" s="410" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.15">
@@ -8003,19 +8093,19 @@
     </row>
     <row r="13" spans="1:6" ht="12" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A13" s="413" t="s">
+        <v>1354</v>
+      </c>
+      <c r="B13" s="412" t="s">
         <v>1355</v>
-      </c>
-      <c r="B13" s="412" t="s">
-        <v>1356</v>
       </c>
       <c r="C13" s="414">
         <v>3</v>
       </c>
       <c r="D13" s="412" t="s">
-        <v>1357</v>
+        <v>1356</v>
       </c>
       <c r="E13" s="412" t="s">
-        <v>1349</v>
+        <v>1348</v>
       </c>
       <c r="F13" s="412" t="s">
         <v>119</v>
@@ -8023,10 +8113,10 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" s="413" t="s">
+        <v>1349</v>
+      </c>
+      <c r="B14" s="412" t="s">
         <v>1350</v>
-      </c>
-      <c r="B14" s="412" t="s">
-        <v>1351</v>
       </c>
       <c r="C14" s="414">
         <v>3</v>
@@ -8035,7 +8125,7 @@
         <v>64</v>
       </c>
       <c r="E14" s="412" t="s">
-        <v>1352</v>
+        <v>1351</v>
       </c>
       <c r="F14" s="412" t="s">
         <v>89</v>
@@ -8043,7 +8133,7 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" s="413" t="s">
-        <v>1353</v>
+        <v>1352</v>
       </c>
       <c r="B15" s="412" t="s">
         <v>801</v>
@@ -8055,7 +8145,7 @@
         <v>45</v>
       </c>
       <c r="E15" s="412" t="s">
-        <v>1354</v>
+        <v>1353</v>
       </c>
       <c r="F15" s="412" t="s">
         <v>89</v>
@@ -8111,7 +8201,7 @@
       </c>
       <c r="E1" s="418"/>
       <c r="F1" s="458" t="s">
-        <v>1345</v>
+        <v>1344</v>
       </c>
     </row>
     <row r="2" spans="1:6" s="410" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.15">
@@ -9257,7 +9347,7 @@
         <v>1031</v>
       </c>
       <c r="D63" s="412" t="s">
-        <v>1346</v>
+        <v>1345</v>
       </c>
       <c r="E63" s="412" t="s">
         <v>942</v>
@@ -9397,7 +9487,7 @@
         <v>3</v>
       </c>
       <c r="D70" s="412" t="s">
-        <v>1347</v>
+        <v>1346</v>
       </c>
       <c r="E70" s="412" t="s">
         <v>964</v>
@@ -9616,7 +9706,7 @@
       </c>
       <c r="E1" s="418"/>
       <c r="F1" s="458" t="s">
-        <v>1345</v>
+        <v>1344</v>
       </c>
     </row>
     <row r="2" spans="1:7" s="410" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.15">
@@ -11148,7 +11238,7 @@
       </c>
       <c r="E1" s="418"/>
       <c r="F1" s="458" t="s">
-        <v>1345</v>
+        <v>1344</v>
       </c>
     </row>
     <row r="2" spans="1:7" s="410" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.15">
@@ -11537,7 +11627,7 @@
       </c>
       <c r="E1" s="418"/>
       <c r="F1" s="458" t="s">
-        <v>1345</v>
+        <v>1344</v>
       </c>
     </row>
     <row r="2" spans="1:6" s="410" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.15">
@@ -18931,17 +19021,17 @@
       </c>
       <c r="E1" s="418"/>
       <c r="F1" s="458" t="s">
-        <v>1345</v>
+        <v>1344</v>
       </c>
     </row>
     <row r="2" spans="1:6" s="410" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B2" s="409"/>
       <c r="C2" s="409"/>
       <c r="D2" s="449" t="s">
-        <v>1320</v>
+        <v>1319</v>
       </c>
       <c r="E2" s="449" t="s">
-        <v>1281</v>
+        <v>1280</v>
       </c>
       <c r="F2" s="458"/>
     </row>
@@ -18949,7 +19039,7 @@
       <c r="B3" s="409"/>
       <c r="C3" s="409"/>
       <c r="D3" s="449" t="s">
-        <v>1321</v>
+        <v>1320</v>
       </c>
       <c r="E3" s="449" t="s">
         <v>1136</v>
@@ -18963,10 +19053,10 @@
       <c r="B4" s="459"/>
       <c r="C4" s="459"/>
       <c r="D4" s="449" t="s">
-        <v>1322</v>
+        <v>1321</v>
       </c>
       <c r="E4" s="449" t="s">
-        <v>1284</v>
+        <v>1283</v>
       </c>
       <c r="F4" s="449"/>
     </row>
@@ -18975,10 +19065,10 @@
       <c r="B5" s="459"/>
       <c r="C5" s="459"/>
       <c r="D5" s="449" t="s">
-        <v>1323</v>
+        <v>1322</v>
       </c>
       <c r="E5" s="449" t="s">
-        <v>1286</v>
+        <v>1285</v>
       </c>
     </row>
     <row r="6" spans="1:6" s="410" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.15">
@@ -18986,7 +19076,7 @@
       <c r="B6" s="459"/>
       <c r="C6" s="459"/>
       <c r="D6" s="449" t="s">
-        <v>1312</v>
+        <v>1311</v>
       </c>
       <c r="E6" s="449" t="s">
         <v>1230</v>
@@ -19000,10 +19090,10 @@
       <c r="B7" s="460"/>
       <c r="C7" s="460"/>
       <c r="D7" s="449" t="s">
-        <v>1324</v>
+        <v>1323</v>
       </c>
       <c r="E7" s="449" t="s">
-        <v>1289</v>
+        <v>1288</v>
       </c>
       <c r="F7" s="449"/>
     </row>
@@ -19012,7 +19102,7 @@
       <c r="B8" s="460"/>
       <c r="C8" s="460"/>
       <c r="D8" s="449" t="s">
-        <v>1325</v>
+        <v>1324</v>
       </c>
       <c r="E8" s="449" t="s">
         <v>1102</v>
@@ -19026,7 +19116,7 @@
         <v>1141</v>
       </c>
       <c r="E9" s="449" t="s">
-        <v>1292</v>
+        <v>1291</v>
       </c>
     </row>
     <row r="10" spans="1:6" s="410" customFormat="1" ht="9" x14ac:dyDescent="0.15">
@@ -27987,13 +28077,13 @@
   <sheetPr codeName="Sheet43">
     <tabColor theme="9" tint="-0.249977111117893"/>
   </sheetPr>
-  <dimension ref="A1:F82"/>
+  <dimension ref="A1:F77"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <pane xSplit="1" ySplit="12" topLeftCell="B13" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A13" sqref="A13"/>
-      <selection pane="bottomRight" activeCell="E9" sqref="E9"/>
+      <selection pane="bottomRight" activeCell="B82" sqref="B82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
@@ -28009,7 +28099,7 @@
   <sheetData>
     <row r="1" spans="1:6" s="410" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="407" t="s">
-        <v>1113</v>
+        <v>1484</v>
       </c>
       <c r="B1" s="408"/>
       <c r="C1" s="409"/>
@@ -28018,17 +28108,17 @@
       </c>
       <c r="E1" s="418"/>
       <c r="F1" s="458" t="s">
-        <v>1345</v>
+        <v>1344</v>
       </c>
     </row>
     <row r="2" spans="1:6" s="410" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B2" s="409"/>
       <c r="C2" s="409"/>
       <c r="D2" s="449" t="s">
-        <v>1474</v>
+        <v>1471</v>
       </c>
       <c r="E2" s="449" t="s">
-        <v>1301</v>
+        <v>1300</v>
       </c>
       <c r="F2" s="458"/>
     </row>
@@ -28036,7 +28126,7 @@
       <c r="B3" s="409"/>
       <c r="C3" s="409"/>
       <c r="D3" s="406" t="s">
-        <v>1302</v>
+        <v>1301</v>
       </c>
       <c r="E3" s="449" t="s">
         <v>1227</v>
@@ -28050,7 +28140,7 @@
       <c r="B4" s="457"/>
       <c r="C4" s="457"/>
       <c r="D4" s="449" t="s">
-        <v>1319</v>
+        <v>1318</v>
       </c>
       <c r="E4" s="449" t="s">
         <v>1228</v>
@@ -28074,10 +28164,10 @@
       <c r="B6" s="457"/>
       <c r="C6" s="457"/>
       <c r="D6" s="449" t="s">
-        <v>1469</v>
+        <v>1466</v>
       </c>
       <c r="E6" s="449" t="s">
-        <v>1471</v>
+        <v>1468</v>
       </c>
       <c r="F6" s="451"/>
     </row>
@@ -28088,7 +28178,7 @@
       <c r="B7" s="457"/>
       <c r="C7" s="457"/>
       <c r="D7" s="449" t="s">
-        <v>1470</v>
+        <v>1467</v>
       </c>
       <c r="E7" s="449" t="s">
         <v>1231</v>
@@ -28100,7 +28190,7 @@
       <c r="B8" s="457"/>
       <c r="C8" s="457"/>
       <c r="D8" s="449" t="s">
-        <v>1472</v>
+        <v>1469</v>
       </c>
       <c r="E8" s="449" t="s">
         <v>1101</v>
@@ -28112,10 +28202,10 @@
       <c r="B9" s="457"/>
       <c r="C9" s="457"/>
       <c r="D9" s="406" t="s">
-        <v>1473</v>
+        <v>1470</v>
       </c>
       <c r="E9" s="449" t="s">
-        <v>1309</v>
+        <v>1308</v>
       </c>
       <c r="F9" s="451"/>
     </row>
@@ -28158,7 +28248,7 @@
         <v>1001</v>
       </c>
       <c r="B13" s="412" t="s">
-        <v>1365</v>
+        <v>1364</v>
       </c>
       <c r="C13" s="414">
         <v>3</v>
@@ -28170,7 +28260,7 @@
         <v>931</v>
       </c>
       <c r="F13" s="412" t="s">
-        <v>1387</v>
+        <v>1485</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
@@ -28184,7 +28274,7 @@
         <v>1</v>
       </c>
       <c r="E14" s="412" t="s">
-        <v>1328</v>
+        <v>1327</v>
       </c>
       <c r="F14" s="412" t="s">
         <v>14</v>
@@ -28234,11 +28324,14 @@
       <c r="C17" s="414">
         <v>2</v>
       </c>
+      <c r="D17" s="412" t="s">
+        <v>481</v>
+      </c>
       <c r="E17" s="412" t="s">
-        <v>1388</v>
+        <v>1425</v>
       </c>
       <c r="F17" s="412" t="s">
-        <v>119</v>
+        <v>100</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
@@ -28251,11 +28344,14 @@
       <c r="C18" s="414">
         <v>1</v>
       </c>
+      <c r="D18" s="412" t="s">
+        <v>481</v>
+      </c>
       <c r="E18" s="412" t="s">
-        <v>1329</v>
+        <v>1486</v>
       </c>
       <c r="F18" s="412" t="s">
-        <v>119</v>
+        <v>100</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
@@ -28268,11 +28364,14 @@
       <c r="C19" s="414">
         <v>2</v>
       </c>
+      <c r="D19" s="412" t="s">
+        <v>481</v>
+      </c>
       <c r="E19" s="412" t="s">
-        <v>1330</v>
+        <v>1426</v>
       </c>
       <c r="F19" s="412" t="s">
-        <v>119</v>
+        <v>100</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
@@ -28285,11 +28384,14 @@
       <c r="C20" s="414">
         <v>1</v>
       </c>
+      <c r="D20" s="412" t="s">
+        <v>481</v>
+      </c>
       <c r="E20" s="412" t="s">
-        <v>1210</v>
+        <v>1487</v>
       </c>
       <c r="F20" s="412" t="s">
-        <v>119</v>
+        <v>100</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.2">
@@ -28302,14 +28404,11 @@
       <c r="C21" s="414">
         <v>2</v>
       </c>
-      <c r="D21" s="412" t="s">
-        <v>59</v>
-      </c>
       <c r="E21" s="412" t="s">
-        <v>1062</v>
+        <v>1488</v>
       </c>
       <c r="F21" s="412" t="s">
-        <v>119</v>
+        <v>100</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.2">
@@ -28322,14 +28421,11 @@
       <c r="C22" s="414">
         <v>1</v>
       </c>
-      <c r="D22" s="412" t="s">
-        <v>59</v>
-      </c>
       <c r="E22" s="412" t="s">
-        <v>938</v>
+        <v>1489</v>
       </c>
       <c r="F22" s="412" t="s">
-        <v>119</v>
+        <v>100</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.2">
@@ -28342,9 +28438,6 @@
       <c r="C23" s="414">
         <v>1</v>
       </c>
-      <c r="D23" s="412" t="s">
-        <v>741</v>
-      </c>
       <c r="E23" s="412" t="s">
         <v>919</v>
       </c>
@@ -28362,9 +28455,6 @@
       <c r="C24" s="414">
         <v>1</v>
       </c>
-      <c r="D24" s="412" t="s">
-        <v>1366</v>
-      </c>
       <c r="E24" s="412" t="s">
         <v>936</v>
       </c>
@@ -28382,9 +28472,6 @@
       <c r="C25" s="414">
         <v>1</v>
       </c>
-      <c r="D25" s="412" t="s">
-        <v>1366</v>
-      </c>
       <c r="E25" s="412" t="s">
         <v>1034</v>
       </c>
@@ -28402,8 +28489,11 @@
       <c r="C26" s="414">
         <v>2</v>
       </c>
+      <c r="D26" s="412" t="s">
+        <v>481</v>
+      </c>
       <c r="E26" s="412" t="s">
-        <v>1389</v>
+        <v>1428</v>
       </c>
       <c r="F26" s="412" t="s">
         <v>100</v>
@@ -28419,8 +28509,11 @@
       <c r="C27" s="414">
         <v>1</v>
       </c>
+      <c r="D27" s="412" t="s">
+        <v>481</v>
+      </c>
       <c r="E27" s="412" t="s">
-        <v>1331</v>
+        <v>1490</v>
       </c>
       <c r="F27" s="412" t="s">
         <v>100</v>
@@ -28436,11 +28529,8 @@
       <c r="C28" s="414">
         <v>2</v>
       </c>
-      <c r="D28" s="412" t="s">
-        <v>743</v>
-      </c>
       <c r="E28" s="412" t="s">
-        <v>1468</v>
+        <v>1378</v>
       </c>
       <c r="F28" s="412" t="s">
         <v>100</v>
@@ -28456,9 +28546,6 @@
       <c r="C29" s="414">
         <v>1</v>
       </c>
-      <c r="D29" s="412" t="s">
-        <v>743</v>
-      </c>
       <c r="E29" s="412" t="s">
         <v>1171</v>
       </c>
@@ -28476,11 +28563,8 @@
       <c r="C30" s="414">
         <v>2</v>
       </c>
-      <c r="D30" s="412" t="s">
-        <v>811</v>
-      </c>
       <c r="E30" s="412" t="s">
-        <v>1390</v>
+        <v>1491</v>
       </c>
       <c r="F30" s="412" t="s">
         <v>100</v>
@@ -28496,11 +28580,8 @@
       <c r="C31" s="414">
         <v>1</v>
       </c>
-      <c r="D31" s="412" t="s">
-        <v>811</v>
-      </c>
       <c r="E31" s="412" t="s">
-        <v>1333</v>
+        <v>1492</v>
       </c>
       <c r="F31" s="412" t="s">
         <v>100</v>
@@ -28508,130 +28589,118 @@
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A32" s="413" t="s">
-        <v>1359</v>
+        <v>1006</v>
       </c>
       <c r="B32" s="412" t="s">
-        <v>921</v>
+        <v>1178</v>
       </c>
       <c r="C32" s="414">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D32" s="412" t="s">
-        <v>741</v>
+        <v>912</v>
       </c>
       <c r="E32" s="412" t="s">
-        <v>1360</v>
+        <v>924</v>
       </c>
       <c r="F32" s="412" t="s">
-        <v>100</v>
+        <v>432</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A33" s="413" t="s">
-        <v>1361</v>
+        <v>1007</v>
       </c>
       <c r="B33" s="412" t="s">
-        <v>921</v>
+        <v>925</v>
       </c>
       <c r="C33" s="414">
         <v>1</v>
       </c>
-      <c r="D33" s="412" t="s">
-        <v>741</v>
-      </c>
       <c r="E33" s="412" t="s">
-        <v>1362</v>
+        <v>926</v>
       </c>
       <c r="F33" s="412" t="s">
-        <v>100</v>
+        <v>66</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A34" s="413" t="s">
-        <v>1391</v>
+        <v>1493</v>
       </c>
       <c r="B34" s="412" t="s">
-        <v>1392</v>
+        <v>927</v>
       </c>
       <c r="C34" s="414">
         <v>3</v>
       </c>
-      <c r="D34" s="412" t="s">
-        <v>1393</v>
-      </c>
       <c r="E34" s="412" t="s">
-        <v>929</v>
+        <v>950</v>
       </c>
       <c r="F34" s="412" t="s">
-        <v>1394</v>
+        <v>1333</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A35" s="413" t="s">
-        <v>1006</v>
+        <v>1494</v>
       </c>
       <c r="B35" s="412" t="s">
-        <v>1178</v>
+        <v>927</v>
       </c>
       <c r="C35" s="414">
         <v>3</v>
       </c>
-      <c r="D35" s="412" t="s">
-        <v>912</v>
-      </c>
       <c r="E35" s="412" t="s">
-        <v>924</v>
+        <v>947</v>
       </c>
       <c r="F35" s="412" t="s">
-        <v>432</v>
+        <v>1333</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A36" s="413" t="s">
-        <v>1007</v>
+        <v>1495</v>
       </c>
       <c r="B36" s="412" t="s">
-        <v>925</v>
+        <v>927</v>
       </c>
       <c r="C36" s="414">
-        <v>1</v>
-      </c>
-      <c r="D36" s="412" t="s">
-        <v>1219</v>
+        <v>3</v>
       </c>
       <c r="E36" s="412" t="s">
-        <v>926</v>
+        <v>972</v>
       </c>
       <c r="F36" s="412" t="s">
-        <v>66</v>
+        <v>1333</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A37" s="413" t="s">
-        <v>1008</v>
+        <v>1009</v>
       </c>
       <c r="B37" s="412" t="s">
-        <v>927</v>
+        <v>1179</v>
       </c>
       <c r="C37" s="414">
         <v>3</v>
       </c>
       <c r="D37" s="412" t="s">
-        <v>1363</v>
+        <v>34</v>
       </c>
       <c r="E37" s="412" t="s">
-        <v>972</v>
+        <v>929</v>
       </c>
       <c r="F37" s="412" t="s">
-        <v>1334</v>
+        <v>1394</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A38" s="413" t="s">
-        <v>1009</v>
+        <v>1010</v>
       </c>
       <c r="B38" s="412" t="s">
-        <v>1179</v>
+        <v>1414</v>
       </c>
       <c r="C38" s="414">
         <v>3</v>
@@ -28640,18 +28709,18 @@
         <v>34</v>
       </c>
       <c r="E38" s="412" t="s">
-        <v>929</v>
+        <v>914</v>
       </c>
       <c r="F38" s="412" t="s">
-        <v>1395</v>
+        <v>1394</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A39" s="413" t="s">
-        <v>1010</v>
+        <v>1011</v>
       </c>
       <c r="B39" s="412" t="s">
-        <v>1415</v>
+        <v>979</v>
       </c>
       <c r="C39" s="414">
         <v>3</v>
@@ -28660,55 +28729,52 @@
         <v>34</v>
       </c>
       <c r="E39" s="412" t="s">
-        <v>914</v>
+        <v>938</v>
       </c>
       <c r="F39" s="412" t="s">
-        <v>1387</v>
+        <v>1394</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A40" s="413" t="s">
-        <v>1011</v>
+        <v>1012</v>
       </c>
       <c r="B40" s="412" t="s">
-        <v>979</v>
+        <v>932</v>
       </c>
       <c r="C40" s="414">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D40" s="412" t="s">
-        <v>34</v>
+        <v>730</v>
       </c>
       <c r="E40" s="412" t="s">
-        <v>938</v>
+        <v>933</v>
       </c>
       <c r="F40" s="412" t="s">
-        <v>1387</v>
+        <v>1369</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A41" s="413" t="s">
-        <v>1012</v>
+        <v>1213</v>
       </c>
       <c r="B41" s="412" t="s">
-        <v>932</v>
+        <v>934</v>
       </c>
       <c r="C41" s="414">
-        <v>1</v>
-      </c>
-      <c r="D41" s="412" t="s">
-        <v>730</v>
+        <v>3</v>
       </c>
       <c r="E41" s="412" t="s">
-        <v>933</v>
+        <v>931</v>
       </c>
       <c r="F41" s="412" t="s">
-        <v>1370</v>
+        <v>417</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A42" s="413" t="s">
-        <v>1013</v>
+        <v>1214</v>
       </c>
       <c r="B42" s="412" t="s">
         <v>934</v>
@@ -28716,19 +28782,16 @@
       <c r="C42" s="414">
         <v>3</v>
       </c>
-      <c r="D42" s="412" t="s">
-        <v>64</v>
-      </c>
       <c r="E42" s="412" t="s">
-        <v>931</v>
+        <v>964</v>
       </c>
       <c r="F42" s="412" t="s">
-        <v>432</v>
+        <v>417</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A43" s="413" t="s">
-        <v>1419</v>
+        <v>1014</v>
       </c>
       <c r="B43" s="412" t="s">
         <v>935</v>
@@ -28745,24 +28808,27 @@
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A44" s="413" t="s">
+        <v>1154</v>
+      </c>
+      <c r="B44" s="412" t="s">
+        <v>1155</v>
+      </c>
+      <c r="C44" s="414">
+        <v>3</v>
+      </c>
+      <c r="D44" s="412" t="s">
         <v>1421</v>
       </c>
-      <c r="B44" s="412" t="s">
-        <v>935</v>
-      </c>
-      <c r="C44" s="414">
-        <v>1</v>
-      </c>
       <c r="E44" s="412" t="s">
-        <v>1034</v>
+        <v>942</v>
       </c>
       <c r="F44" s="412" t="s">
-        <v>189</v>
+        <v>1496</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A45" s="413" t="s">
-        <v>1154</v>
+        <v>1156</v>
       </c>
       <c r="B45" s="412" t="s">
         <v>1155</v>
@@ -28770,62 +28836,62 @@
       <c r="C45" s="414">
         <v>3</v>
       </c>
+      <c r="D45" s="412" t="s">
+        <v>1421</v>
+      </c>
       <c r="E45" s="412" t="s">
-        <v>942</v>
+        <v>938</v>
       </c>
       <c r="F45" s="412" t="s">
-        <v>432</v>
+        <v>1496</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A46" s="413" t="s">
-        <v>1156</v>
+        <v>1015</v>
       </c>
       <c r="B46" s="412" t="s">
-        <v>1155</v>
+        <v>1334</v>
       </c>
       <c r="C46" s="414">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E46" s="412" t="s">
-        <v>938</v>
+        <v>1329</v>
       </c>
       <c r="F46" s="412" t="s">
-        <v>432</v>
+        <v>100</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A47" s="413" t="s">
-        <v>1172</v>
+        <v>1016</v>
       </c>
       <c r="B47" s="412" t="s">
-        <v>1155</v>
+        <v>1334</v>
       </c>
       <c r="C47" s="414">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E47" s="412" t="s">
-        <v>1193</v>
+        <v>1210</v>
       </c>
       <c r="F47" s="412" t="s">
-        <v>432</v>
+        <v>100</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A48" s="413" t="s">
-        <v>1015</v>
+        <v>1196</v>
       </c>
       <c r="B48" s="412" t="s">
-        <v>1335</v>
+        <v>1334</v>
       </c>
       <c r="C48" s="414">
         <v>2</v>
       </c>
-      <c r="D48" s="412" t="s">
-        <v>743</v>
-      </c>
       <c r="E48" s="412" t="s">
-        <v>1423</v>
+        <v>1497</v>
       </c>
       <c r="F48" s="412" t="s">
         <v>100</v>
@@ -28833,19 +28899,16 @@
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A49" s="413" t="s">
-        <v>1016</v>
+        <v>1198</v>
       </c>
       <c r="B49" s="412" t="s">
-        <v>1335</v>
+        <v>1334</v>
       </c>
       <c r="C49" s="414">
         <v>1</v>
       </c>
-      <c r="D49" s="412" t="s">
-        <v>743</v>
-      </c>
       <c r="E49" s="412" t="s">
-        <v>919</v>
+        <v>1034</v>
       </c>
       <c r="F49" s="412" t="s">
         <v>100</v>
@@ -28853,87 +28916,78 @@
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A50" s="413" t="s">
-        <v>1196</v>
+        <v>1017</v>
       </c>
       <c r="B50" s="412" t="s">
-        <v>1335</v>
+        <v>939</v>
       </c>
       <c r="C50" s="414">
-        <v>2</v>
-      </c>
-      <c r="D50" s="412" t="s">
-        <v>741</v>
+        <v>1</v>
       </c>
       <c r="E50" s="412" t="s">
-        <v>1203</v>
+        <v>919</v>
       </c>
       <c r="F50" s="412" t="s">
-        <v>100</v>
+        <v>24</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A51" s="413" t="s">
-        <v>1198</v>
+        <v>1018</v>
       </c>
       <c r="B51" s="412" t="s">
-        <v>1335</v>
+        <v>980</v>
       </c>
       <c r="C51" s="414">
-        <v>1</v>
-      </c>
-      <c r="D51" s="412" t="s">
-        <v>741</v>
+        <v>3</v>
       </c>
       <c r="E51" s="412" t="s">
-        <v>1034</v>
+        <v>942</v>
       </c>
       <c r="F51" s="412" t="s">
-        <v>100</v>
+        <v>417</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A52" s="413" t="s">
-        <v>1017</v>
+        <v>1019</v>
       </c>
       <c r="B52" s="412" t="s">
-        <v>939</v>
+        <v>943</v>
       </c>
       <c r="C52" s="414">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D52" s="412" t="s">
-        <v>741</v>
+        <v>184</v>
       </c>
       <c r="E52" s="412" t="s">
-        <v>916</v>
+        <v>1498</v>
       </c>
       <c r="F52" s="412" t="s">
-        <v>24</v>
+        <v>1499</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A53" s="413" t="s">
-        <v>1018</v>
+        <v>1020</v>
       </c>
       <c r="B53" s="412" t="s">
-        <v>980</v>
+        <v>943</v>
       </c>
       <c r="C53" s="414">
-        <v>3</v>
-      </c>
-      <c r="D53" s="412" t="s">
-        <v>64</v>
+        <v>1</v>
       </c>
       <c r="E53" s="412" t="s">
-        <v>942</v>
+        <v>1490</v>
       </c>
       <c r="F53" s="412" t="s">
-        <v>129</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A54" s="413" t="s">
-        <v>1019</v>
+        <v>1161</v>
       </c>
       <c r="B54" s="412" t="s">
         <v>943</v>
@@ -28945,15 +28999,15 @@
         <v>184</v>
       </c>
       <c r="E54" s="412" t="s">
-        <v>944</v>
+        <v>1498</v>
       </c>
       <c r="F54" s="412" t="s">
-        <v>1424</v>
+        <v>1499</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A55" s="413" t="s">
-        <v>1020</v>
+        <v>1163</v>
       </c>
       <c r="B55" s="412" t="s">
         <v>943</v>
@@ -28961,122 +29015,113 @@
       <c r="C55" s="414">
         <v>1</v>
       </c>
-      <c r="D55" s="412" t="s">
-        <v>1219</v>
-      </c>
       <c r="E55" s="412" t="s">
-        <v>1337</v>
+        <v>1486</v>
       </c>
       <c r="F55" s="412" t="s">
-        <v>104</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A56" s="413" t="s">
-        <v>1161</v>
+        <v>1074</v>
       </c>
       <c r="B56" s="412" t="s">
-        <v>943</v>
+        <v>945</v>
       </c>
       <c r="C56" s="414">
-        <v>2</v>
-      </c>
-      <c r="D56" s="412" t="s">
-        <v>184</v>
+        <v>3</v>
       </c>
       <c r="E56" s="412" t="s">
-        <v>1062</v>
+        <v>946</v>
       </c>
       <c r="F56" s="412" t="s">
-        <v>129</v>
+        <v>417</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A57" s="413" t="s">
-        <v>1163</v>
+        <v>1022</v>
       </c>
       <c r="B57" s="412" t="s">
-        <v>943</v>
+        <v>981</v>
       </c>
       <c r="C57" s="414">
-        <v>1</v>
-      </c>
-      <c r="D57" s="412" t="s">
-        <v>1219</v>
+        <v>3</v>
       </c>
       <c r="E57" s="412" t="s">
-        <v>1337</v>
+        <v>947</v>
       </c>
       <c r="F57" s="412" t="s">
-        <v>24</v>
+        <v>1501</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A58" s="413" t="s">
-        <v>1074</v>
+        <v>1023</v>
       </c>
       <c r="B58" s="412" t="s">
-        <v>945</v>
+        <v>951</v>
       </c>
       <c r="C58" s="414">
         <v>3</v>
       </c>
       <c r="D58" s="412" t="s">
-        <v>732</v>
+        <v>872</v>
       </c>
       <c r="E58" s="412" t="s">
-        <v>946</v>
+        <v>950</v>
       </c>
       <c r="F58" s="412" t="s">
-        <v>293</v>
+        <v>189</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A59" s="413" t="s">
-        <v>1022</v>
+        <v>1024</v>
       </c>
       <c r="B59" s="412" t="s">
-        <v>981</v>
+        <v>952</v>
       </c>
       <c r="C59" s="414">
         <v>3</v>
       </c>
       <c r="D59" s="412" t="s">
-        <v>414</v>
+        <v>872</v>
       </c>
       <c r="E59" s="412" t="s">
-        <v>947</v>
+        <v>972</v>
       </c>
       <c r="F59" s="412" t="s">
-        <v>50</v>
+        <v>1502</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A60" s="413" t="s">
-        <v>1338</v>
+        <v>1025</v>
       </c>
       <c r="B60" s="412" t="s">
-        <v>1339</v>
+        <v>954</v>
       </c>
       <c r="C60" s="414">
         <v>3</v>
       </c>
       <c r="D60" s="412" t="s">
-        <v>138</v>
+        <v>658</v>
       </c>
       <c r="E60" s="412" t="s">
-        <v>946</v>
+        <v>914</v>
       </c>
       <c r="F60" s="412" t="s">
-        <v>215</v>
+        <v>189</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A61" s="413" t="s">
-        <v>1023</v>
+        <v>1026</v>
       </c>
       <c r="B61" s="412" t="s">
-        <v>951</v>
+        <v>982</v>
       </c>
       <c r="C61" s="414">
         <v>3</v>
@@ -29085,7 +29130,7 @@
         <v>872</v>
       </c>
       <c r="E61" s="412" t="s">
-        <v>950</v>
+        <v>947</v>
       </c>
       <c r="F61" s="412" t="s">
         <v>189</v>
@@ -29093,416 +29138,295 @@
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A62" s="413" t="s">
-        <v>1024</v>
+        <v>1078</v>
       </c>
       <c r="B62" s="412" t="s">
-        <v>952</v>
+        <v>956</v>
       </c>
       <c r="C62" s="414">
         <v>3</v>
       </c>
-      <c r="D62" s="412" t="s">
-        <v>607</v>
-      </c>
       <c r="E62" s="412" t="s">
-        <v>962</v>
+        <v>946</v>
       </c>
       <c r="F62" s="412" t="s">
-        <v>129</v>
+        <v>100</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A63" s="413" t="s">
-        <v>1025</v>
+        <v>1079</v>
       </c>
       <c r="B63" s="412" t="s">
-        <v>954</v>
+        <v>957</v>
       </c>
       <c r="C63" s="414">
         <v>3</v>
       </c>
       <c r="D63" s="412" t="s">
-        <v>658</v>
+        <v>481</v>
       </c>
       <c r="E63" s="412" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
       <c r="F63" s="412" t="s">
-        <v>189</v>
+        <v>100</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A64" s="413" t="s">
-        <v>1026</v>
+        <v>1339</v>
       </c>
       <c r="B64" s="412" t="s">
-        <v>982</v>
+        <v>983</v>
       </c>
       <c r="C64" s="414">
         <v>3</v>
       </c>
       <c r="D64" s="412" t="s">
-        <v>872</v>
+        <v>743</v>
       </c>
       <c r="E64" s="412" t="s">
-        <v>947</v>
+        <v>950</v>
       </c>
       <c r="F64" s="412" t="s">
-        <v>189</v>
+        <v>77</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A65" s="413" t="s">
-        <v>1078</v>
+        <v>1032</v>
       </c>
       <c r="B65" s="412" t="s">
-        <v>956</v>
+        <v>1180</v>
       </c>
       <c r="C65" s="414">
         <v>3</v>
       </c>
-      <c r="D65" s="412" t="s">
-        <v>811</v>
-      </c>
       <c r="E65" s="412" t="s">
-        <v>946</v>
+        <v>962</v>
       </c>
       <c r="F65" s="412" t="s">
-        <v>129</v>
+        <v>432</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A66" s="413" t="s">
-        <v>1079</v>
+        <v>1033</v>
       </c>
       <c r="B66" s="412" t="s">
-        <v>957</v>
+        <v>984</v>
       </c>
       <c r="C66" s="414">
         <v>3</v>
       </c>
       <c r="E66" s="412" t="s">
-        <v>928</v>
+        <v>972</v>
       </c>
       <c r="F66" s="412" t="s">
-        <v>119</v>
+        <v>1503</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A67" s="413" t="s">
-        <v>1340</v>
+        <v>1083</v>
       </c>
       <c r="B67" s="412" t="s">
-        <v>983</v>
+        <v>1183</v>
       </c>
       <c r="C67" s="414">
-        <v>3</v>
-      </c>
-      <c r="D67" s="412" t="s">
-        <v>743</v>
+        <v>1</v>
       </c>
       <c r="E67" s="412" t="s">
-        <v>950</v>
+        <v>1207</v>
       </c>
       <c r="F67" s="412" t="s">
-        <v>215</v>
+        <v>135</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A68" s="413" t="s">
-        <v>1032</v>
+        <v>1340</v>
       </c>
       <c r="B68" s="412" t="s">
-        <v>1180</v>
+        <v>1341</v>
       </c>
       <c r="C68" s="414">
         <v>3</v>
       </c>
-      <c r="D68" s="412" t="s">
-        <v>64</v>
-      </c>
       <c r="E68" s="412" t="s">
-        <v>962</v>
+        <v>972</v>
       </c>
       <c r="F68" s="412" t="s">
-        <v>432</v>
+        <v>417</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A69" s="413" t="s">
-        <v>1033</v>
+        <v>1035</v>
       </c>
       <c r="B69" s="412" t="s">
-        <v>984</v>
+        <v>985</v>
       </c>
       <c r="C69" s="414">
         <v>3</v>
       </c>
       <c r="D69" s="412" t="s">
-        <v>166</v>
+        <v>184</v>
       </c>
       <c r="E69" s="412" t="s">
-        <v>972</v>
+        <v>942</v>
       </c>
       <c r="F69" s="412" t="s">
-        <v>129</v>
+        <v>119</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A70" s="413" t="s">
-        <v>1083</v>
+        <v>1342</v>
       </c>
       <c r="B70" s="412" t="s">
-        <v>1183</v>
+        <v>986</v>
       </c>
       <c r="C70" s="414">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D70" s="412" t="s">
-        <v>888</v>
+        <v>604</v>
       </c>
       <c r="E70" s="412" t="s">
-        <v>1207</v>
+        <v>1504</v>
       </c>
       <c r="F70" s="412" t="s">
-        <v>135</v>
+        <v>1225</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A71" s="413" t="s">
-        <v>1341</v>
+        <v>1220</v>
       </c>
       <c r="B71" s="412" t="s">
-        <v>1342</v>
+        <v>1186</v>
       </c>
       <c r="C71" s="414">
         <v>3</v>
       </c>
-      <c r="D71" s="412" t="s">
-        <v>64</v>
-      </c>
       <c r="E71" s="412" t="s">
-        <v>972</v>
+        <v>958</v>
       </c>
       <c r="F71" s="412" t="s">
-        <v>24</v>
+        <v>189</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A72" s="413" t="s">
-        <v>1035</v>
+        <v>1040</v>
       </c>
       <c r="B72" s="412" t="s">
-        <v>985</v>
+        <v>989</v>
       </c>
       <c r="C72" s="414">
         <v>3</v>
       </c>
-      <c r="D72" s="412" t="s">
-        <v>184</v>
-      </c>
       <c r="E72" s="412" t="s">
-        <v>942</v>
+        <v>972</v>
       </c>
       <c r="F72" s="412" t="s">
-        <v>119</v>
+        <v>77</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A73" s="413" t="s">
-        <v>1343</v>
+        <v>1367</v>
       </c>
       <c r="B73" s="412" t="s">
-        <v>986</v>
+        <v>990</v>
       </c>
       <c r="C73" s="414">
         <v>3</v>
       </c>
-      <c r="D73" s="412" t="s">
-        <v>604</v>
-      </c>
       <c r="E73" s="412" t="s">
-        <v>1396</v>
+        <v>964</v>
       </c>
       <c r="F73" s="412" t="s">
-        <v>1225</v>
+        <v>77</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A74" s="413" t="s">
-        <v>1348</v>
+        <v>1043</v>
       </c>
       <c r="B74" s="412" t="s">
-        <v>988</v>
+        <v>992</v>
       </c>
       <c r="C74" s="414">
         <v>3</v>
       </c>
+      <c r="D74" s="412" t="s">
+        <v>658</v>
+      </c>
       <c r="E74" s="412" t="s">
-        <v>964</v>
+        <v>946</v>
       </c>
       <c r="F74" s="412" t="s">
-        <v>215</v>
+        <v>189</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A75" s="413" t="s">
-        <v>1220</v>
+        <v>1096</v>
       </c>
       <c r="B75" s="412" t="s">
-        <v>1186</v>
+        <v>1097</v>
       </c>
       <c r="C75" s="414">
         <v>3</v>
       </c>
       <c r="D75" s="412" t="s">
-        <v>166</v>
+        <v>872</v>
       </c>
       <c r="E75" s="412" t="s">
-        <v>958</v>
+        <v>924</v>
       </c>
       <c r="F75" s="412" t="s">
-        <v>293</v>
+        <v>189</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A76" s="413" t="s">
-        <v>1040</v>
+        <v>1343</v>
       </c>
       <c r="B76" s="412" t="s">
-        <v>989</v>
+        <v>1181</v>
       </c>
       <c r="C76" s="414">
         <v>3</v>
       </c>
       <c r="D76" s="412" t="s">
-        <v>414</v>
+        <v>59</v>
       </c>
       <c r="E76" s="412" t="s">
-        <v>972</v>
+        <v>947</v>
       </c>
       <c r="F76" s="412" t="s">
-        <v>77</v>
+        <v>123</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A77" s="413" t="s">
-        <v>1041</v>
+        <v>1046</v>
       </c>
       <c r="B77" s="412" t="s">
-        <v>990</v>
+        <v>993</v>
       </c>
       <c r="C77" s="414">
         <v>3</v>
       </c>
-      <c r="D77" s="412" t="s">
-        <v>45</v>
-      </c>
       <c r="E77" s="412" t="s">
-        <v>964</v>
+        <v>969</v>
       </c>
       <c r="F77" s="412" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A78" s="413" t="s">
-        <v>1042</v>
-      </c>
-      <c r="B78" s="412" t="s">
-        <v>991</v>
-      </c>
-      <c r="C78" s="414">
-        <v>3</v>
-      </c>
-      <c r="D78" s="412" t="s">
-        <v>1218</v>
-      </c>
-      <c r="E78" s="412" t="s">
-        <v>928</v>
-      </c>
-      <c r="F78" s="412" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A79" s="413" t="s">
-        <v>1043</v>
-      </c>
-      <c r="B79" s="412" t="s">
-        <v>992</v>
-      </c>
-      <c r="C79" s="414">
-        <v>3</v>
-      </c>
-      <c r="D79" s="412" t="s">
-        <v>658</v>
-      </c>
-      <c r="E79" s="412" t="s">
-        <v>946</v>
-      </c>
-      <c r="F79" s="412" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A80" s="413" t="s">
-        <v>1096</v>
-      </c>
-      <c r="B80" s="412" t="s">
-        <v>1097</v>
-      </c>
-      <c r="C80" s="414">
-        <v>3</v>
-      </c>
-      <c r="D80" s="412" t="s">
-        <v>872</v>
-      </c>
-      <c r="E80" s="412" t="s">
-        <v>972</v>
-      </c>
-      <c r="F80" s="412" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A81" s="413" t="s">
-        <v>1344</v>
-      </c>
-      <c r="B81" s="412" t="s">
-        <v>1181</v>
-      </c>
-      <c r="C81" s="414">
-        <v>3</v>
-      </c>
-      <c r="D81" s="412" t="s">
-        <v>59</v>
-      </c>
-      <c r="E81" s="412" t="s">
-        <v>947</v>
-      </c>
-      <c r="F81" s="412" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A82" s="413" t="s">
-        <v>1046</v>
-      </c>
-      <c r="B82" s="412" t="s">
-        <v>993</v>
-      </c>
-      <c r="C82" s="414">
-        <v>3</v>
-      </c>
-      <c r="D82" s="412" t="s">
-        <v>1219</v>
-      </c>
-      <c r="E82" s="412" t="s">
-        <v>969</v>
-      </c>
-      <c r="F82" s="412" t="s">
-        <v>215</v>
+        <v>432</v>
       </c>
     </row>
   </sheetData>
@@ -37631,13 +37555,13 @@
   <sheetPr codeName="Sheet44">
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
-  <dimension ref="A1:F30"/>
+  <dimension ref="A1:F24"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <pane xSplit="1" ySplit="12" topLeftCell="B14" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A13" sqref="A13"/>
-      <selection pane="bottomRight" activeCell="B42" sqref="B42"/>
+      <selection pane="bottomRight" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
@@ -37653,7 +37577,7 @@
   <sheetData>
     <row r="1" spans="1:6" s="410" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="407" t="s">
-        <v>1113</v>
+        <v>1483</v>
       </c>
       <c r="B1" s="408"/>
       <c r="C1" s="409"/>
@@ -37662,17 +37586,17 @@
       </c>
       <c r="E1" s="418"/>
       <c r="F1" s="458" t="s">
-        <v>1345</v>
+        <v>1344</v>
       </c>
     </row>
     <row r="2" spans="1:6" s="410" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B2" s="409"/>
       <c r="C2" s="409"/>
       <c r="D2" s="449" t="s">
-        <v>1317</v>
+        <v>1316</v>
       </c>
       <c r="E2" s="449" t="s">
-        <v>1296</v>
+        <v>1295</v>
       </c>
       <c r="F2" s="458"/>
     </row>
@@ -37683,7 +37607,7 @@
         <v>1110</v>
       </c>
       <c r="E3" s="449" t="s">
-        <v>1297</v>
+        <v>1296</v>
       </c>
       <c r="F3" s="449"/>
     </row>
@@ -37694,10 +37618,10 @@
       <c r="B4" s="457"/>
       <c r="C4" s="457"/>
       <c r="D4" s="449" t="s">
-        <v>1318</v>
+        <v>1317</v>
       </c>
       <c r="E4" s="449" t="s">
-        <v>1299</v>
+        <v>1298</v>
       </c>
       <c r="F4" s="449"/>
     </row>
@@ -37717,24 +37641,29 @@
     </row>
     <row r="7" spans="1:6" s="410" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="457" t="s">
-        <v>1277</v>
+        <v>1479</v>
       </c>
       <c r="B7" s="457"/>
       <c r="C7" s="457"/>
-      <c r="D7" s="404"/>
-      <c r="E7" s="449"/>
-      <c r="F7" s="449"/>
+      <c r="D7" s="457"/>
+      <c r="E7" s="457"/>
+      <c r="F7" s="457"/>
     </row>
     <row r="8" spans="1:6" s="410" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="457"/>
       <c r="B8" s="457"/>
       <c r="C8" s="457"/>
-      <c r="D8" s="404"/>
-    </row>
-    <row r="9" spans="1:6" s="410" customFormat="1" ht="9" x14ac:dyDescent="0.15">
+      <c r="D8" s="457"/>
+      <c r="E8" s="457"/>
+      <c r="F8" s="457"/>
+    </row>
+    <row r="9" spans="1:6" s="410" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="457"/>
       <c r="B9" s="457"/>
       <c r="C9" s="457"/>
+      <c r="D9" s="457"/>
+      <c r="E9" s="457"/>
+      <c r="F9" s="457"/>
     </row>
     <row r="10" spans="1:6" s="410" customFormat="1" ht="9" x14ac:dyDescent="0.15">
       <c r="A10" s="409"/>
@@ -37772,7 +37701,7 @@
         <v>1001</v>
       </c>
       <c r="B13" s="412" t="s">
-        <v>1365</v>
+        <v>1364</v>
       </c>
       <c r="C13" s="414">
         <v>3</v>
@@ -37789,79 +37718,79 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" s="413" t="s">
-        <v>1056</v>
+        <v>1397</v>
       </c>
       <c r="B14" s="412" t="s">
-        <v>915</v>
+        <v>982</v>
       </c>
       <c r="C14" s="414">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D14" s="412" t="s">
         <v>872</v>
       </c>
       <c r="E14" s="412" t="s">
-        <v>1380</v>
+        <v>1398</v>
       </c>
       <c r="F14" s="412" t="s">
-        <v>14</v>
+        <v>189</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" s="413" t="s">
-        <v>1057</v>
+        <v>1472</v>
       </c>
       <c r="B15" s="412" t="s">
-        <v>915</v>
+        <v>952</v>
       </c>
       <c r="C15" s="414">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D15" s="412" t="s">
-        <v>1417</v>
+        <v>872</v>
       </c>
       <c r="E15" s="412" t="s">
-        <v>933</v>
+        <v>1473</v>
       </c>
       <c r="F15" s="412" t="s">
-        <v>14</v>
+        <v>189</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" s="413" t="s">
-        <v>1058</v>
+        <v>1399</v>
       </c>
       <c r="B16" s="412" t="s">
-        <v>915</v>
+        <v>1407</v>
       </c>
       <c r="C16" s="414">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D16" s="412" t="s">
-        <v>1417</v>
+        <v>64</v>
       </c>
       <c r="E16" s="412" t="s">
-        <v>1210</v>
+        <v>1348</v>
       </c>
       <c r="F16" s="412" t="s">
-        <v>14</v>
+        <v>50</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" s="413" t="s">
-        <v>1002</v>
+        <v>1349</v>
       </c>
       <c r="B17" s="412" t="s">
-        <v>917</v>
+        <v>1474</v>
       </c>
       <c r="C17" s="414">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D17" s="412" t="s">
         <v>481</v>
       </c>
       <c r="E17" s="412" t="s">
-        <v>1426</v>
+        <v>1475</v>
       </c>
       <c r="F17" s="412" t="s">
         <v>100</v>
@@ -37869,269 +37798,59 @@
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" s="413" t="s">
-        <v>1003</v>
+        <v>1476</v>
       </c>
       <c r="B18" s="412" t="s">
-        <v>917</v>
+        <v>1477</v>
       </c>
       <c r="C18" s="414">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D18" s="412" t="s">
-        <v>481</v>
+        <v>658</v>
       </c>
       <c r="E18" s="412" t="s">
-        <v>916</v>
+        <v>1478</v>
       </c>
       <c r="F18" s="412" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A19" s="413" t="s">
-        <v>1059</v>
-      </c>
-      <c r="B19" s="412" t="s">
-        <v>917</v>
-      </c>
-      <c r="C19" s="414">
-        <v>2</v>
-      </c>
-      <c r="D19" s="412" t="s">
-        <v>481</v>
-      </c>
-      <c r="E19" s="412" t="s">
-        <v>1427</v>
-      </c>
-      <c r="F19" s="412" t="s">
-        <v>100</v>
+        <v>189</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A20" s="413" t="s">
-        <v>1060</v>
-      </c>
       <c r="B20" s="412" t="s">
-        <v>917</v>
-      </c>
-      <c r="C20" s="414">
-        <v>1</v>
-      </c>
-      <c r="D20" s="412" t="s">
-        <v>481</v>
-      </c>
-      <c r="E20" s="412" t="s">
-        <v>1331</v>
-      </c>
-      <c r="F20" s="412" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A21" s="413" t="s">
-        <v>1061</v>
-      </c>
-      <c r="B21" s="412" t="s">
-        <v>917</v>
-      </c>
-      <c r="C21" s="414">
-        <v>2</v>
-      </c>
-      <c r="D21" s="412" t="s">
-        <v>59</v>
-      </c>
-      <c r="E21" s="412" t="s">
-        <v>1428</v>
-      </c>
-      <c r="F21" s="412" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A22" s="413" t="s">
-        <v>1063</v>
-      </c>
-      <c r="B22" s="412" t="s">
-        <v>917</v>
-      </c>
-      <c r="C22" s="414">
-        <v>1</v>
-      </c>
-      <c r="D22" s="412" t="s">
-        <v>59</v>
-      </c>
-      <c r="E22" s="412" t="s">
-        <v>1333</v>
-      </c>
-      <c r="F22" s="412" t="s">
-        <v>100</v>
+        <v>1480</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A23" s="413" t="s">
-        <v>1064</v>
-      </c>
       <c r="B23" s="412" t="s">
-        <v>920</v>
-      </c>
-      <c r="C23" s="414">
-        <v>1</v>
-      </c>
-      <c r="D23" s="412" t="s">
-        <v>743</v>
-      </c>
-      <c r="E23" s="412" t="s">
-        <v>919</v>
-      </c>
-      <c r="F23" s="412" t="s">
-        <v>19</v>
+        <v>1481</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24" s="413" t="s">
-        <v>1065</v>
+        <v>1482</v>
       </c>
       <c r="B24" s="412" t="s">
-        <v>920</v>
+        <v>1191</v>
       </c>
       <c r="C24" s="414">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D24" s="412" t="s">
-        <v>1366</v>
+        <v>912</v>
       </c>
       <c r="E24" s="412" t="s">
-        <v>936</v>
+        <v>1402</v>
       </c>
       <c r="F24" s="412" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A25" s="413" t="s">
-        <v>1066</v>
-      </c>
-      <c r="B25" s="412" t="s">
-        <v>920</v>
-      </c>
-      <c r="C25" s="414">
-        <v>1</v>
-      </c>
-      <c r="D25" s="412" t="s">
-        <v>1366</v>
-      </c>
-      <c r="E25" s="412" t="s">
-        <v>1034</v>
-      </c>
-      <c r="F25" s="412" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A26" s="413" t="s">
-        <v>1381</v>
-      </c>
-      <c r="B26" s="412" t="s">
-        <v>920</v>
-      </c>
-      <c r="C26" s="414">
-        <v>1</v>
-      </c>
-      <c r="D26" s="412" t="s">
-        <v>811</v>
-      </c>
-      <c r="E26" s="412" t="s">
-        <v>1382</v>
-      </c>
-      <c r="F26" s="412" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A27" s="413" t="s">
-        <v>1383</v>
-      </c>
-      <c r="B27" s="412" t="s">
-        <v>920</v>
-      </c>
-      <c r="C27" s="414">
-        <v>1</v>
-      </c>
-      <c r="D27" s="412" t="s">
-        <v>811</v>
-      </c>
-      <c r="E27" s="412" t="s">
-        <v>1384</v>
-      </c>
-      <c r="F27" s="412" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A28" s="413" t="s">
-        <v>1004</v>
-      </c>
-      <c r="B28" s="412" t="s">
-        <v>921</v>
-      </c>
-      <c r="C28" s="414">
-        <v>2</v>
-      </c>
-      <c r="D28" s="412" t="s">
-        <v>159</v>
-      </c>
-      <c r="E28" s="412" t="s">
-        <v>1379</v>
-      </c>
-      <c r="F28" s="412" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A29" s="413" t="s">
-        <v>1005</v>
-      </c>
-      <c r="B29" s="412" t="s">
-        <v>921</v>
-      </c>
-      <c r="C29" s="414">
-        <v>1</v>
-      </c>
-      <c r="D29" s="412" t="s">
-        <v>159</v>
-      </c>
-      <c r="E29" s="412" t="s">
-        <v>1171</v>
-      </c>
-      <c r="F29" s="412" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A30" s="413" t="s">
-        <v>1168</v>
-      </c>
-      <c r="B30" s="412" t="s">
-        <v>921</v>
-      </c>
-      <c r="C30" s="414">
-        <v>2</v>
-      </c>
-      <c r="D30" s="412" t="s">
-        <v>743</v>
-      </c>
-      <c r="E30" s="412" t="s">
-        <v>1429</v>
-      </c>
-      <c r="F30" s="412" t="s">
-        <v>100</v>
+        <v>432</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="A4:C6"/>
-    <mergeCell ref="A7:C9"/>
     <mergeCell ref="F1:F2"/>
+    <mergeCell ref="A7:F9"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="D1" r:id="rId1"/>
@@ -41860,7 +41579,7 @@
     <row r="1" spans="1:6" s="410" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="407"/>
       <c r="B1" s="456" t="s">
-        <v>1467</v>
+        <v>1465</v>
       </c>
       <c r="C1" s="409"/>
       <c r="D1" s="418" t="s">
@@ -41868,17 +41587,17 @@
       </c>
       <c r="E1" s="418"/>
       <c r="F1" s="458" t="s">
-        <v>1345</v>
+        <v>1344</v>
       </c>
     </row>
     <row r="2" spans="1:6" s="410" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B2" s="409"/>
       <c r="C2" s="409"/>
       <c r="D2" s="449" t="s">
+        <v>1279</v>
+      </c>
+      <c r="E2" s="449" t="s">
         <v>1280</v>
-      </c>
-      <c r="E2" s="449" t="s">
-        <v>1281</v>
       </c>
       <c r="F2" s="458"/>
     </row>
@@ -41886,7 +41605,7 @@
       <c r="B3" s="409"/>
       <c r="C3" s="409"/>
       <c r="D3" s="449" t="s">
-        <v>1310</v>
+        <v>1309</v>
       </c>
       <c r="E3" s="449" t="s">
         <v>1136</v>
@@ -41900,10 +41619,10 @@
       <c r="B4" s="461"/>
       <c r="C4" s="461"/>
       <c r="D4" s="449" t="s">
-        <v>1311</v>
+        <v>1310</v>
       </c>
       <c r="E4" s="449" t="s">
-        <v>1284</v>
+        <v>1283</v>
       </c>
       <c r="F4" s="449"/>
     </row>
@@ -41912,10 +41631,10 @@
       <c r="B5" s="461"/>
       <c r="C5" s="461"/>
       <c r="D5" s="449" t="s">
-        <v>1312</v>
+        <v>1311</v>
       </c>
       <c r="E5" s="449" t="s">
-        <v>1286</v>
+        <v>1285</v>
       </c>
     </row>
     <row r="6" spans="1:6" s="410" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.15">
@@ -41923,7 +41642,7 @@
       <c r="B6" s="461"/>
       <c r="C6" s="461"/>
       <c r="D6" s="449" t="s">
-        <v>1313</v>
+        <v>1312</v>
       </c>
       <c r="E6" s="449" t="s">
         <v>1230</v>
@@ -41932,15 +41651,15 @@
     </row>
     <row r="7" spans="1:6" s="410" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="461" t="s">
-        <v>1278</v>
+        <v>1277</v>
       </c>
       <c r="B7" s="461"/>
       <c r="C7" s="461"/>
       <c r="D7" s="449" t="s">
-        <v>1314</v>
+        <v>1313</v>
       </c>
       <c r="E7" s="449" t="s">
-        <v>1289</v>
+        <v>1288</v>
       </c>
       <c r="F7" s="449"/>
     </row>
@@ -41949,7 +41668,7 @@
       <c r="B8" s="461"/>
       <c r="C8" s="461"/>
       <c r="D8" s="449" t="s">
-        <v>1315</v>
+        <v>1314</v>
       </c>
       <c r="E8" s="449" t="s">
         <v>1102</v>
@@ -41960,10 +41679,10 @@
       <c r="B9" s="461"/>
       <c r="C9" s="461"/>
       <c r="D9" s="449" t="s">
-        <v>1316</v>
+        <v>1315</v>
       </c>
       <c r="E9" s="449" t="s">
-        <v>1292</v>
+        <v>1291</v>
       </c>
     </row>
     <row r="10" spans="1:6" s="410" customFormat="1" ht="9" x14ac:dyDescent="0.15">
@@ -42003,7 +41722,7 @@
         <v>1001</v>
       </c>
       <c r="B13" s="412" t="s">
-        <v>1365</v>
+        <v>1364</v>
       </c>
       <c r="C13" s="414">
         <v>3</v>
@@ -42032,7 +41751,7 @@
         <v>872</v>
       </c>
       <c r="E14" s="412" t="s">
-        <v>1380</v>
+        <v>1379</v>
       </c>
       <c r="F14" s="412" t="s">
         <v>14</v>
@@ -42049,7 +41768,7 @@
         <v>1</v>
       </c>
       <c r="D15" s="412" t="s">
-        <v>1417</v>
+        <v>1416</v>
       </c>
       <c r="E15" s="412" t="s">
         <v>933</v>
@@ -42080,7 +41799,7 @@
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" s="413" t="s">
-        <v>1459</v>
+        <v>1457</v>
       </c>
       <c r="B17" s="412" t="s">
         <v>915</v>
@@ -42112,7 +41831,7 @@
         <v>481</v>
       </c>
       <c r="E18" s="412" t="s">
-        <v>1427</v>
+        <v>1426</v>
       </c>
       <c r="F18" s="412" t="s">
         <v>100</v>
@@ -42132,7 +41851,7 @@
         <v>481</v>
       </c>
       <c r="E19" s="412" t="s">
-        <v>1331</v>
+        <v>1330</v>
       </c>
       <c r="F19" s="412" t="s">
         <v>100</v>
@@ -42152,7 +41871,7 @@
         <v>59</v>
       </c>
       <c r="E20" s="412" t="s">
-        <v>1428</v>
+        <v>1427</v>
       </c>
       <c r="F20" s="412" t="s">
         <v>100</v>
@@ -42172,7 +41891,7 @@
         <v>59</v>
       </c>
       <c r="E21" s="412" t="s">
-        <v>1333</v>
+        <v>1332</v>
       </c>
       <c r="F21" s="412" t="s">
         <v>100</v>
@@ -42209,7 +41928,7 @@
         <v>1</v>
       </c>
       <c r="D23" s="412" t="s">
-        <v>1366</v>
+        <v>1365</v>
       </c>
       <c r="E23" s="412" t="s">
         <v>936</v>
@@ -42220,7 +41939,7 @@
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24" s="413" t="s">
-        <v>1381</v>
+        <v>1380</v>
       </c>
       <c r="B24" s="412" t="s">
         <v>920</v>
@@ -42232,7 +41951,7 @@
         <v>811</v>
       </c>
       <c r="E24" s="412" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
       <c r="F24" s="412" t="s">
         <v>19</v>
@@ -42240,7 +41959,7 @@
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25" s="413" t="s">
-        <v>1383</v>
+        <v>1382</v>
       </c>
       <c r="B25" s="412" t="s">
         <v>920</v>
@@ -42252,7 +41971,7 @@
         <v>811</v>
       </c>
       <c r="E25" s="412" t="s">
-        <v>1384</v>
+        <v>1383</v>
       </c>
       <c r="F25" s="412" t="s">
         <v>19</v>
@@ -42272,7 +41991,7 @@
         <v>159</v>
       </c>
       <c r="E26" s="412" t="s">
-        <v>1379</v>
+        <v>1378</v>
       </c>
       <c r="F26" s="412" t="s">
         <v>100</v>
@@ -42312,7 +42031,7 @@
         <v>481</v>
       </c>
       <c r="E28" s="412" t="s">
-        <v>1430</v>
+        <v>1428</v>
       </c>
       <c r="F28" s="412" t="s">
         <v>100</v>
@@ -42332,7 +42051,7 @@
         <v>481</v>
       </c>
       <c r="E29" s="412" t="s">
-        <v>1337</v>
+        <v>1336</v>
       </c>
       <c r="F29" s="412" t="s">
         <v>100</v>
@@ -42372,7 +42091,7 @@
         <v>811</v>
       </c>
       <c r="E31" s="412" t="s">
-        <v>1386</v>
+        <v>1385</v>
       </c>
       <c r="F31" s="412" t="s">
         <v>77</v>
@@ -42389,13 +42108,13 @@
         <v>3</v>
       </c>
       <c r="D32" s="412" t="s">
-        <v>1363</v>
+        <v>1362</v>
       </c>
       <c r="E32" s="412" t="s">
         <v>958</v>
       </c>
       <c r="F32" s="412" t="s">
-        <v>1431</v>
+        <v>1429</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.2">
@@ -42415,15 +42134,15 @@
         <v>929</v>
       </c>
       <c r="F33" s="412" t="s">
-        <v>1431</v>
+        <v>1429</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A34" s="413" t="s">
+        <v>1370</v>
+      </c>
+      <c r="B34" s="412" t="s">
         <v>1371</v>
-      </c>
-      <c r="B34" s="412" t="s">
-        <v>1372</v>
       </c>
       <c r="C34" s="414">
         <v>3</v>
@@ -42435,7 +42154,7 @@
         <v>914</v>
       </c>
       <c r="F34" s="412" t="s">
-        <v>1387</v>
+        <v>1386</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.2">
@@ -42455,7 +42174,7 @@
         <v>931</v>
       </c>
       <c r="F35" s="412" t="s">
-        <v>1387</v>
+        <v>1386</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.2">
@@ -42500,7 +42219,7 @@
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A38" s="413" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
       <c r="B38" s="412" t="s">
         <v>935</v>
@@ -42509,7 +42228,7 @@
         <v>1</v>
       </c>
       <c r="D38" s="412" t="s">
-        <v>1420</v>
+        <v>1419</v>
       </c>
       <c r="E38" s="412" t="s">
         <v>936</v>
@@ -42520,7 +42239,7 @@
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A39" s="413" t="s">
-        <v>1421</v>
+        <v>1420</v>
       </c>
       <c r="B39" s="412" t="s">
         <v>935</v>
@@ -42549,13 +42268,13 @@
         <v>3</v>
       </c>
       <c r="D40" s="412" t="s">
-        <v>1422</v>
+        <v>1421</v>
       </c>
       <c r="E40" s="412" t="s">
         <v>942</v>
       </c>
       <c r="F40" s="412" t="s">
-        <v>1460</v>
+        <v>1458</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.2">
@@ -42569,13 +42288,13 @@
         <v>3</v>
       </c>
       <c r="D41" s="412" t="s">
-        <v>1422</v>
+        <v>1421</v>
       </c>
       <c r="E41" s="412" t="s">
         <v>938</v>
       </c>
       <c r="F41" s="412" t="s">
-        <v>1460</v>
+        <v>1458</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.2">
@@ -42589,13 +42308,13 @@
         <v>3</v>
       </c>
       <c r="D42" s="412" t="s">
-        <v>1422</v>
+        <v>1421</v>
       </c>
       <c r="E42" s="412" t="s">
-        <v>1456</v>
+        <v>1454</v>
       </c>
       <c r="F42" s="412" t="s">
-        <v>1460</v>
+        <v>1458</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.2">
@@ -42612,7 +42331,7 @@
         <v>741</v>
       </c>
       <c r="E43" s="412" t="s">
-        <v>1432</v>
+        <v>1430</v>
       </c>
       <c r="F43" s="412" t="s">
         <v>100</v>
@@ -42632,7 +42351,7 @@
         <v>741</v>
       </c>
       <c r="E44" s="412" t="s">
-        <v>1433</v>
+        <v>1431</v>
       </c>
       <c r="F44" s="412" t="s">
         <v>100</v>
@@ -42652,7 +42371,7 @@
         <v>741</v>
       </c>
       <c r="E45" s="412" t="s">
-        <v>1330</v>
+        <v>1329</v>
       </c>
       <c r="F45" s="412" t="s">
         <v>100</v>
@@ -42692,7 +42411,7 @@
         <v>741</v>
       </c>
       <c r="E47" s="412" t="s">
-        <v>1434</v>
+        <v>1432</v>
       </c>
       <c r="F47" s="412" t="s">
         <v>100</v>
@@ -42735,7 +42454,7 @@
         <v>929</v>
       </c>
       <c r="F49" s="412" t="s">
-        <v>1387</v>
+        <v>1386</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.2">
@@ -42755,7 +42474,7 @@
         <v>938</v>
       </c>
       <c r="F50" s="412" t="s">
-        <v>1387</v>
+        <v>1386</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.2">
@@ -42789,7 +42508,7 @@
         <v>2</v>
       </c>
       <c r="D52" s="412" t="s">
-        <v>1466</v>
+        <v>1464</v>
       </c>
       <c r="E52" s="412" t="s">
         <v>944</v>
@@ -42809,13 +42528,13 @@
         <v>1</v>
       </c>
       <c r="D53" s="412" t="s">
-        <v>1442</v>
+        <v>1440</v>
       </c>
       <c r="E53" s="412" t="s">
         <v>916</v>
       </c>
       <c r="F53" s="412" t="s">
-        <v>1461</v>
+        <v>1459</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.2">
@@ -42829,7 +42548,7 @@
         <v>2</v>
       </c>
       <c r="D54" s="412" t="s">
-        <v>1466</v>
+        <v>1464</v>
       </c>
       <c r="E54" s="412" t="s">
         <v>944</v>
@@ -42840,7 +42559,7 @@
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A55" s="413" t="s">
-        <v>1435</v>
+        <v>1433</v>
       </c>
       <c r="B55" s="412" t="s">
         <v>943</v>
@@ -42849,13 +42568,13 @@
         <v>1</v>
       </c>
       <c r="D55" s="412" t="s">
-        <v>1442</v>
+        <v>1440</v>
       </c>
       <c r="E55" s="412" t="s">
-        <v>1337</v>
+        <v>1336</v>
       </c>
       <c r="F55" s="412" t="s">
-        <v>1462</v>
+        <v>1460</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.2">
@@ -42900,16 +42619,16 @@
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A58" s="413" t="s">
+        <v>1372</v>
+      </c>
+      <c r="B58" s="412" t="s">
         <v>1373</v>
-      </c>
-      <c r="B58" s="412" t="s">
-        <v>1374</v>
       </c>
       <c r="C58" s="414">
         <v>1</v>
       </c>
       <c r="D58" s="412" t="s">
-        <v>1418</v>
+        <v>1417</v>
       </c>
       <c r="E58" s="412" t="s">
         <v>1210</v>
@@ -42935,7 +42654,7 @@
         <v>950</v>
       </c>
       <c r="F59" s="412" t="s">
-        <v>1463</v>
+        <v>1461</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.2">
@@ -43060,10 +42779,10 @@
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A66" s="413" t="s">
-        <v>1378</v>
+        <v>1377</v>
       </c>
       <c r="B66" s="412" t="s">
-        <v>1436</v>
+        <v>1434</v>
       </c>
       <c r="C66" s="414">
         <v>3</v>
@@ -43083,7 +42802,7 @@
         <v>1082</v>
       </c>
       <c r="B67" s="412" t="s">
-        <v>1437</v>
+        <v>1435</v>
       </c>
       <c r="C67" s="414">
         <v>3</v>
@@ -43109,7 +42828,7 @@
         <v>1</v>
       </c>
       <c r="D68" s="412" t="s">
-        <v>1420</v>
+        <v>1419</v>
       </c>
       <c r="E68" s="412" t="s">
         <v>1207</v>
@@ -43120,10 +42839,10 @@
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A69" s="413" t="s">
-        <v>1464</v>
+        <v>1462</v>
       </c>
       <c r="B69" s="412" t="s">
-        <v>1465</v>
+        <v>1463</v>
       </c>
       <c r="C69" s="414">
         <v>3</v>
@@ -43140,10 +42859,10 @@
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A70" s="413" t="s">
+        <v>1374</v>
+      </c>
+      <c r="B70" s="412" t="s">
         <v>1375</v>
-      </c>
-      <c r="B70" s="412" t="s">
-        <v>1376</v>
       </c>
       <c r="C70" s="414">
         <v>3</v>
@@ -43172,7 +42891,7 @@
         <v>604</v>
       </c>
       <c r="E71" s="412" t="s">
-        <v>1377</v>
+        <v>1376</v>
       </c>
       <c r="F71" s="412" t="s">
         <v>1225</v>
@@ -43240,10 +42959,10 @@
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A75" s="413" t="s">
-        <v>1457</v>
+        <v>1455</v>
       </c>
       <c r="B75" s="412" t="s">
-        <v>1458</v>
+        <v>1456</v>
       </c>
       <c r="C75" s="414">
         <v>3</v>
@@ -43360,7 +43079,7 @@
   <sheetData>
     <row r="1" spans="1:6" s="410" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="407" t="s">
-        <v>1425</v>
+        <v>1424</v>
       </c>
       <c r="B1" s="408"/>
       <c r="C1" s="409"/>
@@ -43369,17 +43088,17 @@
       </c>
       <c r="E1" s="418"/>
       <c r="F1" s="458" t="s">
-        <v>1345</v>
+        <v>1344</v>
       </c>
     </row>
     <row r="2" spans="1:6" s="410" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B2" s="409"/>
       <c r="C2" s="409"/>
       <c r="D2" s="449" t="s">
+        <v>1299</v>
+      </c>
+      <c r="E2" s="449" t="s">
         <v>1300</v>
-      </c>
-      <c r="E2" s="449" t="s">
-        <v>1301</v>
       </c>
       <c r="F2" s="458"/>
     </row>
@@ -43387,7 +43106,7 @@
       <c r="B3" s="409"/>
       <c r="C3" s="409"/>
       <c r="D3" s="449" t="s">
-        <v>1302</v>
+        <v>1301</v>
       </c>
       <c r="E3" s="449" t="s">
         <v>1227</v>
@@ -43401,7 +43120,7 @@
       <c r="B4" s="462"/>
       <c r="C4" s="462"/>
       <c r="D4" s="449" t="s">
-        <v>1303</v>
+        <v>1302</v>
       </c>
       <c r="E4" s="449" t="s">
         <v>1228</v>
@@ -43413,7 +43132,7 @@
       <c r="B5" s="462"/>
       <c r="C5" s="462"/>
       <c r="D5" s="449" t="s">
-        <v>1304</v>
+        <v>1303</v>
       </c>
       <c r="E5" s="449" t="s">
         <v>1229</v>
@@ -43425,7 +43144,7 @@
       <c r="B6" s="462"/>
       <c r="C6" s="462"/>
       <c r="D6" s="449" t="s">
-        <v>1305</v>
+        <v>1304</v>
       </c>
       <c r="E6" s="449" t="s">
         <v>1230</v>
@@ -43434,12 +43153,12 @@
     </row>
     <row r="7" spans="1:6" s="410" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="462" t="s">
-        <v>1385</v>
+        <v>1384</v>
       </c>
       <c r="B7" s="462"/>
       <c r="C7" s="462"/>
       <c r="D7" s="449" t="s">
-        <v>1306</v>
+        <v>1305</v>
       </c>
       <c r="E7" s="449" t="s">
         <v>1231</v>
@@ -43451,7 +43170,7 @@
       <c r="B8" s="462"/>
       <c r="C8" s="462"/>
       <c r="D8" s="449" t="s">
-        <v>1307</v>
+        <v>1306</v>
       </c>
       <c r="E8" s="449" t="s">
         <v>1101</v>
@@ -43463,10 +43182,10 @@
       <c r="B9" s="462"/>
       <c r="C9" s="462"/>
       <c r="D9" s="449" t="s">
+        <v>1307</v>
+      </c>
+      <c r="E9" s="449" t="s">
         <v>1308</v>
-      </c>
-      <c r="E9" s="449" t="s">
-        <v>1309</v>
       </c>
       <c r="F9" s="451"/>
     </row>
@@ -43509,7 +43228,7 @@
         <v>1001</v>
       </c>
       <c r="B13" s="412" t="s">
-        <v>1365</v>
+        <v>1364</v>
       </c>
       <c r="C13" s="414">
         <v>3</v>
@@ -43521,7 +43240,7 @@
         <v>931</v>
       </c>
       <c r="F13" s="412" t="s">
-        <v>1387</v>
+        <v>1386</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
@@ -43535,10 +43254,10 @@
         <v>1</v>
       </c>
       <c r="D14" s="412" t="s">
-        <v>1417</v>
+        <v>1416</v>
       </c>
       <c r="E14" s="412" t="s">
-        <v>1328</v>
+        <v>1327</v>
       </c>
       <c r="F14" s="412" t="s">
         <v>14</v>
@@ -43575,7 +43294,7 @@
         <v>1</v>
       </c>
       <c r="D16" s="412" t="s">
-        <v>1417</v>
+        <v>1416</v>
       </c>
       <c r="E16" s="412" t="s">
         <v>1034</v>
@@ -43598,7 +43317,7 @@
         <v>481</v>
       </c>
       <c r="E17" s="412" t="s">
-        <v>1388</v>
+        <v>1387</v>
       </c>
       <c r="F17" s="412" t="s">
         <v>119</v>
@@ -43618,7 +43337,7 @@
         <v>481</v>
       </c>
       <c r="E18" s="412" t="s">
-        <v>1329</v>
+        <v>1328</v>
       </c>
       <c r="F18" s="412" t="s">
         <v>119</v>
@@ -43638,7 +43357,7 @@
         <v>481</v>
       </c>
       <c r="E19" s="412" t="s">
-        <v>1330</v>
+        <v>1329</v>
       </c>
       <c r="F19" s="412" t="s">
         <v>119</v>
@@ -43735,7 +43454,7 @@
         <v>1</v>
       </c>
       <c r="D24" s="412" t="s">
-        <v>1366</v>
+        <v>1365</v>
       </c>
       <c r="E24" s="412" t="s">
         <v>936</v>
@@ -43755,7 +43474,7 @@
         <v>1</v>
       </c>
       <c r="D25" s="412" t="s">
-        <v>1366</v>
+        <v>1365</v>
       </c>
       <c r="E25" s="412" t="s">
         <v>1034</v>
@@ -43778,7 +43497,7 @@
         <v>481</v>
       </c>
       <c r="E26" s="412" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="F26" s="412" t="s">
         <v>100</v>
@@ -43798,7 +43517,7 @@
         <v>481</v>
       </c>
       <c r="E27" s="412" t="s">
-        <v>1331</v>
+        <v>1330</v>
       </c>
       <c r="F27" s="412" t="s">
         <v>100</v>
@@ -43818,7 +43537,7 @@
         <v>811</v>
       </c>
       <c r="E28" s="412" t="s">
-        <v>1390</v>
+        <v>1389</v>
       </c>
       <c r="F28" s="412" t="s">
         <v>100</v>
@@ -43838,7 +43557,7 @@
         <v>811</v>
       </c>
       <c r="E29" s="412" t="s">
-        <v>1333</v>
+        <v>1332</v>
       </c>
       <c r="F29" s="412" t="s">
         <v>100</v>
@@ -43846,7 +43565,7 @@
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A30" s="413" t="s">
-        <v>1359</v>
+        <v>1358</v>
       </c>
       <c r="B30" s="412" t="s">
         <v>921</v>
@@ -43858,7 +43577,7 @@
         <v>741</v>
       </c>
       <c r="E30" s="412" t="s">
-        <v>1360</v>
+        <v>1359</v>
       </c>
       <c r="F30" s="412" t="s">
         <v>100</v>
@@ -43866,7 +43585,7 @@
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31" s="413" t="s">
-        <v>1361</v>
+        <v>1360</v>
       </c>
       <c r="B31" s="412" t="s">
         <v>921</v>
@@ -43878,7 +43597,7 @@
         <v>741</v>
       </c>
       <c r="E31" s="412" t="s">
-        <v>1362</v>
+        <v>1361</v>
       </c>
       <c r="F31" s="412" t="s">
         <v>100</v>
@@ -43886,22 +43605,22 @@
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A32" s="413" t="s">
+        <v>1390</v>
+      </c>
+      <c r="B32" s="412" t="s">
         <v>1391</v>
-      </c>
-      <c r="B32" s="412" t="s">
-        <v>1392</v>
       </c>
       <c r="C32" s="414">
         <v>3</v>
       </c>
       <c r="D32" s="412" t="s">
-        <v>1393</v>
+        <v>1392</v>
       </c>
       <c r="E32" s="412" t="s">
         <v>929</v>
       </c>
       <c r="F32" s="412" t="s">
-        <v>1394</v>
+        <v>1393</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.2">
@@ -43955,13 +43674,13 @@
         <v>3</v>
       </c>
       <c r="D35" s="412" t="s">
-        <v>1363</v>
+        <v>1362</v>
       </c>
       <c r="E35" s="412" t="s">
         <v>972</v>
       </c>
       <c r="F35" s="412" t="s">
-        <v>1334</v>
+        <v>1333</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.2">
@@ -43981,7 +43700,7 @@
         <v>929</v>
       </c>
       <c r="F36" s="412" t="s">
-        <v>1395</v>
+        <v>1394</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.2">
@@ -43989,7 +43708,7 @@
         <v>1010</v>
       </c>
       <c r="B37" s="412" t="s">
-        <v>1415</v>
+        <v>1414</v>
       </c>
       <c r="C37" s="414">
         <v>3</v>
@@ -44001,7 +43720,7 @@
         <v>914</v>
       </c>
       <c r="F37" s="412" t="s">
-        <v>1387</v>
+        <v>1386</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.2">
@@ -44021,7 +43740,7 @@
         <v>938</v>
       </c>
       <c r="F38" s="412" t="s">
-        <v>1387</v>
+        <v>1386</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.2">
@@ -44041,7 +43760,7 @@
         <v>933</v>
       </c>
       <c r="F39" s="412" t="s">
-        <v>1370</v>
+        <v>1369</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.2">
@@ -44086,7 +43805,7 @@
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A42" s="413" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
       <c r="B42" s="412" t="s">
         <v>935</v>
@@ -44095,7 +43814,7 @@
         <v>1</v>
       </c>
       <c r="D42" s="412" t="s">
-        <v>1420</v>
+        <v>1419</v>
       </c>
       <c r="E42" s="412" t="s">
         <v>936</v>
@@ -44106,7 +43825,7 @@
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A43" s="413" t="s">
-        <v>1421</v>
+        <v>1420</v>
       </c>
       <c r="B43" s="412" t="s">
         <v>935</v>
@@ -44115,7 +43834,7 @@
         <v>1</v>
       </c>
       <c r="D43" s="412" t="s">
-        <v>1420</v>
+        <v>1419</v>
       </c>
       <c r="E43" s="412" t="s">
         <v>1034</v>
@@ -44135,7 +43854,7 @@
         <v>3</v>
       </c>
       <c r="D44" s="412" t="s">
-        <v>1422</v>
+        <v>1421</v>
       </c>
       <c r="E44" s="412" t="s">
         <v>942</v>
@@ -44155,7 +43874,7 @@
         <v>3</v>
       </c>
       <c r="D45" s="412" t="s">
-        <v>1422</v>
+        <v>1421</v>
       </c>
       <c r="E45" s="412" t="s">
         <v>938</v>
@@ -44169,7 +43888,7 @@
         <v>1015</v>
       </c>
       <c r="B46" s="412" t="s">
-        <v>1335</v>
+        <v>1334</v>
       </c>
       <c r="C46" s="414">
         <v>2</v>
@@ -44178,7 +43897,7 @@
         <v>743</v>
       </c>
       <c r="E46" s="412" t="s">
-        <v>1423</v>
+        <v>1422</v>
       </c>
       <c r="F46" s="412" t="s">
         <v>100</v>
@@ -44189,7 +43908,7 @@
         <v>1016</v>
       </c>
       <c r="B47" s="412" t="s">
-        <v>1335</v>
+        <v>1334</v>
       </c>
       <c r="C47" s="414">
         <v>1</v>
@@ -44209,7 +43928,7 @@
         <v>1196</v>
       </c>
       <c r="B48" s="412" t="s">
-        <v>1335</v>
+        <v>1334</v>
       </c>
       <c r="C48" s="414">
         <v>2</v>
@@ -44229,7 +43948,7 @@
         <v>1198</v>
       </c>
       <c r="B49" s="412" t="s">
-        <v>1335</v>
+        <v>1334</v>
       </c>
       <c r="C49" s="414">
         <v>1</v>
@@ -44301,7 +44020,7 @@
         <v>944</v>
       </c>
       <c r="F52" s="412" t="s">
-        <v>1424</v>
+        <v>1423</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.2">
@@ -44318,7 +44037,7 @@
         <v>1219</v>
       </c>
       <c r="E53" s="412" t="s">
-        <v>1337</v>
+        <v>1336</v>
       </c>
       <c r="F53" s="412" t="s">
         <v>104</v>
@@ -44358,7 +44077,7 @@
         <v>1219</v>
       </c>
       <c r="E55" s="412" t="s">
-        <v>1337</v>
+        <v>1336</v>
       </c>
       <c r="F55" s="412" t="s">
         <v>24</v>
@@ -44526,7 +44245,7 @@
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A64" s="413" t="s">
-        <v>1340</v>
+        <v>1339</v>
       </c>
       <c r="B64" s="412" t="s">
         <v>983</v>
@@ -44606,10 +44325,10 @@
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A68" s="413" t="s">
+        <v>1340</v>
+      </c>
+      <c r="B68" s="412" t="s">
         <v>1341</v>
-      </c>
-      <c r="B68" s="412" t="s">
-        <v>1342</v>
       </c>
       <c r="C68" s="414">
         <v>3</v>
@@ -44646,7 +44365,7 @@
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A70" s="413" t="s">
-        <v>1343</v>
+        <v>1342</v>
       </c>
       <c r="B70" s="412" t="s">
         <v>986</v>
@@ -44658,7 +44377,7 @@
         <v>604</v>
       </c>
       <c r="E70" s="412" t="s">
-        <v>1396</v>
+        <v>1395</v>
       </c>
       <c r="F70" s="412" t="s">
         <v>1225</v>
@@ -44786,7 +44505,7 @@
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A77" s="413" t="s">
-        <v>1344</v>
+        <v>1343</v>
       </c>
       <c r="B77" s="412" t="s">
         <v>1181</v>
@@ -44815,7 +44534,7 @@
         <v>3</v>
       </c>
       <c r="D78" s="412" t="s">
-        <v>1418</v>
+        <v>1417</v>
       </c>
       <c r="E78" s="412" t="s">
         <v>969</v>
@@ -44874,17 +44593,17 @@
       </c>
       <c r="E1" s="418"/>
       <c r="F1" s="458" t="s">
-        <v>1345</v>
+        <v>1344</v>
       </c>
     </row>
     <row r="2" spans="1:6" s="410" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B2" s="409"/>
       <c r="C2" s="409"/>
       <c r="D2" s="454" t="s">
+        <v>1294</v>
+      </c>
+      <c r="E2" s="454" t="s">
         <v>1295</v>
-      </c>
-      <c r="E2" s="454" t="s">
-        <v>1296</v>
       </c>
       <c r="F2" s="458"/>
     </row>
@@ -44895,7 +44614,7 @@
         <v>43284</v>
       </c>
       <c r="E3" s="454" t="s">
-        <v>1299</v>
+        <v>1298</v>
       </c>
       <c r="F3" s="454"/>
     </row>
@@ -44909,7 +44628,7 @@
         <v>1110</v>
       </c>
       <c r="E4" s="454" t="s">
-        <v>1297</v>
+        <v>1296</v>
       </c>
       <c r="F4" s="454"/>
     </row>
@@ -44918,10 +44637,10 @@
       <c r="B5" s="463"/>
       <c r="C5" s="463"/>
       <c r="D5" s="404" t="s">
+        <v>1297</v>
+      </c>
+      <c r="E5" s="410" t="s">
         <v>1298</v>
-      </c>
-      <c r="E5" s="410" t="s">
-        <v>1299</v>
       </c>
     </row>
     <row r="6" spans="1:6" s="410" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.15">
@@ -44934,7 +44653,7 @@
     </row>
     <row r="7" spans="1:6" s="410" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="463" t="s">
-        <v>1397</v>
+        <v>1396</v>
       </c>
       <c r="B7" s="463"/>
       <c r="C7" s="463"/>
@@ -44986,12 +44705,12 @@
     </row>
     <row r="13" spans="1:6" ht="12" thickTop="1" x14ac:dyDescent="0.2">
       <c r="B13" s="412" t="s">
-        <v>1414</v>
+        <v>1413</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" s="413" t="s">
-        <v>1398</v>
+        <v>1397</v>
       </c>
       <c r="B14" s="412" t="s">
         <v>982</v>
@@ -45003,7 +44722,7 @@
         <v>872</v>
       </c>
       <c r="E14" s="412" t="s">
-        <v>1399</v>
+        <v>1398</v>
       </c>
       <c r="F14" s="412" t="s">
         <v>189</v>
@@ -45011,15 +44730,15 @@
     </row>
     <row r="16" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B16" s="412" t="s">
-        <v>1401</v>
+        <v>1400</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" s="413" t="s">
-        <v>1400</v>
+        <v>1399</v>
       </c>
       <c r="B17" s="412" t="s">
-        <v>1408</v>
+        <v>1407</v>
       </c>
       <c r="C17" s="414">
         <v>3</v>
@@ -45028,20 +44747,20 @@
         <v>64</v>
       </c>
       <c r="E17" s="412" t="s">
-        <v>1354</v>
+        <v>1353</v>
       </c>
       <c r="F17" s="412" t="s">
-        <v>1416</v>
+        <v>1415</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B19" s="412" t="s">
-        <v>1409</v>
+        <v>1408</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" s="413" t="s">
-        <v>1402</v>
+        <v>1401</v>
       </c>
       <c r="B20" s="412" t="s">
         <v>1191</v>
@@ -45053,7 +44772,7 @@
         <v>912</v>
       </c>
       <c r="E20" s="412" t="s">
-        <v>1403</v>
+        <v>1402</v>
       </c>
       <c r="F20" s="412" t="s">
         <v>432</v>
@@ -45061,7 +44780,7 @@
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" s="413" t="s">
-        <v>1404</v>
+        <v>1403</v>
       </c>
       <c r="B21" s="412" t="s">
         <v>937</v>
@@ -45073,7 +44792,7 @@
         <v>64</v>
       </c>
       <c r="E21" s="412" t="s">
-        <v>1405</v>
+        <v>1404</v>
       </c>
       <c r="F21" s="412" t="s">
         <v>432</v>
@@ -45081,10 +44800,10 @@
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" s="413" t="s">
-        <v>1407</v>
+        <v>1406</v>
       </c>
       <c r="B22" s="412" t="s">
-        <v>1406</v>
+        <v>1405</v>
       </c>
       <c r="C22" s="414">
         <v>3</v>
@@ -45101,10 +44820,10 @@
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" s="413" t="s">
+        <v>1409</v>
+      </c>
+      <c r="B23" s="412" t="s">
         <v>1410</v>
-      </c>
-      <c r="B23" s="412" t="s">
-        <v>1411</v>
       </c>
       <c r="C23" s="414">
         <v>3</v>
@@ -45121,10 +44840,10 @@
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24" s="413" t="s">
+        <v>1411</v>
+      </c>
+      <c r="B24" s="412" t="s">
         <v>1412</v>
-      </c>
-      <c r="B24" s="412" t="s">
-        <v>1413</v>
       </c>
       <c r="C24" s="414">
         <v>3</v>
@@ -45192,17 +44911,17 @@
       </c>
       <c r="E1" s="418"/>
       <c r="F1" s="458" t="s">
-        <v>1345</v>
+        <v>1344</v>
       </c>
     </row>
     <row r="2" spans="1:6" s="410" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B2" s="409"/>
       <c r="C2" s="409"/>
       <c r="D2" s="449" t="s">
+        <v>1279</v>
+      </c>
+      <c r="E2" s="449" t="s">
         <v>1280</v>
-      </c>
-      <c r="E2" s="449" t="s">
-        <v>1281</v>
       </c>
       <c r="F2" s="458"/>
     </row>
@@ -45210,7 +44929,7 @@
       <c r="B3" s="409"/>
       <c r="C3" s="409"/>
       <c r="D3" s="449" t="s">
-        <v>1282</v>
+        <v>1281</v>
       </c>
       <c r="E3" s="449" t="s">
         <v>1136</v>
@@ -45224,10 +44943,10 @@
       <c r="B4" s="464"/>
       <c r="C4" s="464"/>
       <c r="D4" s="449" t="s">
+        <v>1282</v>
+      </c>
+      <c r="E4" s="449" t="s">
         <v>1283</v>
-      </c>
-      <c r="E4" s="449" t="s">
-        <v>1284</v>
       </c>
       <c r="F4" s="449"/>
     </row>
@@ -45236,10 +44955,10 @@
       <c r="B5" s="464"/>
       <c r="C5" s="464"/>
       <c r="D5" s="449" t="s">
+        <v>1284</v>
+      </c>
+      <c r="E5" s="449" t="s">
         <v>1285</v>
-      </c>
-      <c r="E5" s="449" t="s">
-        <v>1286</v>
       </c>
     </row>
     <row r="6" spans="1:6" s="410" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.15">
@@ -45247,7 +44966,7 @@
       <c r="B6" s="464"/>
       <c r="C6" s="464"/>
       <c r="D6" s="449" t="s">
-        <v>1287</v>
+        <v>1286</v>
       </c>
       <c r="E6" s="449" t="s">
         <v>1230</v>
@@ -45256,15 +44975,15 @@
     </row>
     <row r="7" spans="1:6" s="410" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="464" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
       <c r="B7" s="464"/>
       <c r="C7" s="464"/>
       <c r="D7" s="449" t="s">
+        <v>1287</v>
+      </c>
+      <c r="E7" s="449" t="s">
         <v>1288</v>
-      </c>
-      <c r="E7" s="449" t="s">
-        <v>1289</v>
       </c>
       <c r="F7" s="449"/>
     </row>
@@ -45273,7 +44992,7 @@
       <c r="B8" s="464"/>
       <c r="C8" s="464"/>
       <c r="D8" s="449" t="s">
-        <v>1290</v>
+        <v>1289</v>
       </c>
       <c r="E8" s="449" t="s">
         <v>1102</v>
@@ -45284,10 +45003,10 @@
       <c r="B9" s="464"/>
       <c r="C9" s="464"/>
       <c r="D9" s="449" t="s">
+        <v>1290</v>
+      </c>
+      <c r="E9" s="449" t="s">
         <v>1291</v>
-      </c>
-      <c r="E9" s="449" t="s">
-        <v>1292</v>
       </c>
     </row>
     <row r="10" spans="1:6" s="410" customFormat="1" ht="9" x14ac:dyDescent="0.15">
@@ -45295,10 +45014,10 @@
       <c r="B10" s="409"/>
       <c r="C10" s="409"/>
       <c r="D10" s="449" t="s">
+        <v>1292</v>
+      </c>
+      <c r="E10" s="449" t="s">
         <v>1293</v>
-      </c>
-      <c r="E10" s="449" t="s">
-        <v>1294</v>
       </c>
     </row>
     <row r="11" spans="1:6" s="410" customFormat="1" ht="9" x14ac:dyDescent="0.15">
@@ -45329,10 +45048,10 @@
     </row>
     <row r="13" spans="1:6" ht="12" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A13" s="413" t="s">
-        <v>1438</v>
+        <v>1436</v>
       </c>
       <c r="B13" s="412" t="s">
-        <v>1365</v>
+        <v>1364</v>
       </c>
       <c r="C13" s="414">
         <v>3</v>
@@ -45344,15 +45063,15 @@
         <v>914</v>
       </c>
       <c r="F13" s="412" t="s">
-        <v>1439</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" s="413" t="s">
-        <v>1440</v>
+        <v>1438</v>
       </c>
       <c r="B14" s="412" t="s">
-        <v>1365</v>
+        <v>1364</v>
       </c>
       <c r="C14" s="414">
         <v>3</v>
@@ -45364,7 +45083,7 @@
         <v>914</v>
       </c>
       <c r="F14" s="412" t="s">
-        <v>1441</v>
+        <v>1439</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
@@ -45381,7 +45100,7 @@
         <v>872</v>
       </c>
       <c r="E15" s="412" t="s">
-        <v>1380</v>
+        <v>1379</v>
       </c>
       <c r="F15" s="412" t="s">
         <v>14</v>
@@ -45398,7 +45117,7 @@
         <v>1</v>
       </c>
       <c r="D16" s="412" t="s">
-        <v>1442</v>
+        <v>1440</v>
       </c>
       <c r="E16" s="412" t="s">
         <v>933</v>
@@ -45418,7 +45137,7 @@
         <v>1</v>
       </c>
       <c r="D17" s="412" t="s">
-        <v>1442</v>
+        <v>1440</v>
       </c>
       <c r="E17" s="412" t="s">
         <v>1210</v>
@@ -45481,7 +45200,7 @@
         <v>59</v>
       </c>
       <c r="E20" s="412" t="s">
-        <v>1443</v>
+        <v>1441</v>
       </c>
       <c r="F20" s="412" t="s">
         <v>119</v>
@@ -45501,7 +45220,7 @@
         <v>59</v>
       </c>
       <c r="E21" s="412" t="s">
-        <v>1337</v>
+        <v>1336</v>
       </c>
       <c r="F21" s="412" t="s">
         <v>119</v>
@@ -45521,7 +45240,7 @@
         <v>741</v>
       </c>
       <c r="E22" s="412" t="s">
-        <v>1444</v>
+        <v>1442</v>
       </c>
       <c r="F22" s="412" t="s">
         <v>189</v>
@@ -45558,7 +45277,7 @@
         <v>1</v>
       </c>
       <c r="D24" s="412" t="s">
-        <v>1366</v>
+        <v>1365</v>
       </c>
       <c r="E24" s="412" t="s">
         <v>919</v>
@@ -45578,7 +45297,7 @@
         <v>1</v>
       </c>
       <c r="D25" s="412" t="s">
-        <v>1366</v>
+        <v>1365</v>
       </c>
       <c r="E25" s="412" t="s">
         <v>936</v>
@@ -45598,7 +45317,7 @@
         <v>1</v>
       </c>
       <c r="D26" s="412" t="s">
-        <v>1366</v>
+        <v>1365</v>
       </c>
       <c r="E26" s="412" t="s">
         <v>1034</v>
@@ -45609,7 +45328,7 @@
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27" s="413" t="s">
-        <v>1381</v>
+        <v>1380</v>
       </c>
       <c r="B27" s="412" t="s">
         <v>920</v>
@@ -45621,7 +45340,7 @@
         <v>811</v>
       </c>
       <c r="E27" s="412" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
       <c r="F27" s="412" t="s">
         <v>19</v>
@@ -45629,7 +45348,7 @@
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A28" s="413" t="s">
-        <v>1383</v>
+        <v>1382</v>
       </c>
       <c r="B28" s="412" t="s">
         <v>920</v>
@@ -45641,7 +45360,7 @@
         <v>811</v>
       </c>
       <c r="E28" s="412" t="s">
-        <v>1384</v>
+        <v>1383</v>
       </c>
       <c r="F28" s="412" t="s">
         <v>19</v>
@@ -45661,7 +45380,7 @@
         <v>741</v>
       </c>
       <c r="E29" s="412" t="s">
-        <v>1445</v>
+        <v>1443</v>
       </c>
       <c r="F29" s="412" t="s">
         <v>100</v>
@@ -45681,7 +45400,7 @@
         <v>741</v>
       </c>
       <c r="E30" s="412" t="s">
-        <v>1337</v>
+        <v>1336</v>
       </c>
       <c r="F30" s="412" t="s">
         <v>66</v>
@@ -45701,7 +45420,7 @@
         <v>743</v>
       </c>
       <c r="E31" s="412" t="s">
-        <v>1445</v>
+        <v>1443</v>
       </c>
       <c r="F31" s="412" t="s">
         <v>66</v>
@@ -45721,7 +45440,7 @@
         <v>743</v>
       </c>
       <c r="E32" s="412" t="s">
-        <v>1337</v>
+        <v>1336</v>
       </c>
       <c r="F32" s="412" t="s">
         <v>100</v>
@@ -45741,7 +45460,7 @@
         <v>811</v>
       </c>
       <c r="E33" s="412" t="s">
-        <v>1446</v>
+        <v>1444</v>
       </c>
       <c r="F33" s="412" t="s">
         <v>100</v>
@@ -45761,7 +45480,7 @@
         <v>811</v>
       </c>
       <c r="E34" s="412" t="s">
-        <v>1386</v>
+        <v>1385</v>
       </c>
       <c r="F34" s="412" t="s">
         <v>100</v>
@@ -45818,13 +45537,13 @@
         <v>3</v>
       </c>
       <c r="D37" s="412" t="s">
-        <v>1363</v>
+        <v>1362</v>
       </c>
       <c r="E37" s="412" t="s">
         <v>972</v>
       </c>
       <c r="F37" s="412" t="s">
-        <v>1334</v>
+        <v>1333</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.2">
@@ -45844,15 +45563,15 @@
         <v>929</v>
       </c>
       <c r="F38" s="412" t="s">
-        <v>1447</v>
+        <v>1445</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A39" s="413" t="s">
+        <v>1370</v>
+      </c>
+      <c r="B39" s="412" t="s">
         <v>1371</v>
-      </c>
-      <c r="B39" s="412" t="s">
-        <v>1372</v>
       </c>
       <c r="C39" s="414">
         <v>3</v>
@@ -45904,7 +45623,7 @@
         <v>933</v>
       </c>
       <c r="F41" s="412" t="s">
-        <v>1370</v>
+        <v>1369</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.2">
@@ -46021,7 +45740,7 @@
         <v>481</v>
       </c>
       <c r="E47" s="412" t="s">
-        <v>1448</v>
+        <v>1446</v>
       </c>
       <c r="F47" s="412" t="s">
         <v>77</v>
@@ -46041,7 +45760,7 @@
         <v>741</v>
       </c>
       <c r="E48" s="412" t="s">
-        <v>1449</v>
+        <v>1447</v>
       </c>
       <c r="F48" s="412" t="s">
         <v>100</v>
@@ -46081,7 +45800,7 @@
         <v>743</v>
       </c>
       <c r="E50" s="412" t="s">
-        <v>1379</v>
+        <v>1378</v>
       </c>
       <c r="F50" s="412" t="s">
         <v>100</v>
@@ -46121,7 +45840,7 @@
         <v>741</v>
       </c>
       <c r="E52" s="412" t="s">
-        <v>1450</v>
+        <v>1448</v>
       </c>
       <c r="F52" s="412" t="s">
         <v>100</v>
@@ -46218,7 +45937,7 @@
         <v>2</v>
       </c>
       <c r="D57" s="412" t="s">
-        <v>1451</v>
+        <v>1449</v>
       </c>
       <c r="E57" s="412" t="s">
         <v>944</v>
@@ -46278,7 +45997,7 @@
         <v>1</v>
       </c>
       <c r="D60" s="412" t="s">
-        <v>1442</v>
+        <v>1440</v>
       </c>
       <c r="E60" s="412" t="s">
         <v>923</v>
@@ -46329,10 +46048,10 @@
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A63" s="413" t="s">
+        <v>1372</v>
+      </c>
+      <c r="B63" s="412" t="s">
         <v>1373</v>
-      </c>
-      <c r="B63" s="412" t="s">
-        <v>1374</v>
       </c>
       <c r="C63" s="414">
         <v>1</v>
@@ -46441,7 +46160,7 @@
         <v>481</v>
       </c>
       <c r="E68" s="412" t="s">
-        <v>1452</v>
+        <v>1450</v>
       </c>
       <c r="F68" s="412" t="s">
         <v>417</v>
@@ -46489,16 +46208,16 @@
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A71" s="413" t="s">
-        <v>1378</v>
+        <v>1377</v>
       </c>
       <c r="B71" s="412" t="s">
-        <v>1453</v>
+        <v>1451</v>
       </c>
       <c r="C71" s="414">
         <v>3</v>
       </c>
       <c r="D71" s="412" t="s">
-        <v>1454</v>
+        <v>1452</v>
       </c>
       <c r="E71" s="412" t="s">
         <v>964</v>
@@ -46549,10 +46268,10 @@
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A74" s="413" t="s">
+        <v>1374</v>
+      </c>
+      <c r="B74" s="412" t="s">
         <v>1375</v>
-      </c>
-      <c r="B74" s="412" t="s">
-        <v>1376</v>
       </c>
       <c r="C74" s="414">
         <v>3</v>
@@ -46581,10 +46300,10 @@
         <v>604</v>
       </c>
       <c r="E75" s="412" t="s">
-        <v>1377</v>
+        <v>1376</v>
       </c>
       <c r="F75" s="412" t="s">
-        <v>1455</v>
+        <v>1453</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.2">
@@ -46817,7 +46536,7 @@
       </c>
       <c r="E1" s="418"/>
       <c r="F1" s="458" t="s">
-        <v>1345</v>
+        <v>1344</v>
       </c>
     </row>
     <row r="2" spans="1:6" s="410" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.15">
@@ -46957,7 +46676,7 @@
         <v>1001</v>
       </c>
       <c r="B13" s="412" t="s">
-        <v>1365</v>
+        <v>1364</v>
       </c>
       <c r="C13" s="414">
         <v>3</v>
@@ -46986,7 +46705,7 @@
         <v>533</v>
       </c>
       <c r="E14" s="412" t="s">
-        <v>1328</v>
+        <v>1327</v>
       </c>
       <c r="F14" s="412" t="s">
         <v>19</v>
@@ -47066,7 +46785,7 @@
         <v>481</v>
       </c>
       <c r="E18" s="412" t="s">
-        <v>1329</v>
+        <v>1328</v>
       </c>
       <c r="F18" s="412" t="s">
         <v>100</v>
@@ -47086,7 +46805,7 @@
         <v>741</v>
       </c>
       <c r="E19" s="412" t="s">
-        <v>1330</v>
+        <v>1329</v>
       </c>
       <c r="F19" s="412" t="s">
         <v>100</v>
@@ -47183,7 +46902,7 @@
         <v>1</v>
       </c>
       <c r="D24" s="412" t="s">
-        <v>1366</v>
+        <v>1365</v>
       </c>
       <c r="E24" s="412" t="s">
         <v>936</v>
@@ -47203,7 +46922,7 @@
         <v>1</v>
       </c>
       <c r="D25" s="412" t="s">
-        <v>1366</v>
+        <v>1365</v>
       </c>
       <c r="E25" s="412" t="s">
         <v>1034</v>
@@ -47246,7 +46965,7 @@
         <v>159</v>
       </c>
       <c r="E27" s="412" t="s">
-        <v>1331</v>
+        <v>1330</v>
       </c>
       <c r="F27" s="412" t="s">
         <v>100</v>
@@ -47306,7 +47025,7 @@
         <v>741</v>
       </c>
       <c r="E30" s="412" t="s">
-        <v>1332</v>
+        <v>1331</v>
       </c>
       <c r="F30" s="412" t="s">
         <v>100</v>
@@ -47326,7 +47045,7 @@
         <v>741</v>
       </c>
       <c r="E31" s="412" t="s">
-        <v>1333</v>
+        <v>1332</v>
       </c>
       <c r="F31" s="412" t="s">
         <v>100</v>
@@ -47334,7 +47053,7 @@
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A32" s="413" t="s">
-        <v>1359</v>
+        <v>1358</v>
       </c>
       <c r="B32" s="412" t="s">
         <v>921</v>
@@ -47346,7 +47065,7 @@
         <v>811</v>
       </c>
       <c r="E32" s="412" t="s">
-        <v>1360</v>
+        <v>1359</v>
       </c>
       <c r="F32" s="412" t="s">
         <v>100</v>
@@ -47354,7 +47073,7 @@
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A33" s="413" t="s">
-        <v>1361</v>
+        <v>1360</v>
       </c>
       <c r="B33" s="412" t="s">
         <v>921</v>
@@ -47366,7 +47085,7 @@
         <v>811</v>
       </c>
       <c r="E33" s="412" t="s">
-        <v>1362</v>
+        <v>1361</v>
       </c>
       <c r="F33" s="412" t="s">
         <v>100</v>
@@ -47403,7 +47122,7 @@
         <v>1</v>
       </c>
       <c r="D35" s="412" t="s">
-        <v>1364</v>
+        <v>1363</v>
       </c>
       <c r="E35" s="412" t="s">
         <v>926</v>
@@ -47423,13 +47142,13 @@
         <v>3</v>
       </c>
       <c r="D36" s="412" t="s">
-        <v>1363</v>
+        <v>1362</v>
       </c>
       <c r="E36" s="412" t="s">
         <v>1067</v>
       </c>
       <c r="F36" s="412" t="s">
-        <v>1334</v>
+        <v>1333</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.2">
@@ -47509,7 +47228,7 @@
         <v>933</v>
       </c>
       <c r="F40" s="412" t="s">
-        <v>1370</v>
+        <v>1369</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.2">
@@ -47597,7 +47316,7 @@
         <v>1015</v>
       </c>
       <c r="B45" s="412" t="s">
-        <v>1335</v>
+        <v>1334</v>
       </c>
       <c r="C45" s="414">
         <v>2</v>
@@ -47606,7 +47325,7 @@
         <v>743</v>
       </c>
       <c r="E45" s="412" t="s">
-        <v>1336</v>
+        <v>1335</v>
       </c>
       <c r="F45" s="412" t="s">
         <v>100</v>
@@ -47617,7 +47336,7 @@
         <v>1016</v>
       </c>
       <c r="B46" s="412" t="s">
-        <v>1335</v>
+        <v>1334</v>
       </c>
       <c r="C46" s="414">
         <v>1</v>
@@ -47637,7 +47356,7 @@
         <v>1196</v>
       </c>
       <c r="B47" s="412" t="s">
-        <v>1335</v>
+        <v>1334</v>
       </c>
       <c r="C47" s="414">
         <v>2</v>
@@ -47657,7 +47376,7 @@
         <v>1198</v>
       </c>
       <c r="B48" s="412" t="s">
-        <v>1335</v>
+        <v>1334</v>
       </c>
       <c r="C48" s="414">
         <v>1</v>
@@ -47729,7 +47448,7 @@
         <v>944</v>
       </c>
       <c r="F51" s="412" t="s">
-        <v>1367</v>
+        <v>1366</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.2">
@@ -47746,7 +47465,7 @@
         <v>184</v>
       </c>
       <c r="E52" s="412" t="s">
-        <v>1337</v>
+        <v>1336</v>
       </c>
       <c r="F52" s="412" t="s">
         <v>104</v>
@@ -47786,7 +47505,7 @@
         <v>184</v>
       </c>
       <c r="E54" s="412" t="s">
-        <v>1337</v>
+        <v>1336</v>
       </c>
       <c r="F54" s="412" t="s">
         <v>24</v>
@@ -47834,10 +47553,10 @@
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A57" s="413" t="s">
+        <v>1337</v>
+      </c>
+      <c r="B57" s="412" t="s">
         <v>1338</v>
-      </c>
-      <c r="B57" s="412" t="s">
-        <v>1339</v>
       </c>
       <c r="C57" s="414">
         <v>3</v>
@@ -47974,7 +47693,7 @@
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A64" s="413" t="s">
-        <v>1340</v>
+        <v>1339</v>
       </c>
       <c r="B64" s="412" t="s">
         <v>983</v>
@@ -48054,10 +47773,10 @@
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A68" s="413" t="s">
+        <v>1340</v>
+      </c>
+      <c r="B68" s="412" t="s">
         <v>1341</v>
-      </c>
-      <c r="B68" s="412" t="s">
-        <v>1342</v>
       </c>
       <c r="C68" s="414">
         <v>3</v>
@@ -48094,7 +47813,7 @@
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A70" s="413" t="s">
-        <v>1343</v>
+        <v>1342</v>
       </c>
       <c r="B70" s="412" t="s">
         <v>986</v>
@@ -48114,7 +47833,7 @@
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A71" s="413" t="s">
-        <v>1348</v>
+        <v>1347</v>
       </c>
       <c r="B71" s="412" t="s">
         <v>988</v>
@@ -48174,10 +47893,10 @@
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A74" s="413" t="s">
+        <v>1367</v>
+      </c>
+      <c r="B74" s="412" t="s">
         <v>1368</v>
-      </c>
-      <c r="B74" s="412" t="s">
-        <v>1369</v>
       </c>
       <c r="C74" s="414">
         <v>3</v>
@@ -48234,7 +47953,7 @@
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A77" s="413" t="s">
-        <v>1344</v>
+        <v>1343</v>
       </c>
       <c r="B77" s="412" t="s">
         <v>1181</v>

--- a/schedule/semester/schedule.xlsx
+++ b/schedule/semester/schedule.xlsx
@@ -80,7 +80,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8490" uniqueCount="1505">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8523" uniqueCount="1508">
   <si>
     <t>ELECTRICAL AND COMPUTER ENGINEERING</t>
   </si>
@@ -4534,9 +4534,6 @@
     <t>Posted 2/21/2019</t>
   </si>
   <si>
-    <t>Posted 2/20/2019</t>
-  </si>
-  <si>
     <t>SH264/SH260</t>
   </si>
   <si>
@@ -4582,9 +4579,6 @@
     <t>KHC4077</t>
   </si>
   <si>
-    <t>ETC251/ETC252</t>
-  </si>
-  <si>
     <t>ETA309</t>
   </si>
   <si>
@@ -4595,6 +4589,21 @@
   </si>
   <si>
     <t>F 200-340PM</t>
+  </si>
+  <si>
+    <t>Posted 4/23/2019</t>
+  </si>
+  <si>
+    <t>Wang</t>
+  </si>
+  <si>
+    <t>Karuhaka</t>
+  </si>
+  <si>
+    <t>EE3810-06</t>
+  </si>
+  <si>
+    <t>Thorburn</t>
   </si>
 </sst>
 </file>
@@ -28083,7 +28092,7 @@
       <pane xSplit="1" ySplit="12" topLeftCell="B13" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A13" sqref="A13"/>
-      <selection pane="bottomRight" activeCell="B82" sqref="B82"/>
+      <selection pane="bottomRight" activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
@@ -28099,7 +28108,7 @@
   <sheetData>
     <row r="1" spans="1:6" s="410" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="407" t="s">
-        <v>1484</v>
+        <v>1503</v>
       </c>
       <c r="B1" s="408"/>
       <c r="C1" s="409"/>
@@ -28260,7 +28269,7 @@
         <v>931</v>
       </c>
       <c r="F13" s="412" t="s">
-        <v>1485</v>
+        <v>1484</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
@@ -28273,6 +28282,9 @@
       <c r="C14" s="414">
         <v>1</v>
       </c>
+      <c r="D14" s="412" t="s">
+        <v>1416</v>
+      </c>
       <c r="E14" s="412" t="s">
         <v>1327</v>
       </c>
@@ -28290,6 +28302,9 @@
       <c r="C15" s="414">
         <v>1</v>
       </c>
+      <c r="D15" s="412" t="s">
+        <v>1416</v>
+      </c>
       <c r="E15" s="412" t="s">
         <v>936</v>
       </c>
@@ -28348,7 +28363,7 @@
         <v>481</v>
       </c>
       <c r="E18" s="412" t="s">
-        <v>1486</v>
+        <v>1485</v>
       </c>
       <c r="F18" s="412" t="s">
         <v>100</v>
@@ -28388,7 +28403,7 @@
         <v>481</v>
       </c>
       <c r="E20" s="412" t="s">
-        <v>1487</v>
+        <v>1486</v>
       </c>
       <c r="F20" s="412" t="s">
         <v>100</v>
@@ -28404,8 +28419,11 @@
       <c r="C21" s="414">
         <v>2</v>
       </c>
+      <c r="D21" s="412" t="s">
+        <v>1504</v>
+      </c>
       <c r="E21" s="412" t="s">
-        <v>1488</v>
+        <v>1487</v>
       </c>
       <c r="F21" s="412" t="s">
         <v>100</v>
@@ -28421,8 +28439,11 @@
       <c r="C22" s="414">
         <v>1</v>
       </c>
+      <c r="D22" s="412" t="s">
+        <v>1504</v>
+      </c>
       <c r="E22" s="412" t="s">
-        <v>1489</v>
+        <v>1488</v>
       </c>
       <c r="F22" s="412" t="s">
         <v>100</v>
@@ -28438,6 +28459,9 @@
       <c r="C23" s="414">
         <v>1</v>
       </c>
+      <c r="D23" s="412" t="s">
+        <v>743</v>
+      </c>
       <c r="E23" s="412" t="s">
         <v>919</v>
       </c>
@@ -28455,6 +28479,9 @@
       <c r="C24" s="414">
         <v>1</v>
       </c>
+      <c r="D24" s="412" t="s">
+        <v>1365</v>
+      </c>
       <c r="E24" s="412" t="s">
         <v>936</v>
       </c>
@@ -28472,6 +28499,9 @@
       <c r="C25" s="414">
         <v>1</v>
       </c>
+      <c r="D25" s="412" t="s">
+        <v>1365</v>
+      </c>
       <c r="E25" s="412" t="s">
         <v>1034</v>
       </c>
@@ -28513,7 +28543,7 @@
         <v>481</v>
       </c>
       <c r="E27" s="412" t="s">
-        <v>1490</v>
+        <v>1489</v>
       </c>
       <c r="F27" s="412" t="s">
         <v>100</v>
@@ -28529,6 +28559,9 @@
       <c r="C28" s="414">
         <v>2</v>
       </c>
+      <c r="D28" s="412" t="s">
+        <v>743</v>
+      </c>
       <c r="E28" s="412" t="s">
         <v>1378</v>
       </c>
@@ -28546,6 +28579,9 @@
       <c r="C29" s="414">
         <v>1</v>
       </c>
+      <c r="D29" s="412" t="s">
+        <v>743</v>
+      </c>
       <c r="E29" s="412" t="s">
         <v>1171</v>
       </c>
@@ -28563,8 +28599,11 @@
       <c r="C30" s="414">
         <v>2</v>
       </c>
+      <c r="D30" s="412" t="s">
+        <v>1504</v>
+      </c>
       <c r="E30" s="412" t="s">
-        <v>1491</v>
+        <v>1490</v>
       </c>
       <c r="F30" s="412" t="s">
         <v>100</v>
@@ -28580,8 +28619,11 @@
       <c r="C31" s="414">
         <v>1</v>
       </c>
+      <c r="D31" s="412" t="s">
+        <v>1504</v>
+      </c>
       <c r="E31" s="412" t="s">
-        <v>1492</v>
+        <v>1491</v>
       </c>
       <c r="F31" s="412" t="s">
         <v>100</v>
@@ -28617,6 +28659,9 @@
       <c r="C33" s="414">
         <v>1</v>
       </c>
+      <c r="D33" s="412" t="s">
+        <v>741</v>
+      </c>
       <c r="E33" s="412" t="s">
         <v>926</v>
       </c>
@@ -28626,7 +28671,7 @@
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A34" s="413" t="s">
-        <v>1493</v>
+        <v>1492</v>
       </c>
       <c r="B34" s="412" t="s">
         <v>927</v>
@@ -28643,7 +28688,7 @@
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A35" s="413" t="s">
-        <v>1494</v>
+        <v>1493</v>
       </c>
       <c r="B35" s="412" t="s">
         <v>927</v>
@@ -28660,7 +28705,7 @@
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A36" s="413" t="s">
-        <v>1495</v>
+        <v>1494</v>
       </c>
       <c r="B36" s="412" t="s">
         <v>927</v>
@@ -28765,6 +28810,9 @@
       <c r="C41" s="414">
         <v>3</v>
       </c>
+      <c r="D41" s="412" t="s">
+        <v>64</v>
+      </c>
       <c r="E41" s="412" t="s">
         <v>931</v>
       </c>
@@ -28799,6 +28847,9 @@
       <c r="C43" s="414">
         <v>1</v>
       </c>
+      <c r="D43" s="412" t="s">
+        <v>1419</v>
+      </c>
       <c r="E43" s="412" t="s">
         <v>936</v>
       </c>
@@ -28823,7 +28874,7 @@
         <v>942</v>
       </c>
       <c r="F44" s="412" t="s">
-        <v>1496</v>
+        <v>1495</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.2">
@@ -28843,7 +28894,7 @@
         <v>938</v>
       </c>
       <c r="F45" s="412" t="s">
-        <v>1496</v>
+        <v>1495</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.2">
@@ -28856,6 +28907,9 @@
       <c r="C46" s="414">
         <v>2</v>
       </c>
+      <c r="D46" s="412" t="s">
+        <v>743</v>
+      </c>
       <c r="E46" s="412" t="s">
         <v>1329</v>
       </c>
@@ -28873,6 +28927,9 @@
       <c r="C47" s="414">
         <v>1</v>
       </c>
+      <c r="D47" s="412" t="s">
+        <v>743</v>
+      </c>
       <c r="E47" s="412" t="s">
         <v>1210</v>
       </c>
@@ -28890,8 +28947,11 @@
       <c r="C48" s="414">
         <v>2</v>
       </c>
+      <c r="D48" s="412" t="s">
+        <v>741</v>
+      </c>
       <c r="E48" s="412" t="s">
-        <v>1497</v>
+        <v>1496</v>
       </c>
       <c r="F48" s="412" t="s">
         <v>100</v>
@@ -28907,6 +28967,9 @@
       <c r="C49" s="414">
         <v>1</v>
       </c>
+      <c r="D49" s="412" t="s">
+        <v>741</v>
+      </c>
       <c r="E49" s="412" t="s">
         <v>1034</v>
       </c>
@@ -28924,6 +28987,9 @@
       <c r="C50" s="414">
         <v>1</v>
       </c>
+      <c r="D50" s="412" t="s">
+        <v>741</v>
+      </c>
       <c r="E50" s="412" t="s">
         <v>919</v>
       </c>
@@ -28941,6 +29007,9 @@
       <c r="C51" s="414">
         <v>3</v>
       </c>
+      <c r="D51" s="412" t="s">
+        <v>64</v>
+      </c>
       <c r="E51" s="412" t="s">
         <v>942</v>
       </c>
@@ -28962,10 +29031,10 @@
         <v>184</v>
       </c>
       <c r="E52" s="412" t="s">
+        <v>1497</v>
+      </c>
+      <c r="F52" s="412" t="s">
         <v>1498</v>
-      </c>
-      <c r="F52" s="412" t="s">
-        <v>1499</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.2">
@@ -28978,36 +29047,39 @@
       <c r="C53" s="414">
         <v>1</v>
       </c>
+      <c r="D53" s="412" t="s">
+        <v>1505</v>
+      </c>
       <c r="E53" s="412" t="s">
-        <v>1490</v>
+        <v>1489</v>
       </c>
       <c r="F53" s="412" t="s">
-        <v>1500</v>
+        <v>24</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A54" s="413" t="s">
-        <v>1161</v>
+        <v>1433</v>
       </c>
       <c r="B54" s="412" t="s">
         <v>943</v>
       </c>
       <c r="C54" s="414">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D54" s="412" t="s">
-        <v>184</v>
+        <v>1505</v>
       </c>
       <c r="E54" s="412" t="s">
-        <v>1498</v>
+        <v>919</v>
       </c>
       <c r="F54" s="412" t="s">
-        <v>1499</v>
+        <v>104</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A55" s="413" t="s">
-        <v>1163</v>
+        <v>1506</v>
       </c>
       <c r="B55" s="412" t="s">
         <v>943</v>
@@ -29015,11 +29087,14 @@
       <c r="C55" s="414">
         <v>1</v>
       </c>
+      <c r="D55" s="412" t="s">
+        <v>1440</v>
+      </c>
       <c r="E55" s="412" t="s">
-        <v>1486</v>
+        <v>1207</v>
       </c>
       <c r="F55" s="412" t="s">
-        <v>1500</v>
+        <v>24</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.2">
@@ -29032,6 +29107,9 @@
       <c r="C56" s="414">
         <v>3</v>
       </c>
+      <c r="D56" s="412" t="s">
+        <v>732</v>
+      </c>
       <c r="E56" s="412" t="s">
         <v>946</v>
       </c>
@@ -29049,11 +29127,14 @@
       <c r="C57" s="414">
         <v>3</v>
       </c>
+      <c r="D57" s="412" t="s">
+        <v>414</v>
+      </c>
       <c r="E57" s="412" t="s">
         <v>947</v>
       </c>
       <c r="F57" s="412" t="s">
-        <v>1501</v>
+        <v>1499</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.2">
@@ -29093,7 +29174,7 @@
         <v>972</v>
       </c>
       <c r="F59" s="412" t="s">
-        <v>1502</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.2">
@@ -29146,6 +29227,9 @@
       <c r="C62" s="414">
         <v>3</v>
       </c>
+      <c r="D62" s="412" t="s">
+        <v>811</v>
+      </c>
       <c r="E62" s="412" t="s">
         <v>946</v>
       </c>
@@ -29203,6 +29287,9 @@
       <c r="C65" s="414">
         <v>3</v>
       </c>
+      <c r="D65" s="412" t="s">
+        <v>64</v>
+      </c>
       <c r="E65" s="412" t="s">
         <v>962</v>
       </c>
@@ -29220,11 +29307,14 @@
       <c r="C66" s="414">
         <v>3</v>
       </c>
+      <c r="D66" s="412" t="s">
+        <v>1417</v>
+      </c>
       <c r="E66" s="412" t="s">
         <v>972</v>
       </c>
       <c r="F66" s="412" t="s">
-        <v>1503</v>
+        <v>1501</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.2">
@@ -29237,6 +29327,9 @@
       <c r="C67" s="414">
         <v>1</v>
       </c>
+      <c r="D67" s="412" t="s">
+        <v>1419</v>
+      </c>
       <c r="E67" s="412" t="s">
         <v>1207</v>
       </c>
@@ -29254,6 +29347,9 @@
       <c r="C68" s="414">
         <v>3</v>
       </c>
+      <c r="D68" s="412" t="s">
+        <v>64</v>
+      </c>
       <c r="E68" s="412" t="s">
         <v>972</v>
       </c>
@@ -29292,10 +29388,10 @@
         <v>3</v>
       </c>
       <c r="D70" s="412" t="s">
-        <v>604</v>
+        <v>1507</v>
       </c>
       <c r="E70" s="412" t="s">
-        <v>1504</v>
+        <v>1502</v>
       </c>
       <c r="F70" s="412" t="s">
         <v>1225</v>
@@ -29311,6 +29407,9 @@
       <c r="C71" s="414">
         <v>3</v>
       </c>
+      <c r="D71" s="412" t="s">
+        <v>166</v>
+      </c>
       <c r="E71" s="412" t="s">
         <v>958</v>
       </c>
@@ -29328,6 +29427,9 @@
       <c r="C72" s="414">
         <v>3</v>
       </c>
+      <c r="D72" s="412" t="s">
+        <v>414</v>
+      </c>
       <c r="E72" s="412" t="s">
         <v>972</v>
       </c>
@@ -29345,6 +29447,9 @@
       <c r="C73" s="414">
         <v>3</v>
       </c>
+      <c r="D73" s="412" t="s">
+        <v>414</v>
+      </c>
       <c r="E73" s="412" t="s">
         <v>964</v>
       </c>
@@ -29403,7 +29508,7 @@
         <v>3</v>
       </c>
       <c r="D76" s="412" t="s">
-        <v>59</v>
+        <v>811</v>
       </c>
       <c r="E76" s="412" t="s">
         <v>947</v>
@@ -29421,6 +29526,9 @@
       </c>
       <c r="C77" s="414">
         <v>3</v>
+      </c>
+      <c r="D77" s="412" t="s">
+        <v>166</v>
       </c>
       <c r="E77" s="412" t="s">
         <v>969</v>

--- a/schedule/semester/schedule.xlsx
+++ b/schedule/semester/schedule.xlsx
@@ -4591,9 +4591,6 @@
     <t>F 200-340PM</t>
   </si>
   <si>
-    <t>Posted 4/23/2019</t>
-  </si>
-  <si>
     <t>Wang</t>
   </si>
   <si>
@@ -4604,6 +4601,9 @@
   </si>
   <si>
     <t>Thorburn</t>
+  </si>
+  <si>
+    <t>Posted 5/6/2019</t>
   </si>
 </sst>
 </file>
@@ -28092,7 +28092,7 @@
       <pane xSplit="1" ySplit="12" topLeftCell="B13" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A13" sqref="A13"/>
-      <selection pane="bottomRight" activeCell="B29" sqref="B29"/>
+      <selection pane="bottomRight" activeCell="E85" sqref="E85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
@@ -28108,7 +28108,7 @@
   <sheetData>
     <row r="1" spans="1:6" s="410" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="407" t="s">
-        <v>1503</v>
+        <v>1507</v>
       </c>
       <c r="B1" s="408"/>
       <c r="C1" s="409"/>
@@ -28420,7 +28420,7 @@
         <v>2</v>
       </c>
       <c r="D21" s="412" t="s">
-        <v>1504</v>
+        <v>1503</v>
       </c>
       <c r="E21" s="412" t="s">
         <v>1487</v>
@@ -28440,7 +28440,7 @@
         <v>1</v>
       </c>
       <c r="D22" s="412" t="s">
-        <v>1504</v>
+        <v>1503</v>
       </c>
       <c r="E22" s="412" t="s">
         <v>1488</v>
@@ -28600,7 +28600,7 @@
         <v>2</v>
       </c>
       <c r="D30" s="412" t="s">
-        <v>1504</v>
+        <v>1503</v>
       </c>
       <c r="E30" s="412" t="s">
         <v>1490</v>
@@ -28620,7 +28620,7 @@
         <v>1</v>
       </c>
       <c r="D31" s="412" t="s">
-        <v>1504</v>
+        <v>1503</v>
       </c>
       <c r="E31" s="412" t="s">
         <v>1491</v>
@@ -28874,7 +28874,7 @@
         <v>942</v>
       </c>
       <c r="F44" s="412" t="s">
-        <v>1495</v>
+        <v>665</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.2">
@@ -29048,7 +29048,7 @@
         <v>1</v>
       </c>
       <c r="D53" s="412" t="s">
-        <v>1505</v>
+        <v>1504</v>
       </c>
       <c r="E53" s="412" t="s">
         <v>1489</v>
@@ -29068,7 +29068,7 @@
         <v>1</v>
       </c>
       <c r="D54" s="412" t="s">
-        <v>1505</v>
+        <v>1504</v>
       </c>
       <c r="E54" s="412" t="s">
         <v>919</v>
@@ -29079,7 +29079,7 @@
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A55" s="413" t="s">
-        <v>1506</v>
+        <v>1505</v>
       </c>
       <c r="B55" s="412" t="s">
         <v>943</v>
@@ -29388,7 +29388,7 @@
         <v>3</v>
       </c>
       <c r="D70" s="412" t="s">
-        <v>1507</v>
+        <v>1506</v>
       </c>
       <c r="E70" s="412" t="s">
         <v>1502</v>
@@ -29442,7 +29442,7 @@
         <v>1367</v>
       </c>
       <c r="B73" s="412" t="s">
-        <v>990</v>
+        <v>1368</v>
       </c>
       <c r="C73" s="414">
         <v>3</v>

--- a/schedule/semester/schedule.xlsx
+++ b/schedule/semester/schedule.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="5250" yWindow="75" windowWidth="16320" windowHeight="12375" tabRatio="734" activeTab="2"/>
+    <workbookView xWindow="5250" yWindow="75" windowWidth="16320" windowHeight="12375" tabRatio="734" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="sum20" sheetId="83" r:id="rId1"/>
@@ -80,7 +80,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8523" uniqueCount="1508">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8518" uniqueCount="1505">
   <si>
     <t>ELECTRICAL AND COMPUTER ENGINEERING</t>
   </si>
@@ -4510,15 +4510,6 @@
     <t>TR 8:00am-12:15pm</t>
   </si>
   <si>
-    <t>EE 5330-80</t>
-  </si>
-  <si>
-    <t>Computer Methods in Power Systems</t>
-  </si>
-  <si>
-    <t>TR 6:00pm-10:15pm</t>
-  </si>
-  <si>
     <t xml:space="preserve">        SUMMER 2019 COURSE LIST (Session B: 5 WEEK SESSION, MAY 28 TO JULY 1)</t>
   </si>
   <si>
@@ -4531,9 +4522,6 @@
     <t>EE 3000</t>
   </si>
   <si>
-    <t>Posted 2/21/2019</t>
-  </si>
-  <si>
     <t>SH264/SH260</t>
   </si>
   <si>
@@ -4604,6 +4592,9 @@
   </si>
   <si>
     <t>Posted 5/6/2019</t>
+  </si>
+  <si>
+    <t>Posted 5/20/2019</t>
   </si>
 </sst>
 </file>
@@ -28088,11 +28079,11 @@
   </sheetPr>
   <dimension ref="A1:F77"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <pane xSplit="1" ySplit="12" topLeftCell="B13" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A13" sqref="A13"/>
-      <selection pane="bottomRight" activeCell="E85" sqref="E85"/>
+      <selection pane="bottomRight" activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
@@ -28108,7 +28099,7 @@
   <sheetData>
     <row r="1" spans="1:6" s="410" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="407" t="s">
-        <v>1507</v>
+        <v>1503</v>
       </c>
       <c r="B1" s="408"/>
       <c r="C1" s="409"/>
@@ -28269,7 +28260,7 @@
         <v>931</v>
       </c>
       <c r="F13" s="412" t="s">
-        <v>1484</v>
+        <v>1480</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
@@ -28363,7 +28354,7 @@
         <v>481</v>
       </c>
       <c r="E18" s="412" t="s">
-        <v>1485</v>
+        <v>1481</v>
       </c>
       <c r="F18" s="412" t="s">
         <v>100</v>
@@ -28403,7 +28394,7 @@
         <v>481</v>
       </c>
       <c r="E20" s="412" t="s">
-        <v>1486</v>
+        <v>1482</v>
       </c>
       <c r="F20" s="412" t="s">
         <v>100</v>
@@ -28420,10 +28411,10 @@
         <v>2</v>
       </c>
       <c r="D21" s="412" t="s">
-        <v>1503</v>
+        <v>1499</v>
       </c>
       <c r="E21" s="412" t="s">
-        <v>1487</v>
+        <v>1483</v>
       </c>
       <c r="F21" s="412" t="s">
         <v>100</v>
@@ -28440,10 +28431,10 @@
         <v>1</v>
       </c>
       <c r="D22" s="412" t="s">
-        <v>1503</v>
+        <v>1499</v>
       </c>
       <c r="E22" s="412" t="s">
-        <v>1488</v>
+        <v>1484</v>
       </c>
       <c r="F22" s="412" t="s">
         <v>100</v>
@@ -28543,7 +28534,7 @@
         <v>481</v>
       </c>
       <c r="E27" s="412" t="s">
-        <v>1489</v>
+        <v>1485</v>
       </c>
       <c r="F27" s="412" t="s">
         <v>100</v>
@@ -28600,10 +28591,10 @@
         <v>2</v>
       </c>
       <c r="D30" s="412" t="s">
-        <v>1503</v>
+        <v>1499</v>
       </c>
       <c r="E30" s="412" t="s">
-        <v>1490</v>
+        <v>1486</v>
       </c>
       <c r="F30" s="412" t="s">
         <v>100</v>
@@ -28620,10 +28611,10 @@
         <v>1</v>
       </c>
       <c r="D31" s="412" t="s">
-        <v>1503</v>
+        <v>1499</v>
       </c>
       <c r="E31" s="412" t="s">
-        <v>1491</v>
+        <v>1487</v>
       </c>
       <c r="F31" s="412" t="s">
         <v>100</v>
@@ -28671,7 +28662,7 @@
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A34" s="413" t="s">
-        <v>1492</v>
+        <v>1488</v>
       </c>
       <c r="B34" s="412" t="s">
         <v>927</v>
@@ -28688,7 +28679,7 @@
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A35" s="413" t="s">
-        <v>1493</v>
+        <v>1489</v>
       </c>
       <c r="B35" s="412" t="s">
         <v>927</v>
@@ -28705,7 +28696,7 @@
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A36" s="413" t="s">
-        <v>1494</v>
+        <v>1490</v>
       </c>
       <c r="B36" s="412" t="s">
         <v>927</v>
@@ -28894,7 +28885,7 @@
         <v>938</v>
       </c>
       <c r="F45" s="412" t="s">
-        <v>1495</v>
+        <v>1491</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.2">
@@ -28951,7 +28942,7 @@
         <v>741</v>
       </c>
       <c r="E48" s="412" t="s">
-        <v>1496</v>
+        <v>1492</v>
       </c>
       <c r="F48" s="412" t="s">
         <v>100</v>
@@ -29031,10 +29022,10 @@
         <v>184</v>
       </c>
       <c r="E52" s="412" t="s">
-        <v>1497</v>
+        <v>1493</v>
       </c>
       <c r="F52" s="412" t="s">
-        <v>1498</v>
+        <v>1494</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.2">
@@ -29048,10 +29039,10 @@
         <v>1</v>
       </c>
       <c r="D53" s="412" t="s">
-        <v>1504</v>
+        <v>1500</v>
       </c>
       <c r="E53" s="412" t="s">
-        <v>1489</v>
+        <v>1485</v>
       </c>
       <c r="F53" s="412" t="s">
         <v>24</v>
@@ -29068,7 +29059,7 @@
         <v>1</v>
       </c>
       <c r="D54" s="412" t="s">
-        <v>1504</v>
+        <v>1500</v>
       </c>
       <c r="E54" s="412" t="s">
         <v>919</v>
@@ -29079,7 +29070,7 @@
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A55" s="413" t="s">
-        <v>1505</v>
+        <v>1501</v>
       </c>
       <c r="B55" s="412" t="s">
         <v>943</v>
@@ -29134,7 +29125,7 @@
         <v>947</v>
       </c>
       <c r="F57" s="412" t="s">
-        <v>1499</v>
+        <v>1495</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.2">
@@ -29174,7 +29165,7 @@
         <v>972</v>
       </c>
       <c r="F59" s="412" t="s">
-        <v>1500</v>
+        <v>1496</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.2">
@@ -29314,7 +29305,7 @@
         <v>972</v>
       </c>
       <c r="F66" s="412" t="s">
-        <v>1501</v>
+        <v>1497</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.2">
@@ -29388,10 +29379,10 @@
         <v>3</v>
       </c>
       <c r="D70" s="412" t="s">
-        <v>1506</v>
+        <v>1502</v>
       </c>
       <c r="E70" s="412" t="s">
-        <v>1502</v>
+        <v>1498</v>
       </c>
       <c r="F70" s="412" t="s">
         <v>1225</v>
@@ -37665,7 +37656,7 @@
   </sheetPr>
   <dimension ref="A1:F24"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <pane xSplit="1" ySplit="12" topLeftCell="B14" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A13" sqref="A13"/>
@@ -37685,7 +37676,7 @@
   <sheetData>
     <row r="1" spans="1:6" s="410" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="407" t="s">
-        <v>1483</v>
+        <v>1504</v>
       </c>
       <c r="B1" s="408"/>
       <c r="C1" s="409"/>
@@ -37748,9 +37739,7 @@
       <c r="F6" s="449"/>
     </row>
     <row r="7" spans="1:6" s="410" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="457" t="s">
-        <v>1479</v>
-      </c>
+      <c r="A7" s="457"/>
       <c r="B7" s="457"/>
       <c r="C7" s="457"/>
       <c r="D7" s="457"/>
@@ -37825,23 +37814,8 @@
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A14" s="413" t="s">
-        <v>1397</v>
-      </c>
       <c r="B14" s="412" t="s">
-        <v>982</v>
-      </c>
-      <c r="C14" s="414">
-        <v>3</v>
-      </c>
-      <c r="D14" s="412" t="s">
-        <v>872</v>
-      </c>
-      <c r="E14" s="412" t="s">
-        <v>1398</v>
-      </c>
-      <c r="F14" s="412" t="s">
-        <v>189</v>
+        <v>1476</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
@@ -37866,77 +37840,77 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" s="413" t="s">
-        <v>1399</v>
+        <v>1397</v>
       </c>
       <c r="B16" s="412" t="s">
-        <v>1407</v>
+        <v>982</v>
       </c>
       <c r="C16" s="414">
         <v>3</v>
       </c>
       <c r="D16" s="412" t="s">
-        <v>64</v>
+        <v>872</v>
       </c>
       <c r="E16" s="412" t="s">
-        <v>1348</v>
+        <v>1398</v>
       </c>
       <c r="F16" s="412" t="s">
-        <v>50</v>
+        <v>189</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" s="413" t="s">
-        <v>1349</v>
+        <v>1399</v>
       </c>
       <c r="B17" s="412" t="s">
-        <v>1474</v>
+        <v>1407</v>
       </c>
       <c r="C17" s="414">
         <v>3</v>
       </c>
       <c r="D17" s="412" t="s">
-        <v>481</v>
+        <v>64</v>
       </c>
       <c r="E17" s="412" t="s">
-        <v>1475</v>
+        <v>1348</v>
       </c>
       <c r="F17" s="412" t="s">
-        <v>100</v>
+        <v>50</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" s="413" t="s">
-        <v>1476</v>
+        <v>1349</v>
       </c>
       <c r="B18" s="412" t="s">
-        <v>1477</v>
+        <v>1474</v>
       </c>
       <c r="C18" s="414">
         <v>3</v>
       </c>
       <c r="D18" s="412" t="s">
-        <v>658</v>
+        <v>481</v>
       </c>
       <c r="E18" s="412" t="s">
-        <v>1478</v>
+        <v>1475</v>
       </c>
       <c r="F18" s="412" t="s">
-        <v>189</v>
+        <v>100</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B20" s="412" t="s">
-        <v>1480</v>
+        <v>1477</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B23" s="412" t="s">
-        <v>1481</v>
+        <v>1478</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24" s="413" t="s">
-        <v>1482</v>
+        <v>1479</v>
       </c>
       <c r="B24" s="412" t="s">
         <v>1191</v>

--- a/schedule/semester/schedule.xlsx
+++ b/schedule/semester/schedule.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="5250" yWindow="75" windowWidth="16320" windowHeight="12375" tabRatio="734" activeTab="3"/>
+    <workbookView xWindow="5250" yWindow="75" windowWidth="16320" windowHeight="12375" tabRatio="734" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="sum20" sheetId="83" r:id="rId1"/>
@@ -80,7 +80,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8518" uniqueCount="1505">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8519" uniqueCount="1506">
   <si>
     <t>ELECTRICAL AND COMPUTER ENGINEERING</t>
   </si>
@@ -4591,10 +4591,13 @@
     <t>Thorburn</t>
   </si>
   <si>
-    <t>Posted 5/6/2019</t>
-  </si>
-  <si>
     <t>Posted 5/20/2019</t>
+  </si>
+  <si>
+    <t>SH358B</t>
+  </si>
+  <si>
+    <t>Posted 6/5/2019</t>
   </si>
 </sst>
 </file>
@@ -28079,11 +28082,11 @@
   </sheetPr>
   <dimension ref="A1:F77"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <pane xSplit="1" ySplit="12" topLeftCell="B13" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A13" sqref="A13"/>
-      <selection pane="bottomRight" activeCell="I16" sqref="I16"/>
+      <selection pane="bottomRight" activeCell="I24" sqref="I24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
@@ -28099,7 +28102,7 @@
   <sheetData>
     <row r="1" spans="1:6" s="410" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="407" t="s">
-        <v>1503</v>
+        <v>1505</v>
       </c>
       <c r="B1" s="408"/>
       <c r="C1" s="409"/>
@@ -28768,7 +28771,7 @@
         <v>938</v>
       </c>
       <c r="F39" s="412" t="s">
-        <v>1394</v>
+        <v>1504</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.2">
@@ -28820,6 +28823,9 @@
       </c>
       <c r="C42" s="414">
         <v>3</v>
+      </c>
+      <c r="D42" s="412" t="s">
+        <v>64</v>
       </c>
       <c r="E42" s="412" t="s">
         <v>964</v>
@@ -37656,7 +37662,7 @@
   </sheetPr>
   <dimension ref="A1:F24"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <pane xSplit="1" ySplit="12" topLeftCell="B14" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A13" sqref="A13"/>
@@ -37676,7 +37682,7 @@
   <sheetData>
     <row r="1" spans="1:6" s="410" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="407" t="s">
-        <v>1504</v>
+        <v>1503</v>
       </c>
       <c r="B1" s="408"/>
       <c r="C1" s="409"/>

--- a/schedule/semester/schedule.xlsx
+++ b/schedule/semester/schedule.xlsx
@@ -80,7 +80,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8519" uniqueCount="1506">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8507" uniqueCount="1501">
   <si>
     <t>ELECTRICAL AND COMPUTER ENGINEERING</t>
   </si>
@@ -4522,9 +4522,6 @@
     <t>EE 3000</t>
   </si>
   <si>
-    <t>SH264/SH260</t>
-  </si>
-  <si>
     <t>F 150-420PM</t>
   </si>
   <si>
@@ -4546,15 +4543,6 @@
     <t>R 150-420PM</t>
   </si>
   <si>
-    <t>ENGR3010-01</t>
-  </si>
-  <si>
-    <t>ENGR3010-02</t>
-  </si>
-  <si>
-    <t>ENGR3010-03</t>
-  </si>
-  <si>
     <t>KHB2015</t>
   </si>
   <si>
@@ -4570,9 +4558,6 @@
     <t>ETA309</t>
   </si>
   <si>
-    <t>KHC4071</t>
-  </si>
-  <si>
     <t>KHC2094</t>
   </si>
   <si>
@@ -4597,7 +4582,7 @@
     <t>SH358B</t>
   </si>
   <si>
-    <t>Posted 6/5/2019</t>
+    <t>Posted 7/10/2019</t>
   </si>
 </sst>
 </file>
@@ -28080,13 +28065,13 @@
   <sheetPr codeName="Sheet43">
     <tabColor theme="9" tint="-0.249977111117893"/>
   </sheetPr>
-  <dimension ref="A1:F77"/>
+  <dimension ref="A1:F74"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <pane xSplit="1" ySplit="12" topLeftCell="B13" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A13" sqref="A13"/>
-      <selection pane="bottomRight" activeCell="I24" sqref="I24"/>
+      <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
@@ -28102,7 +28087,7 @@
   <sheetData>
     <row r="1" spans="1:6" s="410" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="407" t="s">
-        <v>1505</v>
+        <v>1500</v>
       </c>
       <c r="B1" s="408"/>
       <c r="C1" s="409"/>
@@ -28263,7 +28248,7 @@
         <v>931</v>
       </c>
       <c r="F13" s="412" t="s">
-        <v>1480</v>
+        <v>1394</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
@@ -28357,7 +28342,7 @@
         <v>481</v>
       </c>
       <c r="E18" s="412" t="s">
-        <v>1481</v>
+        <v>1480</v>
       </c>
       <c r="F18" s="412" t="s">
         <v>100</v>
@@ -28397,7 +28382,7 @@
         <v>481</v>
       </c>
       <c r="E20" s="412" t="s">
-        <v>1482</v>
+        <v>1481</v>
       </c>
       <c r="F20" s="412" t="s">
         <v>100</v>
@@ -28414,10 +28399,10 @@
         <v>2</v>
       </c>
       <c r="D21" s="412" t="s">
-        <v>1499</v>
+        <v>1494</v>
       </c>
       <c r="E21" s="412" t="s">
-        <v>1483</v>
+        <v>1482</v>
       </c>
       <c r="F21" s="412" t="s">
         <v>100</v>
@@ -28434,10 +28419,10 @@
         <v>1</v>
       </c>
       <c r="D22" s="412" t="s">
-        <v>1499</v>
+        <v>1494</v>
       </c>
       <c r="E22" s="412" t="s">
-        <v>1484</v>
+        <v>1483</v>
       </c>
       <c r="F22" s="412" t="s">
         <v>100</v>
@@ -28537,7 +28522,7 @@
         <v>481</v>
       </c>
       <c r="E27" s="412" t="s">
-        <v>1485</v>
+        <v>1484</v>
       </c>
       <c r="F27" s="412" t="s">
         <v>100</v>
@@ -28594,10 +28579,10 @@
         <v>2</v>
       </c>
       <c r="D30" s="412" t="s">
-        <v>1499</v>
+        <v>1494</v>
       </c>
       <c r="E30" s="412" t="s">
-        <v>1486</v>
+        <v>1485</v>
       </c>
       <c r="F30" s="412" t="s">
         <v>100</v>
@@ -28614,10 +28599,10 @@
         <v>1</v>
       </c>
       <c r="D31" s="412" t="s">
-        <v>1499</v>
+        <v>1494</v>
       </c>
       <c r="E31" s="412" t="s">
-        <v>1487</v>
+        <v>1486</v>
       </c>
       <c r="F31" s="412" t="s">
         <v>100</v>
@@ -28665,250 +28650,259 @@
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A34" s="413" t="s">
-        <v>1488</v>
+        <v>1009</v>
       </c>
       <c r="B34" s="412" t="s">
-        <v>927</v>
+        <v>1179</v>
       </c>
       <c r="C34" s="414">
         <v>3</v>
       </c>
+      <c r="D34" s="412" t="s">
+        <v>34</v>
+      </c>
       <c r="E34" s="412" t="s">
-        <v>950</v>
+        <v>929</v>
       </c>
       <c r="F34" s="412" t="s">
-        <v>1333</v>
+        <v>1394</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A35" s="413" t="s">
-        <v>1489</v>
+        <v>1010</v>
       </c>
       <c r="B35" s="412" t="s">
-        <v>927</v>
+        <v>1414</v>
       </c>
       <c r="C35" s="414">
         <v>3</v>
       </c>
+      <c r="D35" s="412" t="s">
+        <v>34</v>
+      </c>
       <c r="E35" s="412" t="s">
-        <v>947</v>
+        <v>914</v>
       </c>
       <c r="F35" s="412" t="s">
-        <v>1333</v>
+        <v>1394</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A36" s="413" t="s">
-        <v>1490</v>
+        <v>1011</v>
       </c>
       <c r="B36" s="412" t="s">
-        <v>927</v>
+        <v>979</v>
       </c>
       <c r="C36" s="414">
         <v>3</v>
       </c>
+      <c r="D36" s="412" t="s">
+        <v>34</v>
+      </c>
       <c r="E36" s="412" t="s">
-        <v>972</v>
+        <v>938</v>
       </c>
       <c r="F36" s="412" t="s">
-        <v>1333</v>
+        <v>1499</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A37" s="413" t="s">
-        <v>1009</v>
+        <v>1012</v>
       </c>
       <c r="B37" s="412" t="s">
-        <v>1179</v>
+        <v>932</v>
       </c>
       <c r="C37" s="414">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D37" s="412" t="s">
-        <v>34</v>
+        <v>730</v>
       </c>
       <c r="E37" s="412" t="s">
-        <v>929</v>
+        <v>933</v>
       </c>
       <c r="F37" s="412" t="s">
-        <v>1394</v>
+        <v>1369</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A38" s="413" t="s">
-        <v>1010</v>
+        <v>1213</v>
       </c>
       <c r="B38" s="412" t="s">
-        <v>1414</v>
+        <v>934</v>
       </c>
       <c r="C38" s="414">
         <v>3</v>
       </c>
       <c r="D38" s="412" t="s">
-        <v>34</v>
+        <v>64</v>
       </c>
       <c r="E38" s="412" t="s">
-        <v>914</v>
+        <v>931</v>
       </c>
       <c r="F38" s="412" t="s">
-        <v>1394</v>
+        <v>417</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A39" s="413" t="s">
-        <v>1011</v>
+        <v>1214</v>
       </c>
       <c r="B39" s="412" t="s">
-        <v>979</v>
+        <v>934</v>
       </c>
       <c r="C39" s="414">
         <v>3</v>
       </c>
       <c r="D39" s="412" t="s">
-        <v>34</v>
+        <v>64</v>
       </c>
       <c r="E39" s="412" t="s">
-        <v>938</v>
+        <v>964</v>
       </c>
       <c r="F39" s="412" t="s">
-        <v>1504</v>
+        <v>417</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A40" s="413" t="s">
-        <v>1012</v>
+        <v>1014</v>
       </c>
       <c r="B40" s="412" t="s">
-        <v>932</v>
+        <v>935</v>
       </c>
       <c r="C40" s="414">
         <v>1</v>
       </c>
       <c r="D40" s="412" t="s">
-        <v>730</v>
+        <v>1419</v>
       </c>
       <c r="E40" s="412" t="s">
-        <v>933</v>
+        <v>936</v>
       </c>
       <c r="F40" s="412" t="s">
-        <v>1369</v>
+        <v>189</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A41" s="413" t="s">
-        <v>1213</v>
+        <v>1154</v>
       </c>
       <c r="B41" s="412" t="s">
-        <v>934</v>
+        <v>1155</v>
       </c>
       <c r="C41" s="414">
         <v>3</v>
       </c>
       <c r="D41" s="412" t="s">
-        <v>64</v>
+        <v>1421</v>
       </c>
       <c r="E41" s="412" t="s">
-        <v>931</v>
+        <v>942</v>
       </c>
       <c r="F41" s="412" t="s">
-        <v>417</v>
+        <v>665</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A42" s="413" t="s">
-        <v>1214</v>
+        <v>1156</v>
       </c>
       <c r="B42" s="412" t="s">
-        <v>934</v>
+        <v>1155</v>
       </c>
       <c r="C42" s="414">
         <v>3</v>
       </c>
       <c r="D42" s="412" t="s">
-        <v>64</v>
+        <v>1421</v>
       </c>
       <c r="E42" s="412" t="s">
-        <v>964</v>
+        <v>938</v>
       </c>
       <c r="F42" s="412" t="s">
-        <v>417</v>
+        <v>1487</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A43" s="413" t="s">
-        <v>1014</v>
+        <v>1015</v>
       </c>
       <c r="B43" s="412" t="s">
-        <v>935</v>
+        <v>1334</v>
       </c>
       <c r="C43" s="414">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D43" s="412" t="s">
-        <v>1419</v>
+        <v>743</v>
       </c>
       <c r="E43" s="412" t="s">
-        <v>936</v>
+        <v>1329</v>
       </c>
       <c r="F43" s="412" t="s">
-        <v>189</v>
+        <v>100</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A44" s="413" t="s">
-        <v>1154</v>
+        <v>1016</v>
       </c>
       <c r="B44" s="412" t="s">
-        <v>1155</v>
+        <v>1334</v>
       </c>
       <c r="C44" s="414">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D44" s="412" t="s">
-        <v>1421</v>
+        <v>743</v>
       </c>
       <c r="E44" s="412" t="s">
-        <v>942</v>
+        <v>1210</v>
       </c>
       <c r="F44" s="412" t="s">
-        <v>665</v>
+        <v>100</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A45" s="413" t="s">
-        <v>1156</v>
+        <v>1196</v>
       </c>
       <c r="B45" s="412" t="s">
-        <v>1155</v>
+        <v>1334</v>
       </c>
       <c r="C45" s="414">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D45" s="412" t="s">
-        <v>1421</v>
+        <v>741</v>
       </c>
       <c r="E45" s="412" t="s">
-        <v>938</v>
+        <v>1488</v>
       </c>
       <c r="F45" s="412" t="s">
-        <v>1491</v>
+        <v>100</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A46" s="413" t="s">
-        <v>1015</v>
+        <v>1198</v>
       </c>
       <c r="B46" s="412" t="s">
         <v>1334</v>
       </c>
       <c r="C46" s="414">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D46" s="412" t="s">
-        <v>743</v>
+        <v>741</v>
       </c>
       <c r="E46" s="412" t="s">
-        <v>1329</v>
+        <v>1034</v>
       </c>
       <c r="F46" s="412" t="s">
         <v>100</v>
@@ -28916,79 +28910,79 @@
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A47" s="413" t="s">
-        <v>1016</v>
+        <v>1017</v>
       </c>
       <c r="B47" s="412" t="s">
-        <v>1334</v>
+        <v>939</v>
       </c>
       <c r="C47" s="414">
         <v>1</v>
       </c>
       <c r="D47" s="412" t="s">
-        <v>743</v>
+        <v>741</v>
       </c>
       <c r="E47" s="412" t="s">
-        <v>1210</v>
+        <v>919</v>
       </c>
       <c r="F47" s="412" t="s">
-        <v>100</v>
+        <v>24</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A48" s="413" t="s">
-        <v>1196</v>
+        <v>1018</v>
       </c>
       <c r="B48" s="412" t="s">
-        <v>1334</v>
+        <v>980</v>
       </c>
       <c r="C48" s="414">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D48" s="412" t="s">
-        <v>741</v>
+        <v>64</v>
       </c>
       <c r="E48" s="412" t="s">
-        <v>1492</v>
+        <v>942</v>
       </c>
       <c r="F48" s="412" t="s">
-        <v>100</v>
+        <v>417</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A49" s="413" t="s">
-        <v>1198</v>
+        <v>1019</v>
       </c>
       <c r="B49" s="412" t="s">
-        <v>1334</v>
+        <v>943</v>
       </c>
       <c r="C49" s="414">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D49" s="412" t="s">
-        <v>741</v>
+        <v>184</v>
       </c>
       <c r="E49" s="412" t="s">
-        <v>1034</v>
+        <v>1489</v>
       </c>
       <c r="F49" s="412" t="s">
-        <v>100</v>
+        <v>1490</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A50" s="413" t="s">
-        <v>1017</v>
+        <v>1020</v>
       </c>
       <c r="B50" s="412" t="s">
-        <v>939</v>
+        <v>943</v>
       </c>
       <c r="C50" s="414">
         <v>1</v>
       </c>
       <c r="D50" s="412" t="s">
-        <v>741</v>
+        <v>1495</v>
       </c>
       <c r="E50" s="412" t="s">
-        <v>919</v>
+        <v>1484</v>
       </c>
       <c r="F50" s="412" t="s">
         <v>24</v>
@@ -28996,150 +28990,150 @@
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A51" s="413" t="s">
-        <v>1018</v>
+        <v>1433</v>
       </c>
       <c r="B51" s="412" t="s">
-        <v>980</v>
+        <v>943</v>
       </c>
       <c r="C51" s="414">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D51" s="412" t="s">
-        <v>64</v>
+        <v>1495</v>
       </c>
       <c r="E51" s="412" t="s">
-        <v>942</v>
+        <v>919</v>
       </c>
       <c r="F51" s="412" t="s">
-        <v>417</v>
+        <v>104</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A52" s="413" t="s">
-        <v>1019</v>
+        <v>1496</v>
       </c>
       <c r="B52" s="412" t="s">
         <v>943</v>
       </c>
       <c r="C52" s="414">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D52" s="412" t="s">
-        <v>184</v>
+        <v>1440</v>
       </c>
       <c r="E52" s="412" t="s">
-        <v>1493</v>
+        <v>1207</v>
       </c>
       <c r="F52" s="412" t="s">
-        <v>1494</v>
+        <v>24</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A53" s="413" t="s">
-        <v>1020</v>
+        <v>1074</v>
       </c>
       <c r="B53" s="412" t="s">
-        <v>943</v>
+        <v>945</v>
       </c>
       <c r="C53" s="414">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D53" s="412" t="s">
-        <v>1500</v>
+        <v>732</v>
       </c>
       <c r="E53" s="412" t="s">
-        <v>1485</v>
+        <v>946</v>
       </c>
       <c r="F53" s="412" t="s">
-        <v>24</v>
+        <v>417</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A54" s="413" t="s">
-        <v>1433</v>
+        <v>1022</v>
       </c>
       <c r="B54" s="412" t="s">
-        <v>943</v>
+        <v>981</v>
       </c>
       <c r="C54" s="414">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D54" s="412" t="s">
-        <v>1500</v>
+        <v>414</v>
       </c>
       <c r="E54" s="412" t="s">
-        <v>919</v>
+        <v>947</v>
       </c>
       <c r="F54" s="412" t="s">
-        <v>104</v>
+        <v>1491</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A55" s="413" t="s">
-        <v>1501</v>
+        <v>1023</v>
       </c>
       <c r="B55" s="412" t="s">
-        <v>943</v>
+        <v>951</v>
       </c>
       <c r="C55" s="414">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D55" s="412" t="s">
-        <v>1440</v>
+        <v>872</v>
       </c>
       <c r="E55" s="412" t="s">
-        <v>1207</v>
+        <v>950</v>
       </c>
       <c r="F55" s="412" t="s">
-        <v>24</v>
+        <v>189</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A56" s="413" t="s">
-        <v>1074</v>
+        <v>1024</v>
       </c>
       <c r="B56" s="412" t="s">
-        <v>945</v>
+        <v>952</v>
       </c>
       <c r="C56" s="414">
         <v>3</v>
       </c>
       <c r="D56" s="412" t="s">
-        <v>732</v>
+        <v>1218</v>
       </c>
       <c r="E56" s="412" t="s">
-        <v>946</v>
+        <v>972</v>
       </c>
       <c r="F56" s="412" t="s">
-        <v>417</v>
+        <v>432</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A57" s="413" t="s">
-        <v>1022</v>
+        <v>1025</v>
       </c>
       <c r="B57" s="412" t="s">
-        <v>981</v>
+        <v>954</v>
       </c>
       <c r="C57" s="414">
         <v>3</v>
       </c>
       <c r="D57" s="412" t="s">
-        <v>414</v>
+        <v>658</v>
       </c>
       <c r="E57" s="412" t="s">
-        <v>947</v>
+        <v>914</v>
       </c>
       <c r="F57" s="412" t="s">
-        <v>1495</v>
+        <v>189</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A58" s="413" t="s">
-        <v>1023</v>
+        <v>1026</v>
       </c>
       <c r="B58" s="412" t="s">
-        <v>951</v>
+        <v>982</v>
       </c>
       <c r="C58" s="414">
         <v>3</v>
@@ -29148,7 +29142,7 @@
         <v>872</v>
       </c>
       <c r="E58" s="412" t="s">
-        <v>950</v>
+        <v>947</v>
       </c>
       <c r="F58" s="412" t="s">
         <v>189</v>
@@ -29156,130 +29150,130 @@
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A59" s="413" t="s">
-        <v>1024</v>
+        <v>1078</v>
       </c>
       <c r="B59" s="412" t="s">
-        <v>952</v>
+        <v>956</v>
       </c>
       <c r="C59" s="414">
         <v>3</v>
       </c>
       <c r="D59" s="412" t="s">
-        <v>872</v>
+        <v>811</v>
       </c>
       <c r="E59" s="412" t="s">
-        <v>972</v>
+        <v>946</v>
       </c>
       <c r="F59" s="412" t="s">
-        <v>1496</v>
+        <v>100</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A60" s="413" t="s">
-        <v>1025</v>
+        <v>1079</v>
       </c>
       <c r="B60" s="412" t="s">
-        <v>954</v>
+        <v>957</v>
       </c>
       <c r="C60" s="414">
         <v>3</v>
       </c>
       <c r="D60" s="412" t="s">
-        <v>658</v>
+        <v>481</v>
       </c>
       <c r="E60" s="412" t="s">
-        <v>914</v>
+        <v>928</v>
       </c>
       <c r="F60" s="412" t="s">
-        <v>189</v>
+        <v>100</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A61" s="413" t="s">
-        <v>1026</v>
+        <v>1339</v>
       </c>
       <c r="B61" s="412" t="s">
-        <v>982</v>
+        <v>983</v>
       </c>
       <c r="C61" s="414">
         <v>3</v>
       </c>
       <c r="D61" s="412" t="s">
-        <v>872</v>
+        <v>743</v>
       </c>
       <c r="E61" s="412" t="s">
-        <v>947</v>
+        <v>950</v>
       </c>
       <c r="F61" s="412" t="s">
-        <v>189</v>
+        <v>77</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A62" s="413" t="s">
-        <v>1078</v>
+        <v>1032</v>
       </c>
       <c r="B62" s="412" t="s">
-        <v>956</v>
+        <v>1180</v>
       </c>
       <c r="C62" s="414">
         <v>3</v>
       </c>
       <c r="D62" s="412" t="s">
-        <v>811</v>
+        <v>64</v>
       </c>
       <c r="E62" s="412" t="s">
-        <v>946</v>
+        <v>962</v>
       </c>
       <c r="F62" s="412" t="s">
-        <v>100</v>
+        <v>432</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A63" s="413" t="s">
-        <v>1079</v>
+        <v>1033</v>
       </c>
       <c r="B63" s="412" t="s">
-        <v>957</v>
+        <v>984</v>
       </c>
       <c r="C63" s="414">
         <v>3</v>
       </c>
       <c r="D63" s="412" t="s">
-        <v>481</v>
+        <v>1417</v>
       </c>
       <c r="E63" s="412" t="s">
-        <v>928</v>
+        <v>972</v>
       </c>
       <c r="F63" s="412" t="s">
-        <v>100</v>
+        <v>1492</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A64" s="413" t="s">
-        <v>1339</v>
+        <v>1083</v>
       </c>
       <c r="B64" s="412" t="s">
-        <v>983</v>
+        <v>1183</v>
       </c>
       <c r="C64" s="414">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D64" s="412" t="s">
-        <v>743</v>
+        <v>1419</v>
       </c>
       <c r="E64" s="412" t="s">
-        <v>950</v>
+        <v>1207</v>
       </c>
       <c r="F64" s="412" t="s">
-        <v>77</v>
+        <v>135</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A65" s="413" t="s">
-        <v>1032</v>
+        <v>1340</v>
       </c>
       <c r="B65" s="412" t="s">
-        <v>1180</v>
+        <v>1341</v>
       </c>
       <c r="C65" s="414">
         <v>3</v>
@@ -29288,127 +29282,127 @@
         <v>64</v>
       </c>
       <c r="E65" s="412" t="s">
-        <v>962</v>
+        <v>972</v>
       </c>
       <c r="F65" s="412" t="s">
-        <v>432</v>
+        <v>417</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A66" s="413" t="s">
-        <v>1033</v>
+        <v>1035</v>
       </c>
       <c r="B66" s="412" t="s">
-        <v>984</v>
+        <v>985</v>
       </c>
       <c r="C66" s="414">
         <v>3</v>
       </c>
       <c r="D66" s="412" t="s">
-        <v>1417</v>
+        <v>184</v>
       </c>
       <c r="E66" s="412" t="s">
-        <v>972</v>
+        <v>942</v>
       </c>
       <c r="F66" s="412" t="s">
-        <v>1497</v>
+        <v>119</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A67" s="413" t="s">
-        <v>1083</v>
+        <v>1342</v>
       </c>
       <c r="B67" s="412" t="s">
-        <v>1183</v>
+        <v>986</v>
       </c>
       <c r="C67" s="414">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D67" s="412" t="s">
-        <v>1419</v>
+        <v>1497</v>
       </c>
       <c r="E67" s="412" t="s">
-        <v>1207</v>
+        <v>1493</v>
       </c>
       <c r="F67" s="412" t="s">
-        <v>135</v>
+        <v>1225</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A68" s="413" t="s">
-        <v>1340</v>
+        <v>1220</v>
       </c>
       <c r="B68" s="412" t="s">
-        <v>1341</v>
+        <v>1186</v>
       </c>
       <c r="C68" s="414">
         <v>3</v>
       </c>
       <c r="D68" s="412" t="s">
-        <v>64</v>
+        <v>166</v>
       </c>
       <c r="E68" s="412" t="s">
-        <v>972</v>
+        <v>958</v>
       </c>
       <c r="F68" s="412" t="s">
-        <v>417</v>
+        <v>189</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A69" s="413" t="s">
-        <v>1035</v>
+        <v>1040</v>
       </c>
       <c r="B69" s="412" t="s">
-        <v>985</v>
+        <v>989</v>
       </c>
       <c r="C69" s="414">
         <v>3</v>
       </c>
       <c r="D69" s="412" t="s">
-        <v>184</v>
+        <v>414</v>
       </c>
       <c r="E69" s="412" t="s">
-        <v>942</v>
+        <v>972</v>
       </c>
       <c r="F69" s="412" t="s">
-        <v>119</v>
+        <v>77</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A70" s="413" t="s">
-        <v>1342</v>
+        <v>1367</v>
       </c>
       <c r="B70" s="412" t="s">
-        <v>986</v>
+        <v>1368</v>
       </c>
       <c r="C70" s="414">
         <v>3</v>
       </c>
       <c r="D70" s="412" t="s">
-        <v>1502</v>
+        <v>414</v>
       </c>
       <c r="E70" s="412" t="s">
-        <v>1498</v>
+        <v>964</v>
       </c>
       <c r="F70" s="412" t="s">
-        <v>1225</v>
+        <v>77</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A71" s="413" t="s">
-        <v>1220</v>
+        <v>1043</v>
       </c>
       <c r="B71" s="412" t="s">
-        <v>1186</v>
+        <v>992</v>
       </c>
       <c r="C71" s="414">
         <v>3</v>
       </c>
       <c r="D71" s="412" t="s">
-        <v>166</v>
+        <v>607</v>
       </c>
       <c r="E71" s="412" t="s">
-        <v>958</v>
+        <v>946</v>
       </c>
       <c r="F71" s="412" t="s">
         <v>189</v>
@@ -29416,121 +29410,61 @@
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A72" s="413" t="s">
-        <v>1040</v>
+        <v>1096</v>
       </c>
       <c r="B72" s="412" t="s">
-        <v>989</v>
+        <v>1097</v>
       </c>
       <c r="C72" s="414">
         <v>3</v>
       </c>
       <c r="D72" s="412" t="s">
-        <v>414</v>
+        <v>754</v>
       </c>
       <c r="E72" s="412" t="s">
-        <v>972</v>
+        <v>924</v>
       </c>
       <c r="F72" s="412" t="s">
-        <v>77</v>
+        <v>189</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A73" s="413" t="s">
-        <v>1367</v>
+        <v>1343</v>
       </c>
       <c r="B73" s="412" t="s">
-        <v>1368</v>
+        <v>1181</v>
       </c>
       <c r="C73" s="414">
         <v>3</v>
       </c>
       <c r="D73" s="412" t="s">
-        <v>414</v>
+        <v>811</v>
       </c>
       <c r="E73" s="412" t="s">
-        <v>964</v>
+        <v>947</v>
       </c>
       <c r="F73" s="412" t="s">
-        <v>77</v>
+        <v>123</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A74" s="413" t="s">
-        <v>1043</v>
+        <v>1046</v>
       </c>
       <c r="B74" s="412" t="s">
-        <v>992</v>
+        <v>993</v>
       </c>
       <c r="C74" s="414">
         <v>3</v>
       </c>
       <c r="D74" s="412" t="s">
-        <v>658</v>
+        <v>166</v>
       </c>
       <c r="E74" s="412" t="s">
-        <v>946</v>
+        <v>969</v>
       </c>
       <c r="F74" s="412" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A75" s="413" t="s">
-        <v>1096</v>
-      </c>
-      <c r="B75" s="412" t="s">
-        <v>1097</v>
-      </c>
-      <c r="C75" s="414">
-        <v>3</v>
-      </c>
-      <c r="D75" s="412" t="s">
-        <v>872</v>
-      </c>
-      <c r="E75" s="412" t="s">
-        <v>924</v>
-      </c>
-      <c r="F75" s="412" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A76" s="413" t="s">
-        <v>1343</v>
-      </c>
-      <c r="B76" s="412" t="s">
-        <v>1181</v>
-      </c>
-      <c r="C76" s="414">
-        <v>3</v>
-      </c>
-      <c r="D76" s="412" t="s">
-        <v>811</v>
-      </c>
-      <c r="E76" s="412" t="s">
-        <v>947</v>
-      </c>
-      <c r="F76" s="412" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A77" s="413" t="s">
-        <v>1046</v>
-      </c>
-      <c r="B77" s="412" t="s">
-        <v>993</v>
-      </c>
-      <c r="C77" s="414">
-        <v>3</v>
-      </c>
-      <c r="D77" s="412" t="s">
-        <v>166</v>
-      </c>
-      <c r="E77" s="412" t="s">
-        <v>969</v>
-      </c>
-      <c r="F77" s="412" t="s">
         <v>432</v>
       </c>
     </row>
@@ -37682,7 +37616,7 @@
   <sheetData>
     <row r="1" spans="1:6" s="410" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="407" t="s">
-        <v>1503</v>
+        <v>1498</v>
       </c>
       <c r="B1" s="408"/>
       <c r="C1" s="409"/>

--- a/schedule/semester/schedule.xlsx
+++ b/schedule/semester/schedule.xlsx
@@ -28071,7 +28071,7 @@
       <pane xSplit="1" ySplit="12" topLeftCell="B13" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A13" sqref="A13"/>
-      <selection pane="bottomRight"/>
+      <selection pane="bottomRight" activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>

--- a/schedule/semester/schedule.xlsx
+++ b/schedule/semester/schedule.xlsx
@@ -80,7 +80,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8507" uniqueCount="1501">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8498" uniqueCount="1500">
   <si>
     <t>ELECTRICAL AND COMPUTER ENGINEERING</t>
   </si>
@@ -4552,15 +4552,9 @@
     <t>TR 210-300PM</t>
   </si>
   <si>
-    <t>KHC4077</t>
-  </si>
-  <si>
     <t>ETA309</t>
   </si>
   <si>
-    <t>KHC2094</t>
-  </si>
-  <si>
     <t>F 200-340PM</t>
   </si>
   <si>
@@ -4582,7 +4576,10 @@
     <t>SH358B</t>
   </si>
   <si>
-    <t>Posted 7/10/2019</t>
+    <t>Posted 7/29/2019</t>
+  </si>
+  <si>
+    <t>KHB4017</t>
   </si>
 </sst>
 </file>
@@ -28065,7 +28062,7 @@
   <sheetPr codeName="Sheet43">
     <tabColor theme="9" tint="-0.249977111117893"/>
   </sheetPr>
-  <dimension ref="A1:F74"/>
+  <dimension ref="A1:F72"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <pane xSplit="1" ySplit="12" topLeftCell="B13" activePane="bottomRight" state="frozen"/>
@@ -28087,7 +28084,7 @@
   <sheetData>
     <row r="1" spans="1:6" s="410" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="407" t="s">
-        <v>1500</v>
+        <v>1498</v>
       </c>
       <c r="B1" s="408"/>
       <c r="C1" s="409"/>
@@ -28293,36 +28290,39 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" s="413" t="s">
-        <v>1058</v>
+        <v>1002</v>
       </c>
       <c r="B16" s="412" t="s">
-        <v>915</v>
+        <v>917</v>
       </c>
       <c r="C16" s="414">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="D16" s="412" t="s">
+        <v>481</v>
       </c>
       <c r="E16" s="412" t="s">
-        <v>1034</v>
+        <v>1425</v>
       </c>
       <c r="F16" s="412" t="s">
-        <v>14</v>
+        <v>100</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" s="413" t="s">
-        <v>1002</v>
+        <v>1003</v>
       </c>
       <c r="B17" s="412" t="s">
         <v>917</v>
       </c>
       <c r="C17" s="414">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D17" s="412" t="s">
         <v>481</v>
       </c>
       <c r="E17" s="412" t="s">
-        <v>1425</v>
+        <v>1480</v>
       </c>
       <c r="F17" s="412" t="s">
         <v>100</v>
@@ -28330,19 +28330,19 @@
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" s="413" t="s">
-        <v>1003</v>
+        <v>1059</v>
       </c>
       <c r="B18" s="412" t="s">
         <v>917</v>
       </c>
       <c r="C18" s="414">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D18" s="412" t="s">
         <v>481</v>
       </c>
       <c r="E18" s="412" t="s">
-        <v>1480</v>
+        <v>1426</v>
       </c>
       <c r="F18" s="412" t="s">
         <v>100</v>
@@ -28350,19 +28350,19 @@
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" s="413" t="s">
-        <v>1059</v>
+        <v>1060</v>
       </c>
       <c r="B19" s="412" t="s">
         <v>917</v>
       </c>
       <c r="C19" s="414">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D19" s="412" t="s">
         <v>481</v>
       </c>
       <c r="E19" s="412" t="s">
-        <v>1426</v>
+        <v>1481</v>
       </c>
       <c r="F19" s="412" t="s">
         <v>100</v>
@@ -28370,19 +28370,19 @@
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" s="413" t="s">
-        <v>1060</v>
+        <v>1061</v>
       </c>
       <c r="B20" s="412" t="s">
         <v>917</v>
       </c>
       <c r="C20" s="414">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D20" s="412" t="s">
-        <v>481</v>
+        <v>1492</v>
       </c>
       <c r="E20" s="412" t="s">
-        <v>1481</v>
+        <v>1482</v>
       </c>
       <c r="F20" s="412" t="s">
         <v>100</v>
@@ -28390,19 +28390,19 @@
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" s="413" t="s">
-        <v>1061</v>
+        <v>1063</v>
       </c>
       <c r="B21" s="412" t="s">
         <v>917</v>
       </c>
       <c r="C21" s="414">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D21" s="412" t="s">
-        <v>1494</v>
+        <v>1492</v>
       </c>
       <c r="E21" s="412" t="s">
-        <v>1482</v>
+        <v>1483</v>
       </c>
       <c r="F21" s="412" t="s">
         <v>100</v>
@@ -28410,27 +28410,27 @@
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" s="413" t="s">
-        <v>1063</v>
+        <v>1064</v>
       </c>
       <c r="B22" s="412" t="s">
-        <v>917</v>
+        <v>920</v>
       </c>
       <c r="C22" s="414">
         <v>1</v>
       </c>
       <c r="D22" s="412" t="s">
-        <v>1494</v>
+        <v>743</v>
       </c>
       <c r="E22" s="412" t="s">
-        <v>1483</v>
+        <v>919</v>
       </c>
       <c r="F22" s="412" t="s">
-        <v>100</v>
+        <v>19</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" s="413" t="s">
-        <v>1064</v>
+        <v>1065</v>
       </c>
       <c r="B23" s="412" t="s">
         <v>920</v>
@@ -28439,10 +28439,10 @@
         <v>1</v>
       </c>
       <c r="D23" s="412" t="s">
-        <v>743</v>
+        <v>1365</v>
       </c>
       <c r="E23" s="412" t="s">
-        <v>919</v>
+        <v>936</v>
       </c>
       <c r="F23" s="412" t="s">
         <v>19</v>
@@ -28450,7 +28450,7 @@
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24" s="413" t="s">
-        <v>1065</v>
+        <v>1066</v>
       </c>
       <c r="B24" s="412" t="s">
         <v>920</v>
@@ -28462,7 +28462,7 @@
         <v>1365</v>
       </c>
       <c r="E24" s="412" t="s">
-        <v>936</v>
+        <v>1034</v>
       </c>
       <c r="F24" s="412" t="s">
         <v>19</v>
@@ -28470,39 +28470,39 @@
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25" s="413" t="s">
-        <v>1066</v>
+        <v>1004</v>
       </c>
       <c r="B25" s="412" t="s">
-        <v>920</v>
+        <v>921</v>
       </c>
       <c r="C25" s="414">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D25" s="412" t="s">
-        <v>1365</v>
+        <v>481</v>
       </c>
       <c r="E25" s="412" t="s">
-        <v>1034</v>
+        <v>1428</v>
       </c>
       <c r="F25" s="412" t="s">
-        <v>19</v>
+        <v>100</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26" s="413" t="s">
-        <v>1004</v>
+        <v>1005</v>
       </c>
       <c r="B26" s="412" t="s">
         <v>921</v>
       </c>
       <c r="C26" s="414">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D26" s="412" t="s">
         <v>481</v>
       </c>
       <c r="E26" s="412" t="s">
-        <v>1428</v>
+        <v>1484</v>
       </c>
       <c r="F26" s="412" t="s">
         <v>100</v>
@@ -28510,19 +28510,19 @@
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27" s="413" t="s">
-        <v>1005</v>
+        <v>1168</v>
       </c>
       <c r="B27" s="412" t="s">
         <v>921</v>
       </c>
       <c r="C27" s="414">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D27" s="412" t="s">
-        <v>481</v>
+        <v>743</v>
       </c>
       <c r="E27" s="412" t="s">
-        <v>1484</v>
+        <v>1378</v>
       </c>
       <c r="F27" s="412" t="s">
         <v>100</v>
@@ -28530,19 +28530,19 @@
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A28" s="413" t="s">
-        <v>1168</v>
+        <v>1170</v>
       </c>
       <c r="B28" s="412" t="s">
         <v>921</v>
       </c>
       <c r="C28" s="414">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D28" s="412" t="s">
         <v>743</v>
       </c>
       <c r="E28" s="412" t="s">
-        <v>1378</v>
+        <v>1171</v>
       </c>
       <c r="F28" s="412" t="s">
         <v>100</v>
@@ -28550,19 +28550,19 @@
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A29" s="413" t="s">
-        <v>1170</v>
+        <v>1176</v>
       </c>
       <c r="B29" s="412" t="s">
         <v>921</v>
       </c>
       <c r="C29" s="414">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D29" s="412" t="s">
-        <v>743</v>
+        <v>1492</v>
       </c>
       <c r="E29" s="412" t="s">
-        <v>1171</v>
+        <v>1485</v>
       </c>
       <c r="F29" s="412" t="s">
         <v>100</v>
@@ -28570,19 +28570,19 @@
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A30" s="413" t="s">
-        <v>1176</v>
+        <v>1177</v>
       </c>
       <c r="B30" s="412" t="s">
         <v>921</v>
       </c>
       <c r="C30" s="414">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D30" s="412" t="s">
-        <v>1494</v>
+        <v>1492</v>
       </c>
       <c r="E30" s="412" t="s">
-        <v>1485</v>
+        <v>1486</v>
       </c>
       <c r="F30" s="412" t="s">
         <v>100</v>
@@ -28590,70 +28590,70 @@
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31" s="413" t="s">
-        <v>1177</v>
+        <v>1006</v>
       </c>
       <c r="B31" s="412" t="s">
-        <v>921</v>
+        <v>1178</v>
       </c>
       <c r="C31" s="414">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D31" s="412" t="s">
-        <v>1494</v>
+        <v>912</v>
       </c>
       <c r="E31" s="412" t="s">
-        <v>1486</v>
+        <v>924</v>
       </c>
       <c r="F31" s="412" t="s">
-        <v>100</v>
+        <v>432</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A32" s="413" t="s">
-        <v>1006</v>
+        <v>1007</v>
       </c>
       <c r="B32" s="412" t="s">
-        <v>1178</v>
+        <v>925</v>
       </c>
       <c r="C32" s="414">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D32" s="412" t="s">
-        <v>912</v>
+        <v>741</v>
       </c>
       <c r="E32" s="412" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="F32" s="412" t="s">
-        <v>432</v>
+        <v>66</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A33" s="413" t="s">
-        <v>1007</v>
+        <v>1009</v>
       </c>
       <c r="B33" s="412" t="s">
-        <v>925</v>
+        <v>1179</v>
       </c>
       <c r="C33" s="414">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D33" s="412" t="s">
-        <v>741</v>
+        <v>34</v>
       </c>
       <c r="E33" s="412" t="s">
-        <v>926</v>
+        <v>929</v>
       </c>
       <c r="F33" s="412" t="s">
-        <v>66</v>
+        <v>1394</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A34" s="413" t="s">
-        <v>1009</v>
+        <v>1010</v>
       </c>
       <c r="B34" s="412" t="s">
-        <v>1179</v>
+        <v>1414</v>
       </c>
       <c r="C34" s="414">
         <v>3</v>
@@ -28662,7 +28662,7 @@
         <v>34</v>
       </c>
       <c r="E34" s="412" t="s">
-        <v>929</v>
+        <v>914</v>
       </c>
       <c r="F34" s="412" t="s">
         <v>1394</v>
@@ -28670,10 +28670,10 @@
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A35" s="413" t="s">
-        <v>1010</v>
+        <v>1011</v>
       </c>
       <c r="B35" s="412" t="s">
-        <v>1414</v>
+        <v>979</v>
       </c>
       <c r="C35" s="414">
         <v>3</v>
@@ -28682,55 +28682,55 @@
         <v>34</v>
       </c>
       <c r="E35" s="412" t="s">
-        <v>914</v>
+        <v>938</v>
       </c>
       <c r="F35" s="412" t="s">
-        <v>1394</v>
+        <v>1497</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A36" s="413" t="s">
-        <v>1011</v>
+        <v>1012</v>
       </c>
       <c r="B36" s="412" t="s">
-        <v>979</v>
+        <v>932</v>
       </c>
       <c r="C36" s="414">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D36" s="412" t="s">
-        <v>34</v>
+        <v>730</v>
       </c>
       <c r="E36" s="412" t="s">
-        <v>938</v>
+        <v>933</v>
       </c>
       <c r="F36" s="412" t="s">
-        <v>1499</v>
+        <v>1369</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A37" s="413" t="s">
-        <v>1012</v>
+        <v>1213</v>
       </c>
       <c r="B37" s="412" t="s">
-        <v>932</v>
+        <v>934</v>
       </c>
       <c r="C37" s="414">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D37" s="412" t="s">
-        <v>730</v>
+        <v>64</v>
       </c>
       <c r="E37" s="412" t="s">
-        <v>933</v>
+        <v>931</v>
       </c>
       <c r="F37" s="412" t="s">
-        <v>1369</v>
+        <v>417</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A38" s="413" t="s">
-        <v>1213</v>
+        <v>1214</v>
       </c>
       <c r="B38" s="412" t="s">
         <v>934</v>
@@ -28742,7 +28742,7 @@
         <v>64</v>
       </c>
       <c r="E38" s="412" t="s">
-        <v>931</v>
+        <v>964</v>
       </c>
       <c r="F38" s="412" t="s">
         <v>417</v>
@@ -28750,47 +28750,47 @@
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A39" s="413" t="s">
-        <v>1214</v>
+        <v>1014</v>
       </c>
       <c r="B39" s="412" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="C39" s="414">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D39" s="412" t="s">
-        <v>64</v>
+        <v>1419</v>
       </c>
       <c r="E39" s="412" t="s">
-        <v>964</v>
+        <v>936</v>
       </c>
       <c r="F39" s="412" t="s">
-        <v>417</v>
+        <v>189</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A40" s="413" t="s">
-        <v>1014</v>
+        <v>1154</v>
       </c>
       <c r="B40" s="412" t="s">
-        <v>935</v>
+        <v>1155</v>
       </c>
       <c r="C40" s="414">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D40" s="412" t="s">
-        <v>1419</v>
+        <v>1421</v>
       </c>
       <c r="E40" s="412" t="s">
-        <v>936</v>
+        <v>942</v>
       </c>
       <c r="F40" s="412" t="s">
-        <v>189</v>
+        <v>665</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A41" s="413" t="s">
-        <v>1154</v>
+        <v>1156</v>
       </c>
       <c r="B41" s="412" t="s">
         <v>1155</v>
@@ -28802,47 +28802,47 @@
         <v>1421</v>
       </c>
       <c r="E41" s="412" t="s">
-        <v>942</v>
+        <v>938</v>
       </c>
       <c r="F41" s="412" t="s">
-        <v>665</v>
+        <v>1487</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A42" s="413" t="s">
-        <v>1156</v>
+        <v>1015</v>
       </c>
       <c r="B42" s="412" t="s">
-        <v>1155</v>
+        <v>1334</v>
       </c>
       <c r="C42" s="414">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D42" s="412" t="s">
-        <v>1421</v>
+        <v>743</v>
       </c>
       <c r="E42" s="412" t="s">
-        <v>938</v>
+        <v>1329</v>
       </c>
       <c r="F42" s="412" t="s">
-        <v>1487</v>
+        <v>100</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A43" s="413" t="s">
-        <v>1015</v>
+        <v>1016</v>
       </c>
       <c r="B43" s="412" t="s">
         <v>1334</v>
       </c>
       <c r="C43" s="414">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D43" s="412" t="s">
         <v>743</v>
       </c>
       <c r="E43" s="412" t="s">
-        <v>1329</v>
+        <v>1210</v>
       </c>
       <c r="F43" s="412" t="s">
         <v>100</v>
@@ -28850,19 +28850,19 @@
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A44" s="413" t="s">
-        <v>1016</v>
+        <v>1196</v>
       </c>
       <c r="B44" s="412" t="s">
         <v>1334</v>
       </c>
       <c r="C44" s="414">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D44" s="412" t="s">
-        <v>743</v>
+        <v>741</v>
       </c>
       <c r="E44" s="412" t="s">
-        <v>1210</v>
+        <v>1488</v>
       </c>
       <c r="F44" s="412" t="s">
         <v>100</v>
@@ -28870,19 +28870,19 @@
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A45" s="413" t="s">
-        <v>1196</v>
+        <v>1198</v>
       </c>
       <c r="B45" s="412" t="s">
         <v>1334</v>
       </c>
       <c r="C45" s="414">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D45" s="412" t="s">
         <v>741</v>
       </c>
       <c r="E45" s="412" t="s">
-        <v>1488</v>
+        <v>1034</v>
       </c>
       <c r="F45" s="412" t="s">
         <v>100</v>
@@ -28890,10 +28890,10 @@
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A46" s="413" t="s">
-        <v>1198</v>
+        <v>1017</v>
       </c>
       <c r="B46" s="412" t="s">
-        <v>1334</v>
+        <v>939</v>
       </c>
       <c r="C46" s="414">
         <v>1</v>
@@ -28902,75 +28902,75 @@
         <v>741</v>
       </c>
       <c r="E46" s="412" t="s">
-        <v>1034</v>
+        <v>919</v>
       </c>
       <c r="F46" s="412" t="s">
-        <v>100</v>
+        <v>24</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A47" s="413" t="s">
-        <v>1017</v>
+        <v>1018</v>
       </c>
       <c r="B47" s="412" t="s">
-        <v>939</v>
+        <v>980</v>
       </c>
       <c r="C47" s="414">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D47" s="412" t="s">
-        <v>741</v>
+        <v>64</v>
       </c>
       <c r="E47" s="412" t="s">
-        <v>919</v>
+        <v>942</v>
       </c>
       <c r="F47" s="412" t="s">
-        <v>24</v>
+        <v>417</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A48" s="413" t="s">
-        <v>1018</v>
+        <v>1019</v>
       </c>
       <c r="B48" s="412" t="s">
-        <v>980</v>
+        <v>943</v>
       </c>
       <c r="C48" s="414">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D48" s="412" t="s">
-        <v>64</v>
+        <v>184</v>
       </c>
       <c r="E48" s="412" t="s">
-        <v>942</v>
+        <v>1489</v>
       </c>
       <c r="F48" s="412" t="s">
-        <v>417</v>
+        <v>905</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A49" s="413" t="s">
-        <v>1019</v>
+        <v>1020</v>
       </c>
       <c r="B49" s="412" t="s">
         <v>943</v>
       </c>
       <c r="C49" s="414">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D49" s="412" t="s">
-        <v>184</v>
+        <v>1493</v>
       </c>
       <c r="E49" s="412" t="s">
-        <v>1489</v>
+        <v>1484</v>
       </c>
       <c r="F49" s="412" t="s">
-        <v>1490</v>
+        <v>24</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A50" s="413" t="s">
-        <v>1020</v>
+        <v>1433</v>
       </c>
       <c r="B50" s="412" t="s">
         <v>943</v>
@@ -28979,18 +28979,18 @@
         <v>1</v>
       </c>
       <c r="D50" s="412" t="s">
-        <v>1495</v>
+        <v>1493</v>
       </c>
       <c r="E50" s="412" t="s">
-        <v>1484</v>
+        <v>919</v>
       </c>
       <c r="F50" s="412" t="s">
-        <v>24</v>
+        <v>104</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A51" s="413" t="s">
-        <v>1433</v>
+        <v>1494</v>
       </c>
       <c r="B51" s="412" t="s">
         <v>943</v>
@@ -28999,130 +28999,130 @@
         <v>1</v>
       </c>
       <c r="D51" s="412" t="s">
-        <v>1495</v>
+        <v>1440</v>
       </c>
       <c r="E51" s="412" t="s">
-        <v>919</v>
+        <v>1207</v>
       </c>
       <c r="F51" s="412" t="s">
-        <v>104</v>
+        <v>24</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A52" s="413" t="s">
-        <v>1496</v>
+        <v>1074</v>
       </c>
       <c r="B52" s="412" t="s">
-        <v>943</v>
+        <v>945</v>
       </c>
       <c r="C52" s="414">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D52" s="412" t="s">
-        <v>1440</v>
+        <v>732</v>
       </c>
       <c r="E52" s="412" t="s">
-        <v>1207</v>
+        <v>946</v>
       </c>
       <c r="F52" s="412" t="s">
-        <v>24</v>
+        <v>417</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A53" s="413" t="s">
-        <v>1074</v>
+        <v>1022</v>
       </c>
       <c r="B53" s="412" t="s">
-        <v>945</v>
+        <v>981</v>
       </c>
       <c r="C53" s="414">
         <v>3</v>
       </c>
       <c r="D53" s="412" t="s">
-        <v>732</v>
+        <v>414</v>
       </c>
       <c r="E53" s="412" t="s">
-        <v>946</v>
+        <v>947</v>
       </c>
       <c r="F53" s="412" t="s">
-        <v>417</v>
+        <v>1490</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A54" s="413" t="s">
-        <v>1022</v>
+        <v>1023</v>
       </c>
       <c r="B54" s="412" t="s">
-        <v>981</v>
+        <v>951</v>
       </c>
       <c r="C54" s="414">
         <v>3</v>
       </c>
       <c r="D54" s="412" t="s">
-        <v>414</v>
+        <v>872</v>
       </c>
       <c r="E54" s="412" t="s">
-        <v>947</v>
+        <v>950</v>
       </c>
       <c r="F54" s="412" t="s">
-        <v>1491</v>
+        <v>189</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A55" s="413" t="s">
-        <v>1023</v>
+        <v>1024</v>
       </c>
       <c r="B55" s="412" t="s">
-        <v>951</v>
+        <v>952</v>
       </c>
       <c r="C55" s="414">
         <v>3</v>
       </c>
       <c r="D55" s="412" t="s">
-        <v>872</v>
+        <v>1218</v>
       </c>
       <c r="E55" s="412" t="s">
-        <v>950</v>
+        <v>972</v>
       </c>
       <c r="F55" s="412" t="s">
-        <v>189</v>
+        <v>432</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A56" s="413" t="s">
-        <v>1024</v>
+        <v>1025</v>
       </c>
       <c r="B56" s="412" t="s">
-        <v>952</v>
+        <v>954</v>
       </c>
       <c r="C56" s="414">
         <v>3</v>
       </c>
       <c r="D56" s="412" t="s">
-        <v>1218</v>
+        <v>64</v>
       </c>
       <c r="E56" s="412" t="s">
-        <v>972</v>
+        <v>914</v>
       </c>
       <c r="F56" s="412" t="s">
-        <v>432</v>
+        <v>189</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A57" s="413" t="s">
-        <v>1025</v>
+        <v>1026</v>
       </c>
       <c r="B57" s="412" t="s">
-        <v>954</v>
+        <v>982</v>
       </c>
       <c r="C57" s="414">
         <v>3</v>
       </c>
       <c r="D57" s="412" t="s">
-        <v>658</v>
+        <v>872</v>
       </c>
       <c r="E57" s="412" t="s">
-        <v>914</v>
+        <v>947</v>
       </c>
       <c r="F57" s="412" t="s">
         <v>189</v>
@@ -29130,39 +29130,39 @@
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A58" s="413" t="s">
-        <v>1026</v>
+        <v>1078</v>
       </c>
       <c r="B58" s="412" t="s">
-        <v>982</v>
+        <v>956</v>
       </c>
       <c r="C58" s="414">
         <v>3</v>
       </c>
       <c r="D58" s="412" t="s">
-        <v>872</v>
+        <v>811</v>
       </c>
       <c r="E58" s="412" t="s">
-        <v>947</v>
+        <v>946</v>
       </c>
       <c r="F58" s="412" t="s">
-        <v>189</v>
+        <v>100</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A59" s="413" t="s">
-        <v>1078</v>
+        <v>1079</v>
       </c>
       <c r="B59" s="412" t="s">
-        <v>956</v>
+        <v>957</v>
       </c>
       <c r="C59" s="414">
         <v>3</v>
       </c>
       <c r="D59" s="412" t="s">
-        <v>811</v>
+        <v>481</v>
       </c>
       <c r="E59" s="412" t="s">
-        <v>946</v>
+        <v>928</v>
       </c>
       <c r="F59" s="412" t="s">
         <v>100</v>
@@ -29170,301 +29170,261 @@
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A60" s="413" t="s">
-        <v>1079</v>
+        <v>1339</v>
       </c>
       <c r="B60" s="412" t="s">
-        <v>957</v>
+        <v>983</v>
       </c>
       <c r="C60" s="414">
         <v>3</v>
       </c>
       <c r="D60" s="412" t="s">
-        <v>481</v>
+        <v>743</v>
       </c>
       <c r="E60" s="412" t="s">
-        <v>928</v>
+        <v>950</v>
       </c>
       <c r="F60" s="412" t="s">
-        <v>100</v>
+        <v>77</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A61" s="413" t="s">
-        <v>1339</v>
+        <v>1032</v>
       </c>
       <c r="B61" s="412" t="s">
-        <v>983</v>
+        <v>1180</v>
       </c>
       <c r="C61" s="414">
         <v>3</v>
       </c>
       <c r="D61" s="412" t="s">
-        <v>743</v>
+        <v>64</v>
       </c>
       <c r="E61" s="412" t="s">
-        <v>950</v>
+        <v>962</v>
       </c>
       <c r="F61" s="412" t="s">
-        <v>77</v>
+        <v>432</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A62" s="413" t="s">
-        <v>1032</v>
+        <v>1033</v>
       </c>
       <c r="B62" s="412" t="s">
-        <v>1180</v>
+        <v>984</v>
       </c>
       <c r="C62" s="414">
         <v>3</v>
       </c>
       <c r="D62" s="412" t="s">
-        <v>64</v>
+        <v>1417</v>
       </c>
       <c r="E62" s="412" t="s">
-        <v>962</v>
+        <v>972</v>
       </c>
       <c r="F62" s="412" t="s">
-        <v>432</v>
+        <v>1499</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A63" s="413" t="s">
-        <v>1033</v>
+        <v>1083</v>
       </c>
       <c r="B63" s="412" t="s">
-        <v>984</v>
+        <v>1183</v>
       </c>
       <c r="C63" s="414">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D63" s="412" t="s">
-        <v>1417</v>
+        <v>1419</v>
       </c>
       <c r="E63" s="412" t="s">
-        <v>972</v>
+        <v>1207</v>
       </c>
       <c r="F63" s="412" t="s">
-        <v>1492</v>
+        <v>135</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A64" s="413" t="s">
-        <v>1083</v>
+        <v>1035</v>
       </c>
       <c r="B64" s="412" t="s">
-        <v>1183</v>
+        <v>985</v>
       </c>
       <c r="C64" s="414">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D64" s="412" t="s">
-        <v>1419</v>
+        <v>184</v>
       </c>
       <c r="E64" s="412" t="s">
-        <v>1207</v>
+        <v>942</v>
       </c>
       <c r="F64" s="412" t="s">
-        <v>135</v>
+        <v>119</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A65" s="413" t="s">
-        <v>1340</v>
+        <v>1342</v>
       </c>
       <c r="B65" s="412" t="s">
-        <v>1341</v>
+        <v>986</v>
       </c>
       <c r="C65" s="414">
         <v>3</v>
       </c>
       <c r="D65" s="412" t="s">
-        <v>64</v>
+        <v>1495</v>
       </c>
       <c r="E65" s="412" t="s">
-        <v>972</v>
+        <v>1491</v>
       </c>
       <c r="F65" s="412" t="s">
-        <v>417</v>
+        <v>1225</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A66" s="413" t="s">
-        <v>1035</v>
+        <v>1220</v>
       </c>
       <c r="B66" s="412" t="s">
-        <v>985</v>
+        <v>1186</v>
       </c>
       <c r="C66" s="414">
         <v>3</v>
       </c>
       <c r="D66" s="412" t="s">
-        <v>184</v>
+        <v>166</v>
       </c>
       <c r="E66" s="412" t="s">
-        <v>942</v>
+        <v>958</v>
       </c>
       <c r="F66" s="412" t="s">
-        <v>119</v>
+        <v>189</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A67" s="413" t="s">
-        <v>1342</v>
+        <v>1040</v>
       </c>
       <c r="B67" s="412" t="s">
-        <v>986</v>
+        <v>989</v>
       </c>
       <c r="C67" s="414">
         <v>3</v>
       </c>
       <c r="D67" s="412" t="s">
-        <v>1497</v>
+        <v>414</v>
       </c>
       <c r="E67" s="412" t="s">
-        <v>1493</v>
+        <v>972</v>
       </c>
       <c r="F67" s="412" t="s">
-        <v>1225</v>
+        <v>77</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A68" s="413" t="s">
-        <v>1220</v>
+        <v>1367</v>
       </c>
       <c r="B68" s="412" t="s">
-        <v>1186</v>
+        <v>1368</v>
       </c>
       <c r="C68" s="414">
         <v>3</v>
       </c>
       <c r="D68" s="412" t="s">
-        <v>166</v>
+        <v>414</v>
       </c>
       <c r="E68" s="412" t="s">
-        <v>958</v>
+        <v>964</v>
       </c>
       <c r="F68" s="412" t="s">
-        <v>189</v>
+        <v>77</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A69" s="413" t="s">
-        <v>1040</v>
+        <v>1043</v>
       </c>
       <c r="B69" s="412" t="s">
-        <v>989</v>
+        <v>992</v>
       </c>
       <c r="C69" s="414">
         <v>3</v>
       </c>
       <c r="D69" s="412" t="s">
-        <v>414</v>
+        <v>607</v>
       </c>
       <c r="E69" s="412" t="s">
-        <v>972</v>
+        <v>946</v>
       </c>
       <c r="F69" s="412" t="s">
-        <v>77</v>
+        <v>189</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A70" s="413" t="s">
-        <v>1367</v>
+        <v>1096</v>
       </c>
       <c r="B70" s="412" t="s">
-        <v>1368</v>
+        <v>1097</v>
       </c>
       <c r="C70" s="414">
         <v>3</v>
       </c>
       <c r="D70" s="412" t="s">
-        <v>414</v>
+        <v>754</v>
       </c>
       <c r="E70" s="412" t="s">
-        <v>964</v>
+        <v>924</v>
       </c>
       <c r="F70" s="412" t="s">
-        <v>77</v>
+        <v>189</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A71" s="413" t="s">
-        <v>1043</v>
+        <v>1343</v>
       </c>
       <c r="B71" s="412" t="s">
-        <v>992</v>
+        <v>1181</v>
       </c>
       <c r="C71" s="414">
         <v>3</v>
       </c>
       <c r="D71" s="412" t="s">
-        <v>607</v>
+        <v>811</v>
       </c>
       <c r="E71" s="412" t="s">
-        <v>946</v>
+        <v>947</v>
       </c>
       <c r="F71" s="412" t="s">
-        <v>189</v>
+        <v>123</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A72" s="413" t="s">
-        <v>1096</v>
+        <v>1046</v>
       </c>
       <c r="B72" s="412" t="s">
-        <v>1097</v>
+        <v>993</v>
       </c>
       <c r="C72" s="414">
         <v>3</v>
       </c>
       <c r="D72" s="412" t="s">
-        <v>754</v>
+        <v>166</v>
       </c>
       <c r="E72" s="412" t="s">
-        <v>924</v>
+        <v>969</v>
       </c>
       <c r="F72" s="412" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A73" s="413" t="s">
-        <v>1343</v>
-      </c>
-      <c r="B73" s="412" t="s">
-        <v>1181</v>
-      </c>
-      <c r="C73" s="414">
-        <v>3</v>
-      </c>
-      <c r="D73" s="412" t="s">
-        <v>811</v>
-      </c>
-      <c r="E73" s="412" t="s">
-        <v>947</v>
-      </c>
-      <c r="F73" s="412" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A74" s="413" t="s">
-        <v>1046</v>
-      </c>
-      <c r="B74" s="412" t="s">
-        <v>993</v>
-      </c>
-      <c r="C74" s="414">
-        <v>3</v>
-      </c>
-      <c r="D74" s="412" t="s">
-        <v>166</v>
-      </c>
-      <c r="E74" s="412" t="s">
-        <v>969</v>
-      </c>
-      <c r="F74" s="412" t="s">
         <v>432</v>
       </c>
     </row>
@@ -37616,7 +37576,7 @@
   <sheetData>
     <row r="1" spans="1:6" s="410" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="407" t="s">
-        <v>1498</v>
+        <v>1496</v>
       </c>
       <c r="B1" s="408"/>
       <c r="C1" s="409"/>

--- a/schedule/semester/schedule.xlsx
+++ b/schedule/semester/schedule.xlsx
@@ -80,7 +80,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8498" uniqueCount="1500">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8493" uniqueCount="1502">
   <si>
     <t>ELECTRICAL AND COMPUTER ENGINEERING</t>
   </si>
@@ -4552,9 +4552,6 @@
     <t>TR 210-300PM</t>
   </si>
   <si>
-    <t>ETA309</t>
-  </si>
-  <si>
     <t>F 200-340PM</t>
   </si>
   <si>
@@ -4576,10 +4573,19 @@
     <t>SH358B</t>
   </si>
   <si>
-    <t>Posted 7/29/2019</t>
-  </si>
-  <si>
     <t>KHB4017</t>
+  </si>
+  <si>
+    <t>Posted 8/12/2019</t>
+  </si>
+  <si>
+    <t>EE3001-01</t>
+  </si>
+  <si>
+    <t>EE3001-02</t>
+  </si>
+  <si>
+    <t>Alvarado</t>
   </si>
 </sst>
 </file>
@@ -28062,13 +28068,13 @@
   <sheetPr codeName="Sheet43">
     <tabColor theme="9" tint="-0.249977111117893"/>
   </sheetPr>
-  <dimension ref="A1:F72"/>
+  <dimension ref="A1:F71"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <pane xSplit="1" ySplit="12" topLeftCell="B13" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A13" sqref="A13"/>
-      <selection pane="bottomRight" activeCell="B21" sqref="B21"/>
+      <selection pane="bottomRight" activeCell="B76" sqref="B76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
@@ -28379,7 +28385,7 @@
         <v>2</v>
       </c>
       <c r="D20" s="412" t="s">
-        <v>1492</v>
+        <v>1491</v>
       </c>
       <c r="E20" s="412" t="s">
         <v>1482</v>
@@ -28399,7 +28405,7 @@
         <v>1</v>
       </c>
       <c r="D21" s="412" t="s">
-        <v>1492</v>
+        <v>1491</v>
       </c>
       <c r="E21" s="412" t="s">
         <v>1483</v>
@@ -28510,7 +28516,7 @@
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27" s="413" t="s">
-        <v>1168</v>
+        <v>1176</v>
       </c>
       <c r="B27" s="412" t="s">
         <v>921</v>
@@ -28519,10 +28525,10 @@
         <v>2</v>
       </c>
       <c r="D27" s="412" t="s">
-        <v>743</v>
+        <v>1491</v>
       </c>
       <c r="E27" s="412" t="s">
-        <v>1378</v>
+        <v>1485</v>
       </c>
       <c r="F27" s="412" t="s">
         <v>100</v>
@@ -28530,7 +28536,7 @@
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A28" s="413" t="s">
-        <v>1170</v>
+        <v>1177</v>
       </c>
       <c r="B28" s="412" t="s">
         <v>921</v>
@@ -28539,10 +28545,10 @@
         <v>1</v>
       </c>
       <c r="D28" s="412" t="s">
-        <v>743</v>
+        <v>1491</v>
       </c>
       <c r="E28" s="412" t="s">
-        <v>1171</v>
+        <v>1486</v>
       </c>
       <c r="F28" s="412" t="s">
         <v>100</v>
@@ -28550,90 +28556,90 @@
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A29" s="413" t="s">
-        <v>1176</v>
+        <v>1006</v>
       </c>
       <c r="B29" s="412" t="s">
-        <v>921</v>
+        <v>1178</v>
       </c>
       <c r="C29" s="414">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D29" s="412" t="s">
-        <v>1492</v>
+        <v>912</v>
       </c>
       <c r="E29" s="412" t="s">
-        <v>1485</v>
+        <v>924</v>
       </c>
       <c r="F29" s="412" t="s">
-        <v>100</v>
+        <v>432</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A30" s="413" t="s">
-        <v>1177</v>
+        <v>1499</v>
       </c>
       <c r="B30" s="412" t="s">
-        <v>921</v>
+        <v>925</v>
       </c>
       <c r="C30" s="414">
         <v>1</v>
       </c>
       <c r="D30" s="412" t="s">
-        <v>1492</v>
+        <v>743</v>
       </c>
       <c r="E30" s="412" t="s">
-        <v>1486</v>
+        <v>926</v>
       </c>
       <c r="F30" s="412" t="s">
-        <v>100</v>
+        <v>66</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31" s="413" t="s">
-        <v>1006</v>
+        <v>1500</v>
       </c>
       <c r="B31" s="412" t="s">
-        <v>1178</v>
+        <v>925</v>
       </c>
       <c r="C31" s="414">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D31" s="412" t="s">
-        <v>912</v>
+        <v>741</v>
       </c>
       <c r="E31" s="412" t="s">
-        <v>924</v>
+        <v>1484</v>
       </c>
       <c r="F31" s="412" t="s">
-        <v>432</v>
+        <v>66</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A32" s="413" t="s">
-        <v>1007</v>
+        <v>1009</v>
       </c>
       <c r="B32" s="412" t="s">
-        <v>925</v>
+        <v>1179</v>
       </c>
       <c r="C32" s="414">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D32" s="412" t="s">
-        <v>741</v>
+        <v>34</v>
       </c>
       <c r="E32" s="412" t="s">
-        <v>926</v>
+        <v>929</v>
       </c>
       <c r="F32" s="412" t="s">
-        <v>66</v>
+        <v>1394</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A33" s="413" t="s">
-        <v>1009</v>
+        <v>1010</v>
       </c>
       <c r="B33" s="412" t="s">
-        <v>1179</v>
+        <v>1414</v>
       </c>
       <c r="C33" s="414">
         <v>3</v>
@@ -28642,18 +28648,18 @@
         <v>34</v>
       </c>
       <c r="E33" s="412" t="s">
-        <v>929</v>
+        <v>914</v>
       </c>
       <c r="F33" s="412" t="s">
-        <v>1394</v>
+        <v>1496</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A34" s="413" t="s">
-        <v>1010</v>
+        <v>1011</v>
       </c>
       <c r="B34" s="412" t="s">
-        <v>1414</v>
+        <v>979</v>
       </c>
       <c r="C34" s="414">
         <v>3</v>
@@ -28662,55 +28668,55 @@
         <v>34</v>
       </c>
       <c r="E34" s="412" t="s">
-        <v>914</v>
+        <v>938</v>
       </c>
       <c r="F34" s="412" t="s">
-        <v>1394</v>
+        <v>1496</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A35" s="413" t="s">
-        <v>1011</v>
+        <v>1012</v>
       </c>
       <c r="B35" s="412" t="s">
-        <v>979</v>
+        <v>932</v>
       </c>
       <c r="C35" s="414">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D35" s="412" t="s">
-        <v>34</v>
+        <v>1501</v>
       </c>
       <c r="E35" s="412" t="s">
-        <v>938</v>
+        <v>933</v>
       </c>
       <c r="F35" s="412" t="s">
-        <v>1497</v>
+        <v>1369</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A36" s="413" t="s">
-        <v>1012</v>
+        <v>1213</v>
       </c>
       <c r="B36" s="412" t="s">
-        <v>932</v>
+        <v>934</v>
       </c>
       <c r="C36" s="414">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D36" s="412" t="s">
-        <v>730</v>
+        <v>64</v>
       </c>
       <c r="E36" s="412" t="s">
-        <v>933</v>
+        <v>931</v>
       </c>
       <c r="F36" s="412" t="s">
-        <v>1369</v>
+        <v>417</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A37" s="413" t="s">
-        <v>1213</v>
+        <v>1214</v>
       </c>
       <c r="B37" s="412" t="s">
         <v>934</v>
@@ -28722,7 +28728,7 @@
         <v>64</v>
       </c>
       <c r="E37" s="412" t="s">
-        <v>931</v>
+        <v>964</v>
       </c>
       <c r="F37" s="412" t="s">
         <v>417</v>
@@ -28730,47 +28736,47 @@
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A38" s="413" t="s">
-        <v>1214</v>
+        <v>1014</v>
       </c>
       <c r="B38" s="412" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="C38" s="414">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D38" s="412" t="s">
-        <v>64</v>
+        <v>1419</v>
       </c>
       <c r="E38" s="412" t="s">
-        <v>964</v>
+        <v>936</v>
       </c>
       <c r="F38" s="412" t="s">
-        <v>417</v>
+        <v>189</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A39" s="413" t="s">
-        <v>1014</v>
+        <v>1154</v>
       </c>
       <c r="B39" s="412" t="s">
-        <v>935</v>
+        <v>1155</v>
       </c>
       <c r="C39" s="414">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D39" s="412" t="s">
-        <v>1419</v>
+        <v>1421</v>
       </c>
       <c r="E39" s="412" t="s">
-        <v>936</v>
+        <v>942</v>
       </c>
       <c r="F39" s="412" t="s">
-        <v>189</v>
+        <v>665</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A40" s="413" t="s">
-        <v>1154</v>
+        <v>1156</v>
       </c>
       <c r="B40" s="412" t="s">
         <v>1155</v>
@@ -28782,47 +28788,47 @@
         <v>1421</v>
       </c>
       <c r="E40" s="412" t="s">
-        <v>942</v>
+        <v>938</v>
       </c>
       <c r="F40" s="412" t="s">
-        <v>665</v>
+        <v>1487</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A41" s="413" t="s">
-        <v>1156</v>
+        <v>1015</v>
       </c>
       <c r="B41" s="412" t="s">
-        <v>1155</v>
+        <v>1334</v>
       </c>
       <c r="C41" s="414">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D41" s="412" t="s">
-        <v>1421</v>
+        <v>743</v>
       </c>
       <c r="E41" s="412" t="s">
-        <v>938</v>
+        <v>1329</v>
       </c>
       <c r="F41" s="412" t="s">
-        <v>1487</v>
+        <v>100</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A42" s="413" t="s">
-        <v>1015</v>
+        <v>1016</v>
       </c>
       <c r="B42" s="412" t="s">
         <v>1334</v>
       </c>
       <c r="C42" s="414">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D42" s="412" t="s">
         <v>743</v>
       </c>
       <c r="E42" s="412" t="s">
-        <v>1329</v>
+        <v>1210</v>
       </c>
       <c r="F42" s="412" t="s">
         <v>100</v>
@@ -28830,19 +28836,19 @@
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A43" s="413" t="s">
-        <v>1016</v>
+        <v>1196</v>
       </c>
       <c r="B43" s="412" t="s">
         <v>1334</v>
       </c>
       <c r="C43" s="414">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D43" s="412" t="s">
-        <v>743</v>
+        <v>741</v>
       </c>
       <c r="E43" s="412" t="s">
-        <v>1210</v>
+        <v>1488</v>
       </c>
       <c r="F43" s="412" t="s">
         <v>100</v>
@@ -28850,19 +28856,19 @@
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A44" s="413" t="s">
-        <v>1196</v>
+        <v>1198</v>
       </c>
       <c r="B44" s="412" t="s">
         <v>1334</v>
       </c>
       <c r="C44" s="414">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D44" s="412" t="s">
         <v>741</v>
       </c>
       <c r="E44" s="412" t="s">
-        <v>1488</v>
+        <v>1034</v>
       </c>
       <c r="F44" s="412" t="s">
         <v>100</v>
@@ -28870,10 +28876,10 @@
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A45" s="413" t="s">
-        <v>1198</v>
+        <v>1017</v>
       </c>
       <c r="B45" s="412" t="s">
-        <v>1334</v>
+        <v>939</v>
       </c>
       <c r="C45" s="414">
         <v>1</v>
@@ -28882,75 +28888,75 @@
         <v>741</v>
       </c>
       <c r="E45" s="412" t="s">
-        <v>1034</v>
+        <v>919</v>
       </c>
       <c r="F45" s="412" t="s">
-        <v>100</v>
+        <v>24</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A46" s="413" t="s">
-        <v>1017</v>
+        <v>1018</v>
       </c>
       <c r="B46" s="412" t="s">
-        <v>939</v>
+        <v>980</v>
       </c>
       <c r="C46" s="414">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D46" s="412" t="s">
-        <v>741</v>
+        <v>64</v>
       </c>
       <c r="E46" s="412" t="s">
-        <v>919</v>
+        <v>942</v>
       </c>
       <c r="F46" s="412" t="s">
-        <v>24</v>
+        <v>417</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A47" s="413" t="s">
-        <v>1018</v>
+        <v>1019</v>
       </c>
       <c r="B47" s="412" t="s">
-        <v>980</v>
+        <v>943</v>
       </c>
       <c r="C47" s="414">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D47" s="412" t="s">
-        <v>64</v>
+        <v>184</v>
       </c>
       <c r="E47" s="412" t="s">
-        <v>942</v>
+        <v>1489</v>
       </c>
       <c r="F47" s="412" t="s">
-        <v>417</v>
+        <v>905</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A48" s="413" t="s">
-        <v>1019</v>
+        <v>1020</v>
       </c>
       <c r="B48" s="412" t="s">
         <v>943</v>
       </c>
       <c r="C48" s="414">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D48" s="412" t="s">
-        <v>184</v>
+        <v>1492</v>
       </c>
       <c r="E48" s="412" t="s">
-        <v>1489</v>
+        <v>1484</v>
       </c>
       <c r="F48" s="412" t="s">
-        <v>905</v>
+        <v>24</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A49" s="413" t="s">
-        <v>1020</v>
+        <v>1433</v>
       </c>
       <c r="B49" s="412" t="s">
         <v>943</v>
@@ -28959,18 +28965,18 @@
         <v>1</v>
       </c>
       <c r="D49" s="412" t="s">
-        <v>1493</v>
+        <v>1492</v>
       </c>
       <c r="E49" s="412" t="s">
-        <v>1484</v>
+        <v>919</v>
       </c>
       <c r="F49" s="412" t="s">
-        <v>24</v>
+        <v>104</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A50" s="413" t="s">
-        <v>1433</v>
+        <v>1493</v>
       </c>
       <c r="B50" s="412" t="s">
         <v>943</v>
@@ -28979,130 +28985,130 @@
         <v>1</v>
       </c>
       <c r="D50" s="412" t="s">
-        <v>1493</v>
+        <v>1440</v>
       </c>
       <c r="E50" s="412" t="s">
-        <v>919</v>
+        <v>1207</v>
       </c>
       <c r="F50" s="412" t="s">
-        <v>104</v>
+        <v>24</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A51" s="413" t="s">
-        <v>1494</v>
+        <v>1074</v>
       </c>
       <c r="B51" s="412" t="s">
-        <v>943</v>
+        <v>945</v>
       </c>
       <c r="C51" s="414">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D51" s="412" t="s">
-        <v>1440</v>
+        <v>732</v>
       </c>
       <c r="E51" s="412" t="s">
-        <v>1207</v>
+        <v>946</v>
       </c>
       <c r="F51" s="412" t="s">
-        <v>24</v>
+        <v>417</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A52" s="413" t="s">
-        <v>1074</v>
+        <v>1022</v>
       </c>
       <c r="B52" s="412" t="s">
-        <v>945</v>
+        <v>981</v>
       </c>
       <c r="C52" s="414">
         <v>3</v>
       </c>
       <c r="D52" s="412" t="s">
-        <v>732</v>
+        <v>414</v>
       </c>
       <c r="E52" s="412" t="s">
-        <v>946</v>
+        <v>947</v>
       </c>
       <c r="F52" s="412" t="s">
-        <v>417</v>
+        <v>584</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A53" s="413" t="s">
-        <v>1022</v>
+        <v>1023</v>
       </c>
       <c r="B53" s="412" t="s">
-        <v>981</v>
+        <v>951</v>
       </c>
       <c r="C53" s="414">
         <v>3</v>
       </c>
       <c r="D53" s="412" t="s">
-        <v>414</v>
+        <v>872</v>
       </c>
       <c r="E53" s="412" t="s">
-        <v>947</v>
+        <v>950</v>
       </c>
       <c r="F53" s="412" t="s">
-        <v>1490</v>
+        <v>189</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A54" s="413" t="s">
-        <v>1023</v>
+        <v>1024</v>
       </c>
       <c r="B54" s="412" t="s">
-        <v>951</v>
+        <v>952</v>
       </c>
       <c r="C54" s="414">
         <v>3</v>
       </c>
       <c r="D54" s="412" t="s">
-        <v>872</v>
+        <v>1218</v>
       </c>
       <c r="E54" s="412" t="s">
-        <v>950</v>
+        <v>972</v>
       </c>
       <c r="F54" s="412" t="s">
-        <v>189</v>
+        <v>432</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A55" s="413" t="s">
-        <v>1024</v>
+        <v>1025</v>
       </c>
       <c r="B55" s="412" t="s">
-        <v>952</v>
+        <v>954</v>
       </c>
       <c r="C55" s="414">
         <v>3</v>
       </c>
       <c r="D55" s="412" t="s">
-        <v>1218</v>
+        <v>64</v>
       </c>
       <c r="E55" s="412" t="s">
-        <v>972</v>
+        <v>914</v>
       </c>
       <c r="F55" s="412" t="s">
-        <v>432</v>
+        <v>189</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A56" s="413" t="s">
-        <v>1025</v>
+        <v>1026</v>
       </c>
       <c r="B56" s="412" t="s">
-        <v>954</v>
+        <v>982</v>
       </c>
       <c r="C56" s="414">
         <v>3</v>
       </c>
       <c r="D56" s="412" t="s">
-        <v>64</v>
+        <v>872</v>
       </c>
       <c r="E56" s="412" t="s">
-        <v>914</v>
+        <v>947</v>
       </c>
       <c r="F56" s="412" t="s">
         <v>189</v>
@@ -29110,39 +29116,39 @@
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A57" s="413" t="s">
-        <v>1026</v>
+        <v>1078</v>
       </c>
       <c r="B57" s="412" t="s">
-        <v>982</v>
+        <v>956</v>
       </c>
       <c r="C57" s="414">
         <v>3</v>
       </c>
       <c r="D57" s="412" t="s">
-        <v>872</v>
+        <v>811</v>
       </c>
       <c r="E57" s="412" t="s">
-        <v>947</v>
+        <v>946</v>
       </c>
       <c r="F57" s="412" t="s">
-        <v>189</v>
+        <v>100</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A58" s="413" t="s">
-        <v>1078</v>
+        <v>1079</v>
       </c>
       <c r="B58" s="412" t="s">
-        <v>956</v>
+        <v>957</v>
       </c>
       <c r="C58" s="414">
         <v>3</v>
       </c>
       <c r="D58" s="412" t="s">
-        <v>811</v>
+        <v>481</v>
       </c>
       <c r="E58" s="412" t="s">
-        <v>946</v>
+        <v>928</v>
       </c>
       <c r="F58" s="412" t="s">
         <v>100</v>
@@ -29150,170 +29156,170 @@
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A59" s="413" t="s">
-        <v>1079</v>
+        <v>1339</v>
       </c>
       <c r="B59" s="412" t="s">
-        <v>957</v>
+        <v>983</v>
       </c>
       <c r="C59" s="414">
         <v>3</v>
       </c>
       <c r="D59" s="412" t="s">
-        <v>481</v>
+        <v>743</v>
       </c>
       <c r="E59" s="412" t="s">
-        <v>928</v>
+        <v>950</v>
       </c>
       <c r="F59" s="412" t="s">
-        <v>100</v>
+        <v>77</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A60" s="413" t="s">
-        <v>1339</v>
+        <v>1032</v>
       </c>
       <c r="B60" s="412" t="s">
-        <v>983</v>
+        <v>1180</v>
       </c>
       <c r="C60" s="414">
         <v>3</v>
       </c>
       <c r="D60" s="412" t="s">
-        <v>743</v>
+        <v>64</v>
       </c>
       <c r="E60" s="412" t="s">
-        <v>950</v>
+        <v>962</v>
       </c>
       <c r="F60" s="412" t="s">
-        <v>77</v>
+        <v>432</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A61" s="413" t="s">
-        <v>1032</v>
+        <v>1033</v>
       </c>
       <c r="B61" s="412" t="s">
-        <v>1180</v>
+        <v>984</v>
       </c>
       <c r="C61" s="414">
         <v>3</v>
       </c>
       <c r="D61" s="412" t="s">
-        <v>64</v>
+        <v>1417</v>
       </c>
       <c r="E61" s="412" t="s">
-        <v>962</v>
+        <v>972</v>
       </c>
       <c r="F61" s="412" t="s">
-        <v>432</v>
+        <v>1497</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A62" s="413" t="s">
-        <v>1033</v>
+        <v>1083</v>
       </c>
       <c r="B62" s="412" t="s">
-        <v>984</v>
+        <v>1183</v>
       </c>
       <c r="C62" s="414">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D62" s="412" t="s">
-        <v>1417</v>
+        <v>1419</v>
       </c>
       <c r="E62" s="412" t="s">
-        <v>972</v>
+        <v>1207</v>
       </c>
       <c r="F62" s="412" t="s">
-        <v>1499</v>
+        <v>135</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A63" s="413" t="s">
-        <v>1083</v>
+        <v>1035</v>
       </c>
       <c r="B63" s="412" t="s">
-        <v>1183</v>
+        <v>985</v>
       </c>
       <c r="C63" s="414">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D63" s="412" t="s">
-        <v>1419</v>
+        <v>184</v>
       </c>
       <c r="E63" s="412" t="s">
-        <v>1207</v>
+        <v>942</v>
       </c>
       <c r="F63" s="412" t="s">
-        <v>135</v>
+        <v>119</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A64" s="413" t="s">
-        <v>1035</v>
+        <v>1342</v>
       </c>
       <c r="B64" s="412" t="s">
-        <v>985</v>
+        <v>986</v>
       </c>
       <c r="C64" s="414">
         <v>3</v>
       </c>
       <c r="D64" s="412" t="s">
-        <v>184</v>
+        <v>1494</v>
       </c>
       <c r="E64" s="412" t="s">
-        <v>942</v>
+        <v>1490</v>
       </c>
       <c r="F64" s="412" t="s">
-        <v>119</v>
+        <v>1225</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A65" s="413" t="s">
-        <v>1342</v>
+        <v>1220</v>
       </c>
       <c r="B65" s="412" t="s">
-        <v>986</v>
+        <v>1186</v>
       </c>
       <c r="C65" s="414">
         <v>3</v>
       </c>
       <c r="D65" s="412" t="s">
-        <v>1495</v>
+        <v>166</v>
       </c>
       <c r="E65" s="412" t="s">
-        <v>1491</v>
+        <v>958</v>
       </c>
       <c r="F65" s="412" t="s">
-        <v>1225</v>
+        <v>189</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A66" s="413" t="s">
-        <v>1220</v>
+        <v>1040</v>
       </c>
       <c r="B66" s="412" t="s">
-        <v>1186</v>
+        <v>989</v>
       </c>
       <c r="C66" s="414">
         <v>3</v>
       </c>
       <c r="D66" s="412" t="s">
-        <v>166</v>
+        <v>414</v>
       </c>
       <c r="E66" s="412" t="s">
-        <v>958</v>
+        <v>972</v>
       </c>
       <c r="F66" s="412" t="s">
-        <v>189</v>
+        <v>77</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A67" s="413" t="s">
-        <v>1040</v>
+        <v>1367</v>
       </c>
       <c r="B67" s="412" t="s">
-        <v>989</v>
+        <v>1368</v>
       </c>
       <c r="C67" s="414">
         <v>3</v>
@@ -29322,7 +29328,7 @@
         <v>414</v>
       </c>
       <c r="E67" s="412" t="s">
-        <v>972</v>
+        <v>964</v>
       </c>
       <c r="F67" s="412" t="s">
         <v>77</v>
@@ -29330,39 +29336,39 @@
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A68" s="413" t="s">
-        <v>1367</v>
+        <v>1043</v>
       </c>
       <c r="B68" s="412" t="s">
-        <v>1368</v>
+        <v>992</v>
       </c>
       <c r="C68" s="414">
         <v>3</v>
       </c>
       <c r="D68" s="412" t="s">
-        <v>414</v>
+        <v>607</v>
       </c>
       <c r="E68" s="412" t="s">
-        <v>964</v>
+        <v>946</v>
       </c>
       <c r="F68" s="412" t="s">
-        <v>77</v>
+        <v>189</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A69" s="413" t="s">
-        <v>1043</v>
+        <v>1096</v>
       </c>
       <c r="B69" s="412" t="s">
-        <v>992</v>
+        <v>1097</v>
       </c>
       <c r="C69" s="414">
         <v>3</v>
       </c>
       <c r="D69" s="412" t="s">
-        <v>607</v>
+        <v>754</v>
       </c>
       <c r="E69" s="412" t="s">
-        <v>946</v>
+        <v>924</v>
       </c>
       <c r="F69" s="412" t="s">
         <v>189</v>
@@ -29370,61 +29376,41 @@
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A70" s="413" t="s">
-        <v>1096</v>
+        <v>1343</v>
       </c>
       <c r="B70" s="412" t="s">
-        <v>1097</v>
+        <v>1181</v>
       </c>
       <c r="C70" s="414">
         <v>3</v>
       </c>
       <c r="D70" s="412" t="s">
-        <v>754</v>
+        <v>811</v>
       </c>
       <c r="E70" s="412" t="s">
-        <v>924</v>
+        <v>947</v>
       </c>
       <c r="F70" s="412" t="s">
-        <v>189</v>
+        <v>123</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A71" s="413" t="s">
-        <v>1343</v>
+        <v>1046</v>
       </c>
       <c r="B71" s="412" t="s">
-        <v>1181</v>
+        <v>993</v>
       </c>
       <c r="C71" s="414">
         <v>3</v>
       </c>
       <c r="D71" s="412" t="s">
-        <v>811</v>
+        <v>166</v>
       </c>
       <c r="E71" s="412" t="s">
-        <v>947</v>
+        <v>969</v>
       </c>
       <c r="F71" s="412" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A72" s="413" t="s">
-        <v>1046</v>
-      </c>
-      <c r="B72" s="412" t="s">
-        <v>993</v>
-      </c>
-      <c r="C72" s="414">
-        <v>3</v>
-      </c>
-      <c r="D72" s="412" t="s">
-        <v>166</v>
-      </c>
-      <c r="E72" s="412" t="s">
-        <v>969</v>
-      </c>
-      <c r="F72" s="412" t="s">
         <v>432</v>
       </c>
     </row>
@@ -37576,7 +37562,7 @@
   <sheetData>
     <row r="1" spans="1:6" s="410" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="407" t="s">
-        <v>1496</v>
+        <v>1495</v>
       </c>
       <c r="B1" s="408"/>
       <c r="C1" s="409"/>

--- a/schedule/semester/schedule.xlsx
+++ b/schedule/semester/schedule.xlsx
@@ -4576,9 +4576,6 @@
     <t>KHB4017</t>
   </si>
   <si>
-    <t>Posted 8/12/2019</t>
-  </si>
-  <si>
     <t>EE3001-01</t>
   </si>
   <si>
@@ -4586,6 +4583,9 @@
   </si>
   <si>
     <t>Alvarado</t>
+  </si>
+  <si>
+    <t>Posted 8/26/2019</t>
   </si>
 </sst>
 </file>
@@ -28074,7 +28074,7 @@
       <pane xSplit="1" ySplit="12" topLeftCell="B13" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A13" sqref="A13"/>
-      <selection pane="bottomRight" activeCell="B76" sqref="B76"/>
+      <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
@@ -28090,7 +28090,7 @@
   <sheetData>
     <row r="1" spans="1:6" s="410" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="407" t="s">
-        <v>1498</v>
+        <v>1501</v>
       </c>
       <c r="B1" s="408"/>
       <c r="C1" s="409"/>
@@ -28576,7 +28576,7 @@
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A30" s="413" t="s">
-        <v>1499</v>
+        <v>1498</v>
       </c>
       <c r="B30" s="412" t="s">
         <v>925</v>
@@ -28596,7 +28596,7 @@
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31" s="413" t="s">
-        <v>1500</v>
+        <v>1499</v>
       </c>
       <c r="B31" s="412" t="s">
         <v>925</v>
@@ -28685,7 +28685,7 @@
         <v>1</v>
       </c>
       <c r="D35" s="412" t="s">
-        <v>1501</v>
+        <v>1500</v>
       </c>
       <c r="E35" s="412" t="s">
         <v>933</v>
@@ -29031,7 +29031,7 @@
         <v>947</v>
       </c>
       <c r="F52" s="412" t="s">
-        <v>584</v>
+        <v>129</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.2">
@@ -29171,7 +29171,7 @@
         <v>950</v>
       </c>
       <c r="F59" s="412" t="s">
-        <v>77</v>
+        <v>584</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.2">

--- a/schedule/semester/schedule.xlsx
+++ b/schedule/semester/schedule.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="5250" yWindow="75" windowWidth="16320" windowHeight="12375" tabRatio="734" activeTab="2"/>
+    <workbookView xWindow="5250" yWindow="75" windowWidth="16320" windowHeight="12375" tabRatio="734" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="sum20" sheetId="83" r:id="rId1"/>
@@ -80,7 +80,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8493" uniqueCount="1502">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8804" uniqueCount="1529">
   <si>
     <t>ELECTRICAL AND COMPUTER ENGINEERING</t>
   </si>
@@ -4586,6 +4586,87 @@
   </si>
   <si>
     <t>Posted 8/26/2019</t>
+  </si>
+  <si>
+    <t>TR 800-850AM</t>
+  </si>
+  <si>
+    <t>TR 905-1020AM</t>
+  </si>
+  <si>
+    <t>WF140-230PM</t>
+  </si>
+  <si>
+    <t>WF 245-400PM</t>
+  </si>
+  <si>
+    <t>M 1055AM-125PM</t>
+  </si>
+  <si>
+    <t>W 1055AM-125PM</t>
+  </si>
+  <si>
+    <t>MW 905-1020AM</t>
+  </si>
+  <si>
+    <t>WF 430-520PM</t>
+  </si>
+  <si>
+    <t>WF 535-650PM</t>
+  </si>
+  <si>
+    <t>T 150-420PM</t>
+  </si>
+  <si>
+    <t>KHC4077</t>
+  </si>
+  <si>
+    <t>MW 430-545pm</t>
+  </si>
+  <si>
+    <t>TR 1050AM-1140AM</t>
+  </si>
+  <si>
+    <t>TR 1155AM-110PM</t>
+  </si>
+  <si>
+    <t>TR 600-650PM</t>
+  </si>
+  <si>
+    <t>TR 705-820PM</t>
+  </si>
+  <si>
+    <t>MW 1205-120PM</t>
+  </si>
+  <si>
+    <t>TR 500-550PM</t>
+  </si>
+  <si>
+    <t>WF 725-840PM</t>
+  </si>
+  <si>
+    <t>TR 140-230PM</t>
+  </si>
+  <si>
+    <t>TR 245-400PM</t>
+  </si>
+  <si>
+    <t>EE4630</t>
+  </si>
+  <si>
+    <t>Machine Learning Principles and Applications</t>
+  </si>
+  <si>
+    <t>Vincent, P.</t>
+  </si>
+  <si>
+    <t>KHLH2</t>
+  </si>
+  <si>
+    <t>Linear Sys Analysis</t>
+  </si>
+  <si>
+    <t>Posted  10/1/2019</t>
   </si>
 </sst>
 </file>
@@ -18981,13 +19062,13 @@
   <sheetPr codeName="Sheet41">
     <tabColor rgb="FF92D050"/>
   </sheetPr>
-  <dimension ref="A1:F13"/>
+  <dimension ref="A1:F75"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <pane xSplit="1" ySplit="12" topLeftCell="B13" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A13" sqref="A13"/>
-      <selection pane="bottomRight" activeCell="B28" sqref="B28"/>
+      <selection pane="bottomRight" activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
@@ -19003,7 +19084,7 @@
   <sheetData>
     <row r="1" spans="1:6" s="410" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="407" t="s">
-        <v>1113</v>
+        <v>1528</v>
       </c>
       <c r="B1" s="408"/>
       <c r="C1" s="409"/>
@@ -19142,7 +19223,1254 @@
         <v>6</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="12" thickTop="1" x14ac:dyDescent="0.2"/>
+    <row r="13" spans="1:6" ht="12" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="413" t="s">
+        <v>1001</v>
+      </c>
+      <c r="B13" s="412" t="s">
+        <v>1364</v>
+      </c>
+      <c r="C13" s="414">
+        <v>3</v>
+      </c>
+      <c r="D13" s="412" t="s">
+        <v>64</v>
+      </c>
+      <c r="E13" s="412" t="s">
+        <v>914</v>
+      </c>
+      <c r="F13" s="412" t="s">
+        <v>901</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A14" s="413" t="s">
+        <v>1056</v>
+      </c>
+      <c r="B14" s="412" t="s">
+        <v>915</v>
+      </c>
+      <c r="C14" s="414">
+        <v>1</v>
+      </c>
+      <c r="D14" s="412" t="s">
+        <v>1416</v>
+      </c>
+      <c r="E14" s="412" t="s">
+        <v>933</v>
+      </c>
+      <c r="F14" s="412" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A15" s="413" t="s">
+        <v>1057</v>
+      </c>
+      <c r="B15" s="412" t="s">
+        <v>915</v>
+      </c>
+      <c r="C15" s="414">
+        <v>1</v>
+      </c>
+      <c r="D15" s="412" t="s">
+        <v>1416</v>
+      </c>
+      <c r="E15" s="412" t="s">
+        <v>1210</v>
+      </c>
+      <c r="F15" s="412" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A16" s="413" t="s">
+        <v>1058</v>
+      </c>
+      <c r="B16" s="412" t="s">
+        <v>915</v>
+      </c>
+      <c r="C16" s="414">
+        <v>1</v>
+      </c>
+      <c r="E16" s="412" t="s">
+        <v>926</v>
+      </c>
+      <c r="F16" s="412" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A17" s="413" t="s">
+        <v>1002</v>
+      </c>
+      <c r="B17" s="412" t="s">
+        <v>917</v>
+      </c>
+      <c r="C17" s="414">
+        <v>2</v>
+      </c>
+      <c r="D17" s="412" t="s">
+        <v>1491</v>
+      </c>
+      <c r="E17" s="412" t="s">
+        <v>1502</v>
+      </c>
+      <c r="F17" s="412" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A18" s="413" t="s">
+        <v>1003</v>
+      </c>
+      <c r="B18" s="412" t="s">
+        <v>917</v>
+      </c>
+      <c r="C18" s="414">
+        <v>1</v>
+      </c>
+      <c r="D18" s="412" t="s">
+        <v>1491</v>
+      </c>
+      <c r="E18" s="412" t="s">
+        <v>1503</v>
+      </c>
+      <c r="F18" s="412" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A19" s="413" t="s">
+        <v>1059</v>
+      </c>
+      <c r="B19" s="412" t="s">
+        <v>917</v>
+      </c>
+      <c r="C19" s="414">
+        <v>2</v>
+      </c>
+      <c r="D19" s="412" t="s">
+        <v>481</v>
+      </c>
+      <c r="E19" s="412" t="s">
+        <v>1504</v>
+      </c>
+      <c r="F19" s="412" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A20" s="413" t="s">
+        <v>1060</v>
+      </c>
+      <c r="B20" s="412" t="s">
+        <v>917</v>
+      </c>
+      <c r="C20" s="414">
+        <v>1</v>
+      </c>
+      <c r="D20" s="412" t="s">
+        <v>481</v>
+      </c>
+      <c r="E20" s="412" t="s">
+        <v>1505</v>
+      </c>
+      <c r="F20" s="412" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A21" s="413" t="s">
+        <v>1064</v>
+      </c>
+      <c r="B21" s="412" t="s">
+        <v>920</v>
+      </c>
+      <c r="C21" s="414">
+        <v>1</v>
+      </c>
+      <c r="D21" s="412" t="s">
+        <v>1365</v>
+      </c>
+      <c r="E21" s="412" t="s">
+        <v>936</v>
+      </c>
+      <c r="F21" s="412" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A22" s="413" t="s">
+        <v>1065</v>
+      </c>
+      <c r="B22" s="412" t="s">
+        <v>920</v>
+      </c>
+      <c r="C22" s="414">
+        <v>1</v>
+      </c>
+      <c r="D22" s="412" t="s">
+        <v>811</v>
+      </c>
+      <c r="E22" s="412" t="s">
+        <v>1506</v>
+      </c>
+      <c r="F22" s="412" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A23" s="413" t="s">
+        <v>1066</v>
+      </c>
+      <c r="B23" s="412" t="s">
+        <v>920</v>
+      </c>
+      <c r="C23" s="414">
+        <v>1</v>
+      </c>
+      <c r="D23" s="412" t="s">
+        <v>811</v>
+      </c>
+      <c r="E23" s="412" t="s">
+        <v>1507</v>
+      </c>
+      <c r="F23" s="412" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A24" s="413" t="s">
+        <v>1004</v>
+      </c>
+      <c r="B24" s="412" t="s">
+        <v>921</v>
+      </c>
+      <c r="C24" s="414">
+        <v>2</v>
+      </c>
+      <c r="D24" s="412" t="s">
+        <v>159</v>
+      </c>
+      <c r="E24" s="412" t="s">
+        <v>1441</v>
+      </c>
+      <c r="F24" s="412" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A25" s="413" t="s">
+        <v>1005</v>
+      </c>
+      <c r="B25" s="412" t="s">
+        <v>921</v>
+      </c>
+      <c r="C25" s="414">
+        <v>1</v>
+      </c>
+      <c r="D25" s="412" t="s">
+        <v>159</v>
+      </c>
+      <c r="E25" s="412" t="s">
+        <v>1508</v>
+      </c>
+      <c r="F25" s="412" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A26" s="413" t="s">
+        <v>1168</v>
+      </c>
+      <c r="B26" s="412" t="s">
+        <v>921</v>
+      </c>
+      <c r="C26" s="414">
+        <v>2</v>
+      </c>
+      <c r="D26" s="412" t="s">
+        <v>481</v>
+      </c>
+      <c r="E26" s="412" t="s">
+        <v>1509</v>
+      </c>
+      <c r="F26" s="412" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A27" s="413" t="s">
+        <v>1170</v>
+      </c>
+      <c r="B27" s="412" t="s">
+        <v>921</v>
+      </c>
+      <c r="C27" s="414">
+        <v>1</v>
+      </c>
+      <c r="D27" s="412" t="s">
+        <v>481</v>
+      </c>
+      <c r="E27" s="412" t="s">
+        <v>1510</v>
+      </c>
+      <c r="F27" s="412" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A28" s="413" t="s">
+        <v>1006</v>
+      </c>
+      <c r="B28" s="412" t="s">
+        <v>1191</v>
+      </c>
+      <c r="C28" s="414">
+        <v>3</v>
+      </c>
+      <c r="D28" s="412" t="s">
+        <v>912</v>
+      </c>
+      <c r="E28" s="412" t="s">
+        <v>924</v>
+      </c>
+      <c r="F28" s="412" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A29" s="413" t="s">
+        <v>1007</v>
+      </c>
+      <c r="B29" s="412" t="s">
+        <v>925</v>
+      </c>
+      <c r="C29" s="414">
+        <v>1</v>
+      </c>
+      <c r="D29" s="412" t="s">
+        <v>741</v>
+      </c>
+      <c r="E29" s="412" t="s">
+        <v>1511</v>
+      </c>
+      <c r="F29" s="412" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A30" s="413" t="s">
+        <v>1009</v>
+      </c>
+      <c r="B30" s="412" t="s">
+        <v>1179</v>
+      </c>
+      <c r="C30" s="414">
+        <v>3</v>
+      </c>
+      <c r="D30" s="412" t="s">
+        <v>64</v>
+      </c>
+      <c r="E30" s="412" t="s">
+        <v>929</v>
+      </c>
+      <c r="F30" s="412" t="s">
+        <v>1512</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A31" s="413" t="s">
+        <v>1370</v>
+      </c>
+      <c r="B31" s="412" t="s">
+        <v>1371</v>
+      </c>
+      <c r="C31" s="414">
+        <v>3</v>
+      </c>
+      <c r="D31" s="412" t="s">
+        <v>34</v>
+      </c>
+      <c r="E31" s="412" t="s">
+        <v>914</v>
+      </c>
+      <c r="F31" s="412" t="s">
+        <v>1496</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A32" s="413" t="s">
+        <v>1070</v>
+      </c>
+      <c r="B32" s="412" t="s">
+        <v>930</v>
+      </c>
+      <c r="C32" s="414">
+        <v>3</v>
+      </c>
+      <c r="D32" s="412" t="s">
+        <v>34</v>
+      </c>
+      <c r="E32" s="412" t="s">
+        <v>931</v>
+      </c>
+      <c r="F32" s="412" t="s">
+        <v>1496</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A33" s="413" t="s">
+        <v>1213</v>
+      </c>
+      <c r="B33" s="412" t="s">
+        <v>934</v>
+      </c>
+      <c r="C33" s="414">
+        <v>3</v>
+      </c>
+      <c r="D33" s="412" t="s">
+        <v>64</v>
+      </c>
+      <c r="E33" s="412" t="s">
+        <v>931</v>
+      </c>
+      <c r="F33" s="412" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A34" s="413" t="s">
+        <v>1214</v>
+      </c>
+      <c r="B34" s="412" t="s">
+        <v>934</v>
+      </c>
+      <c r="C34" s="414">
+        <v>3</v>
+      </c>
+      <c r="D34" s="412" t="s">
+        <v>467</v>
+      </c>
+      <c r="E34" s="412" t="s">
+        <v>1513</v>
+      </c>
+      <c r="F34" s="412" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A35" s="413" t="s">
+        <v>1418</v>
+      </c>
+      <c r="B35" s="412" t="s">
+        <v>935</v>
+      </c>
+      <c r="C35" s="414">
+        <v>1</v>
+      </c>
+      <c r="D35" s="412" t="s">
+        <v>1419</v>
+      </c>
+      <c r="E35" s="412" t="s">
+        <v>936</v>
+      </c>
+      <c r="F35" s="412" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A36" s="413" t="s">
+        <v>1420</v>
+      </c>
+      <c r="B36" s="412" t="s">
+        <v>935</v>
+      </c>
+      <c r="C36" s="414">
+        <v>1</v>
+      </c>
+      <c r="D36" s="412" t="s">
+        <v>1419</v>
+      </c>
+      <c r="E36" s="412" t="s">
+        <v>933</v>
+      </c>
+      <c r="F36" s="412" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A37" s="413" t="s">
+        <v>1154</v>
+      </c>
+      <c r="B37" s="412" t="s">
+        <v>1192</v>
+      </c>
+      <c r="C37" s="414">
+        <v>3</v>
+      </c>
+      <c r="D37" s="412" t="s">
+        <v>1421</v>
+      </c>
+      <c r="E37" s="412" t="s">
+        <v>942</v>
+      </c>
+      <c r="F37" s="412" t="s">
+        <v>905</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A38" s="413" t="s">
+        <v>1156</v>
+      </c>
+      <c r="B38" s="412" t="s">
+        <v>1192</v>
+      </c>
+      <c r="C38" s="414">
+        <v>3</v>
+      </c>
+      <c r="D38" s="412" t="s">
+        <v>1421</v>
+      </c>
+      <c r="E38" s="412" t="s">
+        <v>938</v>
+      </c>
+      <c r="F38" s="412" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A39" s="413" t="s">
+        <v>1015</v>
+      </c>
+      <c r="B39" s="412" t="s">
+        <v>1215</v>
+      </c>
+      <c r="C39" s="414">
+        <v>2</v>
+      </c>
+      <c r="D39" s="412" t="s">
+        <v>1491</v>
+      </c>
+      <c r="E39" s="412" t="s">
+        <v>1514</v>
+      </c>
+      <c r="F39" s="412" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A40" s="413" t="s">
+        <v>1016</v>
+      </c>
+      <c r="B40" s="412" t="s">
+        <v>1215</v>
+      </c>
+      <c r="C40" s="414">
+        <v>1</v>
+      </c>
+      <c r="D40" s="412" t="s">
+        <v>1491</v>
+      </c>
+      <c r="E40" s="412" t="s">
+        <v>1515</v>
+      </c>
+      <c r="F40" s="412" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A41" s="413" t="s">
+        <v>1196</v>
+      </c>
+      <c r="B41" s="412" t="s">
+        <v>1215</v>
+      </c>
+      <c r="C41" s="414">
+        <v>2</v>
+      </c>
+      <c r="D41" s="412" t="s">
+        <v>743</v>
+      </c>
+      <c r="E41" s="412" t="s">
+        <v>1516</v>
+      </c>
+      <c r="F41" s="412" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A42" s="413" t="s">
+        <v>1198</v>
+      </c>
+      <c r="B42" s="412" t="s">
+        <v>1215</v>
+      </c>
+      <c r="C42" s="414">
+        <v>1</v>
+      </c>
+      <c r="D42" s="412" t="s">
+        <v>743</v>
+      </c>
+      <c r="E42" s="412" t="s">
+        <v>1517</v>
+      </c>
+      <c r="F42" s="412" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A43" s="413" t="s">
+        <v>1199</v>
+      </c>
+      <c r="B43" s="412" t="s">
+        <v>1215</v>
+      </c>
+      <c r="C43" s="414">
+        <v>2</v>
+      </c>
+      <c r="D43" s="412" t="s">
+        <v>743</v>
+      </c>
+      <c r="E43" s="412" t="s">
+        <v>1062</v>
+      </c>
+      <c r="F43" s="412" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A44" s="413" t="s">
+        <v>1201</v>
+      </c>
+      <c r="B44" s="412" t="s">
+        <v>1215</v>
+      </c>
+      <c r="C44" s="414">
+        <v>1</v>
+      </c>
+      <c r="D44" s="412" t="s">
+        <v>743</v>
+      </c>
+      <c r="E44" s="412" t="s">
+        <v>1518</v>
+      </c>
+      <c r="F44" s="412" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A45" s="413" t="s">
+        <v>1071</v>
+      </c>
+      <c r="B45" s="412" t="s">
+        <v>1202</v>
+      </c>
+      <c r="C45" s="414">
+        <v>3</v>
+      </c>
+      <c r="D45" s="412" t="s">
+        <v>34</v>
+      </c>
+      <c r="E45" s="412" t="s">
+        <v>929</v>
+      </c>
+      <c r="F45" s="412" t="s">
+        <v>1496</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A46" s="413" t="s">
+        <v>1072</v>
+      </c>
+      <c r="B46" s="412" t="s">
+        <v>937</v>
+      </c>
+      <c r="C46" s="414">
+        <v>3</v>
+      </c>
+      <c r="D46" s="412" t="s">
+        <v>34</v>
+      </c>
+      <c r="E46" s="412" t="s">
+        <v>938</v>
+      </c>
+      <c r="F46" s="412" t="s">
+        <v>1496</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A47" s="413" t="s">
+        <v>1073</v>
+      </c>
+      <c r="B47" s="412" t="s">
+        <v>941</v>
+      </c>
+      <c r="C47" s="414">
+        <v>3</v>
+      </c>
+      <c r="D47" s="412" t="s">
+        <v>64</v>
+      </c>
+      <c r="E47" s="412" t="s">
+        <v>942</v>
+      </c>
+      <c r="F47" s="412" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A48" s="413" t="s">
+        <v>1019</v>
+      </c>
+      <c r="B48" s="412" t="s">
+        <v>943</v>
+      </c>
+      <c r="C48" s="414">
+        <v>2</v>
+      </c>
+      <c r="D48" s="412" t="s">
+        <v>741</v>
+      </c>
+      <c r="E48" s="412" t="s">
+        <v>1519</v>
+      </c>
+      <c r="F48" s="412" t="s">
+        <v>905</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A49" s="413" t="s">
+        <v>1020</v>
+      </c>
+      <c r="B49" s="412" t="s">
+        <v>943</v>
+      </c>
+      <c r="C49" s="414">
+        <v>1</v>
+      </c>
+      <c r="D49" s="412" t="s">
+        <v>741</v>
+      </c>
+      <c r="E49" s="412" t="s">
+        <v>919</v>
+      </c>
+      <c r="F49" s="412" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A50" s="413" t="s">
+        <v>1161</v>
+      </c>
+      <c r="B50" s="412" t="s">
+        <v>943</v>
+      </c>
+      <c r="C50" s="414">
+        <v>1</v>
+      </c>
+      <c r="D50" s="412" t="s">
+        <v>741</v>
+      </c>
+      <c r="E50" s="412" t="s">
+        <v>1484</v>
+      </c>
+      <c r="F50" s="412" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A51" s="413" t="s">
+        <v>1163</v>
+      </c>
+      <c r="B51" s="412" t="s">
+        <v>943</v>
+      </c>
+      <c r="C51" s="414">
+        <v>1</v>
+      </c>
+      <c r="D51" s="412" t="s">
+        <v>741</v>
+      </c>
+      <c r="E51" s="412" t="s">
+        <v>1207</v>
+      </c>
+      <c r="F51" s="412" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A52" s="413" t="s">
+        <v>1074</v>
+      </c>
+      <c r="B52" s="412" t="s">
+        <v>945</v>
+      </c>
+      <c r="C52" s="414">
+        <v>3</v>
+      </c>
+      <c r="D52" s="412" t="s">
+        <v>732</v>
+      </c>
+      <c r="E52" s="412" t="s">
+        <v>946</v>
+      </c>
+      <c r="F52" s="412" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A53" s="413" t="s">
+        <v>1075</v>
+      </c>
+      <c r="B53" s="412" t="s">
+        <v>948</v>
+      </c>
+      <c r="C53" s="414">
+        <v>3</v>
+      </c>
+      <c r="D53" s="412" t="s">
+        <v>414</v>
+      </c>
+      <c r="E53" s="412" t="s">
+        <v>947</v>
+      </c>
+      <c r="F53" s="412" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A54" s="413" t="s">
+        <v>1372</v>
+      </c>
+      <c r="B54" s="412" t="s">
+        <v>1373</v>
+      </c>
+      <c r="C54" s="414">
+        <v>1</v>
+      </c>
+      <c r="D54" s="412" t="s">
+        <v>1417</v>
+      </c>
+      <c r="E54" s="412" t="s">
+        <v>1210</v>
+      </c>
+      <c r="F54" s="412" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A55" s="413" t="s">
+        <v>1076</v>
+      </c>
+      <c r="B55" s="412" t="s">
+        <v>949</v>
+      </c>
+      <c r="C55" s="414">
+        <v>3</v>
+      </c>
+      <c r="E55" s="412" t="s">
+        <v>964</v>
+      </c>
+      <c r="F55" s="412" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A56" s="413" t="s">
+        <v>1023</v>
+      </c>
+      <c r="B56" s="412" t="s">
+        <v>951</v>
+      </c>
+      <c r="C56" s="414">
+        <v>3</v>
+      </c>
+      <c r="D56" s="412" t="s">
+        <v>476</v>
+      </c>
+      <c r="E56" s="412" t="s">
+        <v>928</v>
+      </c>
+      <c r="F56" s="412" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A57" s="413" t="s">
+        <v>1024</v>
+      </c>
+      <c r="B57" s="412" t="s">
+        <v>952</v>
+      </c>
+      <c r="C57" s="414">
+        <v>3</v>
+      </c>
+      <c r="D57" s="412" t="s">
+        <v>1218</v>
+      </c>
+      <c r="E57" s="412" t="s">
+        <v>924</v>
+      </c>
+      <c r="F57" s="412" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A58" s="413" t="s">
+        <v>1077</v>
+      </c>
+      <c r="B58" s="412" t="s">
+        <v>955</v>
+      </c>
+      <c r="C58" s="414">
+        <v>3</v>
+      </c>
+      <c r="D58" s="412" t="s">
+        <v>1218</v>
+      </c>
+      <c r="E58" s="412" t="s">
+        <v>1173</v>
+      </c>
+      <c r="F58" s="412" t="s">
+        <v>1497</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A59" s="413" t="s">
+        <v>1079</v>
+      </c>
+      <c r="B59" s="412" t="s">
+        <v>957</v>
+      </c>
+      <c r="C59" s="414">
+        <v>3</v>
+      </c>
+      <c r="D59" s="412" t="s">
+        <v>481</v>
+      </c>
+      <c r="E59" s="412" t="s">
+        <v>1520</v>
+      </c>
+      <c r="F59" s="412" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A60" s="413" t="s">
+        <v>1339</v>
+      </c>
+      <c r="B60" s="412" t="s">
+        <v>983</v>
+      </c>
+      <c r="C60" s="414">
+        <v>3</v>
+      </c>
+      <c r="E60" s="412" t="s">
+        <v>946</v>
+      </c>
+      <c r="F60" s="412" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A61" s="413" t="s">
+        <v>1080</v>
+      </c>
+      <c r="B61" s="412" t="s">
+        <v>959</v>
+      </c>
+      <c r="C61" s="414">
+        <v>2</v>
+      </c>
+      <c r="D61" s="412" t="s">
+        <v>743</v>
+      </c>
+      <c r="E61" s="412" t="s">
+        <v>1521</v>
+      </c>
+      <c r="F61" s="412" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A62" s="413" t="s">
+        <v>1081</v>
+      </c>
+      <c r="B62" s="412" t="s">
+        <v>959</v>
+      </c>
+      <c r="C62" s="414">
+        <v>1</v>
+      </c>
+      <c r="D62" s="412" t="s">
+        <v>743</v>
+      </c>
+      <c r="E62" s="412" t="s">
+        <v>1522</v>
+      </c>
+      <c r="F62" s="412" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A63" s="413" t="s">
+        <v>1082</v>
+      </c>
+      <c r="B63" s="412" t="s">
+        <v>1435</v>
+      </c>
+      <c r="C63" s="414">
+        <v>3</v>
+      </c>
+      <c r="D63" s="412" t="s">
+        <v>64</v>
+      </c>
+      <c r="E63" s="412" t="s">
+        <v>962</v>
+      </c>
+      <c r="F63" s="412" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A64" s="413" t="s">
+        <v>1523</v>
+      </c>
+      <c r="B64" s="412" t="s">
+        <v>1524</v>
+      </c>
+      <c r="C64" s="414">
+        <v>3</v>
+      </c>
+      <c r="D64" s="412" t="s">
+        <v>414</v>
+      </c>
+      <c r="E64" s="412" t="s">
+        <v>950</v>
+      </c>
+      <c r="F64" s="412" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A65" s="413" t="s">
+        <v>1083</v>
+      </c>
+      <c r="B65" s="412" t="s">
+        <v>963</v>
+      </c>
+      <c r="C65" s="414">
+        <v>1</v>
+      </c>
+      <c r="D65" s="412" t="s">
+        <v>1419</v>
+      </c>
+      <c r="E65" s="412" t="s">
+        <v>1207</v>
+      </c>
+      <c r="F65" s="412" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A66" s="413" t="s">
+        <v>1374</v>
+      </c>
+      <c r="B66" s="412" t="s">
+        <v>1375</v>
+      </c>
+      <c r="C66" s="414">
+        <v>3</v>
+      </c>
+      <c r="D66" s="412" t="s">
+        <v>1525</v>
+      </c>
+      <c r="E66" s="412" t="s">
+        <v>972</v>
+      </c>
+      <c r="F66" s="412" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A67" s="413" t="s">
+        <v>1208</v>
+      </c>
+      <c r="B67" s="412" t="s">
+        <v>965</v>
+      </c>
+      <c r="C67" s="414">
+        <v>3</v>
+      </c>
+      <c r="D67" s="412" t="s">
+        <v>1494</v>
+      </c>
+      <c r="E67" s="412" t="s">
+        <v>1490</v>
+      </c>
+      <c r="F67" s="412" t="s">
+        <v>1526</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A68" s="413" t="s">
+        <v>1084</v>
+      </c>
+      <c r="B68" s="412" t="s">
+        <v>968</v>
+      </c>
+      <c r="C68" s="414">
+        <v>3</v>
+      </c>
+      <c r="E68" s="412" t="s">
+        <v>969</v>
+      </c>
+      <c r="F68" s="412" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A69" s="413" t="s">
+        <v>1085</v>
+      </c>
+      <c r="B69" s="412" t="s">
+        <v>970</v>
+      </c>
+      <c r="C69" s="414">
+        <v>3</v>
+      </c>
+      <c r="D69" s="412" t="s">
+        <v>166</v>
+      </c>
+      <c r="E69" s="412" t="s">
+        <v>953</v>
+      </c>
+      <c r="F69" s="412" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A70" s="413" t="s">
+        <v>1086</v>
+      </c>
+      <c r="B70" s="412" t="s">
+        <v>971</v>
+      </c>
+      <c r="C70" s="414">
+        <v>3</v>
+      </c>
+      <c r="D70" s="412" t="s">
+        <v>414</v>
+      </c>
+      <c r="E70" s="412" t="s">
+        <v>972</v>
+      </c>
+      <c r="F70" s="412" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A71" s="413" t="s">
+        <v>1041</v>
+      </c>
+      <c r="B71" s="412" t="s">
+        <v>990</v>
+      </c>
+      <c r="C71" s="414">
+        <v>3</v>
+      </c>
+      <c r="D71" s="412" t="s">
+        <v>45</v>
+      </c>
+      <c r="E71" s="412" t="s">
+        <v>964</v>
+      </c>
+      <c r="F71" s="412" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A72" s="413" t="s">
+        <v>1087</v>
+      </c>
+      <c r="B72" s="412" t="s">
+        <v>1088</v>
+      </c>
+      <c r="C72" s="414">
+        <v>3</v>
+      </c>
+      <c r="D72" s="412" t="s">
+        <v>754</v>
+      </c>
+      <c r="E72" s="412" t="s">
+        <v>924</v>
+      </c>
+      <c r="F72" s="412" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A73" s="413" t="s">
+        <v>1089</v>
+      </c>
+      <c r="B73" s="412" t="s">
+        <v>973</v>
+      </c>
+      <c r="C73" s="414">
+        <v>3</v>
+      </c>
+      <c r="D73" s="412" t="s">
+        <v>607</v>
+      </c>
+      <c r="E73" s="412" t="s">
+        <v>1067</v>
+      </c>
+      <c r="F73" s="412" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A74" s="413" t="s">
+        <v>1090</v>
+      </c>
+      <c r="B74" s="412" t="s">
+        <v>1188</v>
+      </c>
+      <c r="C74" s="414">
+        <v>3</v>
+      </c>
+      <c r="D74" s="412" t="s">
+        <v>811</v>
+      </c>
+      <c r="E74" s="412" t="s">
+        <v>947</v>
+      </c>
+      <c r="F74" s="412" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A75" s="413" t="s">
+        <v>1092</v>
+      </c>
+      <c r="B75" s="412" t="s">
+        <v>1527</v>
+      </c>
+      <c r="C75" s="414">
+        <v>3</v>
+      </c>
+      <c r="D75" s="412" t="s">
+        <v>166</v>
+      </c>
+      <c r="E75" s="412" t="s">
+        <v>958</v>
+      </c>
+      <c r="F75" s="412" t="s">
+        <v>228</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="A4:C6"/>
@@ -28070,7 +29398,7 @@
   </sheetPr>
   <dimension ref="A1:F71"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <pane xSplit="1" ySplit="12" topLeftCell="B13" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A13" sqref="A13"/>

--- a/schedule/semester/schedule.xlsx
+++ b/schedule/semester/schedule.xlsx
@@ -80,7 +80,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8804" uniqueCount="1529">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8782" uniqueCount="1526">
   <si>
     <t>ELECTRICAL AND COMPUTER ENGINEERING</t>
   </si>
@@ -4594,18 +4594,9 @@
     <t>TR 905-1020AM</t>
   </si>
   <si>
-    <t>WF140-230PM</t>
-  </si>
-  <si>
-    <t>WF 245-400PM</t>
-  </si>
-  <si>
     <t>M 1055AM-125PM</t>
   </si>
   <si>
-    <t>W 1055AM-125PM</t>
-  </si>
-  <si>
     <t>MW 905-1020AM</t>
   </si>
   <si>
@@ -4624,12 +4615,6 @@
     <t>MW 430-545pm</t>
   </si>
   <si>
-    <t>TR 1050AM-1140AM</t>
-  </si>
-  <si>
-    <t>TR 1155AM-110PM</t>
-  </si>
-  <si>
     <t>TR 600-650PM</t>
   </si>
   <si>
@@ -4666,7 +4651,13 @@
     <t>Linear Sys Analysis</t>
   </si>
   <si>
-    <t>Posted  10/1/2019</t>
+    <t>Velasco</t>
+  </si>
+  <si>
+    <t>ETA220</t>
+  </si>
+  <si>
+    <t>Posted 01/13/2020</t>
   </si>
 </sst>
 </file>
@@ -19062,13 +19053,13 @@
   <sheetPr codeName="Sheet41">
     <tabColor rgb="FF92D050"/>
   </sheetPr>
-  <dimension ref="A1:F75"/>
+  <dimension ref="A1:F70"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <pane xSplit="1" ySplit="12" topLeftCell="B13" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A13" sqref="A13"/>
-      <selection pane="bottomRight" activeCell="B27" sqref="B27"/>
+      <selection pane="bottomRight" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
@@ -19084,7 +19075,7 @@
   <sheetData>
     <row r="1" spans="1:6" s="410" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="407" t="s">
-        <v>1528</v>
+        <v>1525</v>
       </c>
       <c r="B1" s="408"/>
       <c r="C1" s="409"/>
@@ -19293,6 +19284,9 @@
       <c r="C16" s="414">
         <v>1</v>
       </c>
+      <c r="D16" s="412" t="s">
+        <v>743</v>
+      </c>
       <c r="E16" s="412" t="s">
         <v>926</v>
       </c>
@@ -19342,119 +19336,119 @@
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" s="413" t="s">
-        <v>1059</v>
+        <v>1064</v>
       </c>
       <c r="B19" s="412" t="s">
-        <v>917</v>
+        <v>920</v>
       </c>
       <c r="C19" s="414">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D19" s="412" t="s">
-        <v>481</v>
+        <v>1365</v>
       </c>
       <c r="E19" s="412" t="s">
-        <v>1504</v>
+        <v>936</v>
       </c>
       <c r="F19" s="412" t="s">
-        <v>100</v>
+        <v>19</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" s="413" t="s">
-        <v>1060</v>
+        <v>1065</v>
       </c>
       <c r="B20" s="412" t="s">
-        <v>917</v>
+        <v>920</v>
       </c>
       <c r="C20" s="414">
         <v>1</v>
       </c>
       <c r="D20" s="412" t="s">
-        <v>481</v>
+        <v>811</v>
       </c>
       <c r="E20" s="412" t="s">
-        <v>1505</v>
+        <v>1504</v>
       </c>
       <c r="F20" s="412" t="s">
-        <v>100</v>
+        <v>19</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" s="413" t="s">
-        <v>1064</v>
+        <v>1004</v>
       </c>
       <c r="B21" s="412" t="s">
-        <v>920</v>
+        <v>921</v>
       </c>
       <c r="C21" s="414">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D21" s="412" t="s">
-        <v>1365</v>
+        <v>159</v>
       </c>
       <c r="E21" s="412" t="s">
-        <v>936</v>
+        <v>1441</v>
       </c>
       <c r="F21" s="412" t="s">
-        <v>19</v>
+        <v>100</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" s="413" t="s">
-        <v>1065</v>
+        <v>1005</v>
       </c>
       <c r="B22" s="412" t="s">
-        <v>920</v>
+        <v>921</v>
       </c>
       <c r="C22" s="414">
         <v>1</v>
       </c>
       <c r="D22" s="412" t="s">
-        <v>811</v>
+        <v>159</v>
       </c>
       <c r="E22" s="412" t="s">
-        <v>1506</v>
+        <v>1505</v>
       </c>
       <c r="F22" s="412" t="s">
-        <v>19</v>
+        <v>100</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" s="413" t="s">
-        <v>1066</v>
+        <v>1168</v>
       </c>
       <c r="B23" s="412" t="s">
-        <v>920</v>
+        <v>921</v>
       </c>
       <c r="C23" s="414">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D23" s="412" t="s">
-        <v>811</v>
+        <v>481</v>
       </c>
       <c r="E23" s="412" t="s">
-        <v>1507</v>
+        <v>1506</v>
       </c>
       <c r="F23" s="412" t="s">
-        <v>19</v>
+        <v>100</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24" s="413" t="s">
-        <v>1004</v>
+        <v>1170</v>
       </c>
       <c r="B24" s="412" t="s">
         <v>921</v>
       </c>
       <c r="C24" s="414">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D24" s="412" t="s">
-        <v>159</v>
+        <v>481</v>
       </c>
       <c r="E24" s="412" t="s">
-        <v>1441</v>
+        <v>1507</v>
       </c>
       <c r="F24" s="412" t="s">
         <v>100</v>
@@ -19462,50 +19456,50 @@
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25" s="413" t="s">
-        <v>1005</v>
+        <v>1006</v>
       </c>
       <c r="B25" s="412" t="s">
-        <v>921</v>
+        <v>1191</v>
       </c>
       <c r="C25" s="414">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D25" s="412" t="s">
-        <v>159</v>
+        <v>912</v>
       </c>
       <c r="E25" s="412" t="s">
-        <v>1508</v>
+        <v>924</v>
       </c>
       <c r="F25" s="412" t="s">
-        <v>100</v>
+        <v>119</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26" s="413" t="s">
-        <v>1168</v>
+        <v>1498</v>
       </c>
       <c r="B26" s="412" t="s">
-        <v>921</v>
+        <v>925</v>
       </c>
       <c r="C26" s="414">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D26" s="412" t="s">
-        <v>481</v>
+        <v>1491</v>
       </c>
       <c r="E26" s="412" t="s">
-        <v>1509</v>
+        <v>1508</v>
       </c>
       <c r="F26" s="412" t="s">
-        <v>100</v>
+        <v>77</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27" s="413" t="s">
-        <v>1170</v>
+        <v>1499</v>
       </c>
       <c r="B27" s="412" t="s">
-        <v>921</v>
+        <v>925</v>
       </c>
       <c r="C27" s="414">
         <v>1</v>
@@ -19514,235 +19508,235 @@
         <v>481</v>
       </c>
       <c r="E27" s="412" t="s">
-        <v>1510</v>
+        <v>1484</v>
       </c>
       <c r="F27" s="412" t="s">
-        <v>100</v>
+        <v>66</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A28" s="413" t="s">
-        <v>1006</v>
+        <v>1009</v>
       </c>
       <c r="B28" s="412" t="s">
-        <v>1191</v>
+        <v>1179</v>
       </c>
       <c r="C28" s="414">
         <v>3</v>
       </c>
       <c r="D28" s="412" t="s">
-        <v>912</v>
+        <v>64</v>
       </c>
       <c r="E28" s="412" t="s">
-        <v>924</v>
+        <v>929</v>
       </c>
       <c r="F28" s="412" t="s">
-        <v>119</v>
+        <v>1509</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A29" s="413" t="s">
-        <v>1007</v>
+        <v>1370</v>
       </c>
       <c r="B29" s="412" t="s">
-        <v>925</v>
+        <v>1371</v>
       </c>
       <c r="C29" s="414">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D29" s="412" t="s">
-        <v>741</v>
+        <v>34</v>
       </c>
       <c r="E29" s="412" t="s">
-        <v>1511</v>
+        <v>914</v>
       </c>
       <c r="F29" s="412" t="s">
-        <v>77</v>
+        <v>1496</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A30" s="413" t="s">
-        <v>1009</v>
+        <v>1070</v>
       </c>
       <c r="B30" s="412" t="s">
-        <v>1179</v>
+        <v>930</v>
       </c>
       <c r="C30" s="414">
         <v>3</v>
       </c>
       <c r="D30" s="412" t="s">
-        <v>64</v>
+        <v>34</v>
       </c>
       <c r="E30" s="412" t="s">
-        <v>929</v>
+        <v>931</v>
       </c>
       <c r="F30" s="412" t="s">
-        <v>1512</v>
+        <v>1496</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31" s="413" t="s">
-        <v>1370</v>
+        <v>1213</v>
       </c>
       <c r="B31" s="412" t="s">
-        <v>1371</v>
+        <v>934</v>
       </c>
       <c r="C31" s="414">
         <v>3</v>
       </c>
       <c r="D31" s="412" t="s">
-        <v>34</v>
+        <v>64</v>
       </c>
       <c r="E31" s="412" t="s">
-        <v>914</v>
+        <v>931</v>
       </c>
       <c r="F31" s="412" t="s">
-        <v>1496</v>
+        <v>119</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A32" s="413" t="s">
-        <v>1070</v>
+        <v>1214</v>
       </c>
       <c r="B32" s="412" t="s">
-        <v>930</v>
+        <v>934</v>
       </c>
       <c r="C32" s="414">
         <v>3</v>
       </c>
       <c r="D32" s="412" t="s">
-        <v>34</v>
+        <v>467</v>
       </c>
       <c r="E32" s="412" t="s">
-        <v>931</v>
+        <v>1510</v>
       </c>
       <c r="F32" s="412" t="s">
-        <v>1496</v>
+        <v>620</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A33" s="413" t="s">
-        <v>1213</v>
+        <v>1418</v>
       </c>
       <c r="B33" s="412" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="C33" s="414">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D33" s="412" t="s">
-        <v>64</v>
+        <v>1419</v>
       </c>
       <c r="E33" s="412" t="s">
-        <v>931</v>
+        <v>936</v>
       </c>
       <c r="F33" s="412" t="s">
-        <v>119</v>
+        <v>189</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A34" s="413" t="s">
-        <v>1214</v>
+        <v>1420</v>
       </c>
       <c r="B34" s="412" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="C34" s="414">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D34" s="412" t="s">
-        <v>467</v>
+        <v>1419</v>
       </c>
       <c r="E34" s="412" t="s">
-        <v>1513</v>
+        <v>933</v>
       </c>
       <c r="F34" s="412" t="s">
-        <v>620</v>
+        <v>189</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A35" s="413" t="s">
-        <v>1418</v>
+        <v>1154</v>
       </c>
       <c r="B35" s="412" t="s">
-        <v>935</v>
+        <v>1192</v>
       </c>
       <c r="C35" s="414">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D35" s="412" t="s">
-        <v>1419</v>
+        <v>1421</v>
       </c>
       <c r="E35" s="412" t="s">
-        <v>936</v>
+        <v>942</v>
       </c>
       <c r="F35" s="412" t="s">
-        <v>189</v>
+        <v>905</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A36" s="413" t="s">
-        <v>1420</v>
+        <v>1156</v>
       </c>
       <c r="B36" s="412" t="s">
-        <v>935</v>
+        <v>1192</v>
       </c>
       <c r="C36" s="414">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D36" s="412" t="s">
-        <v>1419</v>
+        <v>1421</v>
       </c>
       <c r="E36" s="412" t="s">
-        <v>933</v>
+        <v>938</v>
       </c>
       <c r="F36" s="412" t="s">
-        <v>189</v>
+        <v>119</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A37" s="413" t="s">
-        <v>1154</v>
+        <v>1196</v>
       </c>
       <c r="B37" s="412" t="s">
-        <v>1192</v>
+        <v>1215</v>
       </c>
       <c r="C37" s="414">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D37" s="412" t="s">
-        <v>1421</v>
+        <v>741</v>
       </c>
       <c r="E37" s="412" t="s">
-        <v>942</v>
+        <v>1511</v>
       </c>
       <c r="F37" s="412" t="s">
-        <v>905</v>
+        <v>100</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A38" s="413" t="s">
-        <v>1156</v>
+        <v>1198</v>
       </c>
       <c r="B38" s="412" t="s">
-        <v>1192</v>
+        <v>1215</v>
       </c>
       <c r="C38" s="414">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D38" s="412" t="s">
-        <v>1421</v>
+        <v>741</v>
       </c>
       <c r="E38" s="412" t="s">
-        <v>938</v>
+        <v>1512</v>
       </c>
       <c r="F38" s="412" t="s">
-        <v>119</v>
+        <v>100</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A39" s="413" t="s">
-        <v>1015</v>
+        <v>1199</v>
       </c>
       <c r="B39" s="412" t="s">
         <v>1215</v>
@@ -19751,10 +19745,10 @@
         <v>2</v>
       </c>
       <c r="D39" s="412" t="s">
-        <v>1491</v>
+        <v>743</v>
       </c>
       <c r="E39" s="412" t="s">
-        <v>1514</v>
+        <v>1062</v>
       </c>
       <c r="F39" s="412" t="s">
         <v>100</v>
@@ -19762,7 +19756,7 @@
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A40" s="413" t="s">
-        <v>1016</v>
+        <v>1201</v>
       </c>
       <c r="B40" s="412" t="s">
         <v>1215</v>
@@ -19771,10 +19765,10 @@
         <v>1</v>
       </c>
       <c r="D40" s="412" t="s">
-        <v>1491</v>
+        <v>743</v>
       </c>
       <c r="E40" s="412" t="s">
-        <v>1515</v>
+        <v>1513</v>
       </c>
       <c r="F40" s="412" t="s">
         <v>100</v>
@@ -19782,199 +19776,199 @@
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A41" s="413" t="s">
-        <v>1196</v>
+        <v>1071</v>
       </c>
       <c r="B41" s="412" t="s">
-        <v>1215</v>
+        <v>1202</v>
       </c>
       <c r="C41" s="414">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D41" s="412" t="s">
-        <v>743</v>
+        <v>34</v>
       </c>
       <c r="E41" s="412" t="s">
-        <v>1516</v>
+        <v>929</v>
       </c>
       <c r="F41" s="412" t="s">
-        <v>100</v>
+        <v>1496</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A42" s="413" t="s">
-        <v>1198</v>
+        <v>1072</v>
       </c>
       <c r="B42" s="412" t="s">
-        <v>1215</v>
+        <v>937</v>
       </c>
       <c r="C42" s="414">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D42" s="412" t="s">
-        <v>743</v>
+        <v>34</v>
       </c>
       <c r="E42" s="412" t="s">
-        <v>1517</v>
+        <v>938</v>
       </c>
       <c r="F42" s="412" t="s">
-        <v>100</v>
+        <v>1496</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A43" s="413" t="s">
-        <v>1199</v>
+        <v>1073</v>
       </c>
       <c r="B43" s="412" t="s">
-        <v>1215</v>
+        <v>941</v>
       </c>
       <c r="C43" s="414">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D43" s="412" t="s">
-        <v>743</v>
+        <v>64</v>
       </c>
       <c r="E43" s="412" t="s">
-        <v>1062</v>
+        <v>942</v>
       </c>
       <c r="F43" s="412" t="s">
-        <v>100</v>
+        <v>119</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A44" s="413" t="s">
-        <v>1201</v>
+        <v>1019</v>
       </c>
       <c r="B44" s="412" t="s">
-        <v>1215</v>
+        <v>943</v>
       </c>
       <c r="C44" s="414">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D44" s="412" t="s">
-        <v>743</v>
+        <v>1491</v>
       </c>
       <c r="E44" s="412" t="s">
-        <v>1518</v>
+        <v>1514</v>
       </c>
       <c r="F44" s="412" t="s">
-        <v>100</v>
+        <v>905</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A45" s="413" t="s">
-        <v>1071</v>
+        <v>1020</v>
       </c>
       <c r="B45" s="412" t="s">
-        <v>1202</v>
+        <v>943</v>
       </c>
       <c r="C45" s="414">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D45" s="412" t="s">
-        <v>34</v>
+        <v>1523</v>
       </c>
       <c r="E45" s="412" t="s">
-        <v>929</v>
+        <v>919</v>
       </c>
       <c r="F45" s="412" t="s">
-        <v>1496</v>
+        <v>24</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A46" s="413" t="s">
-        <v>1072</v>
+        <v>1161</v>
       </c>
       <c r="B46" s="412" t="s">
-        <v>937</v>
+        <v>943</v>
       </c>
       <c r="C46" s="414">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D46" s="412" t="s">
-        <v>34</v>
+        <v>1523</v>
       </c>
       <c r="E46" s="412" t="s">
-        <v>938</v>
+        <v>1484</v>
       </c>
       <c r="F46" s="412" t="s">
-        <v>1496</v>
+        <v>104</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A47" s="413" t="s">
-        <v>1073</v>
+        <v>1163</v>
       </c>
       <c r="B47" s="412" t="s">
-        <v>941</v>
+        <v>943</v>
       </c>
       <c r="C47" s="414">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D47" s="412" t="s">
-        <v>64</v>
+        <v>1492</v>
       </c>
       <c r="E47" s="412" t="s">
-        <v>942</v>
+        <v>1207</v>
       </c>
       <c r="F47" s="412" t="s">
-        <v>119</v>
+        <v>104</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A48" s="413" t="s">
-        <v>1019</v>
+        <v>1074</v>
       </c>
       <c r="B48" s="412" t="s">
-        <v>943</v>
+        <v>945</v>
       </c>
       <c r="C48" s="414">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D48" s="412" t="s">
-        <v>741</v>
+        <v>732</v>
       </c>
       <c r="E48" s="412" t="s">
-        <v>1519</v>
+        <v>946</v>
       </c>
       <c r="F48" s="412" t="s">
-        <v>905</v>
+        <v>417</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A49" s="413" t="s">
-        <v>1020</v>
+        <v>1075</v>
       </c>
       <c r="B49" s="412" t="s">
-        <v>943</v>
+        <v>948</v>
       </c>
       <c r="C49" s="414">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D49" s="412" t="s">
-        <v>741</v>
+        <v>414</v>
       </c>
       <c r="E49" s="412" t="s">
-        <v>919</v>
+        <v>947</v>
       </c>
       <c r="F49" s="412" t="s">
-        <v>24</v>
+        <v>66</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A50" s="413" t="s">
-        <v>1161</v>
+        <v>1372</v>
       </c>
       <c r="B50" s="412" t="s">
-        <v>943</v>
+        <v>1373</v>
       </c>
       <c r="C50" s="414">
         <v>1</v>
       </c>
       <c r="D50" s="412" t="s">
-        <v>741</v>
+        <v>1417</v>
       </c>
       <c r="E50" s="412" t="s">
-        <v>1484</v>
+        <v>1210</v>
       </c>
       <c r="F50" s="412" t="s">
         <v>104</v>
@@ -19982,193 +19976,199 @@
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A51" s="413" t="s">
-        <v>1163</v>
+        <v>1076</v>
       </c>
       <c r="B51" s="412" t="s">
-        <v>943</v>
+        <v>949</v>
       </c>
       <c r="C51" s="414">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D51" s="412" t="s">
-        <v>741</v>
+        <v>45</v>
       </c>
       <c r="E51" s="412" t="s">
-        <v>1207</v>
+        <v>964</v>
       </c>
       <c r="F51" s="412" t="s">
-        <v>104</v>
+        <v>1524</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A52" s="413" t="s">
-        <v>1074</v>
+        <v>1023</v>
       </c>
       <c r="B52" s="412" t="s">
-        <v>945</v>
+        <v>951</v>
       </c>
       <c r="C52" s="414">
         <v>3</v>
       </c>
       <c r="D52" s="412" t="s">
-        <v>732</v>
+        <v>476</v>
       </c>
       <c r="E52" s="412" t="s">
-        <v>946</v>
+        <v>928</v>
       </c>
       <c r="F52" s="412" t="s">
-        <v>417</v>
+        <v>119</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A53" s="413" t="s">
-        <v>1075</v>
+        <v>1024</v>
       </c>
       <c r="B53" s="412" t="s">
-        <v>948</v>
+        <v>952</v>
       </c>
       <c r="C53" s="414">
         <v>3</v>
       </c>
       <c r="D53" s="412" t="s">
-        <v>414</v>
+        <v>1218</v>
       </c>
       <c r="E53" s="412" t="s">
-        <v>947</v>
+        <v>924</v>
       </c>
       <c r="F53" s="412" t="s">
-        <v>66</v>
+        <v>129</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A54" s="413" t="s">
-        <v>1372</v>
+        <v>1077</v>
       </c>
       <c r="B54" s="412" t="s">
-        <v>1373</v>
+        <v>955</v>
       </c>
       <c r="C54" s="414">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D54" s="412" t="s">
-        <v>1417</v>
+        <v>1218</v>
       </c>
       <c r="E54" s="412" t="s">
-        <v>1210</v>
+        <v>1173</v>
       </c>
       <c r="F54" s="412" t="s">
-        <v>104</v>
+        <v>119</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A55" s="413" t="s">
-        <v>1076</v>
+        <v>1079</v>
       </c>
       <c r="B55" s="412" t="s">
-        <v>949</v>
+        <v>957</v>
       </c>
       <c r="C55" s="414">
         <v>3</v>
       </c>
+      <c r="D55" s="412" t="s">
+        <v>481</v>
+      </c>
       <c r="E55" s="412" t="s">
-        <v>964</v>
+        <v>1515</v>
       </c>
       <c r="F55" s="412" t="s">
-        <v>293</v>
+        <v>100</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A56" s="413" t="s">
-        <v>1023</v>
+        <v>1339</v>
       </c>
       <c r="B56" s="412" t="s">
-        <v>951</v>
+        <v>983</v>
       </c>
       <c r="C56" s="414">
         <v>3</v>
       </c>
       <c r="D56" s="412" t="s">
-        <v>476</v>
+        <v>743</v>
       </c>
       <c r="E56" s="412" t="s">
-        <v>928</v>
+        <v>946</v>
       </c>
       <c r="F56" s="412" t="s">
-        <v>119</v>
+        <v>66</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A57" s="413" t="s">
-        <v>1024</v>
+        <v>1080</v>
       </c>
       <c r="B57" s="412" t="s">
-        <v>952</v>
+        <v>959</v>
       </c>
       <c r="C57" s="414">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D57" s="412" t="s">
-        <v>1218</v>
+        <v>743</v>
       </c>
       <c r="E57" s="412" t="s">
-        <v>924</v>
+        <v>1516</v>
       </c>
       <c r="F57" s="412" t="s">
-        <v>129</v>
+        <v>100</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A58" s="413" t="s">
-        <v>1077</v>
+        <v>1081</v>
       </c>
       <c r="B58" s="412" t="s">
-        <v>955</v>
+        <v>959</v>
       </c>
       <c r="C58" s="414">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D58" s="412" t="s">
-        <v>1218</v>
+        <v>743</v>
       </c>
       <c r="E58" s="412" t="s">
-        <v>1173</v>
+        <v>1517</v>
       </c>
       <c r="F58" s="412" t="s">
-        <v>1497</v>
+        <v>100</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A59" s="413" t="s">
-        <v>1079</v>
+        <v>1082</v>
       </c>
       <c r="B59" s="412" t="s">
-        <v>957</v>
+        <v>1435</v>
       </c>
       <c r="C59" s="414">
         <v>3</v>
       </c>
       <c r="D59" s="412" t="s">
-        <v>481</v>
+        <v>64</v>
       </c>
       <c r="E59" s="412" t="s">
-        <v>1520</v>
+        <v>962</v>
       </c>
       <c r="F59" s="412" t="s">
-        <v>100</v>
+        <v>119</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A60" s="413" t="s">
-        <v>1339</v>
+        <v>1518</v>
       </c>
       <c r="B60" s="412" t="s">
-        <v>983</v>
+        <v>1519</v>
       </c>
       <c r="C60" s="414">
         <v>3</v>
       </c>
+      <c r="D60" s="412" t="s">
+        <v>414</v>
+      </c>
       <c r="E60" s="412" t="s">
-        <v>946</v>
+        <v>950</v>
       </c>
       <c r="F60" s="412" t="s">
         <v>66</v>
@@ -20176,298 +20176,198 @@
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A61" s="413" t="s">
-        <v>1080</v>
+        <v>1083</v>
       </c>
       <c r="B61" s="412" t="s">
-        <v>959</v>
+        <v>963</v>
       </c>
       <c r="C61" s="414">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D61" s="412" t="s">
-        <v>743</v>
+        <v>1419</v>
       </c>
       <c r="E61" s="412" t="s">
-        <v>1521</v>
+        <v>1207</v>
       </c>
       <c r="F61" s="412" t="s">
-        <v>100</v>
+        <v>135</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A62" s="413" t="s">
-        <v>1081</v>
+        <v>1374</v>
       </c>
       <c r="B62" s="412" t="s">
-        <v>959</v>
+        <v>1375</v>
       </c>
       <c r="C62" s="414">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D62" s="412" t="s">
-        <v>743</v>
+        <v>1520</v>
       </c>
       <c r="E62" s="412" t="s">
-        <v>1522</v>
+        <v>972</v>
       </c>
       <c r="F62" s="412" t="s">
-        <v>100</v>
+        <v>223</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A63" s="413" t="s">
-        <v>1082</v>
+        <v>1208</v>
       </c>
       <c r="B63" s="412" t="s">
-        <v>1435</v>
+        <v>965</v>
       </c>
       <c r="C63" s="414">
         <v>3</v>
       </c>
       <c r="D63" s="412" t="s">
-        <v>64</v>
+        <v>1494</v>
       </c>
       <c r="E63" s="412" t="s">
-        <v>962</v>
+        <v>1490</v>
       </c>
       <c r="F63" s="412" t="s">
-        <v>119</v>
+        <v>1521</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A64" s="413" t="s">
-        <v>1523</v>
+        <v>1084</v>
       </c>
       <c r="B64" s="412" t="s">
-        <v>1524</v>
+        <v>968</v>
       </c>
       <c r="C64" s="414">
         <v>3</v>
       </c>
-      <c r="D64" s="412" t="s">
-        <v>414</v>
-      </c>
       <c r="E64" s="412" t="s">
-        <v>950</v>
+        <v>969</v>
       </c>
       <c r="F64" s="412" t="s">
-        <v>66</v>
+        <v>499</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A65" s="413" t="s">
-        <v>1083</v>
+        <v>1085</v>
       </c>
       <c r="B65" s="412" t="s">
-        <v>963</v>
+        <v>970</v>
       </c>
       <c r="C65" s="414">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D65" s="412" t="s">
-        <v>1419</v>
+        <v>166</v>
       </c>
       <c r="E65" s="412" t="s">
-        <v>1207</v>
+        <v>953</v>
       </c>
       <c r="F65" s="412" t="s">
-        <v>135</v>
+        <v>293</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A66" s="413" t="s">
-        <v>1374</v>
+        <v>1086</v>
       </c>
       <c r="B66" s="412" t="s">
-        <v>1375</v>
+        <v>971</v>
       </c>
       <c r="C66" s="414">
         <v>3</v>
       </c>
       <c r="D66" s="412" t="s">
-        <v>1525</v>
+        <v>414</v>
       </c>
       <c r="E66" s="412" t="s">
         <v>972</v>
       </c>
       <c r="F66" s="412" t="s">
-        <v>223</v>
+        <v>66</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A67" s="413" t="s">
-        <v>1208</v>
+        <v>1087</v>
       </c>
       <c r="B67" s="412" t="s">
-        <v>965</v>
+        <v>1088</v>
       </c>
       <c r="C67" s="414">
         <v>3</v>
       </c>
       <c r="D67" s="412" t="s">
-        <v>1494</v>
+        <v>754</v>
       </c>
       <c r="E67" s="412" t="s">
-        <v>1490</v>
+        <v>924</v>
       </c>
       <c r="F67" s="412" t="s">
-        <v>1526</v>
+        <v>50</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A68" s="413" t="s">
-        <v>1084</v>
+        <v>1089</v>
       </c>
       <c r="B68" s="412" t="s">
-        <v>968</v>
+        <v>973</v>
       </c>
       <c r="C68" s="414">
         <v>3</v>
       </c>
+      <c r="D68" s="412" t="s">
+        <v>607</v>
+      </c>
       <c r="E68" s="412" t="s">
-        <v>969</v>
+        <v>1067</v>
       </c>
       <c r="F68" s="412" t="s">
-        <v>499</v>
+        <v>417</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A69" s="413" t="s">
-        <v>1085</v>
+        <v>1090</v>
       </c>
       <c r="B69" s="412" t="s">
-        <v>970</v>
+        <v>1188</v>
       </c>
       <c r="C69" s="414">
         <v>3</v>
       </c>
       <c r="D69" s="412" t="s">
-        <v>166</v>
+        <v>811</v>
       </c>
       <c r="E69" s="412" t="s">
-        <v>953</v>
+        <v>947</v>
       </c>
       <c r="F69" s="412" t="s">
-        <v>293</v>
+        <v>417</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A70" s="413" t="s">
-        <v>1086</v>
+        <v>1092</v>
       </c>
       <c r="B70" s="412" t="s">
-        <v>971</v>
+        <v>1522</v>
       </c>
       <c r="C70" s="414">
         <v>3</v>
       </c>
       <c r="D70" s="412" t="s">
-        <v>414</v>
+        <v>166</v>
       </c>
       <c r="E70" s="412" t="s">
-        <v>972</v>
+        <v>958</v>
       </c>
       <c r="F70" s="412" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A71" s="413" t="s">
-        <v>1041</v>
-      </c>
-      <c r="B71" s="412" t="s">
-        <v>990</v>
-      </c>
-      <c r="C71" s="414">
-        <v>3</v>
-      </c>
-      <c r="D71" s="412" t="s">
-        <v>45</v>
-      </c>
-      <c r="E71" s="412" t="s">
-        <v>964</v>
-      </c>
-      <c r="F71" s="412" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A72" s="413" t="s">
-        <v>1087</v>
-      </c>
-      <c r="B72" s="412" t="s">
-        <v>1088</v>
-      </c>
-      <c r="C72" s="414">
-        <v>3</v>
-      </c>
-      <c r="D72" s="412" t="s">
-        <v>754</v>
-      </c>
-      <c r="E72" s="412" t="s">
-        <v>924</v>
-      </c>
-      <c r="F72" s="412" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A73" s="413" t="s">
-        <v>1089</v>
-      </c>
-      <c r="B73" s="412" t="s">
-        <v>973</v>
-      </c>
-      <c r="C73" s="414">
-        <v>3</v>
-      </c>
-      <c r="D73" s="412" t="s">
-        <v>607</v>
-      </c>
-      <c r="E73" s="412" t="s">
-        <v>1067</v>
-      </c>
-      <c r="F73" s="412" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A74" s="413" t="s">
-        <v>1090</v>
-      </c>
-      <c r="B74" s="412" t="s">
-        <v>1188</v>
-      </c>
-      <c r="C74" s="414">
-        <v>3</v>
-      </c>
-      <c r="D74" s="412" t="s">
-        <v>811</v>
-      </c>
-      <c r="E74" s="412" t="s">
-        <v>947</v>
-      </c>
-      <c r="F74" s="412" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A75" s="413" t="s">
-        <v>1092</v>
-      </c>
-      <c r="B75" s="412" t="s">
-        <v>1527</v>
-      </c>
-      <c r="C75" s="414">
-        <v>3</v>
-      </c>
-      <c r="D75" s="412" t="s">
-        <v>166</v>
-      </c>
-      <c r="E75" s="412" t="s">
-        <v>958</v>
-      </c>
-      <c r="F75" s="412" t="s">
         <v>228</v>
       </c>
     </row>

--- a/schedule/semester/schedule.xlsx
+++ b/schedule/semester/schedule.xlsx
@@ -80,7 +80,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8782" uniqueCount="1526">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8773" uniqueCount="1524">
   <si>
     <t>ELECTRICAL AND COMPUTER ENGINEERING</t>
   </si>
@@ -4600,12 +4600,6 @@
     <t>MW 905-1020AM</t>
   </si>
   <si>
-    <t>WF 430-520PM</t>
-  </si>
-  <si>
-    <t>WF 535-650PM</t>
-  </si>
-  <si>
     <t>T 150-420PM</t>
   </si>
   <si>
@@ -4657,7 +4651,7 @@
     <t>ETA220</t>
   </si>
   <si>
-    <t>Posted 01/13/2020</t>
+    <t>Posted 01/17/2020</t>
   </si>
 </sst>
 </file>
@@ -19053,13 +19047,13 @@
   <sheetPr codeName="Sheet41">
     <tabColor rgb="FF92D050"/>
   </sheetPr>
-  <dimension ref="A1:F70"/>
+  <dimension ref="A1:F68"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <pane xSplit="1" ySplit="12" topLeftCell="B13" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A13" sqref="A13"/>
-      <selection pane="bottomRight" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="B55" sqref="B55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
@@ -19075,7 +19069,7 @@
   <sheetData>
     <row r="1" spans="1:6" s="410" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="407" t="s">
-        <v>1525</v>
+        <v>1523</v>
       </c>
       <c r="B1" s="408"/>
       <c r="C1" s="409"/>
@@ -19416,287 +19410,287 @@
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" s="413" t="s">
-        <v>1168</v>
+        <v>1006</v>
       </c>
       <c r="B23" s="412" t="s">
-        <v>921</v>
+        <v>1191</v>
       </c>
       <c r="C23" s="414">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D23" s="412" t="s">
-        <v>481</v>
+        <v>912</v>
       </c>
       <c r="E23" s="412" t="s">
-        <v>1506</v>
+        <v>924</v>
       </c>
       <c r="F23" s="412" t="s">
-        <v>100</v>
+        <v>119</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24" s="413" t="s">
-        <v>1170</v>
+        <v>1498</v>
       </c>
       <c r="B24" s="412" t="s">
-        <v>921</v>
+        <v>925</v>
       </c>
       <c r="C24" s="414">
         <v>1</v>
       </c>
       <c r="D24" s="412" t="s">
-        <v>481</v>
+        <v>1491</v>
       </c>
       <c r="E24" s="412" t="s">
-        <v>1507</v>
+        <v>1506</v>
       </c>
       <c r="F24" s="412" t="s">
-        <v>100</v>
+        <v>77</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25" s="413" t="s">
-        <v>1006</v>
+        <v>1499</v>
       </c>
       <c r="B25" s="412" t="s">
-        <v>1191</v>
+        <v>925</v>
       </c>
       <c r="C25" s="414">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D25" s="412" t="s">
-        <v>912</v>
+        <v>481</v>
       </c>
       <c r="E25" s="412" t="s">
-        <v>924</v>
+        <v>1484</v>
       </c>
       <c r="F25" s="412" t="s">
-        <v>119</v>
+        <v>66</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26" s="413" t="s">
-        <v>1498</v>
+        <v>1009</v>
       </c>
       <c r="B26" s="412" t="s">
-        <v>925</v>
+        <v>1179</v>
       </c>
       <c r="C26" s="414">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D26" s="412" t="s">
-        <v>1491</v>
+        <v>64</v>
       </c>
       <c r="E26" s="412" t="s">
-        <v>1508</v>
+        <v>929</v>
       </c>
       <c r="F26" s="412" t="s">
-        <v>77</v>
+        <v>1507</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27" s="413" t="s">
-        <v>1499</v>
+        <v>1370</v>
       </c>
       <c r="B27" s="412" t="s">
-        <v>925</v>
+        <v>1371</v>
       </c>
       <c r="C27" s="414">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D27" s="412" t="s">
-        <v>481</v>
+        <v>34</v>
       </c>
       <c r="E27" s="412" t="s">
-        <v>1484</v>
+        <v>914</v>
       </c>
       <c r="F27" s="412" t="s">
-        <v>66</v>
+        <v>1496</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A28" s="413" t="s">
-        <v>1009</v>
+        <v>1070</v>
       </c>
       <c r="B28" s="412" t="s">
-        <v>1179</v>
+        <v>930</v>
       </c>
       <c r="C28" s="414">
         <v>3</v>
       </c>
       <c r="D28" s="412" t="s">
-        <v>64</v>
+        <v>34</v>
       </c>
       <c r="E28" s="412" t="s">
-        <v>929</v>
+        <v>931</v>
       </c>
       <c r="F28" s="412" t="s">
-        <v>1509</v>
+        <v>1496</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A29" s="413" t="s">
-        <v>1370</v>
+        <v>1213</v>
       </c>
       <c r="B29" s="412" t="s">
-        <v>1371</v>
+        <v>934</v>
       </c>
       <c r="C29" s="414">
         <v>3</v>
       </c>
       <c r="D29" s="412" t="s">
-        <v>34</v>
+        <v>64</v>
       </c>
       <c r="E29" s="412" t="s">
-        <v>914</v>
+        <v>931</v>
       </c>
       <c r="F29" s="412" t="s">
-        <v>1496</v>
+        <v>119</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A30" s="413" t="s">
-        <v>1070</v>
+        <v>1214</v>
       </c>
       <c r="B30" s="412" t="s">
-        <v>930</v>
+        <v>934</v>
       </c>
       <c r="C30" s="414">
         <v>3</v>
       </c>
       <c r="D30" s="412" t="s">
-        <v>34</v>
+        <v>467</v>
       </c>
       <c r="E30" s="412" t="s">
-        <v>931</v>
+        <v>1508</v>
       </c>
       <c r="F30" s="412" t="s">
-        <v>1496</v>
+        <v>620</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31" s="413" t="s">
-        <v>1213</v>
+        <v>1418</v>
       </c>
       <c r="B31" s="412" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="C31" s="414">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D31" s="412" t="s">
-        <v>64</v>
+        <v>1419</v>
       </c>
       <c r="E31" s="412" t="s">
-        <v>931</v>
+        <v>936</v>
       </c>
       <c r="F31" s="412" t="s">
-        <v>119</v>
+        <v>189</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A32" s="413" t="s">
-        <v>1214</v>
+        <v>1420</v>
       </c>
       <c r="B32" s="412" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="C32" s="414">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D32" s="412" t="s">
-        <v>467</v>
+        <v>1419</v>
       </c>
       <c r="E32" s="412" t="s">
-        <v>1510</v>
+        <v>933</v>
       </c>
       <c r="F32" s="412" t="s">
-        <v>620</v>
+        <v>189</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A33" s="413" t="s">
-        <v>1418</v>
+        <v>1154</v>
       </c>
       <c r="B33" s="412" t="s">
-        <v>935</v>
+        <v>1192</v>
       </c>
       <c r="C33" s="414">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D33" s="412" t="s">
-        <v>1419</v>
+        <v>1421</v>
       </c>
       <c r="E33" s="412" t="s">
-        <v>936</v>
+        <v>942</v>
       </c>
       <c r="F33" s="412" t="s">
-        <v>189</v>
+        <v>905</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A34" s="413" t="s">
-        <v>1420</v>
+        <v>1156</v>
       </c>
       <c r="B34" s="412" t="s">
-        <v>935</v>
+        <v>1192</v>
       </c>
       <c r="C34" s="414">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D34" s="412" t="s">
-        <v>1419</v>
+        <v>1421</v>
       </c>
       <c r="E34" s="412" t="s">
-        <v>933</v>
+        <v>938</v>
       </c>
       <c r="F34" s="412" t="s">
-        <v>189</v>
+        <v>119</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A35" s="413" t="s">
-        <v>1154</v>
+        <v>1196</v>
       </c>
       <c r="B35" s="412" t="s">
-        <v>1192</v>
+        <v>1215</v>
       </c>
       <c r="C35" s="414">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D35" s="412" t="s">
-        <v>1421</v>
+        <v>741</v>
       </c>
       <c r="E35" s="412" t="s">
-        <v>942</v>
+        <v>1509</v>
       </c>
       <c r="F35" s="412" t="s">
-        <v>905</v>
+        <v>100</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A36" s="413" t="s">
-        <v>1156</v>
+        <v>1198</v>
       </c>
       <c r="B36" s="412" t="s">
-        <v>1192</v>
+        <v>1215</v>
       </c>
       <c r="C36" s="414">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D36" s="412" t="s">
-        <v>1421</v>
+        <v>741</v>
       </c>
       <c r="E36" s="412" t="s">
-        <v>938</v>
+        <v>1510</v>
       </c>
       <c r="F36" s="412" t="s">
-        <v>119</v>
+        <v>100</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A37" s="413" t="s">
-        <v>1196</v>
+        <v>1199</v>
       </c>
       <c r="B37" s="412" t="s">
         <v>1215</v>
@@ -19705,10 +19699,10 @@
         <v>2</v>
       </c>
       <c r="D37" s="412" t="s">
-        <v>741</v>
+        <v>743</v>
       </c>
       <c r="E37" s="412" t="s">
-        <v>1511</v>
+        <v>1062</v>
       </c>
       <c r="F37" s="412" t="s">
         <v>100</v>
@@ -19716,7 +19710,7 @@
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A38" s="413" t="s">
-        <v>1198</v>
+        <v>1201</v>
       </c>
       <c r="B38" s="412" t="s">
         <v>1215</v>
@@ -19725,10 +19719,10 @@
         <v>1</v>
       </c>
       <c r="D38" s="412" t="s">
-        <v>741</v>
+        <v>743</v>
       </c>
       <c r="E38" s="412" t="s">
-        <v>1512</v>
+        <v>1511</v>
       </c>
       <c r="F38" s="412" t="s">
         <v>100</v>
@@ -19736,127 +19730,127 @@
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A39" s="413" t="s">
-        <v>1199</v>
+        <v>1071</v>
       </c>
       <c r="B39" s="412" t="s">
-        <v>1215</v>
+        <v>1202</v>
       </c>
       <c r="C39" s="414">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D39" s="412" t="s">
-        <v>743</v>
+        <v>34</v>
       </c>
       <c r="E39" s="412" t="s">
-        <v>1062</v>
+        <v>929</v>
       </c>
       <c r="F39" s="412" t="s">
-        <v>100</v>
+        <v>1496</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A40" s="413" t="s">
-        <v>1201</v>
+        <v>1072</v>
       </c>
       <c r="B40" s="412" t="s">
-        <v>1215</v>
+        <v>937</v>
       </c>
       <c r="C40" s="414">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D40" s="412" t="s">
-        <v>743</v>
+        <v>34</v>
       </c>
       <c r="E40" s="412" t="s">
-        <v>1513</v>
+        <v>938</v>
       </c>
       <c r="F40" s="412" t="s">
-        <v>100</v>
+        <v>1496</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A41" s="413" t="s">
-        <v>1071</v>
+        <v>1073</v>
       </c>
       <c r="B41" s="412" t="s">
-        <v>1202</v>
+        <v>941</v>
       </c>
       <c r="C41" s="414">
         <v>3</v>
       </c>
       <c r="D41" s="412" t="s">
-        <v>34</v>
+        <v>64</v>
       </c>
       <c r="E41" s="412" t="s">
-        <v>929</v>
+        <v>942</v>
       </c>
       <c r="F41" s="412" t="s">
-        <v>1496</v>
+        <v>119</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A42" s="413" t="s">
-        <v>1072</v>
+        <v>1019</v>
       </c>
       <c r="B42" s="412" t="s">
-        <v>937</v>
+        <v>943</v>
       </c>
       <c r="C42" s="414">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D42" s="412" t="s">
-        <v>34</v>
+        <v>1491</v>
       </c>
       <c r="E42" s="412" t="s">
-        <v>938</v>
+        <v>1512</v>
       </c>
       <c r="F42" s="412" t="s">
-        <v>1496</v>
+        <v>905</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A43" s="413" t="s">
-        <v>1073</v>
+        <v>1020</v>
       </c>
       <c r="B43" s="412" t="s">
-        <v>941</v>
+        <v>943</v>
       </c>
       <c r="C43" s="414">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D43" s="412" t="s">
-        <v>64</v>
+        <v>1521</v>
       </c>
       <c r="E43" s="412" t="s">
-        <v>942</v>
+        <v>919</v>
       </c>
       <c r="F43" s="412" t="s">
-        <v>119</v>
+        <v>24</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A44" s="413" t="s">
-        <v>1019</v>
+        <v>1161</v>
       </c>
       <c r="B44" s="412" t="s">
         <v>943</v>
       </c>
       <c r="C44" s="414">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D44" s="412" t="s">
-        <v>1491</v>
+        <v>1521</v>
       </c>
       <c r="E44" s="412" t="s">
-        <v>1514</v>
+        <v>1484</v>
       </c>
       <c r="F44" s="412" t="s">
-        <v>905</v>
+        <v>104</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A45" s="413" t="s">
-        <v>1020</v>
+        <v>1163</v>
       </c>
       <c r="B45" s="412" t="s">
         <v>943</v>
@@ -19865,150 +19859,150 @@
         <v>1</v>
       </c>
       <c r="D45" s="412" t="s">
-        <v>1523</v>
+        <v>1492</v>
       </c>
       <c r="E45" s="412" t="s">
-        <v>919</v>
+        <v>1207</v>
       </c>
       <c r="F45" s="412" t="s">
-        <v>24</v>
+        <v>104</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A46" s="413" t="s">
-        <v>1161</v>
+        <v>1074</v>
       </c>
       <c r="B46" s="412" t="s">
-        <v>943</v>
+        <v>945</v>
       </c>
       <c r="C46" s="414">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D46" s="412" t="s">
-        <v>1523</v>
+        <v>732</v>
       </c>
       <c r="E46" s="412" t="s">
-        <v>1484</v>
+        <v>946</v>
       </c>
       <c r="F46" s="412" t="s">
-        <v>104</v>
+        <v>417</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A47" s="413" t="s">
-        <v>1163</v>
+        <v>1075</v>
       </c>
       <c r="B47" s="412" t="s">
-        <v>943</v>
+        <v>948</v>
       </c>
       <c r="C47" s="414">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D47" s="412" t="s">
-        <v>1492</v>
+        <v>414</v>
       </c>
       <c r="E47" s="412" t="s">
-        <v>1207</v>
+        <v>947</v>
       </c>
       <c r="F47" s="412" t="s">
-        <v>104</v>
+        <v>66</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A48" s="413" t="s">
-        <v>1074</v>
+        <v>1372</v>
       </c>
       <c r="B48" s="412" t="s">
-        <v>945</v>
+        <v>1373</v>
       </c>
       <c r="C48" s="414">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D48" s="412" t="s">
-        <v>732</v>
+        <v>1417</v>
       </c>
       <c r="E48" s="412" t="s">
-        <v>946</v>
+        <v>1210</v>
       </c>
       <c r="F48" s="412" t="s">
-        <v>417</v>
+        <v>104</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A49" s="413" t="s">
-        <v>1075</v>
+        <v>1076</v>
       </c>
       <c r="B49" s="412" t="s">
-        <v>948</v>
+        <v>949</v>
       </c>
       <c r="C49" s="414">
         <v>3</v>
       </c>
       <c r="D49" s="412" t="s">
-        <v>414</v>
+        <v>45</v>
       </c>
       <c r="E49" s="412" t="s">
-        <v>947</v>
+        <v>964</v>
       </c>
       <c r="F49" s="412" t="s">
-        <v>66</v>
+        <v>1522</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A50" s="413" t="s">
-        <v>1372</v>
+        <v>1023</v>
       </c>
       <c r="B50" s="412" t="s">
-        <v>1373</v>
+        <v>951</v>
       </c>
       <c r="C50" s="414">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D50" s="412" t="s">
-        <v>1417</v>
+        <v>476</v>
       </c>
       <c r="E50" s="412" t="s">
-        <v>1210</v>
+        <v>928</v>
       </c>
       <c r="F50" s="412" t="s">
-        <v>104</v>
+        <v>129</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A51" s="413" t="s">
-        <v>1076</v>
+        <v>1024</v>
       </c>
       <c r="B51" s="412" t="s">
-        <v>949</v>
+        <v>952</v>
       </c>
       <c r="C51" s="414">
         <v>3</v>
       </c>
       <c r="D51" s="412" t="s">
-        <v>45</v>
+        <v>1218</v>
       </c>
       <c r="E51" s="412" t="s">
-        <v>964</v>
+        <v>924</v>
       </c>
       <c r="F51" s="412" t="s">
-        <v>1524</v>
+        <v>123</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A52" s="413" t="s">
-        <v>1023</v>
+        <v>1077</v>
       </c>
       <c r="B52" s="412" t="s">
-        <v>951</v>
+        <v>955</v>
       </c>
       <c r="C52" s="414">
         <v>3</v>
       </c>
       <c r="D52" s="412" t="s">
-        <v>476</v>
+        <v>1218</v>
       </c>
       <c r="E52" s="412" t="s">
-        <v>928</v>
+        <v>1173</v>
       </c>
       <c r="F52" s="412" t="s">
         <v>119</v>
@@ -20016,59 +20010,59 @@
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A53" s="413" t="s">
-        <v>1024</v>
+        <v>1079</v>
       </c>
       <c r="B53" s="412" t="s">
-        <v>952</v>
+        <v>957</v>
       </c>
       <c r="C53" s="414">
         <v>3</v>
       </c>
       <c r="D53" s="412" t="s">
-        <v>1218</v>
+        <v>481</v>
       </c>
       <c r="E53" s="412" t="s">
-        <v>924</v>
+        <v>1513</v>
       </c>
       <c r="F53" s="412" t="s">
-        <v>129</v>
+        <v>100</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A54" s="413" t="s">
-        <v>1077</v>
+        <v>1339</v>
       </c>
       <c r="B54" s="412" t="s">
-        <v>955</v>
+        <v>983</v>
       </c>
       <c r="C54" s="414">
         <v>3</v>
       </c>
       <c r="D54" s="412" t="s">
-        <v>1218</v>
+        <v>743</v>
       </c>
       <c r="E54" s="412" t="s">
-        <v>1173</v>
+        <v>946</v>
       </c>
       <c r="F54" s="412" t="s">
-        <v>119</v>
+        <v>66</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A55" s="413" t="s">
-        <v>1079</v>
+        <v>1080</v>
       </c>
       <c r="B55" s="412" t="s">
-        <v>957</v>
+        <v>959</v>
       </c>
       <c r="C55" s="414">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D55" s="412" t="s">
-        <v>481</v>
+        <v>743</v>
       </c>
       <c r="E55" s="412" t="s">
-        <v>1515</v>
+        <v>1514</v>
       </c>
       <c r="F55" s="412" t="s">
         <v>100</v>
@@ -20076,299 +20070,262 @@
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A56" s="413" t="s">
-        <v>1339</v>
+        <v>1081</v>
       </c>
       <c r="B56" s="412" t="s">
-        <v>983</v>
+        <v>959</v>
       </c>
       <c r="C56" s="414">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D56" s="412" t="s">
         <v>743</v>
       </c>
       <c r="E56" s="412" t="s">
-        <v>946</v>
+        <v>1515</v>
       </c>
       <c r="F56" s="412" t="s">
-        <v>66</v>
+        <v>100</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A57" s="413" t="s">
-        <v>1080</v>
+        <v>1082</v>
       </c>
       <c r="B57" s="412" t="s">
-        <v>959</v>
+        <v>1435</v>
       </c>
       <c r="C57" s="414">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D57" s="412" t="s">
-        <v>743</v>
+        <v>64</v>
       </c>
       <c r="E57" s="412" t="s">
-        <v>1516</v>
+        <v>962</v>
       </c>
       <c r="F57" s="412" t="s">
-        <v>100</v>
+        <v>119</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A58" s="413" t="s">
-        <v>1081</v>
+        <v>1516</v>
       </c>
       <c r="B58" s="412" t="s">
-        <v>959</v>
+        <v>1517</v>
       </c>
       <c r="C58" s="414">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D58" s="412" t="s">
-        <v>743</v>
+        <v>414</v>
       </c>
       <c r="E58" s="412" t="s">
-        <v>1517</v>
+        <v>950</v>
       </c>
       <c r="F58" s="412" t="s">
-        <v>100</v>
+        <v>66</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A59" s="413" t="s">
-        <v>1082</v>
+        <v>1083</v>
       </c>
       <c r="B59" s="412" t="s">
-        <v>1435</v>
+        <v>963</v>
       </c>
       <c r="C59" s="414">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D59" s="412" t="s">
-        <v>64</v>
+        <v>1419</v>
       </c>
       <c r="E59" s="412" t="s">
-        <v>962</v>
+        <v>1207</v>
       </c>
       <c r="F59" s="412" t="s">
-        <v>119</v>
+        <v>135</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A60" s="413" t="s">
-        <v>1518</v>
+        <v>1374</v>
       </c>
       <c r="B60" s="412" t="s">
-        <v>1519</v>
+        <v>1375</v>
       </c>
       <c r="C60" s="414">
         <v>3</v>
       </c>
       <c r="D60" s="412" t="s">
-        <v>414</v>
+        <v>1518</v>
       </c>
       <c r="E60" s="412" t="s">
-        <v>950</v>
+        <v>972</v>
       </c>
       <c r="F60" s="412" t="s">
-        <v>66</v>
+        <v>223</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A61" s="413" t="s">
-        <v>1083</v>
+        <v>1208</v>
       </c>
       <c r="B61" s="412" t="s">
-        <v>963</v>
+        <v>965</v>
       </c>
       <c r="C61" s="414">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D61" s="412" t="s">
-        <v>1419</v>
+        <v>1494</v>
       </c>
       <c r="E61" s="412" t="s">
-        <v>1207</v>
+        <v>1490</v>
       </c>
       <c r="F61" s="412" t="s">
-        <v>135</v>
+        <v>1519</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A62" s="413" t="s">
-        <v>1374</v>
+        <v>1084</v>
       </c>
       <c r="B62" s="412" t="s">
-        <v>1375</v>
+        <v>968</v>
       </c>
       <c r="C62" s="414">
         <v>3</v>
       </c>
       <c r="D62" s="412" t="s">
-        <v>1520</v>
+        <v>732</v>
       </c>
       <c r="E62" s="412" t="s">
-        <v>972</v>
+        <v>969</v>
       </c>
       <c r="F62" s="412" t="s">
-        <v>223</v>
+        <v>417</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A63" s="413" t="s">
-        <v>1208</v>
+        <v>1085</v>
       </c>
       <c r="B63" s="412" t="s">
-        <v>965</v>
+        <v>970</v>
       </c>
       <c r="C63" s="414">
         <v>3</v>
       </c>
       <c r="D63" s="412" t="s">
-        <v>1494</v>
+        <v>166</v>
       </c>
       <c r="E63" s="412" t="s">
-        <v>1490</v>
+        <v>953</v>
       </c>
       <c r="F63" s="412" t="s">
-        <v>1521</v>
+        <v>293</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A64" s="413" t="s">
-        <v>1084</v>
+        <v>1086</v>
       </c>
       <c r="B64" s="412" t="s">
-        <v>968</v>
+        <v>971</v>
       </c>
       <c r="C64" s="414">
         <v>3</v>
       </c>
+      <c r="D64" s="412" t="s">
+        <v>414</v>
+      </c>
       <c r="E64" s="412" t="s">
-        <v>969</v>
+        <v>972</v>
       </c>
       <c r="F64" s="412" t="s">
-        <v>499</v>
+        <v>66</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A65" s="413" t="s">
-        <v>1085</v>
+        <v>1087</v>
       </c>
       <c r="B65" s="412" t="s">
-        <v>970</v>
+        <v>1088</v>
       </c>
       <c r="C65" s="414">
         <v>3</v>
       </c>
       <c r="D65" s="412" t="s">
-        <v>166</v>
+        <v>754</v>
       </c>
       <c r="E65" s="412" t="s">
-        <v>953</v>
+        <v>924</v>
       </c>
       <c r="F65" s="412" t="s">
-        <v>293</v>
+        <v>50</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A66" s="413" t="s">
-        <v>1086</v>
+        <v>1089</v>
       </c>
       <c r="B66" s="412" t="s">
-        <v>971</v>
+        <v>973</v>
       </c>
       <c r="C66" s="414">
         <v>3</v>
       </c>
       <c r="D66" s="412" t="s">
-        <v>414</v>
+        <v>607</v>
       </c>
       <c r="E66" s="412" t="s">
-        <v>972</v>
+        <v>1067</v>
       </c>
       <c r="F66" s="412" t="s">
-        <v>66</v>
+        <v>417</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A67" s="413" t="s">
-        <v>1087</v>
+        <v>1090</v>
       </c>
       <c r="B67" s="412" t="s">
-        <v>1088</v>
+        <v>1188</v>
       </c>
       <c r="C67" s="414">
         <v>3</v>
       </c>
       <c r="D67" s="412" t="s">
-        <v>754</v>
+        <v>811</v>
       </c>
       <c r="E67" s="412" t="s">
-        <v>924</v>
+        <v>947</v>
       </c>
       <c r="F67" s="412" t="s">
-        <v>50</v>
+        <v>417</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A68" s="413" t="s">
-        <v>1089</v>
+        <v>1092</v>
       </c>
       <c r="B68" s="412" t="s">
-        <v>973</v>
+        <v>1520</v>
       </c>
       <c r="C68" s="414">
         <v>3</v>
       </c>
       <c r="D68" s="412" t="s">
-        <v>607</v>
+        <v>166</v>
       </c>
       <c r="E68" s="412" t="s">
-        <v>1067</v>
+        <v>958</v>
       </c>
       <c r="F68" s="412" t="s">
         <v>417</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A69" s="413" t="s">
-        <v>1090</v>
-      </c>
-      <c r="B69" s="412" t="s">
-        <v>1188</v>
-      </c>
-      <c r="C69" s="414">
-        <v>3</v>
-      </c>
-      <c r="D69" s="412" t="s">
-        <v>811</v>
-      </c>
-      <c r="E69" s="412" t="s">
-        <v>947</v>
-      </c>
-      <c r="F69" s="412" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A70" s="413" t="s">
-        <v>1092</v>
-      </c>
-      <c r="B70" s="412" t="s">
-        <v>1522</v>
-      </c>
-      <c r="C70" s="414">
-        <v>3</v>
-      </c>
-      <c r="D70" s="412" t="s">
-        <v>166</v>
-      </c>
-      <c r="E70" s="412" t="s">
-        <v>958</v>
-      </c>
-      <c r="F70" s="412" t="s">
-        <v>228</v>
       </c>
     </row>
   </sheetData>

--- a/schedule/semester/schedule.xlsx
+++ b/schedule/semester/schedule.xlsx
@@ -80,7 +80,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8773" uniqueCount="1524">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8773" uniqueCount="1525">
   <si>
     <t>ELECTRICAL AND COMPUTER ENGINEERING</t>
   </si>
@@ -4652,6 +4652,9 @@
   </si>
   <si>
     <t>Posted 01/17/2020</t>
+  </si>
+  <si>
+    <t>SH184</t>
   </si>
 </sst>
 </file>
@@ -19050,10 +19053,10 @@
   <dimension ref="A1:F68"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane xSplit="1" ySplit="12" topLeftCell="B13" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="12" topLeftCell="B37" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A13" sqref="A13"/>
-      <selection pane="bottomRight" activeCell="B55" sqref="B55"/>
+      <selection pane="bottomRight" activeCell="B59" sqref="B59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
@@ -19225,7 +19228,7 @@
         <v>914</v>
       </c>
       <c r="F13" s="412" t="s">
-        <v>901</v>
+        <v>778</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
@@ -19505,7 +19508,7 @@
         <v>914</v>
       </c>
       <c r="F27" s="412" t="s">
-        <v>1496</v>
+        <v>1524</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.2">

--- a/schedule/semester/schedule.xlsx
+++ b/schedule/semester/schedule.xlsx
@@ -4651,10 +4651,10 @@
     <t>ETA220</t>
   </si>
   <si>
-    <t>Posted 01/17/2020</t>
-  </si>
-  <si>
     <t>SH184</t>
+  </si>
+  <si>
+    <t>Posted 01/22/2020</t>
   </si>
 </sst>
 </file>
@@ -19053,10 +19053,10 @@
   <dimension ref="A1:F68"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane xSplit="1" ySplit="12" topLeftCell="B37" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="12" topLeftCell="B13" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A13" sqref="A13"/>
-      <selection pane="bottomRight" activeCell="B59" sqref="B59"/>
+      <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
@@ -19072,7 +19072,7 @@
   <sheetData>
     <row r="1" spans="1:6" s="410" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="407" t="s">
-        <v>1523</v>
+        <v>1524</v>
       </c>
       <c r="B1" s="408"/>
       <c r="C1" s="409"/>
@@ -19508,7 +19508,7 @@
         <v>914</v>
       </c>
       <c r="F27" s="412" t="s">
-        <v>1524</v>
+        <v>1523</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.2">

--- a/schedule/semester/schedule.xlsx
+++ b/schedule/semester/schedule.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="5250" yWindow="75" windowWidth="16320" windowHeight="12375" tabRatio="734"/>
+    <workbookView xWindow="5250" yWindow="75" windowWidth="16320" windowHeight="12375" tabRatio="734" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="F20" sheetId="87" r:id="rId1"/>
@@ -82,7 +82,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9120" uniqueCount="1559">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9120" uniqueCount="1561">
   <si>
     <t>ELECTRICAL AND COMPUTER ENGINEERING</t>
   </si>
@@ -4662,9 +4662,6 @@
     <t>remote instruction</t>
   </si>
   <si>
-    <t>TR 1230-445pm</t>
-  </si>
-  <si>
     <t>EE 4540-82</t>
   </si>
   <si>
@@ -4758,7 +4755,16 @@
     <t>F 200-445PM</t>
   </si>
   <si>
-    <t>Posted 4/24/2020</t>
+    <t>Thomas</t>
+  </si>
+  <si>
+    <t>EE4689-02</t>
+  </si>
+  <si>
+    <t>Posted 5/18/2020</t>
+  </si>
+  <si>
+    <t>Posted 5/19/2020</t>
   </si>
 </sst>
 </file>
@@ -7505,11 +7511,11 @@
     <xf numFmtId="0" fontId="111" fillId="58" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="119" fillId="58" borderId="0" xfId="111" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="49" fillId="58" borderId="0" xfId="98" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="119" fillId="58" borderId="0" xfId="111" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="116" fillId="58" borderId="0" xfId="98" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -7964,13 +7970,13 @@
   <sheetPr>
     <tabColor theme="9" tint="-0.249977111117893"/>
   </sheetPr>
-  <dimension ref="A1:F72"/>
+  <dimension ref="A1:F73"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <pane xSplit="1" ySplit="12" topLeftCell="B13" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A13" sqref="A13"/>
-      <selection pane="bottomRight"/>
+      <selection pane="bottomRight" activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
@@ -7986,7 +7992,7 @@
   <sheetData>
     <row r="1" spans="1:6" s="410" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="407" t="s">
-        <v>1558</v>
+        <v>1559</v>
       </c>
       <c r="B1" s="408"/>
       <c r="C1" s="409"/>
@@ -7994,7 +8000,7 @@
         <v>1144</v>
       </c>
       <c r="E1" s="418"/>
-      <c r="F1" s="459" t="s">
+      <c r="F1" s="458" t="s">
         <v>1343</v>
       </c>
     </row>
@@ -8003,7 +8009,7 @@
       <c r="C2" s="409"/>
       <c r="D2" s="457"/>
       <c r="E2" s="457"/>
-      <c r="F2" s="459"/>
+      <c r="F2" s="458"/>
     </row>
     <row r="3" spans="1:6" s="410" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B3" s="409"/>
@@ -8013,53 +8019,53 @@
       <c r="F3" s="451"/>
     </row>
     <row r="4" spans="1:6" s="410" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="458" t="s">
+      <c r="A4" s="459" t="s">
         <v>1069</v>
       </c>
-      <c r="B4" s="458"/>
-      <c r="C4" s="458"/>
+      <c r="B4" s="459"/>
+      <c r="C4" s="459"/>
       <c r="D4" s="457"/>
       <c r="E4" s="457"/>
       <c r="F4" s="451"/>
     </row>
     <row r="5" spans="1:6" s="410" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="458"/>
-      <c r="B5" s="458"/>
-      <c r="C5" s="458"/>
+      <c r="A5" s="459"/>
+      <c r="B5" s="459"/>
+      <c r="C5" s="459"/>
       <c r="D5" s="457"/>
       <c r="E5" s="457"/>
       <c r="F5" s="451"/>
     </row>
     <row r="6" spans="1:6" s="410" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="458"/>
-      <c r="B6" s="458"/>
-      <c r="C6" s="458"/>
+      <c r="A6" s="459"/>
+      <c r="B6" s="459"/>
+      <c r="C6" s="459"/>
       <c r="D6" s="457"/>
       <c r="E6" s="457"/>
       <c r="F6" s="451"/>
     </row>
     <row r="7" spans="1:6" s="410" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="458" t="s">
-        <v>1543</v>
-      </c>
-      <c r="B7" s="458"/>
-      <c r="C7" s="458"/>
+      <c r="A7" s="459" t="s">
+        <v>1542</v>
+      </c>
+      <c r="B7" s="459"/>
+      <c r="C7" s="459"/>
       <c r="D7" s="457"/>
       <c r="E7" s="457"/>
       <c r="F7" s="451"/>
     </row>
     <row r="8" spans="1:6" s="410" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="458"/>
-      <c r="B8" s="458"/>
-      <c r="C8" s="458"/>
+      <c r="A8" s="459"/>
+      <c r="B8" s="459"/>
+      <c r="C8" s="459"/>
       <c r="D8" s="457"/>
       <c r="E8" s="457"/>
       <c r="F8" s="451"/>
     </row>
     <row r="9" spans="1:6" s="410" customFormat="1" ht="9" x14ac:dyDescent="0.15">
-      <c r="A9" s="458"/>
-      <c r="B9" s="458"/>
-      <c r="C9" s="458"/>
+      <c r="A9" s="459"/>
+      <c r="B9" s="459"/>
+      <c r="C9" s="459"/>
       <c r="D9" s="406"/>
       <c r="E9" s="457"/>
       <c r="F9" s="451"/>
@@ -8212,7 +8218,7 @@
         <v>481</v>
       </c>
       <c r="E18" s="412" t="s">
-        <v>1544</v>
+        <v>1543</v>
       </c>
       <c r="F18" s="412" t="s">
         <v>100</v>
@@ -8232,7 +8238,7 @@
         <v>481</v>
       </c>
       <c r="E19" s="412" t="s">
-        <v>1545</v>
+        <v>1544</v>
       </c>
       <c r="F19" s="412" t="s">
         <v>100</v>
@@ -8352,7 +8358,7 @@
         <v>481</v>
       </c>
       <c r="E25" s="412" t="s">
-        <v>1546</v>
+        <v>1545</v>
       </c>
       <c r="F25" s="412" t="s">
         <v>100</v>
@@ -8372,7 +8378,7 @@
         <v>481</v>
       </c>
       <c r="E26" s="412" t="s">
-        <v>1547</v>
+        <v>1546</v>
       </c>
       <c r="F26" s="412" t="s">
         <v>100</v>
@@ -8400,7 +8406,7 @@
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A28" s="413" t="s">
-        <v>1548</v>
+        <v>1547</v>
       </c>
       <c r="B28" s="412" t="s">
         <v>1177</v>
@@ -8420,7 +8426,7 @@
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A29" s="413" t="s">
-        <v>1549</v>
+        <v>1548</v>
       </c>
       <c r="B29" s="412" t="s">
         <v>1177</v>
@@ -8429,7 +8435,7 @@
         <v>3</v>
       </c>
       <c r="D29" s="412" t="s">
-        <v>1550</v>
+        <v>1549</v>
       </c>
       <c r="E29" s="412" t="s">
         <v>1453</v>
@@ -8546,7 +8552,7 @@
         <v>1</v>
       </c>
       <c r="D35" s="412" t="s">
-        <v>1551</v>
+        <v>1550</v>
       </c>
       <c r="E35" s="412" t="s">
         <v>933</v>
@@ -8646,13 +8652,13 @@
         <v>3</v>
       </c>
       <c r="D40" s="412" t="s">
-        <v>1420</v>
+        <v>1557</v>
       </c>
       <c r="E40" s="412" t="s">
         <v>938</v>
       </c>
       <c r="F40" s="412" t="s">
-        <v>1552</v>
+        <v>1551</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.2">
@@ -8669,7 +8675,7 @@
         <v>743</v>
       </c>
       <c r="E41" s="412" t="s">
-        <v>1553</v>
+        <v>1552</v>
       </c>
       <c r="F41" s="412" t="s">
         <v>100</v>
@@ -8709,7 +8715,7 @@
         <v>743</v>
       </c>
       <c r="E43" s="412" t="s">
-        <v>1554</v>
+        <v>1553</v>
       </c>
       <c r="F43" s="412" t="s">
         <v>100</v>
@@ -8729,7 +8735,7 @@
         <v>743</v>
       </c>
       <c r="E44" s="412" t="s">
-        <v>1555</v>
+        <v>1554</v>
       </c>
       <c r="F44" s="412" t="s">
         <v>100</v>
@@ -8946,7 +8952,7 @@
         <v>929</v>
       </c>
       <c r="F55" s="412" t="s">
-        <v>223</v>
+        <v>50</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.2">
@@ -9071,7 +9077,7 @@
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A62" s="413" t="s">
-        <v>1083</v>
+        <v>1181</v>
       </c>
       <c r="B62" s="412" t="s">
         <v>1182</v>
@@ -9091,110 +9097,110 @@
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A63" s="413" t="s">
-        <v>1339</v>
+        <v>1558</v>
       </c>
       <c r="B63" s="412" t="s">
-        <v>1556</v>
+        <v>1182</v>
       </c>
       <c r="C63" s="414">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D63" s="412" t="s">
-        <v>45</v>
+        <v>64</v>
       </c>
       <c r="E63" s="412" t="s">
-        <v>1453</v>
+        <v>1482</v>
       </c>
       <c r="F63" s="412" t="s">
-        <v>778</v>
+        <v>135</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A64" s="413" t="s">
-        <v>1035</v>
+        <v>1339</v>
       </c>
       <c r="B64" s="412" t="s">
-        <v>985</v>
+        <v>1555</v>
       </c>
       <c r="C64" s="414">
         <v>3</v>
       </c>
       <c r="D64" s="412" t="s">
-        <v>184</v>
+        <v>45</v>
       </c>
       <c r="E64" s="412" t="s">
-        <v>942</v>
+        <v>1453</v>
       </c>
       <c r="F64" s="412" t="s">
-        <v>119</v>
+        <v>778</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A65" s="413" t="s">
-        <v>1341</v>
+        <v>1035</v>
       </c>
       <c r="B65" s="412" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
       <c r="C65" s="414">
         <v>3</v>
       </c>
       <c r="D65" s="412" t="s">
-        <v>1493</v>
+        <v>184</v>
       </c>
       <c r="E65" s="412" t="s">
-        <v>1489</v>
+        <v>942</v>
       </c>
       <c r="F65" s="412" t="s">
-        <v>911</v>
+        <v>119</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A66" s="413" t="s">
-        <v>1346</v>
+        <v>1341</v>
       </c>
       <c r="B66" s="412" t="s">
-        <v>988</v>
+        <v>986</v>
       </c>
       <c r="C66" s="414">
         <v>3</v>
       </c>
       <c r="D66" s="412" t="s">
-        <v>166</v>
+        <v>1493</v>
       </c>
       <c r="E66" s="412" t="s">
-        <v>958</v>
+        <v>1489</v>
       </c>
       <c r="F66" s="412" t="s">
-        <v>1521</v>
+        <v>1518</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A67" s="413" t="s">
-        <v>1040</v>
+        <v>1346</v>
       </c>
       <c r="B67" s="412" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
       <c r="C67" s="414">
         <v>3</v>
       </c>
       <c r="D67" s="412" t="s">
-        <v>414</v>
+        <v>166</v>
       </c>
       <c r="E67" s="412" t="s">
-        <v>947</v>
+        <v>958</v>
       </c>
       <c r="F67" s="412" t="s">
-        <v>66</v>
+        <v>1521</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A68" s="413" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
       <c r="B68" s="412" t="s">
-        <v>990</v>
+        <v>989</v>
       </c>
       <c r="C68" s="414">
         <v>3</v>
@@ -9203,7 +9209,7 @@
         <v>414</v>
       </c>
       <c r="E68" s="412" t="s">
-        <v>972</v>
+        <v>947</v>
       </c>
       <c r="F68" s="412" t="s">
         <v>66</v>
@@ -9211,81 +9217,101 @@
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A69" s="413" t="s">
-        <v>1043</v>
+        <v>1041</v>
       </c>
       <c r="B69" s="412" t="s">
-        <v>992</v>
+        <v>990</v>
       </c>
       <c r="C69" s="414">
         <v>3</v>
       </c>
       <c r="D69" s="412" t="s">
-        <v>658</v>
+        <v>414</v>
       </c>
       <c r="E69" s="412" t="s">
-        <v>946</v>
+        <v>972</v>
       </c>
       <c r="F69" s="412" t="s">
-        <v>215</v>
+        <v>66</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A70" s="413" t="s">
-        <v>1096</v>
+        <v>1043</v>
       </c>
       <c r="B70" s="412" t="s">
-        <v>1097</v>
+        <v>992</v>
       </c>
       <c r="C70" s="414">
         <v>3</v>
       </c>
       <c r="D70" s="412" t="s">
-        <v>872</v>
+        <v>658</v>
       </c>
       <c r="E70" s="412" t="s">
-        <v>1557</v>
+        <v>946</v>
       </c>
       <c r="F70" s="412" t="s">
-        <v>50</v>
+        <v>215</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A71" s="413" t="s">
-        <v>1342</v>
+        <v>1096</v>
       </c>
       <c r="B71" s="412" t="s">
-        <v>1180</v>
+        <v>1097</v>
       </c>
       <c r="C71" s="414">
         <v>3</v>
       </c>
       <c r="D71" s="412" t="s">
-        <v>811</v>
+        <v>872</v>
       </c>
       <c r="E71" s="412" t="s">
-        <v>947</v>
+        <v>1556</v>
       </c>
       <c r="F71" s="412" t="s">
-        <v>223</v>
+        <v>50</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A72" s="413" t="s">
-        <v>1094</v>
+        <v>1342</v>
       </c>
       <c r="B72" s="412" t="s">
-        <v>976</v>
+        <v>1180</v>
       </c>
       <c r="C72" s="414">
         <v>3</v>
       </c>
       <c r="D72" s="412" t="s">
+        <v>811</v>
+      </c>
+      <c r="E72" s="412" t="s">
+        <v>947</v>
+      </c>
+      <c r="F72" s="412" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A73" s="413" t="s">
+        <v>1094</v>
+      </c>
+      <c r="B73" s="412" t="s">
+        <v>976</v>
+      </c>
+      <c r="C73" s="414">
+        <v>3</v>
+      </c>
+      <c r="D73" s="412" t="s">
         <v>166</v>
       </c>
-      <c r="E72" s="412" t="s">
+      <c r="E73" s="412" t="s">
         <v>969</v>
       </c>
-      <c r="F72" s="412" t="s">
+      <c r="F73" s="412" t="s">
         <v>1521</v>
       </c>
     </row>
@@ -9338,7 +9364,7 @@
         <v>1144</v>
       </c>
       <c r="E1" s="418"/>
-      <c r="F1" s="459" t="s">
+      <c r="F1" s="458" t="s">
         <v>1343</v>
       </c>
     </row>
@@ -9351,7 +9377,7 @@
       <c r="E2" s="449" t="s">
         <v>1225</v>
       </c>
-      <c r="F2" s="459"/>
+      <c r="F2" s="458"/>
     </row>
     <row r="3" spans="1:6" s="410" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B3" s="409"/>
@@ -10842,7 +10868,7 @@
         <v>1144</v>
       </c>
       <c r="E1" s="418"/>
-      <c r="F1" s="459" t="s">
+      <c r="F1" s="458" t="s">
         <v>1343</v>
       </c>
     </row>
@@ -10855,7 +10881,7 @@
       <c r="E2" s="452" t="s">
         <v>1098</v>
       </c>
-      <c r="F2" s="459"/>
+      <c r="F2" s="458"/>
     </row>
     <row r="3" spans="1:6" s="410" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B3" s="409"/>
@@ -11057,7 +11083,7 @@
         <v>1144</v>
       </c>
       <c r="E1" s="418"/>
-      <c r="F1" s="459" t="s">
+      <c r="F1" s="458" t="s">
         <v>1343</v>
       </c>
     </row>
@@ -11070,7 +11096,7 @@
       <c r="E2" s="453" t="s">
         <v>1098</v>
       </c>
-      <c r="F2" s="459"/>
+      <c r="F2" s="458"/>
     </row>
     <row r="3" spans="1:6" s="410" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B3" s="409"/>
@@ -12562,7 +12588,7 @@
         <v>1144</v>
       </c>
       <c r="E1" s="418"/>
-      <c r="F1" s="459" t="s">
+      <c r="F1" s="458" t="s">
         <v>1343</v>
       </c>
     </row>
@@ -12575,7 +12601,7 @@
       <c r="E2" s="452" t="s">
         <v>1098</v>
       </c>
-      <c r="F2" s="459"/>
+      <c r="F2" s="458"/>
     </row>
     <row r="3" spans="1:7" s="410" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B3" s="409"/>
@@ -14094,7 +14120,7 @@
         <v>1144</v>
       </c>
       <c r="E1" s="418"/>
-      <c r="F1" s="459" t="s">
+      <c r="F1" s="458" t="s">
         <v>1343</v>
       </c>
     </row>
@@ -14107,7 +14133,7 @@
       <c r="E2" s="452" t="s">
         <v>1098</v>
       </c>
-      <c r="F2" s="459"/>
+      <c r="F2" s="458"/>
     </row>
     <row r="3" spans="1:7" s="410" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B3" s="409"/>
@@ -14483,7 +14509,7 @@
         <v>1144</v>
       </c>
       <c r="E1" s="418"/>
-      <c r="F1" s="459" t="s">
+      <c r="F1" s="458" t="s">
         <v>1343</v>
       </c>
     </row>
@@ -14496,7 +14522,7 @@
       <c r="E2" s="452" t="s">
         <v>1098</v>
       </c>
-      <c r="F2" s="459"/>
+      <c r="F2" s="458"/>
     </row>
     <row r="3" spans="1:6" s="410" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B3" s="409"/>
@@ -20773,13 +20799,13 @@
   <sheetPr codeName="Sheet39">
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
-  <dimension ref="A1:F27"/>
+  <dimension ref="A1:F26"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <pane xSplit="1" ySplit="12" topLeftCell="B13" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A13" sqref="A13"/>
-      <selection pane="bottomRight" activeCell="B42" sqref="B42"/>
+      <selection pane="bottomRight" activeCell="E36" sqref="E36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
@@ -20795,7 +20821,7 @@
   <sheetData>
     <row r="1" spans="1:6" s="410" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="407" t="s">
-        <v>1558</v>
+        <v>1560</v>
       </c>
       <c r="B1" s="408"/>
       <c r="C1" s="409"/>
@@ -20803,7 +20829,7 @@
         <v>1144</v>
       </c>
       <c r="E1" s="418"/>
-      <c r="F1" s="459" t="s">
+      <c r="F1" s="458" t="s">
         <v>1343</v>
       </c>
     </row>
@@ -20816,7 +20842,7 @@
       <c r="E2" s="449" t="s">
         <v>1294</v>
       </c>
-      <c r="F2" s="459"/>
+      <c r="F2" s="458"/>
     </row>
     <row r="3" spans="1:6" s="410" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B3" s="409"/>
@@ -20830,11 +20856,11 @@
       <c r="F3" s="449"/>
     </row>
     <row r="4" spans="1:6" s="410" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="458" t="s">
+      <c r="A4" s="459" t="s">
         <v>1069</v>
       </c>
-      <c r="B4" s="458"/>
-      <c r="C4" s="458"/>
+      <c r="B4" s="459"/>
+      <c r="C4" s="459"/>
       <c r="D4" s="449" t="s">
         <v>1325</v>
       </c>
@@ -20844,39 +20870,39 @@
       <c r="F4" s="449"/>
     </row>
     <row r="5" spans="1:6" s="410" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="458"/>
-      <c r="B5" s="458"/>
-      <c r="C5" s="458"/>
+      <c r="A5" s="459"/>
+      <c r="B5" s="459"/>
+      <c r="C5" s="459"/>
       <c r="D5" s="404"/>
     </row>
     <row r="6" spans="1:6" s="410" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="458"/>
-      <c r="B6" s="458"/>
-      <c r="C6" s="458"/>
+      <c r="A6" s="459"/>
+      <c r="B6" s="459"/>
+      <c r="C6" s="459"/>
       <c r="D6" s="406"/>
       <c r="E6" s="449"/>
       <c r="F6" s="449"/>
     </row>
     <row r="7" spans="1:6" s="410" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="458" t="s">
+      <c r="A7" s="459" t="s">
         <v>1273</v>
       </c>
-      <c r="B7" s="458"/>
-      <c r="C7" s="458"/>
+      <c r="B7" s="459"/>
+      <c r="C7" s="459"/>
       <c r="D7" s="404"/>
       <c r="E7" s="449"/>
       <c r="F7" s="449"/>
     </row>
     <row r="8" spans="1:6" s="410" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="458"/>
-      <c r="B8" s="458"/>
-      <c r="C8" s="458"/>
+      <c r="A8" s="459"/>
+      <c r="B8" s="459"/>
+      <c r="C8" s="459"/>
       <c r="D8" s="404"/>
     </row>
     <row r="9" spans="1:6" s="410" customFormat="1" ht="9" x14ac:dyDescent="0.15">
-      <c r="A9" s="458"/>
-      <c r="B9" s="458"/>
-      <c r="C9" s="458"/>
+      <c r="A9" s="459"/>
+      <c r="B9" s="459"/>
+      <c r="C9" s="459"/>
     </row>
     <row r="10" spans="1:6" s="410" customFormat="1" ht="9" x14ac:dyDescent="0.15">
       <c r="A10" s="409"/>
@@ -20912,7 +20938,7 @@
     <row r="13" spans="1:6" s="352" customFormat="1" ht="13.5" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A13" s="339"/>
       <c r="B13" s="341" t="s">
-        <v>1542</v>
+        <v>1541</v>
       </c>
       <c r="C13" s="195"/>
       <c r="D13" s="195"/>
@@ -20941,60 +20967,60 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" s="413" t="s">
-        <v>1348</v>
+        <v>1526</v>
       </c>
       <c r="B15" s="412" t="s">
-        <v>1473</v>
+        <v>1527</v>
       </c>
       <c r="C15" s="414">
         <v>3</v>
       </c>
       <c r="D15" s="412" t="s">
-        <v>481</v>
+        <v>658</v>
       </c>
       <c r="E15" s="412" t="s">
-        <v>1526</v>
+        <v>1528</v>
       </c>
       <c r="F15" s="412" t="s">
         <v>1525</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A16" s="413" t="s">
-        <v>1527</v>
-      </c>
-      <c r="B16" s="412" t="s">
-        <v>1528</v>
-      </c>
-      <c r="C16" s="414">
+    <row r="16" spans="1:6" s="352" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A16" s="339"/>
+      <c r="B16" s="341" t="s">
+        <v>1529</v>
+      </c>
+      <c r="C16" s="195"/>
+      <c r="D16" s="195"/>
+      <c r="E16" s="341"/>
+      <c r="F16" s="340"/>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A17" s="413" t="s">
+        <v>1396</v>
+      </c>
+      <c r="B17" s="412" t="s">
+        <v>982</v>
+      </c>
+      <c r="C17" s="414">
         <v>3</v>
       </c>
-      <c r="D16" s="412" t="s">
-        <v>658</v>
-      </c>
-      <c r="E16" s="412" t="s">
-        <v>1529</v>
-      </c>
-      <c r="F16" s="412" t="s">
+      <c r="D17" s="412" t="s">
+        <v>872</v>
+      </c>
+      <c r="E17" s="412" t="s">
+        <v>1530</v>
+      </c>
+      <c r="F17" s="412" t="s">
         <v>1525</v>
       </c>
-    </row>
-    <row r="17" spans="1:6" s="352" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A17" s="339"/>
-      <c r="B17" s="341" t="s">
-        <v>1530</v>
-      </c>
-      <c r="C17" s="195"/>
-      <c r="D17" s="195"/>
-      <c r="E17" s="341"/>
-      <c r="F17" s="340"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" s="413" t="s">
-        <v>1396</v>
+        <v>1531</v>
       </c>
       <c r="B18" s="412" t="s">
-        <v>982</v>
+        <v>1455</v>
       </c>
       <c r="C18" s="414">
         <v>3</v>
@@ -21003,56 +21029,44 @@
         <v>872</v>
       </c>
       <c r="E18" s="412" t="s">
-        <v>1531</v>
+        <v>1528</v>
       </c>
       <c r="F18" s="412" t="s">
         <v>1525</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A19" s="413" t="s">
+    <row r="19" spans="1:6" s="352" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A19" s="339"/>
+      <c r="B19" s="341" t="s">
         <v>1532</v>
       </c>
-      <c r="B19" s="412" t="s">
-        <v>1455</v>
-      </c>
-      <c r="C19" s="414">
+      <c r="C19" s="195"/>
+      <c r="D19" s="195"/>
+      <c r="E19" s="341"/>
+      <c r="F19" s="340"/>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A20" s="413" t="s">
+        <v>1400</v>
+      </c>
+      <c r="B20" s="412" t="s">
+        <v>1190</v>
+      </c>
+      <c r="C20" s="414">
         <v>3</v>
       </c>
-      <c r="D19" s="412" t="s">
-        <v>872</v>
-      </c>
-      <c r="E19" s="412" t="s">
-        <v>1529</v>
-      </c>
-      <c r="F19" s="412" t="s">
+      <c r="D20" s="412" t="s">
+        <v>1533</v>
+      </c>
+      <c r="E20" s="412" t="s">
+        <v>1534</v>
+      </c>
+      <c r="F20" s="412" t="s">
         <v>1525</v>
       </c>
     </row>
-    <row r="20" spans="1:6" s="352" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A20" s="339"/>
-      <c r="B20" s="341" t="s">
-        <v>1533</v>
-      </c>
-      <c r="C20" s="195"/>
-      <c r="D20" s="195"/>
-      <c r="E20" s="341"/>
-      <c r="F20" s="340"/>
-    </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A21" s="413" t="s">
-        <v>1400</v>
-      </c>
-      <c r="B21" s="412" t="s">
-        <v>1190</v>
-      </c>
-      <c r="C21" s="414">
-        <v>3</v>
-      </c>
       <c r="D21" s="412" t="s">
-        <v>1534</v>
-      </c>
-      <c r="E21" s="412" t="s">
         <v>1535</v>
       </c>
       <c r="F21" s="412" t="s">
@@ -21060,11 +21074,8 @@
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="D22" s="412" t="s">
+      <c r="A22" s="413" t="s">
         <v>1536</v>
-      </c>
-      <c r="F22" s="412" t="s">
-        <v>1525</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.2">
@@ -21085,11 +21096,6 @@
     <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26" s="413" t="s">
         <v>1540</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A27" s="413" t="s">
-        <v>1541</v>
       </c>
     </row>
   </sheetData>
@@ -30714,7 +30720,7 @@
         <v>1144</v>
       </c>
       <c r="E1" s="418"/>
-      <c r="F1" s="459" t="s">
+      <c r="F1" s="458" t="s">
         <v>1343</v>
       </c>
     </row>
@@ -30727,7 +30733,7 @@
       <c r="E2" s="449" t="s">
         <v>1279</v>
       </c>
-      <c r="F2" s="459"/>
+      <c r="F2" s="458"/>
     </row>
     <row r="3" spans="1:6" s="410" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B3" s="409"/>
@@ -39676,7 +39682,7 @@
         <v>1144</v>
       </c>
       <c r="E1" s="418"/>
-      <c r="F1" s="459" t="s">
+      <c r="F1" s="458" t="s">
         <v>1343</v>
       </c>
     </row>
@@ -39689,7 +39695,7 @@
       <c r="E2" s="449" t="s">
         <v>1299</v>
       </c>
-      <c r="F2" s="459"/>
+      <c r="F2" s="458"/>
     </row>
     <row r="3" spans="1:6" s="410" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B3" s="409"/>
@@ -39703,11 +39709,11 @@
       <c r="F3" s="451"/>
     </row>
     <row r="4" spans="1:6" s="410" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="458" t="s">
+      <c r="A4" s="459" t="s">
         <v>1069</v>
       </c>
-      <c r="B4" s="458"/>
-      <c r="C4" s="458"/>
+      <c r="B4" s="459"/>
+      <c r="C4" s="459"/>
       <c r="D4" s="449" t="s">
         <v>1317</v>
       </c>
@@ -39717,9 +39723,9 @@
       <c r="F4" s="451"/>
     </row>
     <row r="5" spans="1:6" s="410" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="458"/>
-      <c r="B5" s="458"/>
-      <c r="C5" s="458"/>
+      <c r="A5" s="459"/>
+      <c r="B5" s="459"/>
+      <c r="C5" s="459"/>
       <c r="D5" s="449" t="s">
         <v>1116</v>
       </c>
@@ -39729,9 +39735,9 @@
       <c r="F5" s="451"/>
     </row>
     <row r="6" spans="1:6" s="410" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="458"/>
-      <c r="B6" s="458"/>
-      <c r="C6" s="458"/>
+      <c r="A6" s="459"/>
+      <c r="B6" s="459"/>
+      <c r="C6" s="459"/>
       <c r="D6" s="449" t="s">
         <v>1465</v>
       </c>
@@ -39741,11 +39747,11 @@
       <c r="F6" s="451"/>
     </row>
     <row r="7" spans="1:6" s="410" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="458" t="s">
+      <c r="A7" s="459" t="s">
         <v>1275</v>
       </c>
-      <c r="B7" s="458"/>
-      <c r="C7" s="458"/>
+      <c r="B7" s="459"/>
+      <c r="C7" s="459"/>
       <c r="D7" s="449" t="s">
         <v>1466</v>
       </c>
@@ -39755,9 +39761,9 @@
       <c r="F7" s="451"/>
     </row>
     <row r="8" spans="1:6" s="410" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="458"/>
-      <c r="B8" s="458"/>
-      <c r="C8" s="458"/>
+      <c r="A8" s="459"/>
+      <c r="B8" s="459"/>
+      <c r="C8" s="459"/>
       <c r="D8" s="449" t="s">
         <v>1468</v>
       </c>
@@ -39767,9 +39773,9 @@
       <c r="F8" s="451"/>
     </row>
     <row r="9" spans="1:6" s="410" customFormat="1" ht="9" x14ac:dyDescent="0.15">
-      <c r="A9" s="458"/>
-      <c r="B9" s="458"/>
-      <c r="C9" s="458"/>
+      <c r="A9" s="459"/>
+      <c r="B9" s="459"/>
+      <c r="C9" s="459"/>
       <c r="D9" s="406" t="s">
         <v>1469</v>
       </c>
@@ -45584,7 +45590,7 @@
         <v>1144</v>
       </c>
       <c r="E1" s="418"/>
-      <c r="F1" s="459" t="s">
+      <c r="F1" s="458" t="s">
         <v>1343</v>
       </c>
     </row>
@@ -45597,7 +45603,7 @@
       <c r="E2" s="449" t="s">
         <v>1294</v>
       </c>
-      <c r="F2" s="459"/>
+      <c r="F2" s="458"/>
     </row>
     <row r="3" spans="1:6" s="410" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B3" s="409"/>
@@ -45611,11 +45617,11 @@
       <c r="F3" s="449"/>
     </row>
     <row r="4" spans="1:6" s="410" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="458" t="s">
+      <c r="A4" s="459" t="s">
         <v>1069</v>
       </c>
-      <c r="B4" s="458"/>
-      <c r="C4" s="458"/>
+      <c r="B4" s="459"/>
+      <c r="C4" s="459"/>
       <c r="D4" s="449" t="s">
         <v>1316</v>
       </c>
@@ -45625,42 +45631,42 @@
       <c r="F4" s="449"/>
     </row>
     <row r="5" spans="1:6" s="410" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="458"/>
-      <c r="B5" s="458"/>
-      <c r="C5" s="458"/>
+      <c r="A5" s="459"/>
+      <c r="B5" s="459"/>
+      <c r="C5" s="459"/>
       <c r="D5" s="404"/>
     </row>
     <row r="6" spans="1:6" s="410" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="458"/>
-      <c r="B6" s="458"/>
-      <c r="C6" s="458"/>
+      <c r="A6" s="459"/>
+      <c r="B6" s="459"/>
+      <c r="C6" s="459"/>
       <c r="D6" s="406"/>
       <c r="E6" s="449"/>
       <c r="F6" s="449"/>
     </row>
     <row r="7" spans="1:6" s="410" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="458"/>
-      <c r="B7" s="458"/>
-      <c r="C7" s="458"/>
-      <c r="D7" s="458"/>
-      <c r="E7" s="458"/>
-      <c r="F7" s="458"/>
+      <c r="A7" s="459"/>
+      <c r="B7" s="459"/>
+      <c r="C7" s="459"/>
+      <c r="D7" s="459"/>
+      <c r="E7" s="459"/>
+      <c r="F7" s="459"/>
     </row>
     <row r="8" spans="1:6" s="410" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="458"/>
-      <c r="B8" s="458"/>
-      <c r="C8" s="458"/>
-      <c r="D8" s="458"/>
-      <c r="E8" s="458"/>
-      <c r="F8" s="458"/>
+      <c r="A8" s="459"/>
+      <c r="B8" s="459"/>
+      <c r="C8" s="459"/>
+      <c r="D8" s="459"/>
+      <c r="E8" s="459"/>
+      <c r="F8" s="459"/>
     </row>
     <row r="9" spans="1:6" s="410" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="458"/>
-      <c r="B9" s="458"/>
-      <c r="C9" s="458"/>
-      <c r="D9" s="458"/>
-      <c r="E9" s="458"/>
-      <c r="F9" s="458"/>
+      <c r="A9" s="459"/>
+      <c r="B9" s="459"/>
+      <c r="C9" s="459"/>
+      <c r="D9" s="459"/>
+      <c r="E9" s="459"/>
+      <c r="F9" s="459"/>
     </row>
     <row r="10" spans="1:6" s="410" customFormat="1" ht="9" x14ac:dyDescent="0.15">
       <c r="A10" s="409"/>
@@ -45878,7 +45884,7 @@
         <v>1144</v>
       </c>
       <c r="E1" s="418"/>
-      <c r="F1" s="459" t="s">
+      <c r="F1" s="458" t="s">
         <v>1343</v>
       </c>
     </row>
@@ -45891,7 +45897,7 @@
       <c r="E2" s="449" t="s">
         <v>1279</v>
       </c>
-      <c r="F2" s="459"/>
+      <c r="F2" s="458"/>
     </row>
     <row r="3" spans="1:6" s="410" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B3" s="409"/>
@@ -47379,7 +47385,7 @@
         <v>1144</v>
       </c>
       <c r="E1" s="418"/>
-      <c r="F1" s="459" t="s">
+      <c r="F1" s="458" t="s">
         <v>1343</v>
       </c>
     </row>
@@ -47392,7 +47398,7 @@
       <c r="E2" s="449" t="s">
         <v>1299</v>
       </c>
-      <c r="F2" s="459"/>
+      <c r="F2" s="458"/>
     </row>
     <row r="3" spans="1:6" s="410" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B3" s="409"/>
@@ -48884,7 +48890,7 @@
         <v>1144</v>
       </c>
       <c r="E1" s="418"/>
-      <c r="F1" s="459" t="s">
+      <c r="F1" s="458" t="s">
         <v>1343</v>
       </c>
     </row>
@@ -48897,7 +48903,7 @@
       <c r="E2" s="454" t="s">
         <v>1294</v>
       </c>
-      <c r="F2" s="459"/>
+      <c r="F2" s="458"/>
     </row>
     <row r="3" spans="1:6" s="410" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B3" s="409"/>
@@ -49202,7 +49208,7 @@
         <v>1144</v>
       </c>
       <c r="E1" s="418"/>
-      <c r="F1" s="459" t="s">
+      <c r="F1" s="458" t="s">
         <v>1343</v>
       </c>
     </row>
@@ -49215,7 +49221,7 @@
       <c r="E2" s="449" t="s">
         <v>1279</v>
       </c>
-      <c r="F2" s="459"/>
+      <c r="F2" s="458"/>
     </row>
     <row r="3" spans="1:6" s="410" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B3" s="409"/>

--- a/schedule/semester/schedule.xlsx
+++ b/schedule/semester/schedule.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="5250" yWindow="75" windowWidth="16320" windowHeight="12375" tabRatio="734" activeTab="1"/>
+    <workbookView xWindow="5250" yWindow="75" windowWidth="16320" windowHeight="12375" tabRatio="734"/>
   </bookViews>
   <sheets>
     <sheet name="F20" sheetId="87" r:id="rId1"/>
@@ -82,7 +82,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9120" uniqueCount="1561">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9125" uniqueCount="1564">
   <si>
     <t>ELECTRICAL AND COMPUTER ENGINEERING</t>
   </si>
@@ -4761,10 +4761,19 @@
     <t>EE4689-02</t>
   </si>
   <si>
-    <t>Posted 5/18/2020</t>
-  </si>
-  <si>
     <t>Posted 5/19/2020</t>
+  </si>
+  <si>
+    <t>EE4961-03</t>
+  </si>
+  <si>
+    <t>EE4961-04</t>
+  </si>
+  <si>
+    <t>Senior Design I-lab</t>
+  </si>
+  <si>
+    <t>BIOS 144</t>
   </si>
 </sst>
 </file>
@@ -7970,13 +7979,13 @@
   <sheetPr>
     <tabColor theme="9" tint="-0.249977111117893"/>
   </sheetPr>
-  <dimension ref="A1:F73"/>
+  <dimension ref="A1:F74"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane xSplit="1" ySplit="12" topLeftCell="B13" activePane="bottomRight" state="frozen"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <pane xSplit="1" ySplit="12" topLeftCell="B16" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A13" sqref="A13"/>
-      <selection pane="bottomRight" activeCell="B19" sqref="B19"/>
+      <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
@@ -9157,7 +9166,7 @@
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A66" s="413" t="s">
-        <v>1341</v>
+        <v>1560</v>
       </c>
       <c r="B66" s="412" t="s">
         <v>986</v>
@@ -9177,50 +9186,50 @@
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A67" s="413" t="s">
-        <v>1346</v>
+        <v>1561</v>
       </c>
       <c r="B67" s="412" t="s">
-        <v>988</v>
+        <v>1562</v>
       </c>
       <c r="C67" s="414">
         <v>3</v>
       </c>
       <c r="D67" s="412" t="s">
-        <v>166</v>
+        <v>59</v>
       </c>
       <c r="E67" s="412" t="s">
-        <v>958</v>
+        <v>1483</v>
       </c>
       <c r="F67" s="412" t="s">
-        <v>1521</v>
+        <v>1563</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A68" s="413" t="s">
-        <v>1040</v>
+        <v>1346</v>
       </c>
       <c r="B68" s="412" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
       <c r="C68" s="414">
         <v>3</v>
       </c>
       <c r="D68" s="412" t="s">
-        <v>414</v>
+        <v>166</v>
       </c>
       <c r="E68" s="412" t="s">
-        <v>947</v>
+        <v>958</v>
       </c>
       <c r="F68" s="412" t="s">
-        <v>66</v>
+        <v>1521</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A69" s="413" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
       <c r="B69" s="412" t="s">
-        <v>990</v>
+        <v>989</v>
       </c>
       <c r="C69" s="414">
         <v>3</v>
@@ -9229,7 +9238,7 @@
         <v>414</v>
       </c>
       <c r="E69" s="412" t="s">
-        <v>972</v>
+        <v>947</v>
       </c>
       <c r="F69" s="412" t="s">
         <v>66</v>
@@ -9237,81 +9246,101 @@
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A70" s="413" t="s">
-        <v>1043</v>
+        <v>1366</v>
       </c>
       <c r="B70" s="412" t="s">
-        <v>992</v>
+        <v>1367</v>
       </c>
       <c r="C70" s="414">
         <v>3</v>
       </c>
       <c r="D70" s="412" t="s">
-        <v>658</v>
+        <v>414</v>
       </c>
       <c r="E70" s="412" t="s">
-        <v>946</v>
+        <v>972</v>
       </c>
       <c r="F70" s="412" t="s">
-        <v>215</v>
+        <v>66</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A71" s="413" t="s">
-        <v>1096</v>
+        <v>1043</v>
       </c>
       <c r="B71" s="412" t="s">
-        <v>1097</v>
+        <v>992</v>
       </c>
       <c r="C71" s="414">
         <v>3</v>
       </c>
       <c r="D71" s="412" t="s">
-        <v>872</v>
+        <v>658</v>
       </c>
       <c r="E71" s="412" t="s">
-        <v>1556</v>
+        <v>946</v>
       </c>
       <c r="F71" s="412" t="s">
-        <v>50</v>
+        <v>215</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A72" s="413" t="s">
-        <v>1342</v>
+        <v>1096</v>
       </c>
       <c r="B72" s="412" t="s">
-        <v>1180</v>
+        <v>1097</v>
       </c>
       <c r="C72" s="414">
         <v>3</v>
       </c>
       <c r="D72" s="412" t="s">
-        <v>811</v>
+        <v>872</v>
       </c>
       <c r="E72" s="412" t="s">
-        <v>947</v>
+        <v>1556</v>
       </c>
       <c r="F72" s="412" t="s">
-        <v>223</v>
+        <v>50</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A73" s="413" t="s">
-        <v>1094</v>
+        <v>1342</v>
       </c>
       <c r="B73" s="412" t="s">
-        <v>976</v>
+        <v>1180</v>
       </c>
       <c r="C73" s="414">
         <v>3</v>
       </c>
       <c r="D73" s="412" t="s">
+        <v>811</v>
+      </c>
+      <c r="E73" s="412" t="s">
+        <v>947</v>
+      </c>
+      <c r="F73" s="412" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A74" s="413" t="s">
+        <v>1094</v>
+      </c>
+      <c r="B74" s="412" t="s">
+        <v>976</v>
+      </c>
+      <c r="C74" s="414">
+        <v>3</v>
+      </c>
+      <c r="D74" s="412" t="s">
         <v>166</v>
       </c>
-      <c r="E73" s="412" t="s">
+      <c r="E74" s="412" t="s">
         <v>969</v>
       </c>
-      <c r="F73" s="412" t="s">
+      <c r="F74" s="412" t="s">
         <v>1521</v>
       </c>
     </row>
@@ -20801,7 +20830,7 @@
   </sheetPr>
   <dimension ref="A1:F26"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <pane xSplit="1" ySplit="12" topLeftCell="B13" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A13" sqref="A13"/>
@@ -20821,7 +20850,7 @@
   <sheetData>
     <row r="1" spans="1:6" s="410" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="407" t="s">
-        <v>1560</v>
+        <v>1559</v>
       </c>
       <c r="B1" s="408"/>
       <c r="C1" s="409"/>

--- a/schedule/semester/schedule.xlsx
+++ b/schedule/semester/schedule.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="5250" yWindow="75" windowWidth="16320" windowHeight="12375" tabRatio="734"/>
+    <workbookView xWindow="5250" yWindow="75" windowWidth="16320" windowHeight="12375" tabRatio="734" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="F20" sheetId="87" r:id="rId1"/>
@@ -82,7 +82,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9125" uniqueCount="1564">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9123" uniqueCount="1563">
   <si>
     <t>ELECTRICAL AND COMPUTER ENGINEERING</t>
   </si>
@@ -4695,15 +4695,9 @@
     <t>we also have the following supervisory sections for 10-weeks in case students need them for internships:</t>
   </si>
   <si>
-    <t>EE 4990-80 (3 units)</t>
-  </si>
-  <si>
     <t>EE 4990-81 (1 unit)</t>
   </si>
   <si>
-    <t>EE 5980-80 (1 unit)</t>
-  </si>
-  <si>
     <t>EE 5980-81  (3 units)</t>
   </si>
   <si>
@@ -4774,6 +4768,9 @@
   </si>
   <si>
     <t>BIOS 144</t>
+  </si>
+  <si>
+    <t>Posted 5/21/2020</t>
   </si>
 </sst>
 </file>
@@ -7981,7 +7978,7 @@
   </sheetPr>
   <dimension ref="A1:F74"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <pane xSplit="1" ySplit="12" topLeftCell="B16" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A13" sqref="A13"/>
@@ -8001,7 +7998,7 @@
   <sheetData>
     <row r="1" spans="1:6" s="410" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="407" t="s">
-        <v>1559</v>
+        <v>1557</v>
       </c>
       <c r="B1" s="408"/>
       <c r="C1" s="409"/>
@@ -8055,7 +8052,7 @@
     </row>
     <row r="7" spans="1:6" s="410" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="459" t="s">
-        <v>1542</v>
+        <v>1540</v>
       </c>
       <c r="B7" s="459"/>
       <c r="C7" s="459"/>
@@ -8227,7 +8224,7 @@
         <v>481</v>
       </c>
       <c r="E18" s="412" t="s">
-        <v>1543</v>
+        <v>1541</v>
       </c>
       <c r="F18" s="412" t="s">
         <v>100</v>
@@ -8247,7 +8244,7 @@
         <v>481</v>
       </c>
       <c r="E19" s="412" t="s">
-        <v>1544</v>
+        <v>1542</v>
       </c>
       <c r="F19" s="412" t="s">
         <v>100</v>
@@ -8367,7 +8364,7 @@
         <v>481</v>
       </c>
       <c r="E25" s="412" t="s">
-        <v>1545</v>
+        <v>1543</v>
       </c>
       <c r="F25" s="412" t="s">
         <v>100</v>
@@ -8387,7 +8384,7 @@
         <v>481</v>
       </c>
       <c r="E26" s="412" t="s">
-        <v>1546</v>
+        <v>1544</v>
       </c>
       <c r="F26" s="412" t="s">
         <v>100</v>
@@ -8415,7 +8412,7 @@
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A28" s="413" t="s">
-        <v>1547</v>
+        <v>1545</v>
       </c>
       <c r="B28" s="412" t="s">
         <v>1177</v>
@@ -8435,7 +8432,7 @@
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A29" s="413" t="s">
-        <v>1548</v>
+        <v>1546</v>
       </c>
       <c r="B29" s="412" t="s">
         <v>1177</v>
@@ -8444,7 +8441,7 @@
         <v>3</v>
       </c>
       <c r="D29" s="412" t="s">
-        <v>1549</v>
+        <v>1547</v>
       </c>
       <c r="E29" s="412" t="s">
         <v>1453</v>
@@ -8561,7 +8558,7 @@
         <v>1</v>
       </c>
       <c r="D35" s="412" t="s">
-        <v>1550</v>
+        <v>1548</v>
       </c>
       <c r="E35" s="412" t="s">
         <v>933</v>
@@ -8661,13 +8658,13 @@
         <v>3</v>
       </c>
       <c r="D40" s="412" t="s">
-        <v>1557</v>
+        <v>1555</v>
       </c>
       <c r="E40" s="412" t="s">
         <v>938</v>
       </c>
       <c r="F40" s="412" t="s">
-        <v>1551</v>
+        <v>1549</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.2">
@@ -8684,7 +8681,7 @@
         <v>743</v>
       </c>
       <c r="E41" s="412" t="s">
-        <v>1552</v>
+        <v>1550</v>
       </c>
       <c r="F41" s="412" t="s">
         <v>100</v>
@@ -8724,7 +8721,7 @@
         <v>743</v>
       </c>
       <c r="E43" s="412" t="s">
-        <v>1553</v>
+        <v>1551</v>
       </c>
       <c r="F43" s="412" t="s">
         <v>100</v>
@@ -8744,7 +8741,7 @@
         <v>743</v>
       </c>
       <c r="E44" s="412" t="s">
-        <v>1554</v>
+        <v>1552</v>
       </c>
       <c r="F44" s="412" t="s">
         <v>100</v>
@@ -9106,7 +9103,7 @@
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A63" s="413" t="s">
-        <v>1558</v>
+        <v>1556</v>
       </c>
       <c r="B63" s="412" t="s">
         <v>1182</v>
@@ -9129,7 +9126,7 @@
         <v>1339</v>
       </c>
       <c r="B64" s="412" t="s">
-        <v>1555</v>
+        <v>1553</v>
       </c>
       <c r="C64" s="414">
         <v>3</v>
@@ -9166,7 +9163,7 @@
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A66" s="413" t="s">
-        <v>1560</v>
+        <v>1558</v>
       </c>
       <c r="B66" s="412" t="s">
         <v>986</v>
@@ -9186,10 +9183,10 @@
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A67" s="413" t="s">
-        <v>1561</v>
+        <v>1559</v>
       </c>
       <c r="B67" s="412" t="s">
-        <v>1562</v>
+        <v>1560</v>
       </c>
       <c r="C67" s="414">
         <v>3</v>
@@ -9201,7 +9198,7 @@
         <v>1483</v>
       </c>
       <c r="F67" s="412" t="s">
-        <v>1563</v>
+        <v>1561</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.2">
@@ -9298,7 +9295,7 @@
         <v>872</v>
       </c>
       <c r="E72" s="412" t="s">
-        <v>1556</v>
+        <v>1554</v>
       </c>
       <c r="F72" s="412" t="s">
         <v>50</v>
@@ -20828,13 +20825,13 @@
   <sheetPr codeName="Sheet39">
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
-  <dimension ref="A1:F26"/>
+  <dimension ref="A1:F24"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <pane xSplit="1" ySplit="12" topLeftCell="B13" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A13" sqref="A13"/>
-      <selection pane="bottomRight" activeCell="E36" sqref="E36"/>
+      <selection pane="bottomRight" activeCell="B36" sqref="B36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
@@ -20850,7 +20847,7 @@
   <sheetData>
     <row r="1" spans="1:6" s="410" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="407" t="s">
-        <v>1559</v>
+        <v>1562</v>
       </c>
       <c r="B1" s="408"/>
       <c r="C1" s="409"/>
@@ -20967,7 +20964,7 @@
     <row r="13" spans="1:6" s="352" customFormat="1" ht="13.5" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A13" s="339"/>
       <c r="B13" s="341" t="s">
-        <v>1541</v>
+        <v>1539</v>
       </c>
       <c r="C13" s="195"/>
       <c r="D13" s="195"/>
@@ -21115,16 +21112,6 @@
     <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24" s="413" t="s">
         <v>1538</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A25" s="413" t="s">
-        <v>1539</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A26" s="413" t="s">
-        <v>1540</v>
       </c>
     </row>
   </sheetData>

--- a/schedule/semester/schedule.xlsx
+++ b/schedule/semester/schedule.xlsx
@@ -82,7 +82,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9123" uniqueCount="1563">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9115" uniqueCount="1560">
   <si>
     <t>ELECTRICAL AND COMPUTER ENGINEERING</t>
   </si>
@@ -4662,12 +4662,6 @@
     <t>remote instruction</t>
   </si>
   <si>
-    <t>EE 4540-82</t>
-  </si>
-  <si>
-    <t>Power Systems Software Tools</t>
-  </si>
-  <si>
     <t>TR 600-1015pm</t>
   </si>
   <si>
@@ -4752,12 +4746,6 @@
     <t>Thomas</t>
   </si>
   <si>
-    <t>EE4689-02</t>
-  </si>
-  <si>
-    <t>Posted 5/19/2020</t>
-  </si>
-  <si>
     <t>EE4961-03</t>
   </si>
   <si>
@@ -4770,7 +4758,10 @@
     <t>BIOS 144</t>
   </si>
   <si>
-    <t>Posted 5/21/2020</t>
+    <t>EE 4990-82 (3 units)</t>
+  </si>
+  <si>
+    <t>Posted 6/1/2020</t>
   </si>
 </sst>
 </file>
@@ -7976,13 +7967,13 @@
   <sheetPr>
     <tabColor theme="9" tint="-0.249977111117893"/>
   </sheetPr>
-  <dimension ref="A1:F74"/>
+  <dimension ref="A1:F72"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane xSplit="1" ySplit="12" topLeftCell="B16" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="12" topLeftCell="B13" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A13" sqref="A13"/>
-      <selection pane="bottomRight"/>
+      <selection pane="bottomRight" activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
@@ -7998,7 +7989,7 @@
   <sheetData>
     <row r="1" spans="1:6" s="410" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="407" t="s">
-        <v>1557</v>
+        <v>1559</v>
       </c>
       <c r="B1" s="408"/>
       <c r="C1" s="409"/>
@@ -8052,7 +8043,7 @@
     </row>
     <row r="7" spans="1:6" s="410" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="459" t="s">
-        <v>1540</v>
+        <v>1538</v>
       </c>
       <c r="B7" s="459"/>
       <c r="C7" s="459"/>
@@ -8224,7 +8215,7 @@
         <v>481</v>
       </c>
       <c r="E18" s="412" t="s">
-        <v>1541</v>
+        <v>1539</v>
       </c>
       <c r="F18" s="412" t="s">
         <v>100</v>
@@ -8244,7 +8235,7 @@
         <v>481</v>
       </c>
       <c r="E19" s="412" t="s">
-        <v>1542</v>
+        <v>1540</v>
       </c>
       <c r="F19" s="412" t="s">
         <v>100</v>
@@ -8364,7 +8355,7 @@
         <v>481</v>
       </c>
       <c r="E25" s="412" t="s">
-        <v>1543</v>
+        <v>1541</v>
       </c>
       <c r="F25" s="412" t="s">
         <v>100</v>
@@ -8384,7 +8375,7 @@
         <v>481</v>
       </c>
       <c r="E26" s="412" t="s">
-        <v>1544</v>
+        <v>1542</v>
       </c>
       <c r="F26" s="412" t="s">
         <v>100</v>
@@ -8412,7 +8403,7 @@
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A28" s="413" t="s">
-        <v>1545</v>
+        <v>1543</v>
       </c>
       <c r="B28" s="412" t="s">
         <v>1177</v>
@@ -8432,7 +8423,7 @@
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A29" s="413" t="s">
-        <v>1546</v>
+        <v>1544</v>
       </c>
       <c r="B29" s="412" t="s">
         <v>1177</v>
@@ -8441,7 +8432,7 @@
         <v>3</v>
       </c>
       <c r="D29" s="412" t="s">
-        <v>1547</v>
+        <v>1545</v>
       </c>
       <c r="E29" s="412" t="s">
         <v>1453</v>
@@ -8558,7 +8549,7 @@
         <v>1</v>
       </c>
       <c r="D35" s="412" t="s">
-        <v>1548</v>
+        <v>1546</v>
       </c>
       <c r="E35" s="412" t="s">
         <v>933</v>
@@ -8589,47 +8580,47 @@
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A37" s="413" t="s">
-        <v>1213</v>
+        <v>1014</v>
       </c>
       <c r="B37" s="412" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="C37" s="414">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D37" s="412" t="s">
-        <v>64</v>
+        <v>1418</v>
       </c>
       <c r="E37" s="412" t="s">
-        <v>964</v>
+        <v>936</v>
       </c>
       <c r="F37" s="412" t="s">
-        <v>417</v>
+        <v>189</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A38" s="413" t="s">
-        <v>1014</v>
+        <v>1153</v>
       </c>
       <c r="B38" s="412" t="s">
-        <v>935</v>
+        <v>1154</v>
       </c>
       <c r="C38" s="414">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D38" s="412" t="s">
-        <v>1418</v>
+        <v>1420</v>
       </c>
       <c r="E38" s="412" t="s">
-        <v>936</v>
+        <v>942</v>
       </c>
       <c r="F38" s="412" t="s">
-        <v>189</v>
+        <v>905</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A39" s="413" t="s">
-        <v>1153</v>
+        <v>1155</v>
       </c>
       <c r="B39" s="412" t="s">
         <v>1154</v>
@@ -8638,50 +8629,50 @@
         <v>3</v>
       </c>
       <c r="D39" s="412" t="s">
-        <v>1420</v>
+        <v>1553</v>
       </c>
       <c r="E39" s="412" t="s">
-        <v>942</v>
+        <v>938</v>
       </c>
       <c r="F39" s="412" t="s">
-        <v>905</v>
+        <v>1547</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A40" s="413" t="s">
-        <v>1155</v>
+        <v>1015</v>
       </c>
       <c r="B40" s="412" t="s">
-        <v>1154</v>
+        <v>1333</v>
       </c>
       <c r="C40" s="414">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D40" s="412" t="s">
-        <v>1555</v>
+        <v>743</v>
       </c>
       <c r="E40" s="412" t="s">
-        <v>938</v>
+        <v>1548</v>
       </c>
       <c r="F40" s="412" t="s">
-        <v>1549</v>
+        <v>100</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A41" s="413" t="s">
-        <v>1015</v>
+        <v>1016</v>
       </c>
       <c r="B41" s="412" t="s">
         <v>1333</v>
       </c>
       <c r="C41" s="414">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D41" s="412" t="s">
         <v>743</v>
       </c>
       <c r="E41" s="412" t="s">
-        <v>1550</v>
+        <v>929</v>
       </c>
       <c r="F41" s="412" t="s">
         <v>100</v>
@@ -8689,19 +8680,19 @@
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A42" s="413" t="s">
-        <v>1016</v>
+        <v>1195</v>
       </c>
       <c r="B42" s="412" t="s">
         <v>1333</v>
       </c>
       <c r="C42" s="414">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D42" s="412" t="s">
         <v>743</v>
       </c>
       <c r="E42" s="412" t="s">
-        <v>929</v>
+        <v>1549</v>
       </c>
       <c r="F42" s="412" t="s">
         <v>100</v>
@@ -8709,19 +8700,19 @@
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A43" s="413" t="s">
-        <v>1195</v>
+        <v>1197</v>
       </c>
       <c r="B43" s="412" t="s">
         <v>1333</v>
       </c>
       <c r="C43" s="414">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D43" s="412" t="s">
         <v>743</v>
       </c>
       <c r="E43" s="412" t="s">
-        <v>1551</v>
+        <v>1550</v>
       </c>
       <c r="F43" s="412" t="s">
         <v>100</v>
@@ -8729,87 +8720,87 @@
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A44" s="413" t="s">
-        <v>1197</v>
+        <v>1017</v>
       </c>
       <c r="B44" s="412" t="s">
-        <v>1333</v>
+        <v>939</v>
       </c>
       <c r="C44" s="414">
         <v>1</v>
       </c>
       <c r="D44" s="412" t="s">
-        <v>743</v>
+        <v>741</v>
       </c>
       <c r="E44" s="412" t="s">
-        <v>1552</v>
+        <v>1034</v>
       </c>
       <c r="F44" s="412" t="s">
-        <v>100</v>
+        <v>24</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A45" s="413" t="s">
-        <v>1017</v>
+        <v>1018</v>
       </c>
       <c r="B45" s="412" t="s">
-        <v>939</v>
+        <v>980</v>
       </c>
       <c r="C45" s="414">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D45" s="412" t="s">
-        <v>741</v>
+        <v>45</v>
       </c>
       <c r="E45" s="412" t="s">
-        <v>1034</v>
+        <v>942</v>
       </c>
       <c r="F45" s="412" t="s">
-        <v>24</v>
+        <v>417</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A46" s="413" t="s">
-        <v>1018</v>
+        <v>1019</v>
       </c>
       <c r="B46" s="412" t="s">
-        <v>980</v>
+        <v>943</v>
       </c>
       <c r="C46" s="414">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D46" s="412" t="s">
-        <v>45</v>
+        <v>184</v>
       </c>
       <c r="E46" s="412" t="s">
-        <v>942</v>
+        <v>1488</v>
       </c>
       <c r="F46" s="412" t="s">
-        <v>417</v>
+        <v>905</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A47" s="413" t="s">
-        <v>1019</v>
+        <v>1020</v>
       </c>
       <c r="B47" s="412" t="s">
         <v>943</v>
       </c>
       <c r="C47" s="414">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D47" s="412" t="s">
-        <v>184</v>
+        <v>741</v>
       </c>
       <c r="E47" s="412" t="s">
-        <v>1488</v>
+        <v>919</v>
       </c>
       <c r="F47" s="412" t="s">
-        <v>905</v>
+        <v>24</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A48" s="413" t="s">
-        <v>1020</v>
+        <v>1160</v>
       </c>
       <c r="B48" s="412" t="s">
         <v>943</v>
@@ -8817,19 +8808,16 @@
       <c r="C48" s="414">
         <v>1</v>
       </c>
-      <c r="D48" s="412" t="s">
-        <v>741</v>
-      </c>
       <c r="E48" s="412" t="s">
         <v>919</v>
       </c>
       <c r="F48" s="412" t="s">
-        <v>24</v>
+        <v>104</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A49" s="413" t="s">
-        <v>1160</v>
+        <v>1162</v>
       </c>
       <c r="B49" s="412" t="s">
         <v>943</v>
@@ -8838,7 +8826,7 @@
         <v>1</v>
       </c>
       <c r="E49" s="412" t="s">
-        <v>919</v>
+        <v>1483</v>
       </c>
       <c r="F49" s="412" t="s">
         <v>104</v>
@@ -8846,76 +8834,79 @@
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A50" s="413" t="s">
-        <v>1162</v>
+        <v>1074</v>
       </c>
       <c r="B50" s="412" t="s">
-        <v>943</v>
+        <v>945</v>
       </c>
       <c r="C50" s="414">
-        <v>1</v>
+        <v>3</v>
+      </c>
+      <c r="D50" s="412" t="s">
+        <v>732</v>
       </c>
       <c r="E50" s="412" t="s">
-        <v>1483</v>
+        <v>946</v>
       </c>
       <c r="F50" s="412" t="s">
-        <v>104</v>
+        <v>417</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A51" s="413" t="s">
-        <v>1074</v>
+        <v>1022</v>
       </c>
       <c r="B51" s="412" t="s">
-        <v>945</v>
+        <v>981</v>
       </c>
       <c r="C51" s="414">
         <v>3</v>
       </c>
       <c r="D51" s="412" t="s">
-        <v>732</v>
+        <v>414</v>
       </c>
       <c r="E51" s="412" t="s">
-        <v>946</v>
+        <v>950</v>
       </c>
       <c r="F51" s="412" t="s">
-        <v>417</v>
+        <v>66</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A52" s="413" t="s">
-        <v>1022</v>
+        <v>1023</v>
       </c>
       <c r="B52" s="412" t="s">
-        <v>981</v>
+        <v>951</v>
       </c>
       <c r="C52" s="414">
         <v>3</v>
       </c>
       <c r="D52" s="412" t="s">
-        <v>414</v>
+        <v>872</v>
       </c>
       <c r="E52" s="412" t="s">
         <v>950</v>
       </c>
       <c r="F52" s="412" t="s">
-        <v>66</v>
+        <v>417</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A53" s="413" t="s">
-        <v>1023</v>
+        <v>1024</v>
       </c>
       <c r="B53" s="412" t="s">
-        <v>951</v>
+        <v>952</v>
       </c>
       <c r="C53" s="414">
         <v>3</v>
       </c>
       <c r="D53" s="412" t="s">
-        <v>872</v>
+        <v>607</v>
       </c>
       <c r="E53" s="412" t="s">
-        <v>950</v>
+        <v>964</v>
       </c>
       <c r="F53" s="412" t="s">
         <v>417</v>
@@ -8923,130 +8914,130 @@
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A54" s="413" t="s">
-        <v>1024</v>
+        <v>1025</v>
       </c>
       <c r="B54" s="412" t="s">
-        <v>952</v>
+        <v>954</v>
       </c>
       <c r="C54" s="414">
         <v>3</v>
       </c>
       <c r="D54" s="412" t="s">
-        <v>607</v>
+        <v>64</v>
       </c>
       <c r="E54" s="412" t="s">
-        <v>964</v>
+        <v>929</v>
       </c>
       <c r="F54" s="412" t="s">
-        <v>223</v>
+        <v>50</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A55" s="413" t="s">
-        <v>1025</v>
+        <v>1026</v>
       </c>
       <c r="B55" s="412" t="s">
-        <v>954</v>
+        <v>982</v>
       </c>
       <c r="C55" s="414">
         <v>3</v>
       </c>
       <c r="D55" s="412" t="s">
-        <v>658</v>
+        <v>872</v>
       </c>
       <c r="E55" s="412" t="s">
-        <v>929</v>
+        <v>914</v>
       </c>
       <c r="F55" s="412" t="s">
-        <v>50</v>
+        <v>223</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A56" s="413" t="s">
-        <v>1026</v>
+        <v>1078</v>
       </c>
       <c r="B56" s="412" t="s">
-        <v>982</v>
+        <v>956</v>
       </c>
       <c r="C56" s="414">
         <v>3</v>
       </c>
       <c r="D56" s="412" t="s">
-        <v>872</v>
+        <v>811</v>
       </c>
       <c r="E56" s="412" t="s">
-        <v>914</v>
+        <v>946</v>
       </c>
       <c r="F56" s="412" t="s">
-        <v>223</v>
+        <v>66</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A57" s="413" t="s">
-        <v>1078</v>
+        <v>1079</v>
       </c>
       <c r="B57" s="412" t="s">
-        <v>956</v>
+        <v>957</v>
       </c>
       <c r="C57" s="414">
         <v>3</v>
       </c>
       <c r="D57" s="412" t="s">
-        <v>811</v>
+        <v>481</v>
       </c>
       <c r="E57" s="412" t="s">
-        <v>946</v>
+        <v>1172</v>
       </c>
       <c r="F57" s="412" t="s">
-        <v>66</v>
+        <v>223</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A58" s="413" t="s">
-        <v>1079</v>
+        <v>1338</v>
       </c>
       <c r="B58" s="412" t="s">
-        <v>957</v>
+        <v>983</v>
       </c>
       <c r="C58" s="414">
         <v>3</v>
       </c>
       <c r="D58" s="412" t="s">
-        <v>481</v>
+        <v>743</v>
       </c>
       <c r="E58" s="412" t="s">
-        <v>1172</v>
+        <v>950</v>
       </c>
       <c r="F58" s="412" t="s">
-        <v>223</v>
+        <v>100</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A59" s="413" t="s">
-        <v>1338</v>
+        <v>1032</v>
       </c>
       <c r="B59" s="412" t="s">
-        <v>983</v>
+        <v>1179</v>
       </c>
       <c r="C59" s="414">
         <v>3</v>
       </c>
       <c r="D59" s="412" t="s">
-        <v>743</v>
+        <v>64</v>
       </c>
       <c r="E59" s="412" t="s">
-        <v>950</v>
+        <v>962</v>
       </c>
       <c r="F59" s="412" t="s">
-        <v>100</v>
+        <v>417</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A60" s="413" t="s">
-        <v>1032</v>
+        <v>1033</v>
       </c>
       <c r="B60" s="412" t="s">
-        <v>1179</v>
+        <v>984</v>
       </c>
       <c r="C60" s="414">
         <v>3</v>
@@ -9055,7 +9046,7 @@
         <v>64</v>
       </c>
       <c r="E60" s="412" t="s">
-        <v>962</v>
+        <v>972</v>
       </c>
       <c r="F60" s="412" t="s">
         <v>417</v>
@@ -9063,281 +9054,241 @@
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A61" s="413" t="s">
-        <v>1033</v>
+        <v>1181</v>
       </c>
       <c r="B61" s="412" t="s">
-        <v>984</v>
+        <v>1182</v>
       </c>
       <c r="C61" s="414">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D61" s="412" t="s">
-        <v>64</v>
+        <v>1418</v>
       </c>
       <c r="E61" s="412" t="s">
-        <v>972</v>
+        <v>1206</v>
       </c>
       <c r="F61" s="412" t="s">
-        <v>417</v>
+        <v>135</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A62" s="413" t="s">
-        <v>1181</v>
+        <v>1339</v>
       </c>
       <c r="B62" s="412" t="s">
-        <v>1182</v>
+        <v>1551</v>
       </c>
       <c r="C62" s="414">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D62" s="412" t="s">
-        <v>1418</v>
+        <v>45</v>
       </c>
       <c r="E62" s="412" t="s">
-        <v>1206</v>
+        <v>1453</v>
       </c>
       <c r="F62" s="412" t="s">
-        <v>135</v>
+        <v>778</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A63" s="413" t="s">
-        <v>1556</v>
+        <v>1035</v>
       </c>
       <c r="B63" s="412" t="s">
-        <v>1182</v>
+        <v>985</v>
       </c>
       <c r="C63" s="414">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D63" s="412" t="s">
-        <v>64</v>
+        <v>184</v>
       </c>
       <c r="E63" s="412" t="s">
-        <v>1482</v>
+        <v>942</v>
       </c>
       <c r="F63" s="412" t="s">
-        <v>135</v>
+        <v>119</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A64" s="413" t="s">
-        <v>1339</v>
+        <v>1554</v>
       </c>
       <c r="B64" s="412" t="s">
-        <v>1553</v>
+        <v>986</v>
       </c>
       <c r="C64" s="414">
         <v>3</v>
       </c>
       <c r="D64" s="412" t="s">
-        <v>45</v>
+        <v>1493</v>
       </c>
       <c r="E64" s="412" t="s">
-        <v>1453</v>
+        <v>1489</v>
       </c>
       <c r="F64" s="412" t="s">
-        <v>778</v>
+        <v>1518</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A65" s="413" t="s">
-        <v>1035</v>
+        <v>1555</v>
       </c>
       <c r="B65" s="412" t="s">
-        <v>985</v>
+        <v>1556</v>
       </c>
       <c r="C65" s="414">
         <v>3</v>
       </c>
       <c r="D65" s="412" t="s">
-        <v>184</v>
+        <v>59</v>
       </c>
       <c r="E65" s="412" t="s">
-        <v>942</v>
+        <v>1483</v>
       </c>
       <c r="F65" s="412" t="s">
-        <v>119</v>
+        <v>1557</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A66" s="413" t="s">
-        <v>1558</v>
+        <v>1346</v>
       </c>
       <c r="B66" s="412" t="s">
-        <v>986</v>
+        <v>988</v>
       </c>
       <c r="C66" s="414">
         <v>3</v>
       </c>
       <c r="D66" s="412" t="s">
-        <v>1493</v>
+        <v>166</v>
       </c>
       <c r="E66" s="412" t="s">
-        <v>1489</v>
+        <v>958</v>
       </c>
       <c r="F66" s="412" t="s">
-        <v>1518</v>
+        <v>1521</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A67" s="413" t="s">
-        <v>1559</v>
+        <v>1040</v>
       </c>
       <c r="B67" s="412" t="s">
-        <v>1560</v>
+        <v>989</v>
       </c>
       <c r="C67" s="414">
         <v>3</v>
       </c>
       <c r="D67" s="412" t="s">
-        <v>59</v>
+        <v>414</v>
       </c>
       <c r="E67" s="412" t="s">
-        <v>1483</v>
+        <v>947</v>
       </c>
       <c r="F67" s="412" t="s">
-        <v>1561</v>
+        <v>66</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A68" s="413" t="s">
-        <v>1346</v>
+        <v>1366</v>
       </c>
       <c r="B68" s="412" t="s">
-        <v>988</v>
+        <v>1367</v>
       </c>
       <c r="C68" s="414">
         <v>3</v>
       </c>
       <c r="D68" s="412" t="s">
-        <v>166</v>
+        <v>414</v>
       </c>
       <c r="E68" s="412" t="s">
-        <v>958</v>
+        <v>972</v>
       </c>
       <c r="F68" s="412" t="s">
-        <v>1521</v>
+        <v>66</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A69" s="413" t="s">
-        <v>1040</v>
+        <v>1043</v>
       </c>
       <c r="B69" s="412" t="s">
-        <v>989</v>
+        <v>992</v>
       </c>
       <c r="C69" s="414">
         <v>3</v>
       </c>
       <c r="D69" s="412" t="s">
-        <v>414</v>
+        <v>754</v>
       </c>
       <c r="E69" s="412" t="s">
-        <v>947</v>
+        <v>946</v>
       </c>
       <c r="F69" s="412" t="s">
-        <v>66</v>
+        <v>215</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A70" s="413" t="s">
-        <v>1366</v>
+        <v>1096</v>
       </c>
       <c r="B70" s="412" t="s">
-        <v>1367</v>
+        <v>1097</v>
       </c>
       <c r="C70" s="414">
         <v>3</v>
       </c>
       <c r="D70" s="412" t="s">
-        <v>414</v>
+        <v>872</v>
       </c>
       <c r="E70" s="412" t="s">
-        <v>972</v>
+        <v>1552</v>
       </c>
       <c r="F70" s="412" t="s">
-        <v>66</v>
+        <v>50</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A71" s="413" t="s">
-        <v>1043</v>
+        <v>1342</v>
       </c>
       <c r="B71" s="412" t="s">
-        <v>992</v>
+        <v>1180</v>
       </c>
       <c r="C71" s="414">
         <v>3</v>
       </c>
       <c r="D71" s="412" t="s">
-        <v>658</v>
+        <v>811</v>
       </c>
       <c r="E71" s="412" t="s">
-        <v>946</v>
+        <v>947</v>
       </c>
       <c r="F71" s="412" t="s">
-        <v>215</v>
+        <v>223</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A72" s="413" t="s">
-        <v>1096</v>
+        <v>1094</v>
       </c>
       <c r="B72" s="412" t="s">
-        <v>1097</v>
+        <v>976</v>
       </c>
       <c r="C72" s="414">
         <v>3</v>
       </c>
       <c r="D72" s="412" t="s">
-        <v>872</v>
+        <v>166</v>
       </c>
       <c r="E72" s="412" t="s">
-        <v>1554</v>
+        <v>969</v>
       </c>
       <c r="F72" s="412" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A73" s="413" t="s">
-        <v>1342</v>
-      </c>
-      <c r="B73" s="412" t="s">
-        <v>1180</v>
-      </c>
-      <c r="C73" s="414">
-        <v>3</v>
-      </c>
-      <c r="D73" s="412" t="s">
-        <v>811</v>
-      </c>
-      <c r="E73" s="412" t="s">
-        <v>947</v>
-      </c>
-      <c r="F73" s="412" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A74" s="413" t="s">
-        <v>1094</v>
-      </c>
-      <c r="B74" s="412" t="s">
-        <v>976</v>
-      </c>
-      <c r="C74" s="414">
-        <v>3</v>
-      </c>
-      <c r="D74" s="412" t="s">
-        <v>166</v>
-      </c>
-      <c r="E74" s="412" t="s">
-        <v>969</v>
-      </c>
-      <c r="F74" s="412" t="s">
         <v>1521</v>
       </c>
     </row>
@@ -20825,13 +20776,13 @@
   <sheetPr codeName="Sheet39">
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
-  <dimension ref="A1:F24"/>
+  <dimension ref="A1:F25"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <pane xSplit="1" ySplit="12" topLeftCell="B13" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A13" sqref="A13"/>
-      <selection pane="bottomRight" activeCell="B36" sqref="B36"/>
+      <selection pane="bottomRight" activeCell="C42" sqref="C42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
@@ -20847,7 +20798,7 @@
   <sheetData>
     <row r="1" spans="1:6" s="410" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="407" t="s">
-        <v>1562</v>
+        <v>1559</v>
       </c>
       <c r="B1" s="408"/>
       <c r="C1" s="409"/>
@@ -20964,7 +20915,7 @@
     <row r="13" spans="1:6" s="352" customFormat="1" ht="13.5" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A13" s="339"/>
       <c r="B13" s="341" t="s">
-        <v>1539</v>
+        <v>1537</v>
       </c>
       <c r="C13" s="195"/>
       <c r="D13" s="195"/>
@@ -20973,39 +20924,39 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" s="413" t="s">
-        <v>1398</v>
+        <v>9</v>
       </c>
       <c r="B14" s="412" t="s">
-        <v>1406</v>
-      </c>
-      <c r="C14" s="414">
+        <v>2</v>
+      </c>
+      <c r="C14" s="414" t="s">
         <v>3</v>
       </c>
       <c r="D14" s="412" t="s">
-        <v>64</v>
+        <v>4</v>
       </c>
       <c r="E14" s="412" t="s">
-        <v>1524</v>
+        <v>5</v>
       </c>
       <c r="F14" s="412" t="s">
-        <v>1525</v>
+        <v>6</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" s="413" t="s">
-        <v>1526</v>
+        <v>1398</v>
       </c>
       <c r="B15" s="412" t="s">
-        <v>1527</v>
+        <v>1406</v>
       </c>
       <c r="C15" s="414">
         <v>3</v>
       </c>
       <c r="D15" s="412" t="s">
-        <v>658</v>
+        <v>64</v>
       </c>
       <c r="E15" s="412" t="s">
-        <v>1528</v>
+        <v>1524</v>
       </c>
       <c r="F15" s="412" t="s">
         <v>1525</v>
@@ -21014,7 +20965,7 @@
     <row r="16" spans="1:6" s="352" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A16" s="339"/>
       <c r="B16" s="341" t="s">
-        <v>1529</v>
+        <v>1527</v>
       </c>
       <c r="C16" s="195"/>
       <c r="D16" s="195"/>
@@ -21035,7 +20986,7 @@
         <v>872</v>
       </c>
       <c r="E17" s="412" t="s">
-        <v>1530</v>
+        <v>1528</v>
       </c>
       <c r="F17" s="412" t="s">
         <v>1525</v>
@@ -21043,7 +20994,7 @@
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" s="413" t="s">
-        <v>1531</v>
+        <v>1529</v>
       </c>
       <c r="B18" s="412" t="s">
         <v>1455</v>
@@ -21055,7 +21006,7 @@
         <v>872</v>
       </c>
       <c r="E18" s="412" t="s">
-        <v>1528</v>
+        <v>1526</v>
       </c>
       <c r="F18" s="412" t="s">
         <v>1525</v>
@@ -21064,7 +21015,7 @@
     <row r="19" spans="1:6" s="352" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A19" s="339"/>
       <c r="B19" s="341" t="s">
-        <v>1532</v>
+        <v>1530</v>
       </c>
       <c r="C19" s="195"/>
       <c r="D19" s="195"/>
@@ -21082,10 +21033,10 @@
         <v>3</v>
       </c>
       <c r="D20" s="412" t="s">
-        <v>1533</v>
+        <v>1531</v>
       </c>
       <c r="E20" s="412" t="s">
-        <v>1534</v>
+        <v>1532</v>
       </c>
       <c r="F20" s="412" t="s">
         <v>1525</v>
@@ -21093,7 +21044,7 @@
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="D21" s="412" t="s">
-        <v>1535</v>
+        <v>1533</v>
       </c>
       <c r="F21" s="412" t="s">
         <v>1525</v>
@@ -21101,17 +21052,22 @@
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" s="413" t="s">
-        <v>1536</v>
+        <v>1534</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" s="413" t="s">
-        <v>1537</v>
+        <v>1535</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24" s="413" t="s">
-        <v>1538</v>
+        <v>1558</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A25" s="413" t="s">
+        <v>1536</v>
       </c>
     </row>
   </sheetData>

--- a/schedule/semester/schedule.xlsx
+++ b/schedule/semester/schedule.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="5250" yWindow="75" windowWidth="16320" windowHeight="12375" tabRatio="734" activeTab="1"/>
+    <workbookView xWindow="5250" yWindow="75" windowWidth="16320" windowHeight="12375" tabRatio="734"/>
   </bookViews>
   <sheets>
     <sheet name="F20" sheetId="87" r:id="rId1"/>
@@ -82,7 +82,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9115" uniqueCount="1560">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9107" uniqueCount="1561">
   <si>
     <t>ELECTRICAL AND COMPUTER ENGINEERING</t>
   </si>
@@ -4762,6 +4762,9 @@
   </si>
   <si>
     <t>Posted 6/1/2020</t>
+  </si>
+  <si>
+    <t>Posted 7/2/2020</t>
   </si>
 </sst>
 </file>
@@ -7967,13 +7970,13 @@
   <sheetPr>
     <tabColor theme="9" tint="-0.249977111117893"/>
   </sheetPr>
-  <dimension ref="A1:F72"/>
+  <dimension ref="A1:F70"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <pane xSplit="1" ySplit="12" topLeftCell="B13" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A13" sqref="A13"/>
-      <selection pane="bottomRight" activeCell="B20" sqref="B20"/>
+      <selection pane="bottomRight" activeCell="H22" sqref="H22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
@@ -7989,7 +7992,7 @@
   <sheetData>
     <row r="1" spans="1:6" s="410" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="407" t="s">
-        <v>1559</v>
+        <v>1560</v>
       </c>
       <c r="B1" s="408"/>
       <c r="C1" s="409"/>
@@ -8451,6 +8454,9 @@
       <c r="C30" s="414">
         <v>1</v>
       </c>
+      <c r="D30" s="412" t="s">
+        <v>184</v>
+      </c>
       <c r="E30" s="412" t="s">
         <v>926</v>
       </c>
@@ -8460,30 +8466,30 @@
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31" s="413" t="s">
-        <v>1498</v>
+        <v>1009</v>
       </c>
       <c r="B31" s="412" t="s">
-        <v>925</v>
+        <v>1178</v>
       </c>
       <c r="C31" s="414">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D31" s="412" t="s">
-        <v>741</v>
+        <v>34</v>
       </c>
       <c r="E31" s="412" t="s">
-        <v>1483</v>
+        <v>929</v>
       </c>
       <c r="F31" s="412" t="s">
-        <v>66</v>
+        <v>1422</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A32" s="413" t="s">
-        <v>1009</v>
+        <v>1010</v>
       </c>
       <c r="B32" s="412" t="s">
-        <v>1178</v>
+        <v>1413</v>
       </c>
       <c r="C32" s="414">
         <v>3</v>
@@ -8492,18 +8498,18 @@
         <v>34</v>
       </c>
       <c r="E32" s="412" t="s">
-        <v>929</v>
+        <v>914</v>
       </c>
       <c r="F32" s="412" t="s">
-        <v>1422</v>
+        <v>1495</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A33" s="413" t="s">
-        <v>1010</v>
+        <v>1011</v>
       </c>
       <c r="B33" s="412" t="s">
-        <v>1413</v>
+        <v>979</v>
       </c>
       <c r="C33" s="414">
         <v>3</v>
@@ -8512,7 +8518,7 @@
         <v>34</v>
       </c>
       <c r="E33" s="412" t="s">
-        <v>914</v>
+        <v>938</v>
       </c>
       <c r="F33" s="412" t="s">
         <v>1495</v>
@@ -8520,87 +8526,87 @@
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A34" s="413" t="s">
-        <v>1011</v>
+        <v>1012</v>
       </c>
       <c r="B34" s="412" t="s">
-        <v>979</v>
+        <v>932</v>
       </c>
       <c r="C34" s="414">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D34" s="412" t="s">
-        <v>34</v>
+        <v>1546</v>
       </c>
       <c r="E34" s="412" t="s">
-        <v>938</v>
+        <v>933</v>
       </c>
       <c r="F34" s="412" t="s">
-        <v>1495</v>
+        <v>1368</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A35" s="413" t="s">
-        <v>1012</v>
+        <v>1212</v>
       </c>
       <c r="B35" s="412" t="s">
-        <v>932</v>
+        <v>934</v>
       </c>
       <c r="C35" s="414">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D35" s="412" t="s">
-        <v>1546</v>
+        <v>64</v>
       </c>
       <c r="E35" s="412" t="s">
-        <v>933</v>
+        <v>931</v>
       </c>
       <c r="F35" s="412" t="s">
-        <v>1368</v>
+        <v>153</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A36" s="413" t="s">
-        <v>1212</v>
+        <v>1014</v>
       </c>
       <c r="B36" s="412" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="C36" s="414">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D36" s="412" t="s">
-        <v>64</v>
+        <v>1418</v>
       </c>
       <c r="E36" s="412" t="s">
-        <v>931</v>
+        <v>936</v>
       </c>
       <c r="F36" s="412" t="s">
-        <v>153</v>
+        <v>189</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A37" s="413" t="s">
-        <v>1014</v>
+        <v>1153</v>
       </c>
       <c r="B37" s="412" t="s">
-        <v>935</v>
+        <v>1154</v>
       </c>
       <c r="C37" s="414">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D37" s="412" t="s">
-        <v>1418</v>
+        <v>1420</v>
       </c>
       <c r="E37" s="412" t="s">
-        <v>936</v>
+        <v>942</v>
       </c>
       <c r="F37" s="412" t="s">
-        <v>189</v>
+        <v>905</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A38" s="413" t="s">
-        <v>1153</v>
+        <v>1155</v>
       </c>
       <c r="B38" s="412" t="s">
         <v>1154</v>
@@ -8609,50 +8615,50 @@
         <v>3</v>
       </c>
       <c r="D38" s="412" t="s">
-        <v>1420</v>
+        <v>1553</v>
       </c>
       <c r="E38" s="412" t="s">
-        <v>942</v>
+        <v>938</v>
       </c>
       <c r="F38" s="412" t="s">
-        <v>905</v>
+        <v>1547</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A39" s="413" t="s">
-        <v>1155</v>
+        <v>1015</v>
       </c>
       <c r="B39" s="412" t="s">
-        <v>1154</v>
+        <v>1333</v>
       </c>
       <c r="C39" s="414">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D39" s="412" t="s">
-        <v>1553</v>
+        <v>743</v>
       </c>
       <c r="E39" s="412" t="s">
-        <v>938</v>
+        <v>1548</v>
       </c>
       <c r="F39" s="412" t="s">
-        <v>1547</v>
+        <v>100</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A40" s="413" t="s">
-        <v>1015</v>
+        <v>1016</v>
       </c>
       <c r="B40" s="412" t="s">
         <v>1333</v>
       </c>
       <c r="C40" s="414">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D40" s="412" t="s">
         <v>743</v>
       </c>
       <c r="E40" s="412" t="s">
-        <v>1548</v>
+        <v>929</v>
       </c>
       <c r="F40" s="412" t="s">
         <v>100</v>
@@ -8660,19 +8666,19 @@
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A41" s="413" t="s">
-        <v>1016</v>
+        <v>1195</v>
       </c>
       <c r="B41" s="412" t="s">
         <v>1333</v>
       </c>
       <c r="C41" s="414">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D41" s="412" t="s">
         <v>743</v>
       </c>
       <c r="E41" s="412" t="s">
-        <v>929</v>
+        <v>1549</v>
       </c>
       <c r="F41" s="412" t="s">
         <v>100</v>
@@ -8680,19 +8686,19 @@
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A42" s="413" t="s">
-        <v>1195</v>
+        <v>1197</v>
       </c>
       <c r="B42" s="412" t="s">
         <v>1333</v>
       </c>
       <c r="C42" s="414">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D42" s="412" t="s">
         <v>743</v>
       </c>
       <c r="E42" s="412" t="s">
-        <v>1549</v>
+        <v>1550</v>
       </c>
       <c r="F42" s="412" t="s">
         <v>100</v>
@@ -8700,87 +8706,87 @@
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A43" s="413" t="s">
-        <v>1197</v>
+        <v>1017</v>
       </c>
       <c r="B43" s="412" t="s">
-        <v>1333</v>
+        <v>939</v>
       </c>
       <c r="C43" s="414">
         <v>1</v>
       </c>
       <c r="D43" s="412" t="s">
-        <v>743</v>
+        <v>741</v>
       </c>
       <c r="E43" s="412" t="s">
-        <v>1550</v>
+        <v>1034</v>
       </c>
       <c r="F43" s="412" t="s">
-        <v>100</v>
+        <v>24</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A44" s="413" t="s">
-        <v>1017</v>
+        <v>1018</v>
       </c>
       <c r="B44" s="412" t="s">
-        <v>939</v>
+        <v>980</v>
       </c>
       <c r="C44" s="414">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D44" s="412" t="s">
-        <v>741</v>
+        <v>45</v>
       </c>
       <c r="E44" s="412" t="s">
-        <v>1034</v>
+        <v>942</v>
       </c>
       <c r="F44" s="412" t="s">
-        <v>24</v>
+        <v>417</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A45" s="413" t="s">
-        <v>1018</v>
+        <v>1019</v>
       </c>
       <c r="B45" s="412" t="s">
-        <v>980</v>
+        <v>943</v>
       </c>
       <c r="C45" s="414">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D45" s="412" t="s">
-        <v>45</v>
+        <v>184</v>
       </c>
       <c r="E45" s="412" t="s">
-        <v>942</v>
+        <v>1488</v>
       </c>
       <c r="F45" s="412" t="s">
-        <v>417</v>
+        <v>905</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A46" s="413" t="s">
-        <v>1019</v>
+        <v>1020</v>
       </c>
       <c r="B46" s="412" t="s">
         <v>943</v>
       </c>
       <c r="C46" s="414">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D46" s="412" t="s">
-        <v>184</v>
+        <v>741</v>
       </c>
       <c r="E46" s="412" t="s">
-        <v>1488</v>
+        <v>919</v>
       </c>
       <c r="F46" s="412" t="s">
-        <v>905</v>
+        <v>24</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A47" s="413" t="s">
-        <v>1020</v>
+        <v>1162</v>
       </c>
       <c r="B47" s="412" t="s">
         <v>943</v>
@@ -8788,65 +8794,68 @@
       <c r="C47" s="414">
         <v>1</v>
       </c>
-      <c r="D47" s="412" t="s">
-        <v>741</v>
-      </c>
       <c r="E47" s="412" t="s">
-        <v>919</v>
+        <v>1483</v>
       </c>
       <c r="F47" s="412" t="s">
-        <v>24</v>
+        <v>104</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A48" s="413" t="s">
-        <v>1160</v>
+        <v>1074</v>
       </c>
       <c r="B48" s="412" t="s">
-        <v>943</v>
+        <v>945</v>
       </c>
       <c r="C48" s="414">
-        <v>1</v>
+        <v>3</v>
+      </c>
+      <c r="D48" s="412" t="s">
+        <v>732</v>
       </c>
       <c r="E48" s="412" t="s">
-        <v>919</v>
+        <v>946</v>
       </c>
       <c r="F48" s="412" t="s">
-        <v>104</v>
+        <v>417</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A49" s="413" t="s">
-        <v>1162</v>
+        <v>1022</v>
       </c>
       <c r="B49" s="412" t="s">
-        <v>943</v>
+        <v>981</v>
       </c>
       <c r="C49" s="414">
-        <v>1</v>
+        <v>3</v>
+      </c>
+      <c r="D49" s="412" t="s">
+        <v>414</v>
       </c>
       <c r="E49" s="412" t="s">
-        <v>1483</v>
+        <v>950</v>
       </c>
       <c r="F49" s="412" t="s">
-        <v>104</v>
+        <v>66</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A50" s="413" t="s">
-        <v>1074</v>
+        <v>1023</v>
       </c>
       <c r="B50" s="412" t="s">
-        <v>945</v>
+        <v>951</v>
       </c>
       <c r="C50" s="414">
         <v>3</v>
       </c>
       <c r="D50" s="412" t="s">
-        <v>732</v>
+        <v>872</v>
       </c>
       <c r="E50" s="412" t="s">
-        <v>946</v>
+        <v>950</v>
       </c>
       <c r="F50" s="412" t="s">
         <v>417</v>
@@ -8854,99 +8863,99 @@
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A51" s="413" t="s">
-        <v>1022</v>
+        <v>1024</v>
       </c>
       <c r="B51" s="412" t="s">
-        <v>981</v>
+        <v>952</v>
       </c>
       <c r="C51" s="414">
         <v>3</v>
       </c>
       <c r="D51" s="412" t="s">
-        <v>414</v>
+        <v>607</v>
       </c>
       <c r="E51" s="412" t="s">
-        <v>950</v>
+        <v>964</v>
       </c>
       <c r="F51" s="412" t="s">
-        <v>66</v>
+        <v>417</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A52" s="413" t="s">
-        <v>1023</v>
+        <v>1025</v>
       </c>
       <c r="B52" s="412" t="s">
-        <v>951</v>
+        <v>954</v>
       </c>
       <c r="C52" s="414">
         <v>3</v>
       </c>
       <c r="D52" s="412" t="s">
-        <v>872</v>
+        <v>64</v>
       </c>
       <c r="E52" s="412" t="s">
-        <v>950</v>
+        <v>929</v>
       </c>
       <c r="F52" s="412" t="s">
-        <v>417</v>
+        <v>50</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A53" s="413" t="s">
-        <v>1024</v>
+        <v>1026</v>
       </c>
       <c r="B53" s="412" t="s">
-        <v>952</v>
+        <v>982</v>
       </c>
       <c r="C53" s="414">
         <v>3</v>
       </c>
       <c r="D53" s="412" t="s">
-        <v>607</v>
+        <v>872</v>
       </c>
       <c r="E53" s="412" t="s">
-        <v>964</v>
+        <v>914</v>
       </c>
       <c r="F53" s="412" t="s">
-        <v>417</v>
+        <v>223</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A54" s="413" t="s">
-        <v>1025</v>
+        <v>1078</v>
       </c>
       <c r="B54" s="412" t="s">
-        <v>954</v>
+        <v>956</v>
       </c>
       <c r="C54" s="414">
         <v>3</v>
       </c>
       <c r="D54" s="412" t="s">
-        <v>64</v>
+        <v>811</v>
       </c>
       <c r="E54" s="412" t="s">
-        <v>929</v>
+        <v>946</v>
       </c>
       <c r="F54" s="412" t="s">
-        <v>50</v>
+        <v>66</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A55" s="413" t="s">
-        <v>1026</v>
+        <v>1079</v>
       </c>
       <c r="B55" s="412" t="s">
-        <v>982</v>
+        <v>957</v>
       </c>
       <c r="C55" s="414">
         <v>3</v>
       </c>
       <c r="D55" s="412" t="s">
-        <v>872</v>
+        <v>481</v>
       </c>
       <c r="E55" s="412" t="s">
-        <v>914</v>
+        <v>1172</v>
       </c>
       <c r="F55" s="412" t="s">
         <v>223</v>
@@ -8954,341 +8963,301 @@
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A56" s="413" t="s">
-        <v>1078</v>
+        <v>1338</v>
       </c>
       <c r="B56" s="412" t="s">
-        <v>956</v>
+        <v>983</v>
       </c>
       <c r="C56" s="414">
         <v>3</v>
       </c>
       <c r="D56" s="412" t="s">
-        <v>811</v>
+        <v>743</v>
       </c>
       <c r="E56" s="412" t="s">
-        <v>946</v>
+        <v>950</v>
       </c>
       <c r="F56" s="412" t="s">
-        <v>66</v>
+        <v>100</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A57" s="413" t="s">
-        <v>1079</v>
+        <v>1032</v>
       </c>
       <c r="B57" s="412" t="s">
-        <v>957</v>
+        <v>1179</v>
       </c>
       <c r="C57" s="414">
         <v>3</v>
       </c>
       <c r="D57" s="412" t="s">
-        <v>481</v>
+        <v>64</v>
       </c>
       <c r="E57" s="412" t="s">
-        <v>1172</v>
+        <v>962</v>
       </c>
       <c r="F57" s="412" t="s">
-        <v>223</v>
+        <v>417</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A58" s="413" t="s">
-        <v>1338</v>
+        <v>1033</v>
       </c>
       <c r="B58" s="412" t="s">
-        <v>983</v>
+        <v>984</v>
       </c>
       <c r="C58" s="414">
         <v>3</v>
       </c>
       <c r="D58" s="412" t="s">
-        <v>743</v>
+        <v>64</v>
       </c>
       <c r="E58" s="412" t="s">
-        <v>950</v>
+        <v>972</v>
       </c>
       <c r="F58" s="412" t="s">
-        <v>100</v>
+        <v>417</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A59" s="413" t="s">
-        <v>1032</v>
+        <v>1181</v>
       </c>
       <c r="B59" s="412" t="s">
-        <v>1179</v>
+        <v>1182</v>
       </c>
       <c r="C59" s="414">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D59" s="412" t="s">
-        <v>64</v>
+        <v>1418</v>
       </c>
       <c r="E59" s="412" t="s">
-        <v>962</v>
+        <v>1206</v>
       </c>
       <c r="F59" s="412" t="s">
-        <v>417</v>
+        <v>135</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A60" s="413" t="s">
-        <v>1033</v>
+        <v>1339</v>
       </c>
       <c r="B60" s="412" t="s">
-        <v>984</v>
+        <v>1551</v>
       </c>
       <c r="C60" s="414">
         <v>3</v>
       </c>
       <c r="D60" s="412" t="s">
-        <v>64</v>
+        <v>45</v>
       </c>
       <c r="E60" s="412" t="s">
-        <v>972</v>
+        <v>1453</v>
       </c>
       <c r="F60" s="412" t="s">
-        <v>417</v>
+        <v>778</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A61" s="413" t="s">
-        <v>1181</v>
+        <v>1035</v>
       </c>
       <c r="B61" s="412" t="s">
-        <v>1182</v>
+        <v>985</v>
       </c>
       <c r="C61" s="414">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D61" s="412" t="s">
-        <v>1418</v>
+        <v>184</v>
       </c>
       <c r="E61" s="412" t="s">
-        <v>1206</v>
+        <v>942</v>
       </c>
       <c r="F61" s="412" t="s">
-        <v>135</v>
+        <v>119</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A62" s="413" t="s">
-        <v>1339</v>
+        <v>1554</v>
       </c>
       <c r="B62" s="412" t="s">
-        <v>1551</v>
+        <v>986</v>
       </c>
       <c r="C62" s="414">
         <v>3</v>
       </c>
       <c r="D62" s="412" t="s">
-        <v>45</v>
+        <v>1493</v>
       </c>
       <c r="E62" s="412" t="s">
-        <v>1453</v>
+        <v>1489</v>
       </c>
       <c r="F62" s="412" t="s">
-        <v>778</v>
+        <v>1518</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A63" s="413" t="s">
-        <v>1035</v>
+        <v>1555</v>
       </c>
       <c r="B63" s="412" t="s">
-        <v>985</v>
+        <v>1556</v>
       </c>
       <c r="C63" s="414">
         <v>3</v>
       </c>
       <c r="D63" s="412" t="s">
-        <v>184</v>
+        <v>59</v>
       </c>
       <c r="E63" s="412" t="s">
-        <v>942</v>
+        <v>1483</v>
       </c>
       <c r="F63" s="412" t="s">
-        <v>119</v>
+        <v>1557</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A64" s="413" t="s">
-        <v>1554</v>
+        <v>1346</v>
       </c>
       <c r="B64" s="412" t="s">
-        <v>986</v>
+        <v>988</v>
       </c>
       <c r="C64" s="414">
         <v>3</v>
       </c>
       <c r="D64" s="412" t="s">
-        <v>1493</v>
+        <v>166</v>
       </c>
       <c r="E64" s="412" t="s">
-        <v>1489</v>
+        <v>958</v>
       </c>
       <c r="F64" s="412" t="s">
-        <v>1518</v>
+        <v>1521</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A65" s="413" t="s">
-        <v>1555</v>
+        <v>1040</v>
       </c>
       <c r="B65" s="412" t="s">
-        <v>1556</v>
+        <v>989</v>
       </c>
       <c r="C65" s="414">
         <v>3</v>
       </c>
       <c r="D65" s="412" t="s">
-        <v>59</v>
+        <v>414</v>
       </c>
       <c r="E65" s="412" t="s">
-        <v>1483</v>
+        <v>947</v>
       </c>
       <c r="F65" s="412" t="s">
-        <v>1557</v>
+        <v>66</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A66" s="413" t="s">
-        <v>1346</v>
+        <v>1366</v>
       </c>
       <c r="B66" s="412" t="s">
-        <v>988</v>
+        <v>1367</v>
       </c>
       <c r="C66" s="414">
         <v>3</v>
       </c>
       <c r="D66" s="412" t="s">
-        <v>166</v>
+        <v>414</v>
       </c>
       <c r="E66" s="412" t="s">
-        <v>958</v>
+        <v>972</v>
       </c>
       <c r="F66" s="412" t="s">
-        <v>1521</v>
+        <v>66</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A67" s="413" t="s">
-        <v>1040</v>
+        <v>1043</v>
       </c>
       <c r="B67" s="412" t="s">
-        <v>989</v>
+        <v>992</v>
       </c>
       <c r="C67" s="414">
         <v>3</v>
       </c>
       <c r="D67" s="412" t="s">
-        <v>414</v>
+        <v>754</v>
       </c>
       <c r="E67" s="412" t="s">
-        <v>947</v>
+        <v>946</v>
       </c>
       <c r="F67" s="412" t="s">
-        <v>66</v>
+        <v>215</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A68" s="413" t="s">
-        <v>1366</v>
+        <v>1096</v>
       </c>
       <c r="B68" s="412" t="s">
-        <v>1367</v>
+        <v>1097</v>
       </c>
       <c r="C68" s="414">
         <v>3</v>
       </c>
       <c r="D68" s="412" t="s">
-        <v>414</v>
+        <v>872</v>
       </c>
       <c r="E68" s="412" t="s">
-        <v>972</v>
+        <v>1552</v>
       </c>
       <c r="F68" s="412" t="s">
-        <v>66</v>
+        <v>50</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A69" s="413" t="s">
-        <v>1043</v>
+        <v>1342</v>
       </c>
       <c r="B69" s="412" t="s">
-        <v>992</v>
+        <v>1180</v>
       </c>
       <c r="C69" s="414">
         <v>3</v>
       </c>
       <c r="D69" s="412" t="s">
-        <v>754</v>
+        <v>811</v>
       </c>
       <c r="E69" s="412" t="s">
-        <v>946</v>
+        <v>947</v>
       </c>
       <c r="F69" s="412" t="s">
-        <v>215</v>
+        <v>223</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A70" s="413" t="s">
-        <v>1096</v>
+        <v>1094</v>
       </c>
       <c r="B70" s="412" t="s">
-        <v>1097</v>
+        <v>976</v>
       </c>
       <c r="C70" s="414">
         <v>3</v>
       </c>
       <c r="D70" s="412" t="s">
-        <v>872</v>
+        <v>166</v>
       </c>
       <c r="E70" s="412" t="s">
-        <v>1552</v>
+        <v>969</v>
       </c>
       <c r="F70" s="412" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A71" s="413" t="s">
-        <v>1342</v>
-      </c>
-      <c r="B71" s="412" t="s">
-        <v>1180</v>
-      </c>
-      <c r="C71" s="414">
-        <v>3</v>
-      </c>
-      <c r="D71" s="412" t="s">
-        <v>811</v>
-      </c>
-      <c r="E71" s="412" t="s">
-        <v>947</v>
-      </c>
-      <c r="F71" s="412" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A72" s="413" t="s">
-        <v>1094</v>
-      </c>
-      <c r="B72" s="412" t="s">
-        <v>976</v>
-      </c>
-      <c r="C72" s="414">
-        <v>3</v>
-      </c>
-      <c r="D72" s="412" t="s">
-        <v>166</v>
-      </c>
-      <c r="E72" s="412" t="s">
-        <v>969</v>
-      </c>
-      <c r="F72" s="412" t="s">
         <v>1521</v>
       </c>
     </row>
@@ -20778,7 +20747,7 @@
   </sheetPr>
   <dimension ref="A1:F25"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <pane xSplit="1" ySplit="12" topLeftCell="B13" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A13" sqref="A13"/>

--- a/schedule/semester/schedule.xlsx
+++ b/schedule/semester/schedule.xlsx
@@ -82,7 +82,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9107" uniqueCount="1561">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9049" uniqueCount="1559">
   <si>
     <t>ELECTRICAL AND COMPUTER ENGINEERING</t>
   </si>
@@ -4725,9 +4725,6 @@
     <t>Palapa</t>
   </si>
   <si>
-    <t>KHB1018</t>
-  </si>
-  <si>
     <t>TR 1220-110PM</t>
   </si>
   <si>
@@ -4740,9 +4737,6 @@
     <t>Analog Integrated Circuits</t>
   </si>
   <si>
-    <t>F 200-445PM</t>
-  </si>
-  <si>
     <t>Thomas</t>
   </si>
   <si>
@@ -4755,16 +4749,16 @@
     <t>Senior Design I-lab</t>
   </si>
   <si>
-    <t>BIOS 144</t>
-  </si>
-  <si>
     <t>EE 4990-82 (3 units)</t>
   </si>
   <si>
     <t>Posted 6/1/2020</t>
   </si>
   <si>
-    <t>Posted 7/2/2020</t>
+    <t>Posted 7/14/2020</t>
+  </si>
+  <si>
+    <t>EE5350-02</t>
   </si>
 </sst>
 </file>
@@ -7976,7 +7970,7 @@
       <pane xSplit="1" ySplit="12" topLeftCell="B13" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A13" sqref="A13"/>
-      <selection pane="bottomRight" activeCell="H22" sqref="H22"/>
+      <selection pane="bottomRight" activeCell="H24" sqref="H24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
@@ -7992,7 +7986,7 @@
   <sheetData>
     <row r="1" spans="1:6" s="410" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="407" t="s">
-        <v>1560</v>
+        <v>1557</v>
       </c>
       <c r="B1" s="408"/>
       <c r="C1" s="409"/>
@@ -8120,9 +8114,6 @@
       <c r="E13" s="412" t="s">
         <v>931</v>
       </c>
-      <c r="F13" s="412" t="s">
-        <v>1422</v>
-      </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" s="413" t="s">
@@ -8140,9 +8131,6 @@
       <c r="E14" s="412" t="s">
         <v>1326</v>
       </c>
-      <c r="F14" s="412" t="s">
-        <v>14</v>
-      </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" s="413" t="s">
@@ -8160,9 +8148,6 @@
       <c r="E15" s="412" t="s">
         <v>936</v>
       </c>
-      <c r="F15" s="412" t="s">
-        <v>14</v>
-      </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" s="413" t="s">
@@ -8180,11 +8165,8 @@
       <c r="E16" s="412" t="s">
         <v>1440</v>
       </c>
-      <c r="F16" s="412" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" s="413" t="s">
         <v>1003</v>
       </c>
@@ -8200,11 +8182,8 @@
       <c r="E17" s="412" t="s">
         <v>1504</v>
       </c>
-      <c r="F17" s="412" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" s="413" t="s">
         <v>1059</v>
       </c>
@@ -8220,11 +8199,8 @@
       <c r="E18" s="412" t="s">
         <v>1539</v>
       </c>
-      <c r="F18" s="412" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" s="413" t="s">
         <v>1060</v>
       </c>
@@ -8240,11 +8216,8 @@
       <c r="E19" s="412" t="s">
         <v>1540</v>
       </c>
-      <c r="F19" s="412" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" s="413" t="s">
         <v>1064</v>
       </c>
@@ -8260,11 +8233,8 @@
       <c r="E20" s="412" t="s">
         <v>919</v>
       </c>
-      <c r="F20" s="412" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" s="413" t="s">
         <v>1065</v>
       </c>
@@ -8280,11 +8250,8 @@
       <c r="E21" s="412" t="s">
         <v>936</v>
       </c>
-      <c r="F21" s="412" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" s="413" t="s">
         <v>1066</v>
       </c>
@@ -8300,11 +8267,8 @@
       <c r="E22" s="412" t="s">
         <v>1034</v>
       </c>
-      <c r="F22" s="412" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" s="413" t="s">
         <v>1004</v>
       </c>
@@ -8320,11 +8284,8 @@
       <c r="E23" s="412" t="s">
         <v>1501</v>
       </c>
-      <c r="F23" s="412" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" s="413" t="s">
         <v>1005</v>
       </c>
@@ -8340,11 +8301,8 @@
       <c r="E24" s="412" t="s">
         <v>1502</v>
       </c>
-      <c r="F24" s="412" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25" s="413" t="s">
         <v>1167</v>
       </c>
@@ -8360,11 +8318,8 @@
       <c r="E25" s="412" t="s">
         <v>1541</v>
       </c>
-      <c r="F25" s="412" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26" s="413" t="s">
         <v>1169</v>
       </c>
@@ -8380,11 +8335,8 @@
       <c r="E26" s="412" t="s">
         <v>1542</v>
       </c>
-      <c r="F26" s="412" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27" s="413" t="s">
         <v>1389</v>
       </c>
@@ -8400,11 +8352,8 @@
       <c r="E27" s="412" t="s">
         <v>929</v>
       </c>
-      <c r="F27" s="412" t="s">
-        <v>1392</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28" s="413" t="s">
         <v>1543</v>
       </c>
@@ -8420,11 +8369,8 @@
       <c r="E28" s="412" t="s">
         <v>924</v>
       </c>
-      <c r="F28" s="412" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29" s="413" t="s">
         <v>1544</v>
       </c>
@@ -8440,11 +8386,8 @@
       <c r="E29" s="412" t="s">
         <v>1453</v>
       </c>
-      <c r="F29" s="412" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30" s="413" t="s">
         <v>1497</v>
       </c>
@@ -8460,11 +8403,8 @@
       <c r="E30" s="412" t="s">
         <v>926</v>
       </c>
-      <c r="F30" s="412" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31" s="413" t="s">
         <v>1009</v>
       </c>
@@ -8480,11 +8420,8 @@
       <c r="E31" s="412" t="s">
         <v>929</v>
       </c>
-      <c r="F31" s="412" t="s">
-        <v>1422</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A32" s="413" t="s">
         <v>1010</v>
       </c>
@@ -8500,11 +8437,8 @@
       <c r="E32" s="412" t="s">
         <v>914</v>
       </c>
-      <c r="F32" s="412" t="s">
-        <v>1495</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A33" s="413" t="s">
         <v>1011</v>
       </c>
@@ -8520,11 +8454,8 @@
       <c r="E33" s="412" t="s">
         <v>938</v>
       </c>
-      <c r="F33" s="412" t="s">
-        <v>1495</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34" s="413" t="s">
         <v>1012</v>
       </c>
@@ -8540,11 +8471,8 @@
       <c r="E34" s="412" t="s">
         <v>933</v>
       </c>
-      <c r="F34" s="412" t="s">
-        <v>1368</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A35" s="413" t="s">
         <v>1212</v>
       </c>
@@ -8560,11 +8488,8 @@
       <c r="E35" s="412" t="s">
         <v>931</v>
       </c>
-      <c r="F35" s="412" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A36" s="413" t="s">
         <v>1014</v>
       </c>
@@ -8580,11 +8505,8 @@
       <c r="E36" s="412" t="s">
         <v>936</v>
       </c>
-      <c r="F36" s="412" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A37" s="413" t="s">
         <v>1153</v>
       </c>
@@ -8600,11 +8522,8 @@
       <c r="E37" s="412" t="s">
         <v>942</v>
       </c>
-      <c r="F37" s="412" t="s">
-        <v>905</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A38" s="413" t="s">
         <v>1155</v>
       </c>
@@ -8615,16 +8534,13 @@
         <v>3</v>
       </c>
       <c r="D38" s="412" t="s">
-        <v>1553</v>
+        <v>1551</v>
       </c>
       <c r="E38" s="412" t="s">
         <v>938</v>
       </c>
-      <c r="F38" s="412" t="s">
-        <v>1547</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A39" s="413" t="s">
         <v>1015</v>
       </c>
@@ -8638,13 +8554,10 @@
         <v>743</v>
       </c>
       <c r="E39" s="412" t="s">
-        <v>1548</v>
-      </c>
-      <c r="F39" s="412" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
+        <v>1547</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A40" s="413" t="s">
         <v>1016</v>
       </c>
@@ -8660,11 +8573,8 @@
       <c r="E40" s="412" t="s">
         <v>929</v>
       </c>
-      <c r="F40" s="412" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A41" s="413" t="s">
         <v>1195</v>
       </c>
@@ -8678,13 +8588,10 @@
         <v>743</v>
       </c>
       <c r="E41" s="412" t="s">
-        <v>1549</v>
-      </c>
-      <c r="F41" s="412" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
+        <v>1548</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A42" s="413" t="s">
         <v>1197</v>
       </c>
@@ -8698,13 +8605,10 @@
         <v>743</v>
       </c>
       <c r="E42" s="412" t="s">
-        <v>1550</v>
-      </c>
-      <c r="F42" s="412" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
+        <v>1549</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A43" s="413" t="s">
         <v>1017</v>
       </c>
@@ -8720,11 +8624,8 @@
       <c r="E43" s="412" t="s">
         <v>1034</v>
       </c>
-      <c r="F43" s="412" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A44" s="413" t="s">
         <v>1018</v>
       </c>
@@ -8740,11 +8641,8 @@
       <c r="E44" s="412" t="s">
         <v>942</v>
       </c>
-      <c r="F44" s="412" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A45" s="413" t="s">
         <v>1019</v>
       </c>
@@ -8760,11 +8658,8 @@
       <c r="E45" s="412" t="s">
         <v>1488</v>
       </c>
-      <c r="F45" s="412" t="s">
-        <v>905</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A46" s="413" t="s">
         <v>1020</v>
       </c>
@@ -8780,11 +8675,8 @@
       <c r="E46" s="412" t="s">
         <v>919</v>
       </c>
-      <c r="F46" s="412" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A47" s="413" t="s">
         <v>1162</v>
       </c>
@@ -8797,11 +8689,8 @@
       <c r="E47" s="412" t="s">
         <v>1483</v>
       </c>
-      <c r="F47" s="412" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A48" s="413" t="s">
         <v>1074</v>
       </c>
@@ -8817,11 +8706,8 @@
       <c r="E48" s="412" t="s">
         <v>946</v>
       </c>
-      <c r="F48" s="412" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A49" s="413" t="s">
         <v>1022</v>
       </c>
@@ -8837,11 +8723,8 @@
       <c r="E49" s="412" t="s">
         <v>950</v>
       </c>
-      <c r="F49" s="412" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A50" s="413" t="s">
         <v>1023</v>
       </c>
@@ -8857,11 +8740,8 @@
       <c r="E50" s="412" t="s">
         <v>950</v>
       </c>
-      <c r="F50" s="412" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A51" s="413" t="s">
         <v>1024</v>
       </c>
@@ -8877,11 +8757,8 @@
       <c r="E51" s="412" t="s">
         <v>964</v>
       </c>
-      <c r="F51" s="412" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A52" s="413" t="s">
         <v>1025</v>
       </c>
@@ -8897,11 +8774,8 @@
       <c r="E52" s="412" t="s">
         <v>929</v>
       </c>
-      <c r="F52" s="412" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A53" s="413" t="s">
         <v>1026</v>
       </c>
@@ -8917,11 +8791,8 @@
       <c r="E53" s="412" t="s">
         <v>914</v>
       </c>
-      <c r="F53" s="412" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A54" s="413" t="s">
         <v>1078</v>
       </c>
@@ -8937,11 +8808,8 @@
       <c r="E54" s="412" t="s">
         <v>946</v>
       </c>
-      <c r="F54" s="412" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A55" s="413" t="s">
         <v>1079</v>
       </c>
@@ -8957,11 +8825,8 @@
       <c r="E55" s="412" t="s">
         <v>1172</v>
       </c>
-      <c r="F55" s="412" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A56" s="413" t="s">
         <v>1338</v>
       </c>
@@ -8977,11 +8842,8 @@
       <c r="E56" s="412" t="s">
         <v>950</v>
       </c>
-      <c r="F56" s="412" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A57" s="413" t="s">
         <v>1032</v>
       </c>
@@ -8997,11 +8859,8 @@
       <c r="E57" s="412" t="s">
         <v>962</v>
       </c>
-      <c r="F57" s="412" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A58" s="413" t="s">
         <v>1033</v>
       </c>
@@ -9017,11 +8876,8 @@
       <c r="E58" s="412" t="s">
         <v>972</v>
       </c>
-      <c r="F58" s="412" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A59" s="413" t="s">
         <v>1181</v>
       </c>
@@ -9037,16 +8893,13 @@
       <c r="E59" s="412" t="s">
         <v>1206</v>
       </c>
-      <c r="F59" s="412" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A60" s="413" t="s">
         <v>1339</v>
       </c>
       <c r="B60" s="412" t="s">
-        <v>1551</v>
+        <v>1550</v>
       </c>
       <c r="C60" s="414">
         <v>3</v>
@@ -9057,11 +8910,8 @@
       <c r="E60" s="412" t="s">
         <v>1453</v>
       </c>
-      <c r="F60" s="412" t="s">
-        <v>778</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A61" s="413" t="s">
         <v>1035</v>
       </c>
@@ -9077,13 +8927,10 @@
       <c r="E61" s="412" t="s">
         <v>942</v>
       </c>
-      <c r="F61" s="412" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A62" s="413" t="s">
-        <v>1554</v>
+        <v>1552</v>
       </c>
       <c r="B62" s="412" t="s">
         <v>986</v>
@@ -9097,16 +8944,13 @@
       <c r="E62" s="412" t="s">
         <v>1489</v>
       </c>
-      <c r="F62" s="412" t="s">
-        <v>1518</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A63" s="413" t="s">
-        <v>1555</v>
+        <v>1553</v>
       </c>
       <c r="B63" s="412" t="s">
-        <v>1556</v>
+        <v>1554</v>
       </c>
       <c r="C63" s="414">
         <v>3</v>
@@ -9117,11 +8961,8 @@
       <c r="E63" s="412" t="s">
         <v>1483</v>
       </c>
-      <c r="F63" s="412" t="s">
-        <v>1557</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A64" s="413" t="s">
         <v>1346</v>
       </c>
@@ -9137,11 +8978,8 @@
       <c r="E64" s="412" t="s">
         <v>958</v>
       </c>
-      <c r="F64" s="412" t="s">
-        <v>1521</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A65" s="413" t="s">
         <v>1040</v>
       </c>
@@ -9157,11 +8995,8 @@
       <c r="E65" s="412" t="s">
         <v>947</v>
       </c>
-      <c r="F65" s="412" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A66" s="413" t="s">
         <v>1366</v>
       </c>
@@ -9177,11 +9012,8 @@
       <c r="E66" s="412" t="s">
         <v>972</v>
       </c>
-      <c r="F66" s="412" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A67" s="413" t="s">
         <v>1043</v>
       </c>
@@ -9197,13 +9029,10 @@
       <c r="E67" s="412" t="s">
         <v>946</v>
       </c>
-      <c r="F67" s="412" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A68" s="413" t="s">
-        <v>1096</v>
+        <v>1558</v>
       </c>
       <c r="B68" s="412" t="s">
         <v>1097</v>
@@ -9215,13 +9044,10 @@
         <v>872</v>
       </c>
       <c r="E68" s="412" t="s">
-        <v>1552</v>
-      </c>
-      <c r="F68" s="412" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.2">
+        <v>924</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A69" s="413" t="s">
         <v>1342</v>
       </c>
@@ -9237,11 +9063,8 @@
       <c r="E69" s="412" t="s">
         <v>947</v>
       </c>
-      <c r="F69" s="412" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A70" s="413" t="s">
         <v>1094</v>
       </c>
@@ -9256,9 +9079,6 @@
       </c>
       <c r="E70" s="412" t="s">
         <v>969</v>
-      </c>
-      <c r="F70" s="412" t="s">
-        <v>1521</v>
       </c>
     </row>
   </sheetData>
@@ -20767,7 +20587,7 @@
   <sheetData>
     <row r="1" spans="1:6" s="410" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="407" t="s">
-        <v>1559</v>
+        <v>1556</v>
       </c>
       <c r="B1" s="408"/>
       <c r="C1" s="409"/>
@@ -21031,7 +20851,7 @@
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24" s="413" t="s">
-        <v>1558</v>
+        <v>1555</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.2">

--- a/schedule/semester/schedule.xlsx
+++ b/schedule/semester/schedule.xlsx
@@ -82,7 +82,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9049" uniqueCount="1559">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9046" uniqueCount="1558">
   <si>
     <t>ELECTRICAL AND COMPUTER ENGINEERING</t>
   </si>
@@ -4755,10 +4755,7 @@
     <t>Posted 6/1/2020</t>
   </si>
   <si>
-    <t>Posted 7/14/2020</t>
-  </si>
-  <si>
-    <t>EE5350-02</t>
+    <t>Posted 7/15/2020</t>
   </si>
 </sst>
 </file>
@@ -7964,13 +7961,13 @@
   <sheetPr>
     <tabColor theme="9" tint="-0.249977111117893"/>
   </sheetPr>
-  <dimension ref="A1:F70"/>
+  <dimension ref="A1:F69"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <pane xSplit="1" ySplit="12" topLeftCell="B13" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A13" sqref="A13"/>
-      <selection pane="bottomRight" activeCell="H24" sqref="H24"/>
+      <selection pane="bottomRight" activeCell="B77" sqref="B77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
@@ -8678,47 +8675,50 @@
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A47" s="413" t="s">
-        <v>1162</v>
+        <v>1074</v>
       </c>
       <c r="B47" s="412" t="s">
-        <v>943</v>
+        <v>945</v>
       </c>
       <c r="C47" s="414">
-        <v>1</v>
+        <v>3</v>
+      </c>
+      <c r="D47" s="412" t="s">
+        <v>732</v>
       </c>
       <c r="E47" s="412" t="s">
-        <v>1483</v>
+        <v>946</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A48" s="413" t="s">
-        <v>1074</v>
+        <v>1022</v>
       </c>
       <c r="B48" s="412" t="s">
-        <v>945</v>
+        <v>981</v>
       </c>
       <c r="C48" s="414">
         <v>3</v>
       </c>
       <c r="D48" s="412" t="s">
-        <v>732</v>
+        <v>414</v>
       </c>
       <c r="E48" s="412" t="s">
-        <v>946</v>
+        <v>950</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A49" s="413" t="s">
-        <v>1022</v>
+        <v>1023</v>
       </c>
       <c r="B49" s="412" t="s">
-        <v>981</v>
+        <v>951</v>
       </c>
       <c r="C49" s="414">
         <v>3</v>
       </c>
       <c r="D49" s="412" t="s">
-        <v>414</v>
+        <v>872</v>
       </c>
       <c r="E49" s="412" t="s">
         <v>950</v>
@@ -8726,129 +8726,129 @@
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A50" s="413" t="s">
-        <v>1023</v>
+        <v>1024</v>
       </c>
       <c r="B50" s="412" t="s">
-        <v>951</v>
+        <v>952</v>
       </c>
       <c r="C50" s="414">
         <v>3</v>
       </c>
       <c r="D50" s="412" t="s">
-        <v>872</v>
+        <v>607</v>
       </c>
       <c r="E50" s="412" t="s">
-        <v>950</v>
+        <v>964</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A51" s="413" t="s">
-        <v>1024</v>
+        <v>1025</v>
       </c>
       <c r="B51" s="412" t="s">
-        <v>952</v>
+        <v>954</v>
       </c>
       <c r="C51" s="414">
         <v>3</v>
       </c>
       <c r="D51" s="412" t="s">
-        <v>607</v>
+        <v>64</v>
       </c>
       <c r="E51" s="412" t="s">
-        <v>964</v>
+        <v>929</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A52" s="413" t="s">
-        <v>1025</v>
+        <v>1026</v>
       </c>
       <c r="B52" s="412" t="s">
-        <v>954</v>
+        <v>982</v>
       </c>
       <c r="C52" s="414">
         <v>3</v>
       </c>
       <c r="D52" s="412" t="s">
-        <v>64</v>
+        <v>872</v>
       </c>
       <c r="E52" s="412" t="s">
-        <v>929</v>
+        <v>914</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A53" s="413" t="s">
-        <v>1026</v>
+        <v>1078</v>
       </c>
       <c r="B53" s="412" t="s">
-        <v>982</v>
+        <v>956</v>
       </c>
       <c r="C53" s="414">
         <v>3</v>
       </c>
       <c r="D53" s="412" t="s">
-        <v>872</v>
+        <v>811</v>
       </c>
       <c r="E53" s="412" t="s">
-        <v>914</v>
+        <v>946</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A54" s="413" t="s">
-        <v>1078</v>
+        <v>1079</v>
       </c>
       <c r="B54" s="412" t="s">
-        <v>956</v>
+        <v>957</v>
       </c>
       <c r="C54" s="414">
         <v>3</v>
       </c>
       <c r="D54" s="412" t="s">
-        <v>811</v>
+        <v>481</v>
       </c>
       <c r="E54" s="412" t="s">
-        <v>946</v>
+        <v>1172</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A55" s="413" t="s">
-        <v>1079</v>
+        <v>1338</v>
       </c>
       <c r="B55" s="412" t="s">
-        <v>957</v>
+        <v>983</v>
       </c>
       <c r="C55" s="414">
         <v>3</v>
       </c>
       <c r="D55" s="412" t="s">
-        <v>481</v>
+        <v>743</v>
       </c>
       <c r="E55" s="412" t="s">
-        <v>1172</v>
+        <v>950</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A56" s="413" t="s">
-        <v>1338</v>
+        <v>1032</v>
       </c>
       <c r="B56" s="412" t="s">
-        <v>983</v>
+        <v>1179</v>
       </c>
       <c r="C56" s="414">
         <v>3</v>
       </c>
       <c r="D56" s="412" t="s">
-        <v>743</v>
+        <v>64</v>
       </c>
       <c r="E56" s="412" t="s">
-        <v>950</v>
+        <v>962</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A57" s="413" t="s">
-        <v>1032</v>
+        <v>1033</v>
       </c>
       <c r="B57" s="412" t="s">
-        <v>1179</v>
+        <v>984</v>
       </c>
       <c r="C57" s="414">
         <v>3</v>
@@ -8857,134 +8857,134 @@
         <v>64</v>
       </c>
       <c r="E57" s="412" t="s">
-        <v>962</v>
+        <v>972</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A58" s="413" t="s">
-        <v>1033</v>
+        <v>1181</v>
       </c>
       <c r="B58" s="412" t="s">
-        <v>984</v>
+        <v>1182</v>
       </c>
       <c r="C58" s="414">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D58" s="412" t="s">
-        <v>64</v>
+        <v>1418</v>
       </c>
       <c r="E58" s="412" t="s">
-        <v>972</v>
+        <v>1206</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A59" s="413" t="s">
-        <v>1181</v>
+        <v>1339</v>
       </c>
       <c r="B59" s="412" t="s">
-        <v>1182</v>
+        <v>1550</v>
       </c>
       <c r="C59" s="414">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D59" s="412" t="s">
-        <v>1418</v>
+        <v>45</v>
       </c>
       <c r="E59" s="412" t="s">
-        <v>1206</v>
+        <v>1453</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A60" s="413" t="s">
-        <v>1339</v>
+        <v>1035</v>
       </c>
       <c r="B60" s="412" t="s">
-        <v>1550</v>
+        <v>985</v>
       </c>
       <c r="C60" s="414">
         <v>3</v>
       </c>
       <c r="D60" s="412" t="s">
-        <v>45</v>
+        <v>184</v>
       </c>
       <c r="E60" s="412" t="s">
-        <v>1453</v>
+        <v>942</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A61" s="413" t="s">
-        <v>1035</v>
+        <v>1552</v>
       </c>
       <c r="B61" s="412" t="s">
-        <v>985</v>
+        <v>986</v>
       </c>
       <c r="C61" s="414">
         <v>3</v>
       </c>
       <c r="D61" s="412" t="s">
-        <v>184</v>
+        <v>1493</v>
       </c>
       <c r="E61" s="412" t="s">
-        <v>942</v>
+        <v>1489</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A62" s="413" t="s">
-        <v>1552</v>
+        <v>1553</v>
       </c>
       <c r="B62" s="412" t="s">
-        <v>986</v>
+        <v>1554</v>
       </c>
       <c r="C62" s="414">
         <v>3</v>
       </c>
       <c r="D62" s="412" t="s">
-        <v>1493</v>
+        <v>59</v>
       </c>
       <c r="E62" s="412" t="s">
-        <v>1489</v>
+        <v>1483</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A63" s="413" t="s">
-        <v>1553</v>
+        <v>1346</v>
       </c>
       <c r="B63" s="412" t="s">
-        <v>1554</v>
+        <v>988</v>
       </c>
       <c r="C63" s="414">
         <v>3</v>
       </c>
       <c r="D63" s="412" t="s">
-        <v>59</v>
+        <v>166</v>
       </c>
       <c r="E63" s="412" t="s">
-        <v>1483</v>
+        <v>958</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A64" s="413" t="s">
-        <v>1346</v>
+        <v>1040</v>
       </c>
       <c r="B64" s="412" t="s">
-        <v>988</v>
+        <v>989</v>
       </c>
       <c r="C64" s="414">
         <v>3</v>
       </c>
       <c r="D64" s="412" t="s">
-        <v>166</v>
+        <v>414</v>
       </c>
       <c r="E64" s="412" t="s">
-        <v>958</v>
+        <v>947</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A65" s="413" t="s">
-        <v>1040</v>
+        <v>1366</v>
       </c>
       <c r="B65" s="412" t="s">
-        <v>989</v>
+        <v>1367</v>
       </c>
       <c r="C65" s="414">
         <v>3</v>
@@ -8993,91 +8993,74 @@
         <v>414</v>
       </c>
       <c r="E65" s="412" t="s">
-        <v>947</v>
+        <v>972</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A66" s="413" t="s">
-        <v>1366</v>
+        <v>1043</v>
       </c>
       <c r="B66" s="412" t="s">
-        <v>1367</v>
+        <v>992</v>
       </c>
       <c r="C66" s="414">
         <v>3</v>
       </c>
       <c r="D66" s="412" t="s">
-        <v>414</v>
+        <v>754</v>
       </c>
       <c r="E66" s="412" t="s">
-        <v>972</v>
+        <v>946</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A67" s="413" t="s">
-        <v>1043</v>
+        <v>1096</v>
       </c>
       <c r="B67" s="412" t="s">
-        <v>992</v>
+        <v>1097</v>
       </c>
       <c r="C67" s="414">
         <v>3</v>
       </c>
       <c r="D67" s="412" t="s">
-        <v>754</v>
+        <v>872</v>
       </c>
       <c r="E67" s="412" t="s">
-        <v>946</v>
+        <v>924</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A68" s="413" t="s">
-        <v>1558</v>
+        <v>1342</v>
       </c>
       <c r="B68" s="412" t="s">
-        <v>1097</v>
+        <v>1180</v>
       </c>
       <c r="C68" s="414">
         <v>3</v>
       </c>
       <c r="D68" s="412" t="s">
-        <v>872</v>
+        <v>811</v>
       </c>
       <c r="E68" s="412" t="s">
-        <v>924</v>
+        <v>947</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A69" s="413" t="s">
-        <v>1342</v>
+        <v>1094</v>
       </c>
       <c r="B69" s="412" t="s">
-        <v>1180</v>
+        <v>976</v>
       </c>
       <c r="C69" s="414">
         <v>3</v>
       </c>
       <c r="D69" s="412" t="s">
-        <v>811</v>
+        <v>166</v>
       </c>
       <c r="E69" s="412" t="s">
-        <v>947</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A70" s="413" t="s">
-        <v>1094</v>
-      </c>
-      <c r="B70" s="412" t="s">
-        <v>976</v>
-      </c>
-      <c r="C70" s="414">
-        <v>3</v>
-      </c>
-      <c r="D70" s="412" t="s">
-        <v>166</v>
-      </c>
-      <c r="E70" s="412" t="s">
         <v>969</v>
       </c>
     </row>

--- a/schedule/semester/schedule.xlsx
+++ b/schedule/semester/schedule.xlsx
@@ -82,7 +82,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9046" uniqueCount="1558">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9014" uniqueCount="1556">
   <si>
     <t>ELECTRICAL AND COMPUTER ENGINEERING</t>
   </si>
@@ -4713,9 +4713,6 @@
     <t>WF 1205-120PM</t>
   </si>
   <si>
-    <t>EE3000-01</t>
-  </si>
-  <si>
     <t>EE3000-02</t>
   </si>
   <si>
@@ -4723,9 +4720,6 @@
   </si>
   <si>
     <t>Palapa</t>
-  </si>
-  <si>
-    <t>TR 1220-110PM</t>
   </si>
   <si>
     <t>MW 600-650PM</t>
@@ -7961,13 +7955,13 @@
   <sheetPr>
     <tabColor theme="9" tint="-0.249977111117893"/>
   </sheetPr>
-  <dimension ref="A1:F69"/>
+  <dimension ref="A1:F61"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <pane xSplit="1" ySplit="12" topLeftCell="B13" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A13" sqref="A13"/>
-      <selection pane="bottomRight" activeCell="B77" sqref="B77"/>
+      <selection pane="bottomRight" activeCell="B71" sqref="B71:B72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
@@ -7983,7 +7977,7 @@
   <sheetData>
     <row r="1" spans="1:6" s="410" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="407" t="s">
-        <v>1557</v>
+        <v>1555</v>
       </c>
       <c r="B1" s="408"/>
       <c r="C1" s="409"/>
@@ -8233,7 +8227,7 @@
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" s="413" t="s">
-        <v>1065</v>
+        <v>1066</v>
       </c>
       <c r="B21" s="412" t="s">
         <v>920</v>
@@ -8245,106 +8239,106 @@
         <v>1364</v>
       </c>
       <c r="E21" s="412" t="s">
-        <v>936</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" s="413" t="s">
-        <v>1066</v>
+        <v>1167</v>
       </c>
       <c r="B22" s="412" t="s">
-        <v>920</v>
+        <v>921</v>
       </c>
       <c r="C22" s="414">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D22" s="412" t="s">
-        <v>1364</v>
+        <v>481</v>
       </c>
       <c r="E22" s="412" t="s">
-        <v>1034</v>
+        <v>1541</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" s="413" t="s">
-        <v>1004</v>
+        <v>1169</v>
       </c>
       <c r="B23" s="412" t="s">
         <v>921</v>
       </c>
       <c r="C23" s="414">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D23" s="412" t="s">
-        <v>1490</v>
+        <v>481</v>
       </c>
       <c r="E23" s="412" t="s">
-        <v>1501</v>
+        <v>1542</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" s="413" t="s">
-        <v>1005</v>
+        <v>1389</v>
       </c>
       <c r="B24" s="412" t="s">
-        <v>921</v>
+        <v>1390</v>
       </c>
       <c r="C24" s="414">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D24" s="412" t="s">
-        <v>1490</v>
+        <v>1391</v>
       </c>
       <c r="E24" s="412" t="s">
-        <v>1502</v>
+        <v>929</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25" s="413" t="s">
-        <v>1167</v>
+        <v>1543</v>
       </c>
       <c r="B25" s="412" t="s">
-        <v>921</v>
+        <v>1177</v>
       </c>
       <c r="C25" s="414">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D25" s="412" t="s">
-        <v>481</v>
+        <v>1544</v>
       </c>
       <c r="E25" s="412" t="s">
-        <v>1541</v>
+        <v>1453</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26" s="413" t="s">
-        <v>1169</v>
+        <v>1497</v>
       </c>
       <c r="B26" s="412" t="s">
-        <v>921</v>
+        <v>925</v>
       </c>
       <c r="C26" s="414">
         <v>1</v>
       </c>
       <c r="D26" s="412" t="s">
-        <v>481</v>
+        <v>184</v>
       </c>
       <c r="E26" s="412" t="s">
-        <v>1542</v>
+        <v>926</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27" s="413" t="s">
-        <v>1389</v>
+        <v>1009</v>
       </c>
       <c r="B27" s="412" t="s">
-        <v>1390</v>
+        <v>1178</v>
       </c>
       <c r="C27" s="414">
         <v>3</v>
       </c>
       <c r="D27" s="412" t="s">
-        <v>1391</v>
+        <v>34</v>
       </c>
       <c r="E27" s="412" t="s">
         <v>929</v>
@@ -8352,339 +8346,339 @@
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28" s="413" t="s">
-        <v>1543</v>
+        <v>1010</v>
       </c>
       <c r="B28" s="412" t="s">
-        <v>1177</v>
+        <v>1413</v>
       </c>
       <c r="C28" s="414">
         <v>3</v>
       </c>
       <c r="D28" s="412" t="s">
-        <v>912</v>
+        <v>34</v>
       </c>
       <c r="E28" s="412" t="s">
-        <v>924</v>
+        <v>914</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29" s="413" t="s">
-        <v>1544</v>
+        <v>1011</v>
       </c>
       <c r="B29" s="412" t="s">
-        <v>1177</v>
+        <v>979</v>
       </c>
       <c r="C29" s="414">
         <v>3</v>
       </c>
       <c r="D29" s="412" t="s">
-        <v>1545</v>
+        <v>34</v>
       </c>
       <c r="E29" s="412" t="s">
-        <v>1453</v>
+        <v>938</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30" s="413" t="s">
-        <v>1497</v>
+        <v>1012</v>
       </c>
       <c r="B30" s="412" t="s">
-        <v>925</v>
+        <v>932</v>
       </c>
       <c r="C30" s="414">
         <v>1</v>
       </c>
       <c r="D30" s="412" t="s">
-        <v>184</v>
+        <v>1545</v>
       </c>
       <c r="E30" s="412" t="s">
-        <v>926</v>
+        <v>933</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31" s="413" t="s">
-        <v>1009</v>
+        <v>1212</v>
       </c>
       <c r="B31" s="412" t="s">
-        <v>1178</v>
+        <v>934</v>
       </c>
       <c r="C31" s="414">
         <v>3</v>
       </c>
       <c r="D31" s="412" t="s">
-        <v>34</v>
+        <v>64</v>
       </c>
       <c r="E31" s="412" t="s">
-        <v>929</v>
+        <v>931</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A32" s="413" t="s">
-        <v>1010</v>
+        <v>1014</v>
       </c>
       <c r="B32" s="412" t="s">
-        <v>1413</v>
+        <v>935</v>
       </c>
       <c r="C32" s="414">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D32" s="412" t="s">
-        <v>34</v>
+        <v>1418</v>
       </c>
       <c r="E32" s="412" t="s">
-        <v>914</v>
+        <v>936</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A33" s="413" t="s">
-        <v>1011</v>
+        <v>1153</v>
       </c>
       <c r="B33" s="412" t="s">
-        <v>979</v>
+        <v>1154</v>
       </c>
       <c r="C33" s="414">
         <v>3</v>
       </c>
       <c r="D33" s="412" t="s">
-        <v>34</v>
+        <v>1420</v>
       </c>
       <c r="E33" s="412" t="s">
-        <v>938</v>
+        <v>942</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34" s="413" t="s">
-        <v>1012</v>
+        <v>1155</v>
       </c>
       <c r="B34" s="412" t="s">
-        <v>932</v>
+        <v>1154</v>
       </c>
       <c r="C34" s="414">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D34" s="412" t="s">
-        <v>1546</v>
+        <v>1549</v>
       </c>
       <c r="E34" s="412" t="s">
-        <v>933</v>
+        <v>938</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A35" s="413" t="s">
-        <v>1212</v>
+        <v>1195</v>
       </c>
       <c r="B35" s="412" t="s">
-        <v>934</v>
+        <v>1333</v>
       </c>
       <c r="C35" s="414">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D35" s="412" t="s">
-        <v>64</v>
+        <v>743</v>
       </c>
       <c r="E35" s="412" t="s">
-        <v>931</v>
+        <v>1546</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A36" s="413" t="s">
-        <v>1014</v>
+        <v>1197</v>
       </c>
       <c r="B36" s="412" t="s">
-        <v>935</v>
+        <v>1333</v>
       </c>
       <c r="C36" s="414">
         <v>1</v>
       </c>
       <c r="D36" s="412" t="s">
-        <v>1418</v>
+        <v>743</v>
       </c>
       <c r="E36" s="412" t="s">
-        <v>936</v>
+        <v>1547</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A37" s="413" t="s">
-        <v>1153</v>
+        <v>1017</v>
       </c>
       <c r="B37" s="412" t="s">
-        <v>1154</v>
+        <v>939</v>
       </c>
       <c r="C37" s="414">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D37" s="412" t="s">
-        <v>1420</v>
+        <v>741</v>
       </c>
       <c r="E37" s="412" t="s">
-        <v>942</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A38" s="413" t="s">
-        <v>1155</v>
+        <v>1018</v>
       </c>
       <c r="B38" s="412" t="s">
-        <v>1154</v>
+        <v>980</v>
       </c>
       <c r="C38" s="414">
         <v>3</v>
       </c>
       <c r="D38" s="412" t="s">
-        <v>1551</v>
+        <v>45</v>
       </c>
       <c r="E38" s="412" t="s">
-        <v>938</v>
+        <v>942</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A39" s="413" t="s">
-        <v>1015</v>
+        <v>1019</v>
       </c>
       <c r="B39" s="412" t="s">
-        <v>1333</v>
+        <v>943</v>
       </c>
       <c r="C39" s="414">
         <v>2</v>
       </c>
       <c r="D39" s="412" t="s">
-        <v>743</v>
+        <v>184</v>
       </c>
       <c r="E39" s="412" t="s">
-        <v>1547</v>
+        <v>1488</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A40" s="413" t="s">
-        <v>1016</v>
+        <v>1020</v>
       </c>
       <c r="B40" s="412" t="s">
-        <v>1333</v>
+        <v>943</v>
       </c>
       <c r="C40" s="414">
         <v>1</v>
       </c>
       <c r="D40" s="412" t="s">
-        <v>743</v>
+        <v>741</v>
       </c>
       <c r="E40" s="412" t="s">
-        <v>929</v>
+        <v>919</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A41" s="413" t="s">
-        <v>1195</v>
+        <v>1074</v>
       </c>
       <c r="B41" s="412" t="s">
-        <v>1333</v>
+        <v>945</v>
       </c>
       <c r="C41" s="414">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D41" s="412" t="s">
-        <v>743</v>
+        <v>732</v>
       </c>
       <c r="E41" s="412" t="s">
-        <v>1548</v>
+        <v>946</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A42" s="413" t="s">
-        <v>1197</v>
+        <v>1022</v>
       </c>
       <c r="B42" s="412" t="s">
-        <v>1333</v>
+        <v>981</v>
       </c>
       <c r="C42" s="414">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D42" s="412" t="s">
-        <v>743</v>
+        <v>414</v>
       </c>
       <c r="E42" s="412" t="s">
-        <v>1549</v>
+        <v>950</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A43" s="413" t="s">
-        <v>1017</v>
+        <v>1023</v>
       </c>
       <c r="B43" s="412" t="s">
-        <v>939</v>
+        <v>951</v>
       </c>
       <c r="C43" s="414">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D43" s="412" t="s">
-        <v>741</v>
+        <v>872</v>
       </c>
       <c r="E43" s="412" t="s">
-        <v>1034</v>
+        <v>950</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A44" s="413" t="s">
-        <v>1018</v>
+        <v>1024</v>
       </c>
       <c r="B44" s="412" t="s">
-        <v>980</v>
+        <v>952</v>
       </c>
       <c r="C44" s="414">
         <v>3</v>
       </c>
       <c r="D44" s="412" t="s">
-        <v>45</v>
+        <v>607</v>
       </c>
       <c r="E44" s="412" t="s">
-        <v>942</v>
+        <v>964</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A45" s="413" t="s">
-        <v>1019</v>
+        <v>1025</v>
       </c>
       <c r="B45" s="412" t="s">
-        <v>943</v>
+        <v>954</v>
       </c>
       <c r="C45" s="414">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D45" s="412" t="s">
-        <v>184</v>
+        <v>64</v>
       </c>
       <c r="E45" s="412" t="s">
-        <v>1488</v>
+        <v>929</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A46" s="413" t="s">
-        <v>1020</v>
+        <v>1026</v>
       </c>
       <c r="B46" s="412" t="s">
-        <v>943</v>
+        <v>982</v>
       </c>
       <c r="C46" s="414">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D46" s="412" t="s">
-        <v>741</v>
+        <v>872</v>
       </c>
       <c r="E46" s="412" t="s">
-        <v>919</v>
+        <v>914</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A47" s="413" t="s">
-        <v>1074</v>
+        <v>1078</v>
       </c>
       <c r="B47" s="412" t="s">
-        <v>945</v>
+        <v>956</v>
       </c>
       <c r="C47" s="414">
         <v>3</v>
       </c>
       <c r="D47" s="412" t="s">
-        <v>732</v>
+        <v>811</v>
       </c>
       <c r="E47" s="412" t="s">
         <v>946</v>
@@ -8692,33 +8686,33 @@
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A48" s="413" t="s">
-        <v>1022</v>
+        <v>1079</v>
       </c>
       <c r="B48" s="412" t="s">
-        <v>981</v>
+        <v>957</v>
       </c>
       <c r="C48" s="414">
         <v>3</v>
       </c>
       <c r="D48" s="412" t="s">
-        <v>414</v>
+        <v>481</v>
       </c>
       <c r="E48" s="412" t="s">
-        <v>950</v>
+        <v>1172</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A49" s="413" t="s">
-        <v>1023</v>
+        <v>1338</v>
       </c>
       <c r="B49" s="412" t="s">
-        <v>951</v>
+        <v>983</v>
       </c>
       <c r="C49" s="414">
         <v>3</v>
       </c>
       <c r="D49" s="412" t="s">
-        <v>872</v>
+        <v>743</v>
       </c>
       <c r="E49" s="412" t="s">
         <v>950</v>
@@ -8726,27 +8720,27 @@
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A50" s="413" t="s">
-        <v>1024</v>
+        <v>1032</v>
       </c>
       <c r="B50" s="412" t="s">
-        <v>952</v>
+        <v>1179</v>
       </c>
       <c r="C50" s="414">
         <v>3</v>
       </c>
       <c r="D50" s="412" t="s">
-        <v>607</v>
+        <v>64</v>
       </c>
       <c r="E50" s="412" t="s">
-        <v>964</v>
+        <v>962</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A51" s="413" t="s">
-        <v>1025</v>
+        <v>1033</v>
       </c>
       <c r="B51" s="412" t="s">
-        <v>954</v>
+        <v>984</v>
       </c>
       <c r="C51" s="414">
         <v>3</v>
@@ -8755,312 +8749,176 @@
         <v>64</v>
       </c>
       <c r="E51" s="412" t="s">
-        <v>929</v>
+        <v>972</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A52" s="413" t="s">
-        <v>1026</v>
+        <v>1181</v>
       </c>
       <c r="B52" s="412" t="s">
-        <v>982</v>
+        <v>1182</v>
       </c>
       <c r="C52" s="414">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D52" s="412" t="s">
-        <v>872</v>
+        <v>1418</v>
       </c>
       <c r="E52" s="412" t="s">
-        <v>914</v>
+        <v>1206</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A53" s="413" t="s">
-        <v>1078</v>
+        <v>1339</v>
       </c>
       <c r="B53" s="412" t="s">
-        <v>956</v>
+        <v>1548</v>
       </c>
       <c r="C53" s="414">
         <v>3</v>
       </c>
       <c r="D53" s="412" t="s">
-        <v>811</v>
+        <v>45</v>
       </c>
       <c r="E53" s="412" t="s">
-        <v>946</v>
+        <v>1453</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A54" s="413" t="s">
-        <v>1079</v>
+        <v>1035</v>
       </c>
       <c r="B54" s="412" t="s">
-        <v>957</v>
+        <v>985</v>
       </c>
       <c r="C54" s="414">
         <v>3</v>
       </c>
       <c r="D54" s="412" t="s">
-        <v>481</v>
+        <v>184</v>
       </c>
       <c r="E54" s="412" t="s">
-        <v>1172</v>
+        <v>942</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A55" s="413" t="s">
-        <v>1338</v>
+        <v>1550</v>
       </c>
       <c r="B55" s="412" t="s">
-        <v>983</v>
+        <v>986</v>
       </c>
       <c r="C55" s="414">
         <v>3</v>
       </c>
       <c r="D55" s="412" t="s">
-        <v>743</v>
+        <v>1493</v>
       </c>
       <c r="E55" s="412" t="s">
-        <v>950</v>
+        <v>1489</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A56" s="413" t="s">
-        <v>1032</v>
+        <v>1551</v>
       </c>
       <c r="B56" s="412" t="s">
-        <v>1179</v>
+        <v>1552</v>
       </c>
       <c r="C56" s="414">
         <v>3</v>
       </c>
       <c r="D56" s="412" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="E56" s="412" t="s">
-        <v>962</v>
+        <v>1483</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A57" s="413" t="s">
-        <v>1033</v>
+        <v>1346</v>
       </c>
       <c r="B57" s="412" t="s">
-        <v>984</v>
+        <v>988</v>
       </c>
       <c r="C57" s="414">
         <v>3</v>
       </c>
       <c r="D57" s="412" t="s">
-        <v>64</v>
+        <v>166</v>
       </c>
       <c r="E57" s="412" t="s">
-        <v>972</v>
+        <v>958</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A58" s="413" t="s">
-        <v>1181</v>
+        <v>1040</v>
       </c>
       <c r="B58" s="412" t="s">
-        <v>1182</v>
+        <v>989</v>
       </c>
       <c r="C58" s="414">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D58" s="412" t="s">
-        <v>1418</v>
+        <v>414</v>
       </c>
       <c r="E58" s="412" t="s">
-        <v>1206</v>
+        <v>947</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A59" s="413" t="s">
-        <v>1339</v>
+        <v>1366</v>
       </c>
       <c r="B59" s="412" t="s">
-        <v>1550</v>
+        <v>1367</v>
       </c>
       <c r="C59" s="414">
         <v>3</v>
       </c>
       <c r="D59" s="412" t="s">
-        <v>45</v>
+        <v>414</v>
       </c>
       <c r="E59" s="412" t="s">
-        <v>1453</v>
+        <v>972</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A60" s="413" t="s">
-        <v>1035</v>
+        <v>1096</v>
       </c>
       <c r="B60" s="412" t="s">
-        <v>985</v>
+        <v>1097</v>
       </c>
       <c r="C60" s="414">
         <v>3</v>
       </c>
       <c r="D60" s="412" t="s">
-        <v>184</v>
+        <v>872</v>
       </c>
       <c r="E60" s="412" t="s">
-        <v>942</v>
+        <v>924</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A61" s="413" t="s">
-        <v>1552</v>
+        <v>1094</v>
       </c>
       <c r="B61" s="412" t="s">
-        <v>986</v>
+        <v>976</v>
       </c>
       <c r="C61" s="414">
         <v>3</v>
       </c>
       <c r="D61" s="412" t="s">
-        <v>1493</v>
+        <v>166</v>
       </c>
       <c r="E61" s="412" t="s">
-        <v>1489</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A62" s="413" t="s">
-        <v>1553</v>
-      </c>
-      <c r="B62" s="412" t="s">
-        <v>1554</v>
-      </c>
-      <c r="C62" s="414">
-        <v>3</v>
-      </c>
-      <c r="D62" s="412" t="s">
-        <v>59</v>
-      </c>
-      <c r="E62" s="412" t="s">
-        <v>1483</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A63" s="413" t="s">
-        <v>1346</v>
-      </c>
-      <c r="B63" s="412" t="s">
-        <v>988</v>
-      </c>
-      <c r="C63" s="414">
-        <v>3</v>
-      </c>
-      <c r="D63" s="412" t="s">
-        <v>166</v>
-      </c>
-      <c r="E63" s="412" t="s">
-        <v>958</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A64" s="413" t="s">
-        <v>1040</v>
-      </c>
-      <c r="B64" s="412" t="s">
-        <v>989</v>
-      </c>
-      <c r="C64" s="414">
-        <v>3</v>
-      </c>
-      <c r="D64" s="412" t="s">
-        <v>414</v>
-      </c>
-      <c r="E64" s="412" t="s">
-        <v>947</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A65" s="413" t="s">
-        <v>1366</v>
-      </c>
-      <c r="B65" s="412" t="s">
-        <v>1367</v>
-      </c>
-      <c r="C65" s="414">
-        <v>3</v>
-      </c>
-      <c r="D65" s="412" t="s">
-        <v>414</v>
-      </c>
-      <c r="E65" s="412" t="s">
-        <v>972</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A66" s="413" t="s">
-        <v>1043</v>
-      </c>
-      <c r="B66" s="412" t="s">
-        <v>992</v>
-      </c>
-      <c r="C66" s="414">
-        <v>3</v>
-      </c>
-      <c r="D66" s="412" t="s">
-        <v>754</v>
-      </c>
-      <c r="E66" s="412" t="s">
-        <v>946</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A67" s="413" t="s">
-        <v>1096</v>
-      </c>
-      <c r="B67" s="412" t="s">
-        <v>1097</v>
-      </c>
-      <c r="C67" s="414">
-        <v>3</v>
-      </c>
-      <c r="D67" s="412" t="s">
-        <v>872</v>
-      </c>
-      <c r="E67" s="412" t="s">
-        <v>924</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A68" s="413" t="s">
-        <v>1342</v>
-      </c>
-      <c r="B68" s="412" t="s">
-        <v>1180</v>
-      </c>
-      <c r="C68" s="414">
-        <v>3</v>
-      </c>
-      <c r="D68" s="412" t="s">
-        <v>811</v>
-      </c>
-      <c r="E68" s="412" t="s">
-        <v>947</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A69" s="413" t="s">
-        <v>1094</v>
-      </c>
-      <c r="B69" s="412" t="s">
-        <v>976</v>
-      </c>
-      <c r="C69" s="414">
-        <v>3</v>
-      </c>
-      <c r="D69" s="412" t="s">
-        <v>166</v>
-      </c>
-      <c r="E69" s="412" t="s">
         <v>969</v>
       </c>
     </row>
@@ -20570,7 +20428,7 @@
   <sheetData>
     <row r="1" spans="1:6" s="410" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="407" t="s">
-        <v>1556</v>
+        <v>1554</v>
       </c>
       <c r="B1" s="408"/>
       <c r="C1" s="409"/>
@@ -20834,7 +20692,7 @@
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24" s="413" t="s">
-        <v>1555</v>
+        <v>1553</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.2">

--- a/schedule/semester/schedule.xlsx
+++ b/schedule/semester/schedule.xlsx
@@ -81,7 +81,7 @@
     <definedName name="_xlnm.Print_Titles" localSheetId="3">'sum20'!$5:$12</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">'sum21'!$5:$12</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
@@ -4807,94 +4807,94 @@
     <t>remote/S</t>
   </si>
   <si>
+    <t>remote/A</t>
+  </si>
+  <si>
+    <t>WF 1225-115PM</t>
+  </si>
+  <si>
+    <t>WF 1055AM-1210PM</t>
+  </si>
+  <si>
+    <t>EE3310</t>
+  </si>
+  <si>
+    <t>Energy Environment</t>
+  </si>
+  <si>
+    <t>MW 850-1005 PM</t>
+  </si>
+  <si>
+    <t>EE4600-01</t>
+  </si>
+  <si>
+    <t>Applied Control Sys Design and Simulation</t>
+  </si>
+  <si>
+    <t>EE4600-02</t>
+  </si>
+  <si>
+    <t>Senior Design I lecture</t>
+  </si>
+  <si>
+    <t>Senior Design I lab</t>
+  </si>
+  <si>
+    <t>EE4961-05</t>
+  </si>
+  <si>
+    <t>EE4961-06</t>
+  </si>
+  <si>
+    <t>EE4961-07</t>
+  </si>
+  <si>
+    <t>EE4961-08</t>
+  </si>
+  <si>
+    <t>ETA308</t>
+  </si>
+  <si>
+    <t>EE4961-09</t>
+  </si>
+  <si>
+    <t>ETC153</t>
+  </si>
+  <si>
+    <t>EE4961-10</t>
+  </si>
+  <si>
+    <t>ETC163</t>
+  </si>
+  <si>
+    <t>EE4961-11</t>
+  </si>
+  <si>
+    <t>ETC164</t>
+  </si>
+  <si>
+    <t>Advanced Communication II</t>
+  </si>
+  <si>
+    <t>Computer System Architecture</t>
+  </si>
+  <si>
+    <t>System Modeling &amp; Simulation</t>
+  </si>
+  <si>
+    <t>EE5830</t>
+  </si>
+  <si>
+    <t>Neural networks</t>
+  </si>
+  <si>
+    <t>T 725-840PM</t>
+  </si>
+  <si>
     <t>Daneshgaran/Linker</t>
   </si>
   <si>
-    <t>remote/A</t>
-  </si>
-  <si>
-    <t>WF 1225-115PM</t>
-  </si>
-  <si>
-    <t>WF 1055AM-1210PM</t>
-  </si>
-  <si>
     <t>Daneshgaran/Rad</t>
-  </si>
-  <si>
-    <t>EE3310</t>
-  </si>
-  <si>
-    <t>Energy Environment</t>
-  </si>
-  <si>
-    <t>MW 850-1005 PM</t>
-  </si>
-  <si>
-    <t>EE4600-01</t>
-  </si>
-  <si>
-    <t>Applied Control Sys Design and Simulation</t>
-  </si>
-  <si>
-    <t>EE4600-02</t>
-  </si>
-  <si>
-    <t>Senior Design I lecture</t>
-  </si>
-  <si>
-    <t>Senior Design I lab</t>
-  </si>
-  <si>
-    <t>EE4961-05</t>
-  </si>
-  <si>
-    <t>EE4961-06</t>
-  </si>
-  <si>
-    <t>EE4961-07</t>
-  </si>
-  <si>
-    <t>EE4961-08</t>
-  </si>
-  <si>
-    <t>ETA308</t>
-  </si>
-  <si>
-    <t>EE4961-09</t>
-  </si>
-  <si>
-    <t>ETC153</t>
-  </si>
-  <si>
-    <t>EE4961-10</t>
-  </si>
-  <si>
-    <t>ETC163</t>
-  </si>
-  <si>
-    <t>EE4961-11</t>
-  </si>
-  <si>
-    <t>ETC164</t>
-  </si>
-  <si>
-    <t>Advanced Communication II</t>
-  </si>
-  <si>
-    <t>Computer System Architecture</t>
-  </si>
-  <si>
-    <t>System Modeling &amp; Simulation</t>
-  </si>
-  <si>
-    <t>EE5830</t>
-  </si>
-  <si>
-    <t>Neural networks</t>
-  </si>
-  <si>
-    <t>T 725-840PM</t>
   </si>
 </sst>
 </file>
@@ -8103,7 +8103,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
+  <sheetPr codeName="Sheet11">
     <tabColor theme="9" tint="-0.249977111117893"/>
   </sheetPr>
   <dimension ref="A1:F68"/>
@@ -8112,7 +8112,7 @@
       <pane xSplit="1" ySplit="12" topLeftCell="B13" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A13" sqref="A13"/>
-      <selection pane="bottomRight" activeCell="B23" sqref="B23"/>
+      <selection pane="bottomRight" activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
@@ -8273,7 +8273,7 @@
         <v>1</v>
       </c>
       <c r="D14" s="412" t="s">
-        <v>1573</v>
+        <v>1601</v>
       </c>
       <c r="E14" s="412" t="s">
         <v>1326</v>
@@ -8299,7 +8299,7 @@
         <v>13</v>
       </c>
       <c r="F15" s="412" t="s">
-        <v>1574</v>
+        <v>1573</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
@@ -8379,7 +8379,7 @@
         <v>13</v>
       </c>
       <c r="F19" s="412" t="s">
-        <v>1574</v>
+        <v>1573</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
@@ -8396,7 +8396,7 @@
         <v>1490</v>
       </c>
       <c r="E20" s="412" t="s">
-        <v>1575</v>
+        <v>1574</v>
       </c>
       <c r="F20" s="412" t="s">
         <v>1572</v>
@@ -8416,7 +8416,7 @@
         <v>1490</v>
       </c>
       <c r="E21" s="412" t="s">
-        <v>1576</v>
+        <v>1575</v>
       </c>
       <c r="F21" s="412" t="s">
         <v>1572</v>
@@ -8533,7 +8533,7 @@
         <v>1</v>
       </c>
       <c r="D27" s="412" t="s">
-        <v>1577</v>
+        <v>1602</v>
       </c>
       <c r="E27" s="412" t="s">
         <v>919</v>
@@ -8564,10 +8564,10 @@
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A29" s="413" t="s">
-        <v>1578</v>
+        <v>1576</v>
       </c>
       <c r="B29" s="412" t="s">
-        <v>1579</v>
+        <v>1577</v>
       </c>
       <c r="C29" s="414">
         <v>3</v>
@@ -8636,7 +8636,7 @@
         <v>743</v>
       </c>
       <c r="E32" s="412" t="s">
-        <v>1575</v>
+        <v>1574</v>
       </c>
       <c r="F32" s="412" t="s">
         <v>100</v>
@@ -8656,7 +8656,7 @@
         <v>743</v>
       </c>
       <c r="E33" s="412" t="s">
-        <v>1576</v>
+        <v>1575</v>
       </c>
       <c r="F33" s="412" t="s">
         <v>100</v>
@@ -8776,7 +8776,7 @@
         <v>732</v>
       </c>
       <c r="E39" s="412" t="s">
-        <v>1580</v>
+        <v>1578</v>
       </c>
       <c r="F39" s="412" t="s">
         <v>1572</v>
@@ -8904,10 +8904,10 @@
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A46" s="413" t="s">
-        <v>1581</v>
+        <v>1579</v>
       </c>
       <c r="B46" s="412" t="s">
-        <v>1582</v>
+        <v>1580</v>
       </c>
       <c r="C46" s="414">
         <v>2</v>
@@ -8924,10 +8924,10 @@
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A47" s="413" t="s">
-        <v>1583</v>
+        <v>1581</v>
       </c>
       <c r="B47" s="412" t="s">
-        <v>1582</v>
+        <v>1580</v>
       </c>
       <c r="C47" s="414">
         <v>1</v>
@@ -9027,7 +9027,7 @@
         <v>1036</v>
       </c>
       <c r="B52" s="412" t="s">
-        <v>1584</v>
+        <v>1582</v>
       </c>
       <c r="C52" s="414">
         <v>2</v>
@@ -9039,7 +9039,7 @@
         <v>13</v>
       </c>
       <c r="F52" s="412" t="s">
-        <v>1574</v>
+        <v>1573</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.2">
@@ -9047,7 +9047,7 @@
         <v>1037</v>
       </c>
       <c r="B53" s="412" t="s">
-        <v>1585</v>
+        <v>1583</v>
       </c>
       <c r="C53" s="414">
         <v>1</v>
@@ -9067,7 +9067,7 @@
         <v>1550</v>
       </c>
       <c r="B54" s="412" t="s">
-        <v>1585</v>
+        <v>1583</v>
       </c>
       <c r="C54" s="414">
         <v>1</v>
@@ -9087,7 +9087,7 @@
         <v>1551</v>
       </c>
       <c r="B55" s="412" t="s">
-        <v>1585</v>
+        <v>1583</v>
       </c>
       <c r="C55" s="414">
         <v>1</v>
@@ -9104,10 +9104,10 @@
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A56" s="413" t="s">
-        <v>1586</v>
+        <v>1584</v>
       </c>
       <c r="B56" s="412" t="s">
-        <v>1585</v>
+        <v>1583</v>
       </c>
       <c r="C56" s="414">
         <v>1</v>
@@ -9124,10 +9124,10 @@
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A57" s="413" t="s">
-        <v>1587</v>
+        <v>1585</v>
       </c>
       <c r="B57" s="412" t="s">
-        <v>1585</v>
+        <v>1583</v>
       </c>
       <c r="C57" s="414">
         <v>1</v>
@@ -9144,10 +9144,10 @@
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A58" s="413" t="s">
-        <v>1588</v>
+        <v>1586</v>
       </c>
       <c r="B58" s="412" t="s">
-        <v>1585</v>
+        <v>1583</v>
       </c>
       <c r="C58" s="414">
         <v>1</v>
@@ -9164,10 +9164,10 @@
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A59" s="413" t="s">
-        <v>1589</v>
+        <v>1587</v>
       </c>
       <c r="B59" s="412" t="s">
-        <v>1585</v>
+        <v>1583</v>
       </c>
       <c r="C59" s="414">
         <v>1</v>
@@ -9179,15 +9179,15 @@
         <v>1483</v>
       </c>
       <c r="F59" s="412" t="s">
-        <v>1590</v>
+        <v>1588</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A60" s="413" t="s">
-        <v>1591</v>
+        <v>1589</v>
       </c>
       <c r="B60" s="412" t="s">
-        <v>1585</v>
+        <v>1583</v>
       </c>
       <c r="C60" s="414">
         <v>1</v>
@@ -9199,15 +9199,15 @@
         <v>1483</v>
       </c>
       <c r="F60" s="412" t="s">
-        <v>1592</v>
+        <v>1590</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A61" s="413" t="s">
-        <v>1593</v>
+        <v>1591</v>
       </c>
       <c r="B61" s="412" t="s">
-        <v>1585</v>
+        <v>1583</v>
       </c>
       <c r="C61" s="414">
         <v>1</v>
@@ -9219,15 +9219,15 @@
         <v>1483</v>
       </c>
       <c r="F61" s="412" t="s">
-        <v>1594</v>
+        <v>1592</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A62" s="413" t="s">
-        <v>1595</v>
+        <v>1593</v>
       </c>
       <c r="B62" s="412" t="s">
-        <v>1585</v>
+        <v>1583</v>
       </c>
       <c r="C62" s="414">
         <v>1</v>
@@ -9239,7 +9239,7 @@
         <v>1483</v>
       </c>
       <c r="F62" s="412" t="s">
-        <v>1596</v>
+        <v>1594</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.2">
@@ -9247,7 +9247,7 @@
         <v>1086</v>
       </c>
       <c r="B63" s="412" t="s">
-        <v>1597</v>
+        <v>1595</v>
       </c>
       <c r="C63" s="414">
         <v>3</v>
@@ -9287,7 +9287,7 @@
         <v>1090</v>
       </c>
       <c r="B65" s="412" t="s">
-        <v>1598</v>
+        <v>1596</v>
       </c>
       <c r="C65" s="414">
         <v>3</v>
@@ -9307,7 +9307,7 @@
         <v>1045</v>
       </c>
       <c r="B66" s="412" t="s">
-        <v>1599</v>
+        <v>1597</v>
       </c>
       <c r="C66" s="414">
         <v>3</v>
@@ -9344,10 +9344,10 @@
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A68" s="413" t="s">
-        <v>1600</v>
+        <v>1598</v>
       </c>
       <c r="B68" s="412" t="s">
-        <v>1601</v>
+        <v>1599</v>
       </c>
       <c r="C68" s="414">
         <v>3</v>
@@ -9356,7 +9356,7 @@
         <v>184</v>
       </c>
       <c r="E68" s="412" t="s">
-        <v>1602</v>
+        <v>1600</v>
       </c>
       <c r="F68" s="412" t="s">
         <v>1572</v>
@@ -20780,7 +20780,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
+  <sheetPr codeName="Sheet35">
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
   <dimension ref="A1:F29"/>
@@ -30494,7 +30494,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
+  <sheetPr codeName="Sheet40">
     <tabColor theme="9" tint="-0.249977111117893"/>
   </sheetPr>
   <dimension ref="A1:F61"/>

--- a/schedule/semester/schedule.xlsx
+++ b/schedule/semester/schedule.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\moberme\Documents\GitHub\cslaee.github.io\schedule\semester\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\~Electrical Engineering Files\cslaee.github.io\schedule\semester\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -86,7 +86,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9354" uniqueCount="1603">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9356" uniqueCount="1604">
   <si>
     <t>ELECTRICAL AND COMPUTER ENGINEERING</t>
   </si>
@@ -4801,100 +4801,103 @@
     <t>8/23/21-12/18/21</t>
   </si>
   <si>
+    <t>remote/S</t>
+  </si>
+  <si>
+    <t>Daneshgaran/Linker</t>
+  </si>
+  <si>
+    <t>remote/A</t>
+  </si>
+  <si>
+    <t>WF 1225-115PM</t>
+  </si>
+  <si>
+    <t>WF 1055AM-1210PM</t>
+  </si>
+  <si>
+    <t>Daneshgaran/Rad</t>
+  </si>
+  <si>
+    <t>EE3310</t>
+  </si>
+  <si>
+    <t>Energy Environment</t>
+  </si>
+  <si>
+    <t>MW 850-1005 PM</t>
+  </si>
+  <si>
+    <t>EE4600-01</t>
+  </si>
+  <si>
+    <t>Applied Control Sys Design and Simulation</t>
+  </si>
+  <si>
+    <t>EE4600-02</t>
+  </si>
+  <si>
+    <t>Senior Design I lecture</t>
+  </si>
+  <si>
+    <t>Senior Design I lab</t>
+  </si>
+  <si>
+    <t>EE4961-05</t>
+  </si>
+  <si>
+    <t>EE4961-06</t>
+  </si>
+  <si>
+    <t>EE4961-07</t>
+  </si>
+  <si>
+    <t>EE4961-08</t>
+  </si>
+  <si>
+    <t>ETA308</t>
+  </si>
+  <si>
+    <t>EE4961-09</t>
+  </si>
+  <si>
+    <t>ETC153</t>
+  </si>
+  <si>
+    <t>EE4961-10</t>
+  </si>
+  <si>
+    <t>ETC163</t>
+  </si>
+  <si>
+    <t>EE4961-11</t>
+  </si>
+  <si>
+    <t>ETC164</t>
+  </si>
+  <si>
+    <t>Advanced Communication II</t>
+  </si>
+  <si>
+    <t>Computer System Architecture</t>
+  </si>
+  <si>
+    <t>System Modeling &amp; Simulation</t>
+  </si>
+  <si>
+    <t>EE5830</t>
+  </si>
+  <si>
+    <t>Neural networks</t>
+  </si>
+  <si>
+    <t>T 725-840PM</t>
+  </si>
+  <si>
+    <t>R 725-840PM</t>
+  </si>
+  <si>
     <t>Posted 6/1/2021</t>
-  </si>
-  <si>
-    <t>remote/S</t>
-  </si>
-  <si>
-    <t>remote/A</t>
-  </si>
-  <si>
-    <t>WF 1225-115PM</t>
-  </si>
-  <si>
-    <t>WF 1055AM-1210PM</t>
-  </si>
-  <si>
-    <t>EE3310</t>
-  </si>
-  <si>
-    <t>Energy Environment</t>
-  </si>
-  <si>
-    <t>MW 850-1005 PM</t>
-  </si>
-  <si>
-    <t>EE4600-01</t>
-  </si>
-  <si>
-    <t>Applied Control Sys Design and Simulation</t>
-  </si>
-  <si>
-    <t>EE4600-02</t>
-  </si>
-  <si>
-    <t>Senior Design I lecture</t>
-  </si>
-  <si>
-    <t>Senior Design I lab</t>
-  </si>
-  <si>
-    <t>EE4961-05</t>
-  </si>
-  <si>
-    <t>EE4961-06</t>
-  </si>
-  <si>
-    <t>EE4961-07</t>
-  </si>
-  <si>
-    <t>EE4961-08</t>
-  </si>
-  <si>
-    <t>ETA308</t>
-  </si>
-  <si>
-    <t>EE4961-09</t>
-  </si>
-  <si>
-    <t>ETC153</t>
-  </si>
-  <si>
-    <t>EE4961-10</t>
-  </si>
-  <si>
-    <t>ETC163</t>
-  </si>
-  <si>
-    <t>EE4961-11</t>
-  </si>
-  <si>
-    <t>ETC164</t>
-  </si>
-  <si>
-    <t>Advanced Communication II</t>
-  </si>
-  <si>
-    <t>Computer System Architecture</t>
-  </si>
-  <si>
-    <t>System Modeling &amp; Simulation</t>
-  </si>
-  <si>
-    <t>EE5830</t>
-  </si>
-  <si>
-    <t>Neural networks</t>
-  </si>
-  <si>
-    <t>T 725-840PM</t>
-  </si>
-  <si>
-    <t>Daneshgaran/Linker</t>
-  </si>
-  <si>
-    <t>Daneshgaran/Rad</t>
   </si>
 </sst>
 </file>
@@ -8106,13 +8109,13 @@
   <sheetPr codeName="Sheet11">
     <tabColor theme="9" tint="-0.249977111117893"/>
   </sheetPr>
-  <dimension ref="A1:F68"/>
+  <dimension ref="A1:F69"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <pane xSplit="1" ySplit="12" topLeftCell="B13" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A13" sqref="A13"/>
-      <selection pane="bottomRight" activeCell="F7" sqref="F7"/>
+      <selection pane="bottomRight" activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
@@ -8128,7 +8131,7 @@
   <sheetData>
     <row r="1" spans="1:6" s="410" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="407" t="s">
-        <v>1571</v>
+        <v>1603</v>
       </c>
       <c r="B1" s="408"/>
       <c r="C1" s="409"/>
@@ -8259,7 +8262,7 @@
         <v>931</v>
       </c>
       <c r="F13" s="412" t="s">
-        <v>1572</v>
+        <v>1571</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
@@ -8273,7 +8276,7 @@
         <v>1</v>
       </c>
       <c r="D14" s="412" t="s">
-        <v>1601</v>
+        <v>1572</v>
       </c>
       <c r="E14" s="412" t="s">
         <v>1326</v>
@@ -8319,7 +8322,7 @@
         <v>1539</v>
       </c>
       <c r="F16" s="412" t="s">
-        <v>1572</v>
+        <v>1571</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
@@ -8339,7 +8342,7 @@
         <v>1540</v>
       </c>
       <c r="F17" s="412" t="s">
-        <v>1572</v>
+        <v>1571</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
@@ -8399,7 +8402,7 @@
         <v>1574</v>
       </c>
       <c r="F20" s="412" t="s">
-        <v>1572</v>
+        <v>1571</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.2">
@@ -8419,7 +8422,7 @@
         <v>1575</v>
       </c>
       <c r="F21" s="412" t="s">
-        <v>1572</v>
+        <v>1571</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.2">
@@ -8439,7 +8442,7 @@
         <v>1453</v>
       </c>
       <c r="F22" s="412" t="s">
-        <v>1572</v>
+        <v>1571</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.2">
@@ -8459,7 +8462,7 @@
         <v>926</v>
       </c>
       <c r="F23" s="412" t="s">
-        <v>1572</v>
+        <v>1571</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.2">
@@ -8479,7 +8482,7 @@
         <v>929</v>
       </c>
       <c r="F24" s="412" t="s">
-        <v>1572</v>
+        <v>1571</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.2">
@@ -8499,7 +8502,7 @@
         <v>914</v>
       </c>
       <c r="F25" s="412" t="s">
-        <v>1572</v>
+        <v>1571</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.2">
@@ -8519,7 +8522,7 @@
         <v>938</v>
       </c>
       <c r="F26" s="412" t="s">
-        <v>1572</v>
+        <v>1571</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.2">
@@ -8533,13 +8536,13 @@
         <v>1</v>
       </c>
       <c r="D27" s="412" t="s">
-        <v>1602</v>
+        <v>1576</v>
       </c>
       <c r="E27" s="412" t="s">
         <v>919</v>
       </c>
       <c r="F27" s="412" t="s">
-        <v>1572</v>
+        <v>1571</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.2">
@@ -8559,15 +8562,15 @@
         <v>931</v>
       </c>
       <c r="F28" s="412" t="s">
-        <v>1572</v>
+        <v>1571</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A29" s="413" t="s">
-        <v>1576</v>
+        <v>1577</v>
       </c>
       <c r="B29" s="412" t="s">
-        <v>1577</v>
+        <v>1578</v>
       </c>
       <c r="C29" s="414">
         <v>3</v>
@@ -8579,7 +8582,7 @@
         <v>947</v>
       </c>
       <c r="F29" s="412" t="s">
-        <v>1572</v>
+        <v>1571</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.2">
@@ -8599,7 +8602,7 @@
         <v>942</v>
       </c>
       <c r="F30" s="412" t="s">
-        <v>1572</v>
+        <v>1571</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.2">
@@ -8619,7 +8622,7 @@
         <v>938</v>
       </c>
       <c r="F31" s="412" t="s">
-        <v>1572</v>
+        <v>1571</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.2">
@@ -8679,7 +8682,7 @@
         <v>1034</v>
       </c>
       <c r="F34" s="412" t="s">
-        <v>1572</v>
+        <v>1571</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.2">
@@ -8699,7 +8702,7 @@
         <v>950</v>
       </c>
       <c r="F35" s="412" t="s">
-        <v>1572</v>
+        <v>1571</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.2">
@@ -8719,7 +8722,7 @@
         <v>1546</v>
       </c>
       <c r="F36" s="412" t="s">
-        <v>1572</v>
+        <v>1571</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.2">
@@ -8776,10 +8779,10 @@
         <v>732</v>
       </c>
       <c r="E39" s="412" t="s">
-        <v>1578</v>
+        <v>1579</v>
       </c>
       <c r="F39" s="412" t="s">
-        <v>1572</v>
+        <v>1571</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.2">
@@ -8799,7 +8802,7 @@
         <v>962</v>
       </c>
       <c r="F40" s="412" t="s">
-        <v>1572</v>
+        <v>1571</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.2">
@@ -8819,7 +8822,7 @@
         <v>950</v>
       </c>
       <c r="F41" s="412" t="s">
-        <v>1572</v>
+        <v>1571</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.2">
@@ -8839,7 +8842,7 @@
         <v>947</v>
       </c>
       <c r="F42" s="412" t="s">
-        <v>1572</v>
+        <v>1571</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.2">
@@ -8859,7 +8862,7 @@
         <v>914</v>
       </c>
       <c r="F43" s="412" t="s">
-        <v>1572</v>
+        <v>1571</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.2">
@@ -8879,7 +8882,7 @@
         <v>964</v>
       </c>
       <c r="F44" s="412" t="s">
-        <v>1572</v>
+        <v>1571</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.2">
@@ -8904,10 +8907,10 @@
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A46" s="413" t="s">
-        <v>1579</v>
+        <v>1580</v>
       </c>
       <c r="B46" s="412" t="s">
-        <v>1580</v>
+        <v>1581</v>
       </c>
       <c r="C46" s="414">
         <v>2</v>
@@ -8919,15 +8922,15 @@
         <v>1440</v>
       </c>
       <c r="F46" s="412" t="s">
-        <v>1572</v>
+        <v>1571</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A47" s="413" t="s">
+        <v>1582</v>
+      </c>
+      <c r="B47" s="412" t="s">
         <v>1581</v>
-      </c>
-      <c r="B47" s="412" t="s">
-        <v>1580</v>
       </c>
       <c r="C47" s="414">
         <v>1</v>
@@ -8939,7 +8942,7 @@
         <v>1504</v>
       </c>
       <c r="F47" s="412" t="s">
-        <v>1572</v>
+        <v>1571</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.2">
@@ -8959,7 +8962,7 @@
         <v>947</v>
       </c>
       <c r="F48" s="412" t="s">
-        <v>1572</v>
+        <v>1571</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.2">
@@ -8999,7 +9002,7 @@
         <v>946</v>
       </c>
       <c r="F50" s="412" t="s">
-        <v>1572</v>
+        <v>1571</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.2">
@@ -9027,7 +9030,7 @@
         <v>1036</v>
       </c>
       <c r="B52" s="412" t="s">
-        <v>1582</v>
+        <v>1583</v>
       </c>
       <c r="C52" s="414">
         <v>2</v>
@@ -9047,7 +9050,7 @@
         <v>1037</v>
       </c>
       <c r="B53" s="412" t="s">
-        <v>1583</v>
+        <v>1584</v>
       </c>
       <c r="C53" s="414">
         <v>1</v>
@@ -9067,7 +9070,7 @@
         <v>1550</v>
       </c>
       <c r="B54" s="412" t="s">
-        <v>1583</v>
+        <v>1584</v>
       </c>
       <c r="C54" s="414">
         <v>1</v>
@@ -9087,7 +9090,7 @@
         <v>1551</v>
       </c>
       <c r="B55" s="412" t="s">
-        <v>1583</v>
+        <v>1584</v>
       </c>
       <c r="C55" s="414">
         <v>1</v>
@@ -9104,10 +9107,10 @@
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A56" s="413" t="s">
+        <v>1585</v>
+      </c>
+      <c r="B56" s="412" t="s">
         <v>1584</v>
-      </c>
-      <c r="B56" s="412" t="s">
-        <v>1583</v>
       </c>
       <c r="C56" s="414">
         <v>1</v>
@@ -9124,10 +9127,10 @@
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A57" s="413" t="s">
-        <v>1585</v>
+        <v>1586</v>
       </c>
       <c r="B57" s="412" t="s">
-        <v>1583</v>
+        <v>1584</v>
       </c>
       <c r="C57" s="414">
         <v>1</v>
@@ -9144,10 +9147,10 @@
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A58" s="413" t="s">
-        <v>1586</v>
+        <v>1587</v>
       </c>
       <c r="B58" s="412" t="s">
-        <v>1583</v>
+        <v>1584</v>
       </c>
       <c r="C58" s="414">
         <v>1</v>
@@ -9164,10 +9167,10 @@
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A59" s="413" t="s">
-        <v>1587</v>
+        <v>1588</v>
       </c>
       <c r="B59" s="412" t="s">
-        <v>1583</v>
+        <v>1584</v>
       </c>
       <c r="C59" s="414">
         <v>1</v>
@@ -9179,15 +9182,15 @@
         <v>1483</v>
       </c>
       <c r="F59" s="412" t="s">
-        <v>1588</v>
+        <v>1589</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A60" s="413" t="s">
-        <v>1589</v>
+        <v>1590</v>
       </c>
       <c r="B60" s="412" t="s">
-        <v>1583</v>
+        <v>1584</v>
       </c>
       <c r="C60" s="414">
         <v>1</v>
@@ -9199,15 +9202,15 @@
         <v>1483</v>
       </c>
       <c r="F60" s="412" t="s">
-        <v>1590</v>
+        <v>1591</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A61" s="413" t="s">
-        <v>1591</v>
+        <v>1592</v>
       </c>
       <c r="B61" s="412" t="s">
-        <v>1583</v>
+        <v>1584</v>
       </c>
       <c r="C61" s="414">
         <v>1</v>
@@ -9219,15 +9222,15 @@
         <v>1483</v>
       </c>
       <c r="F61" s="412" t="s">
-        <v>1592</v>
+        <v>1593</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A62" s="413" t="s">
-        <v>1593</v>
+        <v>1594</v>
       </c>
       <c r="B62" s="412" t="s">
-        <v>1583</v>
+        <v>1584</v>
       </c>
       <c r="C62" s="414">
         <v>1</v>
@@ -9239,7 +9242,7 @@
         <v>1483</v>
       </c>
       <c r="F62" s="412" t="s">
-        <v>1594</v>
+        <v>1595</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.2">
@@ -9247,7 +9250,7 @@
         <v>1086</v>
       </c>
       <c r="B63" s="412" t="s">
-        <v>1595</v>
+        <v>1596</v>
       </c>
       <c r="C63" s="414">
         <v>3</v>
@@ -9279,7 +9282,7 @@
         <v>946</v>
       </c>
       <c r="F64" s="412" t="s">
-        <v>1572</v>
+        <v>1571</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.2">
@@ -9287,7 +9290,7 @@
         <v>1090</v>
       </c>
       <c r="B65" s="412" t="s">
-        <v>1596</v>
+        <v>1597</v>
       </c>
       <c r="C65" s="414">
         <v>3</v>
@@ -9299,7 +9302,7 @@
         <v>958</v>
       </c>
       <c r="F65" s="412" t="s">
-        <v>1572</v>
+        <v>1571</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.2">
@@ -9307,7 +9310,7 @@
         <v>1045</v>
       </c>
       <c r="B66" s="412" t="s">
-        <v>1597</v>
+        <v>1598</v>
       </c>
       <c r="C66" s="414">
         <v>3</v>
@@ -9339,15 +9342,15 @@
         <v>969</v>
       </c>
       <c r="F67" s="412" t="s">
-        <v>1572</v>
+        <v>1571</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A68" s="413" t="s">
-        <v>1598</v>
+        <v>1599</v>
       </c>
       <c r="B68" s="412" t="s">
-        <v>1599</v>
+        <v>1600</v>
       </c>
       <c r="C68" s="414">
         <v>3</v>
@@ -9356,10 +9359,18 @@
         <v>184</v>
       </c>
       <c r="E68" s="412" t="s">
-        <v>1600</v>
+        <v>1601</v>
       </c>
       <c r="F68" s="412" t="s">
-        <v>1572</v>
+        <v>1571</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="E69" s="412" t="s">
+        <v>1602</v>
+      </c>
+      <c r="F69" s="412" t="s">
+        <v>66</v>
       </c>
     </row>
   </sheetData>
